--- a/static/uploads/Resource_Billing_Splitup_11.04.2025.xlsx
+++ b/static/uploads/Resource_Billing_Splitup_11.04.2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opawa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBB1A01-D1BD-4A29-9D65-0A068A6DE474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA41193-E62B-468B-B2E8-EF8E6A41E8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="612" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="612" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM+PAM+Support" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2616,22 +2616,22 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2640,10 +2640,10 @@
     <xf numFmtId="15" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4296,7 +4296,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45758.699515972221" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D5FB8A23-4236-4B77-8586-FB41562C8FC9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45758.70135358796" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D5FB8A23-4236-4B77-8586-FB41562C8FC9}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Sum of Allocated Billed Days 2025]" caption="Sum of Allocated Billed Days 2025" numFmtId="0" hierarchy="15" level="32767"/>
@@ -4435,7 +4435,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45758.699516203706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{F7F6E1B0-C833-4B2F-BADB-26C87806876E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45758.701353703706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{F7F6E1B0-C833-4B2F-BADB-26C87806876E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:N1048576" sheet="Billed_2025"/>
   </cacheSource>
@@ -8652,16 +8652,16 @@
         <f t="shared" ref="N2:N33" si="1">I2-M2</f>
         <v>88.712500000000006</v>
       </c>
-      <c r="O2" s="147">
+      <c r="O2" s="144">
         <v>45344</v>
       </c>
-      <c r="P2" s="147">
+      <c r="P2" s="144">
         <v>45595</v>
       </c>
-      <c r="Q2" s="147" t="s">
+      <c r="Q2" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="146"/>
+      <c r="R2" s="143"/>
       <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8710,10 +8710,10 @@
         <f t="shared" si="1"/>
         <v>1.625</v>
       </c>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="146"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="143"/>
       <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8762,10 +8762,10 @@
         <f t="shared" si="1"/>
         <v>21.375</v>
       </c>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="146"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="143"/>
       <c r="S4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8814,10 +8814,10 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="146"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="143"/>
       <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8872,10 +8872,10 @@
       <c r="P6" s="150">
         <v>45503</v>
       </c>
-      <c r="Q6" s="147">
+      <c r="Q6" s="144">
         <v>45650</v>
       </c>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="143" t="s">
         <v>33</v>
       </c>
       <c r="S6" s="15"/>
@@ -8928,8 +8928,8 @@
       </c>
       <c r="O7" s="150"/>
       <c r="P7" s="150"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="146"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="143"/>
       <c r="S7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8980,8 +8980,8 @@
       </c>
       <c r="O8" s="150"/>
       <c r="P8" s="150"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="146"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="143"/>
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9032,8 +9032,8 @@
       </c>
       <c r="O9" s="150"/>
       <c r="P9" s="150"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="146"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="143"/>
       <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9082,16 +9082,16 @@
         <f t="shared" si="1"/>
         <v>-2.1625000000000014</v>
       </c>
-      <c r="O10" s="151">
+      <c r="O10" s="148">
         <v>45231</v>
       </c>
-      <c r="P10" s="151">
+      <c r="P10" s="148">
         <v>45404</v>
       </c>
-      <c r="Q10" s="151">
+      <c r="Q10" s="148">
         <v>45628</v>
       </c>
-      <c r="R10" s="146" t="s">
+      <c r="R10" s="143" t="s">
         <v>38</v>
       </c>
       <c r="S10" s="15"/>
@@ -9142,10 +9142,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="146"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="143"/>
       <c r="S11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9194,10 +9194,10 @@
         <f t="shared" si="1"/>
         <v>1.9624999999999986</v>
       </c>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="146"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="143"/>
       <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9246,10 +9246,10 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="146"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="143"/>
       <c r="S13" s="15"/>
     </row>
     <row r="14" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9298,16 +9298,16 @@
         <f t="shared" ref="N14:N19" si="6">I14-M14</f>
         <v>1</v>
       </c>
-      <c r="O14" s="147">
+      <c r="O14" s="144">
         <v>45286</v>
       </c>
-      <c r="P14" s="147">
+      <c r="P14" s="144">
         <v>45442</v>
       </c>
-      <c r="Q14" s="147" t="s">
+      <c r="Q14" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="146"/>
+      <c r="R14" s="143"/>
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9356,10 +9356,10 @@
         <f t="shared" si="6"/>
         <v>5.625</v>
       </c>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="146"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="143"/>
       <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9408,10 +9408,10 @@
         <f t="shared" si="6"/>
         <v>37.25</v>
       </c>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="146"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="143"/>
       <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9460,10 +9460,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="146"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="143"/>
       <c r="S17" s="15"/>
     </row>
     <row r="18" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9512,10 +9512,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="146"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="143"/>
       <c r="S18" s="15"/>
     </row>
     <row r="19" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9564,16 +9564,16 @@
         <f t="shared" si="6"/>
         <v>-5.875</v>
       </c>
-      <c r="O19" s="147">
+      <c r="O19" s="144">
         <v>45271</v>
       </c>
-      <c r="P19" s="147">
+      <c r="P19" s="144">
         <v>45545</v>
       </c>
       <c r="Q19" s="145">
         <v>45570</v>
       </c>
-      <c r="R19" s="146" t="s">
+      <c r="R19" s="143" t="s">
         <v>46</v>
       </c>
       <c r="S19" s="15"/>
@@ -9624,10 +9624,10 @@
         <f t="shared" si="1"/>
         <v>-7.1474999999999937</v>
       </c>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
       <c r="Q20" s="145"/>
-      <c r="R20" s="146"/>
+      <c r="R20" s="143"/>
       <c r="S20" s="15"/>
     </row>
     <row r="21" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9676,10 +9676,10 @@
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="144"/>
       <c r="Q21" s="145"/>
-      <c r="R21" s="146"/>
+      <c r="R21" s="143"/>
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9728,10 +9728,10 @@
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="144"/>
       <c r="Q22" s="145"/>
-      <c r="R22" s="146"/>
+      <c r="R22" s="143"/>
       <c r="S22" s="15" t="s">
         <v>50</v>
       </c>
@@ -9782,10 +9782,10 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="144"/>
       <c r="Q23" s="145"/>
-      <c r="R23" s="146"/>
+      <c r="R23" s="143"/>
       <c r="S23" s="15"/>
     </row>
     <row r="24" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9834,10 +9834,10 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="144"/>
       <c r="Q24" s="145"/>
-      <c r="R24" s="146"/>
+      <c r="R24" s="143"/>
       <c r="S24" s="15"/>
     </row>
     <row r="25" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9886,10 +9886,10 @@
         <f t="shared" si="1"/>
         <v>-6.625</v>
       </c>
-      <c r="O25" s="147"/>
-      <c r="P25" s="147"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="144"/>
       <c r="Q25" s="145"/>
-      <c r="R25" s="146"/>
+      <c r="R25" s="143"/>
       <c r="S25" s="15"/>
     </row>
     <row r="26" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9938,10 +9938,10 @@
         <f t="shared" si="1"/>
         <v>-8.7874999999999943</v>
       </c>
-      <c r="O26" s="147"/>
-      <c r="P26" s="147"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
       <c r="Q26" s="145"/>
-      <c r="R26" s="146"/>
+      <c r="R26" s="143"/>
       <c r="S26" s="15"/>
     </row>
     <row r="27" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9990,14 +9990,14 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O27" s="147">
+      <c r="O27" s="144">
         <v>45483</v>
       </c>
-      <c r="P27" s="147" t="s">
+      <c r="P27" s="144" t="s">
         <v>25</v>
       </c>
       <c r="Q27" s="145"/>
-      <c r="R27" s="146"/>
+      <c r="R27" s="143"/>
       <c r="S27" s="15"/>
     </row>
     <row r="28" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10046,10 +10046,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="144"/>
       <c r="Q28" s="145"/>
-      <c r="R28" s="146"/>
+      <c r="R28" s="143"/>
       <c r="S28" s="15"/>
     </row>
     <row r="29" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10098,14 +10098,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="O29" s="147">
+      <c r="O29" s="144">
         <v>45670</v>
       </c>
-      <c r="P29" s="147">
+      <c r="P29" s="144">
         <v>46814</v>
       </c>
       <c r="Q29" s="145"/>
-      <c r="R29" s="146"/>
+      <c r="R29" s="143"/>
       <c r="S29" s="15"/>
     </row>
     <row r="30" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10154,10 +10154,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
       <c r="Q30" s="145"/>
-      <c r="R30" s="146"/>
+      <c r="R30" s="143"/>
       <c r="S30" s="15"/>
     </row>
     <row r="31" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10206,10 +10206,10 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="144"/>
       <c r="Q31" s="145"/>
-      <c r="R31" s="146"/>
+      <c r="R31" s="143"/>
       <c r="S31" s="15"/>
     </row>
     <row r="32" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10258,10 +10258,10 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="O32" s="147"/>
-      <c r="P32" s="147"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144"/>
       <c r="Q32" s="145"/>
-      <c r="R32" s="146"/>
+      <c r="R32" s="143"/>
       <c r="S32" s="15"/>
     </row>
     <row r="33" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10310,10 +10310,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="144"/>
       <c r="Q33" s="145"/>
-      <c r="R33" s="146"/>
+      <c r="R33" s="143"/>
       <c r="S33" s="15"/>
     </row>
     <row r="34" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10362,10 +10362,10 @@
         <f t="shared" ref="N34:N65" si="8">I34-M34</f>
         <v>50</v>
       </c>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
+      <c r="O34" s="144"/>
+      <c r="P34" s="144"/>
       <c r="Q34" s="145"/>
-      <c r="R34" s="146"/>
+      <c r="R34" s="143"/>
       <c r="S34" s="15"/>
     </row>
     <row r="35" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10414,10 +10414,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="O35" s="147"/>
-      <c r="P35" s="147"/>
+      <c r="O35" s="144"/>
+      <c r="P35" s="144"/>
       <c r="Q35" s="145"/>
-      <c r="R35" s="146"/>
+      <c r="R35" s="143"/>
       <c r="S35" s="15"/>
     </row>
     <row r="36" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10466,10 +10466,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
       <c r="Q36" s="145"/>
-      <c r="R36" s="146"/>
+      <c r="R36" s="143"/>
       <c r="S36" s="15"/>
     </row>
     <row r="37" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10518,10 +10518,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="O37" s="147"/>
-      <c r="P37" s="147"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="144"/>
       <c r="Q37" s="145"/>
-      <c r="R37" s="146"/>
+      <c r="R37" s="143"/>
       <c r="S37" s="15"/>
     </row>
     <row r="38" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10570,10 +10570,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
+      <c r="O38" s="144"/>
+      <c r="P38" s="144"/>
       <c r="Q38" s="145"/>
-      <c r="R38" s="146"/>
+      <c r="R38" s="143"/>
       <c r="S38" s="15"/>
     </row>
     <row r="39" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10678,14 +10678,14 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O40" s="147">
+      <c r="O40" s="144">
         <v>45670</v>
       </c>
-      <c r="P40" s="147">
+      <c r="P40" s="144">
         <v>46157</v>
       </c>
       <c r="Q40" s="145"/>
-      <c r="R40" s="146"/>
+      <c r="R40" s="143"/>
       <c r="S40" s="15"/>
     </row>
     <row r="41" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10734,10 +10734,10 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="O41" s="147"/>
-      <c r="P41" s="147"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="144"/>
       <c r="Q41" s="145"/>
-      <c r="R41" s="146"/>
+      <c r="R41" s="143"/>
       <c r="S41" s="15"/>
     </row>
     <row r="42" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10786,10 +10786,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O42" s="147"/>
-      <c r="P42" s="147"/>
+      <c r="O42" s="144"/>
+      <c r="P42" s="144"/>
       <c r="Q42" s="145"/>
-      <c r="R42" s="146"/>
+      <c r="R42" s="143"/>
       <c r="S42" s="15"/>
     </row>
     <row r="43" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10838,10 +10838,10 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
+      <c r="O43" s="144"/>
+      <c r="P43" s="144"/>
       <c r="Q43" s="145"/>
-      <c r="R43" s="146"/>
+      <c r="R43" s="143"/>
       <c r="S43" s="15"/>
     </row>
     <row r="44" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10890,10 +10890,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O44" s="147"/>
-      <c r="P44" s="147"/>
+      <c r="O44" s="144"/>
+      <c r="P44" s="144"/>
       <c r="Q44" s="145"/>
-      <c r="R44" s="146"/>
+      <c r="R44" s="143"/>
       <c r="S44" s="15"/>
     </row>
     <row r="45" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10942,14 +10942,14 @@
         <f t="shared" si="8"/>
         <v>52.875</v>
       </c>
-      <c r="O45" s="147"/>
-      <c r="P45" s="147">
+      <c r="O45" s="144"/>
+      <c r="P45" s="144">
         <v>45212</v>
       </c>
-      <c r="Q45" s="147">
+      <c r="Q45" s="144">
         <v>45626</v>
       </c>
-      <c r="R45" s="146" t="s">
+      <c r="R45" s="143" t="s">
         <v>67</v>
       </c>
       <c r="S45" s="15"/>
@@ -11001,10 +11001,10 @@
         <f t="shared" si="8"/>
         <v>38.818750000000001</v>
       </c>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="146"/>
+      <c r="O46" s="144"/>
+      <c r="P46" s="144"/>
+      <c r="Q46" s="144"/>
+      <c r="R46" s="143"/>
       <c r="S46" s="15"/>
     </row>
     <row r="47" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11054,10 +11054,10 @@
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="O47" s="147"/>
-      <c r="P47" s="147"/>
-      <c r="Q47" s="147"/>
-      <c r="R47" s="146"/>
+      <c r="O47" s="144"/>
+      <c r="P47" s="144"/>
+      <c r="Q47" s="144"/>
+      <c r="R47" s="143"/>
       <c r="S47" s="15"/>
     </row>
     <row r="48" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11106,10 +11106,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O48" s="147"/>
-      <c r="P48" s="147"/>
-      <c r="Q48" s="147"/>
-      <c r="R48" s="146"/>
+      <c r="O48" s="144"/>
+      <c r="P48" s="144"/>
+      <c r="Q48" s="144"/>
+      <c r="R48" s="143"/>
       <c r="S48" s="15"/>
     </row>
     <row r="49" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11158,16 +11158,16 @@
         <f t="shared" si="8"/>
         <v>20.875</v>
       </c>
-      <c r="O49" s="152">
+      <c r="O49" s="146">
         <v>45339</v>
       </c>
-      <c r="P49" s="147">
+      <c r="P49" s="144">
         <v>45657</v>
       </c>
       <c r="Q49" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="R49" s="146"/>
+      <c r="R49" s="143"/>
       <c r="S49" s="15"/>
     </row>
     <row r="50" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11216,10 +11216,10 @@
         <f t="shared" si="8"/>
         <v>31.568750000000001</v>
       </c>
-      <c r="O50" s="152"/>
-      <c r="P50" s="147"/>
+      <c r="O50" s="146"/>
+      <c r="P50" s="144"/>
       <c r="Q50" s="145"/>
-      <c r="R50" s="146"/>
+      <c r="R50" s="143"/>
       <c r="S50" s="15"/>
     </row>
     <row r="51" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11268,10 +11268,10 @@
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="O51" s="152"/>
-      <c r="P51" s="147"/>
+      <c r="O51" s="146"/>
+      <c r="P51" s="144"/>
       <c r="Q51" s="145"/>
-      <c r="R51" s="146"/>
+      <c r="R51" s="143"/>
       <c r="S51" s="15"/>
     </row>
     <row r="52" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11320,16 +11320,16 @@
         <f t="shared" si="8"/>
         <v>8.1062500000000028</v>
       </c>
-      <c r="O52" s="147">
+      <c r="O52" s="144">
         <v>44578</v>
       </c>
-      <c r="P52" s="147">
+      <c r="P52" s="144">
         <v>44731</v>
       </c>
-      <c r="Q52" s="147">
+      <c r="Q52" s="144">
         <v>45610</v>
       </c>
-      <c r="R52" s="146" t="s">
+      <c r="R52" s="143" t="s">
         <v>74</v>
       </c>
       <c r="S52" s="15"/>
@@ -11380,10 +11380,10 @@
         <f t="shared" si="8"/>
         <v>-32.287499999999994</v>
       </c>
-      <c r="O53" s="147"/>
-      <c r="P53" s="147"/>
-      <c r="Q53" s="147"/>
-      <c r="R53" s="146"/>
+      <c r="O53" s="144"/>
+      <c r="P53" s="144"/>
+      <c r="Q53" s="144"/>
+      <c r="R53" s="143"/>
       <c r="S53" s="15"/>
     </row>
     <row r="54" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11432,10 +11432,10 @@
         <f t="shared" si="8"/>
         <v>-17.75</v>
       </c>
-      <c r="O54" s="147"/>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="146"/>
+      <c r="O54" s="144"/>
+      <c r="P54" s="144"/>
+      <c r="Q54" s="144"/>
+      <c r="R54" s="143"/>
       <c r="S54" s="15"/>
     </row>
     <row r="55" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11484,16 +11484,16 @@
         <f t="shared" si="8"/>
         <v>-73.375</v>
       </c>
-      <c r="O55" s="147">
+      <c r="O55" s="144">
         <v>45175</v>
       </c>
-      <c r="P55" s="147">
+      <c r="P55" s="144">
         <v>45523</v>
       </c>
-      <c r="Q55" s="147">
+      <c r="Q55" s="144">
         <v>45650</v>
       </c>
-      <c r="R55" s="146"/>
+      <c r="R55" s="143"/>
       <c r="S55" s="15"/>
     </row>
     <row r="56" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11543,10 +11543,10 @@
         <f t="shared" si="8"/>
         <v>16.212500000000006</v>
       </c>
-      <c r="O56" s="147"/>
-      <c r="P56" s="147"/>
-      <c r="Q56" s="147"/>
-      <c r="R56" s="146"/>
+      <c r="O56" s="144"/>
+      <c r="P56" s="144"/>
+      <c r="Q56" s="144"/>
+      <c r="R56" s="143"/>
       <c r="S56" s="15"/>
     </row>
     <row r="57" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11595,10 +11595,10 @@
         <f t="shared" si="8"/>
         <v>35.625</v>
       </c>
-      <c r="O57" s="147"/>
-      <c r="P57" s="147"/>
-      <c r="Q57" s="147"/>
-      <c r="R57" s="146"/>
+      <c r="O57" s="144"/>
+      <c r="P57" s="144"/>
+      <c r="Q57" s="144"/>
+      <c r="R57" s="143"/>
       <c r="S57" s="15"/>
     </row>
     <row r="58" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11647,10 +11647,10 @@
         <f t="shared" si="8"/>
         <v>-14.125</v>
       </c>
-      <c r="O58" s="147"/>
-      <c r="P58" s="147"/>
-      <c r="Q58" s="147"/>
-      <c r="R58" s="146"/>
+      <c r="O58" s="144"/>
+      <c r="P58" s="144"/>
+      <c r="Q58" s="144"/>
+      <c r="R58" s="143"/>
       <c r="S58" s="15"/>
     </row>
     <row r="59" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11700,10 +11700,10 @@
         <f t="shared" si="8"/>
         <v>-0.91249999999999964</v>
       </c>
-      <c r="O59" s="147"/>
-      <c r="P59" s="147"/>
-      <c r="Q59" s="147"/>
-      <c r="R59" s="146"/>
+      <c r="O59" s="144"/>
+      <c r="P59" s="144"/>
+      <c r="Q59" s="144"/>
+      <c r="R59" s="143"/>
       <c r="S59" s="15"/>
     </row>
     <row r="60" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11753,10 +11753,10 @@
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="O60" s="147"/>
-      <c r="P60" s="147"/>
-      <c r="Q60" s="147"/>
-      <c r="R60" s="146"/>
+      <c r="O60" s="144"/>
+      <c r="P60" s="144"/>
+      <c r="Q60" s="144"/>
+      <c r="R60" s="143"/>
       <c r="S60" s="15"/>
     </row>
     <row r="61" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11805,16 +11805,16 @@
         <f t="shared" si="8"/>
         <v>-17.537500000000001</v>
       </c>
-      <c r="O61" s="152">
+      <c r="O61" s="146">
         <v>45214</v>
       </c>
-      <c r="P61" s="147">
+      <c r="P61" s="144">
         <v>45348</v>
       </c>
-      <c r="Q61" s="147" t="s">
+      <c r="Q61" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="R61" s="146" t="s">
+      <c r="R61" s="143" t="s">
         <v>67</v>
       </c>
       <c r="S61" s="15"/>
@@ -11865,10 +11865,10 @@
         <f t="shared" si="8"/>
         <v>-12.537500000000001</v>
       </c>
-      <c r="O62" s="152"/>
-      <c r="P62" s="147"/>
-      <c r="Q62" s="147"/>
-      <c r="R62" s="146"/>
+      <c r="O62" s="146"/>
+      <c r="P62" s="144"/>
+      <c r="Q62" s="144"/>
+      <c r="R62" s="143"/>
       <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11917,10 +11917,10 @@
         <f t="shared" si="8"/>
         <v>3.75</v>
       </c>
-      <c r="O63" s="152"/>
-      <c r="P63" s="147"/>
-      <c r="Q63" s="147"/>
-      <c r="R63" s="146"/>
+      <c r="O63" s="146"/>
+      <c r="P63" s="144"/>
+      <c r="Q63" s="144"/>
+      <c r="R63" s="143"/>
       <c r="S63" s="15"/>
     </row>
     <row r="64" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11969,10 +11969,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O64" s="152"/>
-      <c r="P64" s="147"/>
-      <c r="Q64" s="147"/>
-      <c r="R64" s="146"/>
+      <c r="O64" s="146"/>
+      <c r="P64" s="144"/>
+      <c r="Q64" s="144"/>
+      <c r="R64" s="143"/>
       <c r="S64" s="15"/>
     </row>
     <row r="65" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12021,10 +12021,10 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="O65" s="152"/>
-      <c r="P65" s="147"/>
-      <c r="Q65" s="147"/>
-      <c r="R65" s="146"/>
+      <c r="O65" s="146"/>
+      <c r="P65" s="144"/>
+      <c r="Q65" s="144"/>
+      <c r="R65" s="143"/>
       <c r="S65" s="15"/>
     </row>
     <row r="66" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12073,12 +12073,12 @@
         <f t="shared" ref="N66:N97" si="11">I66-M66</f>
         <v>-1.875</v>
       </c>
-      <c r="O66" s="147" t="s">
+      <c r="O66" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="P66" s="147"/>
-      <c r="Q66" s="147"/>
-      <c r="R66" s="146" t="s">
+      <c r="P66" s="144"/>
+      <c r="Q66" s="144"/>
+      <c r="R66" s="143" t="s">
         <v>67</v>
       </c>
       <c r="S66" s="15"/>
@@ -12129,10 +12129,10 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="O67" s="147"/>
-      <c r="P67" s="147"/>
-      <c r="Q67" s="147"/>
-      <c r="R67" s="146"/>
+      <c r="O67" s="144"/>
+      <c r="P67" s="144"/>
+      <c r="Q67" s="144"/>
+      <c r="R67" s="143"/>
       <c r="S67" s="15"/>
     </row>
     <row r="68" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12181,10 +12181,10 @@
         <f t="shared" si="11"/>
         <v>-28.268750000000001</v>
       </c>
-      <c r="O68" s="147"/>
-      <c r="P68" s="147"/>
-      <c r="Q68" s="147"/>
-      <c r="R68" s="146"/>
+      <c r="O68" s="144"/>
+      <c r="P68" s="144"/>
+      <c r="Q68" s="144"/>
+      <c r="R68" s="143"/>
       <c r="S68" s="15"/>
     </row>
     <row r="69" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12233,12 +12233,12 @@
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="O69" s="147" t="s">
+      <c r="O69" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="P69" s="147"/>
-      <c r="Q69" s="147"/>
-      <c r="R69" s="146" t="s">
+      <c r="P69" s="144"/>
+      <c r="Q69" s="144"/>
+      <c r="R69" s="143" t="s">
         <v>67</v>
       </c>
       <c r="S69" s="15"/>
@@ -12289,10 +12289,10 @@
         <f t="shared" si="11"/>
         <v>-20.268750000000001</v>
       </c>
-      <c r="O70" s="147"/>
-      <c r="P70" s="147"/>
-      <c r="Q70" s="147"/>
-      <c r="R70" s="146"/>
+      <c r="O70" s="144"/>
+      <c r="P70" s="144"/>
+      <c r="Q70" s="144"/>
+      <c r="R70" s="143"/>
       <c r="S70" s="15"/>
     </row>
     <row r="71" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12341,10 +12341,10 @@
         <f t="shared" si="11"/>
         <v>-4.5375000000000014</v>
       </c>
-      <c r="O71" s="147"/>
-      <c r="P71" s="147"/>
-      <c r="Q71" s="147"/>
-      <c r="R71" s="146"/>
+      <c r="O71" s="144"/>
+      <c r="P71" s="144"/>
+      <c r="Q71" s="144"/>
+      <c r="R71" s="143"/>
       <c r="S71" s="15"/>
     </row>
     <row r="72" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12393,16 +12393,16 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O72" s="148">
+      <c r="O72" s="147">
         <v>45411</v>
       </c>
-      <c r="P72" s="148">
+      <c r="P72" s="147">
         <v>45692</v>
       </c>
-      <c r="Q72" s="148">
+      <c r="Q72" s="147">
         <v>45813</v>
       </c>
-      <c r="R72" s="146"/>
+      <c r="R72" s="143"/>
       <c r="S72" s="15"/>
     </row>
     <row r="73" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12451,10 +12451,10 @@
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="O73" s="148"/>
-      <c r="P73" s="148"/>
-      <c r="Q73" s="148"/>
-      <c r="R73" s="146"/>
+      <c r="O73" s="147"/>
+      <c r="P73" s="147"/>
+      <c r="Q73" s="147"/>
+      <c r="R73" s="143"/>
       <c r="S73" s="15"/>
     </row>
     <row r="74" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12503,10 +12503,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O74" s="148"/>
-      <c r="P74" s="148"/>
-      <c r="Q74" s="148"/>
-      <c r="R74" s="146"/>
+      <c r="O74" s="147"/>
+      <c r="P74" s="147"/>
+      <c r="Q74" s="147"/>
+      <c r="R74" s="143"/>
       <c r="S74" s="15"/>
     </row>
     <row r="75" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12555,10 +12555,10 @@
         <f t="shared" si="11"/>
         <v>-5.125</v>
       </c>
-      <c r="O75" s="148"/>
-      <c r="P75" s="148"/>
-      <c r="Q75" s="148"/>
-      <c r="R75" s="146"/>
+      <c r="O75" s="147"/>
+      <c r="P75" s="147"/>
+      <c r="Q75" s="147"/>
+      <c r="R75" s="143"/>
       <c r="S75" s="15"/>
     </row>
     <row r="76" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12607,14 +12607,14 @@
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
-      <c r="O76" s="148">
+      <c r="O76" s="147">
         <v>45476</v>
       </c>
-      <c r="P76" s="148">
+      <c r="P76" s="147">
         <v>45503</v>
       </c>
       <c r="Q76" s="145"/>
-      <c r="R76" s="146"/>
+      <c r="R76" s="143"/>
       <c r="S76" s="15"/>
     </row>
     <row r="77" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12663,10 +12663,10 @@
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="O77" s="148"/>
-      <c r="P77" s="148"/>
+      <c r="O77" s="147"/>
+      <c r="P77" s="147"/>
       <c r="Q77" s="145"/>
-      <c r="R77" s="146"/>
+      <c r="R77" s="143"/>
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12715,10 +12715,10 @@
         <f t="shared" si="11"/>
         <v>-0.25</v>
       </c>
-      <c r="O78" s="148"/>
-      <c r="P78" s="148"/>
+      <c r="O78" s="147"/>
+      <c r="P78" s="147"/>
       <c r="Q78" s="145"/>
-      <c r="R78" s="146"/>
+      <c r="R78" s="143"/>
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12774,7 +12774,7 @@
         <v>45674</v>
       </c>
       <c r="Q79" s="145"/>
-      <c r="R79" s="146"/>
+      <c r="R79" s="143"/>
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12826,7 +12826,7 @@
       <c r="O80" s="145"/>
       <c r="P80" s="145"/>
       <c r="Q80" s="145"/>
-      <c r="R80" s="146"/>
+      <c r="R80" s="143"/>
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12878,7 +12878,7 @@
       <c r="O81" s="145"/>
       <c r="P81" s="145"/>
       <c r="Q81" s="145"/>
-      <c r="R81" s="146"/>
+      <c r="R81" s="143"/>
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12930,7 +12930,7 @@
       <c r="O82" s="145"/>
       <c r="P82" s="145"/>
       <c r="Q82" s="145"/>
-      <c r="R82" s="146"/>
+      <c r="R82" s="143"/>
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12982,7 +12982,7 @@
       <c r="O83" s="145"/>
       <c r="P83" s="145"/>
       <c r="Q83" s="145"/>
-      <c r="R83" s="146"/>
+      <c r="R83" s="143"/>
       <c r="S83" s="15"/>
     </row>
     <row r="84" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13034,7 +13034,7 @@
       <c r="O84" s="145"/>
       <c r="P84" s="145"/>
       <c r="Q84" s="145"/>
-      <c r="R84" s="146"/>
+      <c r="R84" s="143"/>
       <c r="S84" s="15"/>
     </row>
     <row r="85" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13086,7 +13086,7 @@
       <c r="O85" s="145"/>
       <c r="P85" s="145"/>
       <c r="Q85" s="145"/>
-      <c r="R85" s="146"/>
+      <c r="R85" s="143"/>
       <c r="S85" s="15"/>
     </row>
     <row r="86" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13137,7 +13137,7 @@
       <c r="O86" s="145"/>
       <c r="P86" s="145"/>
       <c r="Q86" s="145"/>
-      <c r="R86" s="146"/>
+      <c r="R86" s="143"/>
       <c r="S86" s="15" t="s">
         <v>88</v>
       </c>
@@ -13191,7 +13191,7 @@
       <c r="O87" s="145"/>
       <c r="P87" s="145"/>
       <c r="Q87" s="145"/>
-      <c r="R87" s="146"/>
+      <c r="R87" s="143"/>
       <c r="S87" s="15"/>
     </row>
     <row r="88" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13243,7 +13243,7 @@
       <c r="O88" s="145"/>
       <c r="P88" s="145"/>
       <c r="Q88" s="145"/>
-      <c r="R88" s="146"/>
+      <c r="R88" s="143"/>
       <c r="S88" s="15"/>
     </row>
     <row r="89" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13295,7 +13295,7 @@
       <c r="O89" s="145"/>
       <c r="P89" s="145"/>
       <c r="Q89" s="145"/>
-      <c r="R89" s="146"/>
+      <c r="R89" s="143"/>
       <c r="S89" s="15"/>
     </row>
     <row r="90" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13347,7 +13347,7 @@
       <c r="O90" s="145"/>
       <c r="P90" s="145"/>
       <c r="Q90" s="145"/>
-      <c r="R90" s="146"/>
+      <c r="R90" s="143"/>
       <c r="S90" s="15"/>
     </row>
     <row r="91" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13403,7 +13403,7 @@
         <v>45674</v>
       </c>
       <c r="Q91" s="145"/>
-      <c r="R91" s="146"/>
+      <c r="R91" s="143"/>
       <c r="S91" s="15"/>
     </row>
     <row r="92" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13454,7 +13454,7 @@
       <c r="O92" s="145"/>
       <c r="P92" s="145"/>
       <c r="Q92" s="145"/>
-      <c r="R92" s="146"/>
+      <c r="R92" s="143"/>
       <c r="S92" s="15"/>
     </row>
     <row r="93" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13506,7 +13506,7 @@
       <c r="O93" s="145"/>
       <c r="P93" s="145"/>
       <c r="Q93" s="145"/>
-      <c r="R93" s="146"/>
+      <c r="R93" s="143"/>
       <c r="S93" s="15"/>
     </row>
     <row r="94" spans="1:19" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13563,7 +13563,7 @@
         <v>45684</v>
       </c>
       <c r="Q94" s="145"/>
-      <c r="R94" s="146" t="s">
+      <c r="R94" s="143" t="s">
         <v>94</v>
       </c>
       <c r="S94" s="16"/>
@@ -13617,7 +13617,7 @@
       <c r="O95" s="145"/>
       <c r="P95" s="145"/>
       <c r="Q95" s="145"/>
-      <c r="R95" s="146"/>
+      <c r="R95" s="143"/>
       <c r="S95" s="16"/>
     </row>
     <row r="96" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13670,7 +13670,7 @@
       <c r="O96" s="145"/>
       <c r="P96" s="145"/>
       <c r="Q96" s="145"/>
-      <c r="R96" s="146"/>
+      <c r="R96" s="143"/>
       <c r="S96" s="16"/>
     </row>
     <row r="97" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="P97" s="145"/>
       <c r="Q97" s="145"/>
-      <c r="R97" s="146"/>
+      <c r="R97" s="143"/>
       <c r="S97" s="16"/>
     </row>
     <row r="98" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13774,7 +13774,7 @@
       <c r="O98" s="145"/>
       <c r="P98" s="145"/>
       <c r="Q98" s="145"/>
-      <c r="R98" s="146"/>
+      <c r="R98" s="143"/>
       <c r="S98" s="16"/>
     </row>
     <row r="99" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13825,7 +13825,7 @@
       <c r="O99" s="145"/>
       <c r="P99" s="145"/>
       <c r="Q99" s="145"/>
-      <c r="R99" s="146"/>
+      <c r="R99" s="143"/>
       <c r="S99" s="16"/>
     </row>
     <row r="100" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13876,7 +13876,7 @@
       <c r="O100" s="145"/>
       <c r="P100" s="145"/>
       <c r="Q100" s="145"/>
-      <c r="R100" s="146"/>
+      <c r="R100" s="143"/>
       <c r="S100" s="15"/>
     </row>
     <row r="101" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13931,7 +13931,7 @@
       <c r="Q101" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="R101" s="146"/>
+      <c r="R101" s="143"/>
       <c r="S101" s="15"/>
     </row>
     <row r="102" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13982,7 +13982,7 @@
       <c r="O102" s="145"/>
       <c r="P102" s="145"/>
       <c r="Q102" s="145"/>
-      <c r="R102" s="146"/>
+      <c r="R102" s="143"/>
       <c r="S102" s="15"/>
     </row>
     <row r="103" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14033,7 +14033,7 @@
       <c r="O103" s="145"/>
       <c r="P103" s="145"/>
       <c r="Q103" s="145"/>
-      <c r="R103" s="146"/>
+      <c r="R103" s="143"/>
       <c r="S103" s="15"/>
     </row>
     <row r="104" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14089,7 +14089,7 @@
         <v>45667</v>
       </c>
       <c r="Q104" s="145"/>
-      <c r="R104" s="146" t="s">
+      <c r="R104" s="143" t="s">
         <v>100</v>
       </c>
       <c r="S104" s="15"/>
@@ -14143,7 +14143,7 @@
       <c r="O105" s="145"/>
       <c r="P105" s="145"/>
       <c r="Q105" s="145"/>
-      <c r="R105" s="146"/>
+      <c r="R105" s="143"/>
       <c r="S105" s="15"/>
     </row>
     <row r="106" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14195,7 +14195,7 @@
       <c r="O106" s="145"/>
       <c r="P106" s="145"/>
       <c r="Q106" s="145"/>
-      <c r="R106" s="146"/>
+      <c r="R106" s="143"/>
       <c r="S106" s="15"/>
     </row>
     <row r="107" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14247,7 +14247,7 @@
       <c r="O107" s="145"/>
       <c r="P107" s="145"/>
       <c r="Q107" s="145"/>
-      <c r="R107" s="146"/>
+      <c r="R107" s="143"/>
       <c r="S107" s="15"/>
     </row>
     <row r="108" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14303,7 +14303,7 @@
         <v>45597</v>
       </c>
       <c r="Q108" s="145"/>
-      <c r="R108" s="146" t="s">
+      <c r="R108" s="143" t="s">
         <v>107</v>
       </c>
       <c r="S108" s="15"/>
@@ -14357,7 +14357,7 @@
       <c r="O109" s="145"/>
       <c r="P109" s="145"/>
       <c r="Q109" s="145"/>
-      <c r="R109" s="146"/>
+      <c r="R109" s="143"/>
       <c r="S109" s="15"/>
     </row>
     <row r="110" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14406,14 +14406,14 @@
         <f t="shared" si="14"/>
         <v>17</v>
       </c>
-      <c r="O110" s="148">
+      <c r="O110" s="147">
         <v>45017</v>
       </c>
-      <c r="P110" s="148">
+      <c r="P110" s="147">
         <v>45137</v>
       </c>
       <c r="Q110" s="145"/>
-      <c r="R110" s="146" t="s">
+      <c r="R110" s="143" t="s">
         <v>110</v>
       </c>
       <c r="S110" s="15"/>
@@ -14464,10 +14464,10 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="O111" s="148"/>
-      <c r="P111" s="148"/>
+      <c r="O111" s="147"/>
+      <c r="P111" s="147"/>
       <c r="Q111" s="145"/>
-      <c r="R111" s="146"/>
+      <c r="R111" s="143"/>
       <c r="S111" s="15"/>
     </row>
     <row r="112" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14516,10 +14516,10 @@
         <f t="shared" si="14"/>
         <v>30.875</v>
       </c>
-      <c r="O112" s="148"/>
-      <c r="P112" s="148"/>
+      <c r="O112" s="147"/>
+      <c r="P112" s="147"/>
       <c r="Q112" s="145"/>
-      <c r="R112" s="146"/>
+      <c r="R112" s="143"/>
       <c r="S112" s="15"/>
     </row>
     <row r="113" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14577,7 +14577,7 @@
       <c r="Q113" s="145">
         <v>45656</v>
       </c>
-      <c r="R113" s="146"/>
+      <c r="R113" s="143"/>
       <c r="S113" s="15"/>
     </row>
     <row r="114" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14629,7 +14629,7 @@
       <c r="O114" s="149"/>
       <c r="P114" s="149"/>
       <c r="Q114" s="145"/>
-      <c r="R114" s="146"/>
+      <c r="R114" s="143"/>
       <c r="S114" s="15"/>
     </row>
     <row r="115" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14681,7 +14681,7 @@
       <c r="O115" s="149"/>
       <c r="P115" s="149"/>
       <c r="Q115" s="145"/>
-      <c r="R115" s="146"/>
+      <c r="R115" s="143"/>
       <c r="S115" s="15"/>
     </row>
     <row r="116" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17270,10 +17270,10 @@
       <c r="K172" s="16">
         <v>73</v>
       </c>
-      <c r="O172" s="143">
+      <c r="O172" s="151">
         <v>45486</v>
       </c>
-      <c r="P172" s="143">
+      <c r="P172" s="151">
         <v>45868</v>
       </c>
       <c r="R172" s="2"/>
@@ -17313,8 +17313,8 @@
       <c r="K173" s="16">
         <v>12</v>
       </c>
-      <c r="O173" s="144"/>
-      <c r="P173" s="144"/>
+      <c r="O173" s="152"/>
+      <c r="P173" s="152"/>
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
     </row>
@@ -18432,6 +18432,99 @@
   </sheetData>
   <autoFilter ref="A1:W198" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="117">
+    <mergeCell ref="O172:O173"/>
+    <mergeCell ref="P172:P173"/>
+    <mergeCell ref="Q184:Q185"/>
+    <mergeCell ref="Q186:Q187"/>
+    <mergeCell ref="Q188:Q189"/>
+    <mergeCell ref="Q191:Q192"/>
+    <mergeCell ref="Q193:Q194"/>
+    <mergeCell ref="O197:O198"/>
+    <mergeCell ref="P197:P198"/>
+    <mergeCell ref="Q197:Q198"/>
+    <mergeCell ref="R113:R115"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="O116:O117"/>
+    <mergeCell ref="P116:P117"/>
+    <mergeCell ref="O91:O93"/>
+    <mergeCell ref="P91:P93"/>
+    <mergeCell ref="Q91:Q93"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="P79:P90"/>
+    <mergeCell ref="O66:O68"/>
+    <mergeCell ref="P66:P68"/>
+    <mergeCell ref="O76:O78"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="O72:O75"/>
+    <mergeCell ref="R79:R90"/>
+    <mergeCell ref="Q76:Q78"/>
+    <mergeCell ref="R76:R78"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="O110:O112"/>
+    <mergeCell ref="P110:P112"/>
+    <mergeCell ref="O108:O109"/>
+    <mergeCell ref="P108:P109"/>
+    <mergeCell ref="Q110:Q112"/>
+    <mergeCell ref="O113:O115"/>
+    <mergeCell ref="P113:P115"/>
+    <mergeCell ref="Q113:Q115"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="O101:O103"/>
+    <mergeCell ref="Q94:Q96"/>
+    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q101:Q103"/>
+    <mergeCell ref="Q69:Q71"/>
+    <mergeCell ref="Q66:Q68"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="R19:R26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="Q55:Q60"/>
+    <mergeCell ref="O19:O26"/>
+    <mergeCell ref="P19:P26"/>
+    <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="R55:R60"/>
+    <mergeCell ref="Q19:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="P45:P48"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="P52:P54"/>
+    <mergeCell ref="R45:R48"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="O55:O60"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="P55:P60"/>
+    <mergeCell ref="R29:R38"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="R101:R103"/>
+    <mergeCell ref="R94:R96"/>
+    <mergeCell ref="R104:R107"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="Q79:Q90"/>
+    <mergeCell ref="R61:R65"/>
+    <mergeCell ref="R66:R68"/>
+    <mergeCell ref="R69:R71"/>
+    <mergeCell ref="R72:R75"/>
     <mergeCell ref="R40:R44"/>
     <mergeCell ref="O29:O38"/>
     <mergeCell ref="P29:P38"/>
@@ -18456,99 +18549,6 @@
     <mergeCell ref="R108:R109"/>
     <mergeCell ref="Q61:Q65"/>
     <mergeCell ref="Q72:Q75"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="R101:R103"/>
-    <mergeCell ref="R94:R96"/>
-    <mergeCell ref="R104:R107"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="Q79:Q90"/>
-    <mergeCell ref="R61:R65"/>
-    <mergeCell ref="R66:R68"/>
-    <mergeCell ref="R69:R71"/>
-    <mergeCell ref="R72:R75"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="Q55:Q60"/>
-    <mergeCell ref="O19:O26"/>
-    <mergeCell ref="P19:P26"/>
-    <mergeCell ref="Q45:Q48"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="R55:R60"/>
-    <mergeCell ref="Q19:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="P45:P48"/>
-    <mergeCell ref="Q52:Q54"/>
-    <mergeCell ref="O52:O54"/>
-    <mergeCell ref="P52:P54"/>
-    <mergeCell ref="R45:R48"/>
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="O55:O60"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="P55:P60"/>
-    <mergeCell ref="R29:R38"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="P14:P18"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="R19:R26"/>
-    <mergeCell ref="O113:O115"/>
-    <mergeCell ref="P113:P115"/>
-    <mergeCell ref="Q113:Q115"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="O101:O103"/>
-    <mergeCell ref="Q94:Q96"/>
-    <mergeCell ref="Q104:Q107"/>
-    <mergeCell ref="Q101:Q103"/>
-    <mergeCell ref="Q69:Q71"/>
-    <mergeCell ref="Q66:Q68"/>
-    <mergeCell ref="R113:R115"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="O116:O117"/>
-    <mergeCell ref="P116:P117"/>
-    <mergeCell ref="O91:O93"/>
-    <mergeCell ref="P91:P93"/>
-    <mergeCell ref="Q91:Q93"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="P79:P90"/>
-    <mergeCell ref="O66:O68"/>
-    <mergeCell ref="P66:P68"/>
-    <mergeCell ref="O76:O78"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="R79:R90"/>
-    <mergeCell ref="Q76:Q78"/>
-    <mergeCell ref="R76:R78"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="O110:O112"/>
-    <mergeCell ref="P110:P112"/>
-    <mergeCell ref="O108:O109"/>
-    <mergeCell ref="P108:P109"/>
-    <mergeCell ref="Q110:Q112"/>
-    <mergeCell ref="O172:O173"/>
-    <mergeCell ref="P172:P173"/>
-    <mergeCell ref="Q184:Q185"/>
-    <mergeCell ref="Q186:Q187"/>
-    <mergeCell ref="Q188:Q189"/>
-    <mergeCell ref="Q191:Q192"/>
-    <mergeCell ref="Q193:Q194"/>
-    <mergeCell ref="O197:O198"/>
-    <mergeCell ref="P197:P198"/>
-    <mergeCell ref="Q197:Q198"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18561,7 +18561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{457BBD85-F12E-4F42-ACCC-493F8C62882A}">
   <dimension ref="B2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -20004,9 +20004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D21D47-B6BB-4439-924B-5A822C3D27B8}">
   <dimension ref="A1:V157"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -20428,7 +20428,7 @@
         <v>25</v>
       </c>
       <c r="T6" s="22"/>
-      <c r="U6" s="146"/>
+      <c r="U6" s="143"/>
       <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20490,7 +20490,7 @@
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="146"/>
+      <c r="U7" s="143"/>
       <c r="V7" s="16"/>
     </row>
     <row r="8" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20554,7 +20554,7 @@
         <v>25</v>
       </c>
       <c r="T8" s="22"/>
-      <c r="U8" s="146"/>
+      <c r="U8" s="143"/>
       <c r="V8" s="16"/>
     </row>
     <row r="9" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20618,7 +20618,7 @@
         <v>46814</v>
       </c>
       <c r="T9" s="22"/>
-      <c r="U9" s="146"/>
+      <c r="U9" s="143"/>
       <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20681,7 +20681,7 @@
         <v>46814</v>
       </c>
       <c r="T10" s="22"/>
-      <c r="U10" s="146"/>
+      <c r="U10" s="143"/>
       <c r="V10" s="16"/>
     </row>
     <row r="11" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20745,7 +20745,7 @@
         <v>46814</v>
       </c>
       <c r="T11" s="22"/>
-      <c r="U11" s="146"/>
+      <c r="U11" s="143"/>
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20809,7 +20809,7 @@
         <v>46814</v>
       </c>
       <c r="T12" s="22"/>
-      <c r="U12" s="146"/>
+      <c r="U12" s="143"/>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20873,7 +20873,7 @@
         <v>46814</v>
       </c>
       <c r="T13" s="22"/>
-      <c r="U13" s="146"/>
+      <c r="U13" s="143"/>
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20938,7 +20938,7 @@
         <v>46814</v>
       </c>
       <c r="T14" s="22"/>
-      <c r="U14" s="146"/>
+      <c r="U14" s="143"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21002,7 +21002,7 @@
         <v>46814</v>
       </c>
       <c r="T15" s="22"/>
-      <c r="U15" s="146"/>
+      <c r="U15" s="143"/>
       <c r="V15" s="16" t="s">
         <v>218</v>
       </c>
@@ -21055,7 +21055,7 @@
         <v>46814</v>
       </c>
       <c r="T16" s="22"/>
-      <c r="U16" s="146"/>
+      <c r="U16" s="143"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21119,7 +21119,7 @@
         <v>46814</v>
       </c>
       <c r="T17" s="22"/>
-      <c r="U17" s="146"/>
+      <c r="U17" s="143"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21183,7 +21183,7 @@
         <v>46814</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="146"/>
+      <c r="U18" s="143"/>
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21311,7 +21311,7 @@
         <v>46814</v>
       </c>
       <c r="T20" s="22"/>
-      <c r="U20" s="146"/>
+      <c r="U20" s="143"/>
       <c r="V20" s="16"/>
     </row>
     <row r="21" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21375,7 +21375,7 @@
         <v>46814</v>
       </c>
       <c r="T21" s="22"/>
-      <c r="U21" s="146"/>
+      <c r="U21" s="143"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21439,7 +21439,7 @@
         <v>46814</v>
       </c>
       <c r="T22" s="22"/>
-      <c r="U22" s="146"/>
+      <c r="U22" s="143"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21503,7 +21503,7 @@
         <v>46814</v>
       </c>
       <c r="T23" s="22"/>
-      <c r="U23" s="146"/>
+      <c r="U23" s="143"/>
       <c r="V23" s="16"/>
     </row>
     <row r="24" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21567,7 +21567,7 @@
         <v>46814</v>
       </c>
       <c r="T24" s="22"/>
-      <c r="U24" s="146"/>
+      <c r="U24" s="143"/>
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21631,7 +21631,7 @@
         <v>45626</v>
       </c>
       <c r="T25" s="20"/>
-      <c r="U25" s="146"/>
+      <c r="U25" s="143"/>
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21695,7 +21695,7 @@
         <v>45626</v>
       </c>
       <c r="T26" s="20"/>
-      <c r="U26" s="146"/>
+      <c r="U26" s="143"/>
       <c r="V26" s="16"/>
     </row>
     <row r="27" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21761,7 +21761,7 @@
       <c r="T27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="U27" s="146"/>
+      <c r="U27" s="143"/>
       <c r="V27" s="16"/>
     </row>
     <row r="28" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21825,7 +21825,7 @@
         <v>45657</v>
       </c>
       <c r="T28" s="22"/>
-      <c r="U28" s="146"/>
+      <c r="U28" s="143"/>
       <c r="V28" s="16"/>
     </row>
     <row r="29" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21891,7 +21891,7 @@
       <c r="T29" s="20">
         <v>45650</v>
       </c>
-      <c r="U29" s="146"/>
+      <c r="U29" s="143"/>
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21955,7 +21955,7 @@
         <v>45523</v>
       </c>
       <c r="T30" s="20"/>
-      <c r="U30" s="146"/>
+      <c r="U30" s="143"/>
       <c r="V30" s="16"/>
     </row>
     <row r="31" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22019,7 +22019,7 @@
         <v>45523</v>
       </c>
       <c r="T31" s="20"/>
-      <c r="U31" s="146"/>
+      <c r="U31" s="143"/>
       <c r="V31" s="16"/>
     </row>
     <row r="32" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22085,7 +22085,7 @@
         <v>45523</v>
       </c>
       <c r="T32" s="20"/>
-      <c r="U32" s="146"/>
+      <c r="U32" s="143"/>
       <c r="V32" s="16"/>
     </row>
     <row r="33" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22153,7 +22153,7 @@
         <v>45523</v>
       </c>
       <c r="T33" s="20"/>
-      <c r="U33" s="146"/>
+      <c r="U33" s="143"/>
       <c r="V33" s="16"/>
     </row>
     <row r="34" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22222,7 +22222,7 @@
       <c r="T34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U34" s="146" t="s">
+      <c r="U34" s="143" t="s">
         <v>67</v>
       </c>
       <c r="V34" s="16"/>
@@ -22290,7 +22290,7 @@
         <v>45348</v>
       </c>
       <c r="T35" s="20"/>
-      <c r="U35" s="146"/>
+      <c r="U35" s="143"/>
       <c r="V35" s="16"/>
     </row>
     <row r="36" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22358,7 +22358,7 @@
         <v>45348</v>
       </c>
       <c r="T36" s="20"/>
-      <c r="U36" s="146"/>
+      <c r="U36" s="143"/>
       <c r="V36" s="16"/>
     </row>
     <row r="37" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22422,7 +22422,7 @@
         <v>45348</v>
       </c>
       <c r="T37" s="20"/>
-      <c r="U37" s="146"/>
+      <c r="U37" s="143"/>
       <c r="V37" s="16"/>
     </row>
     <row r="38" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22486,7 +22486,7 @@
         <v>45348</v>
       </c>
       <c r="T38" s="20"/>
-      <c r="U38" s="146"/>
+      <c r="U38" s="143"/>
       <c r="V38" s="16"/>
     </row>
     <row r="39" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22550,7 +22550,7 @@
         <v>45737</v>
       </c>
       <c r="T39" s="20"/>
-      <c r="U39" s="146"/>
+      <c r="U39" s="143"/>
       <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22614,7 +22614,7 @@
         <v>45737</v>
       </c>
       <c r="T40" s="20"/>
-      <c r="U40" s="146"/>
+      <c r="U40" s="143"/>
       <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22743,7 +22743,7 @@
       <c r="T42" s="20">
         <v>45813</v>
       </c>
-      <c r="U42" s="146"/>
+      <c r="U42" s="143"/>
       <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22802,7 +22802,7 @@
         <v>45692</v>
       </c>
       <c r="T43" s="56"/>
-      <c r="U43" s="146"/>
+      <c r="U43" s="143"/>
       <c r="V43" s="16"/>
     </row>
     <row r="44" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22869,7 +22869,7 @@
         <v>45692</v>
       </c>
       <c r="T44" s="56"/>
-      <c r="U44" s="146"/>
+      <c r="U44" s="143"/>
       <c r="V44" s="16"/>
     </row>
     <row r="45" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -22938,7 +22938,7 @@
       <c r="T45" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="U45" s="146" t="s">
+      <c r="U45" s="143" t="s">
         <v>219</v>
       </c>
       <c r="V45" s="16"/>
@@ -23004,7 +23004,7 @@
         <v>45674</v>
       </c>
       <c r="T46" s="22"/>
-      <c r="U46" s="146"/>
+      <c r="U46" s="143"/>
       <c r="V46" s="16"/>
     </row>
     <row r="47" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23068,7 +23068,7 @@
         <v>45674</v>
       </c>
       <c r="T47" s="22"/>
-      <c r="U47" s="146"/>
+      <c r="U47" s="143"/>
       <c r="V47" s="16"/>
     </row>
     <row r="48" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23132,7 +23132,7 @@
         <v>45674</v>
       </c>
       <c r="T48" s="22"/>
-      <c r="U48" s="146"/>
+      <c r="U48" s="143"/>
       <c r="V48" s="16"/>
     </row>
     <row r="49" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23195,7 +23195,7 @@
         <v>45674</v>
       </c>
       <c r="T49" s="22"/>
-      <c r="U49" s="146"/>
+      <c r="U49" s="143"/>
       <c r="V49" s="16"/>
     </row>
     <row r="50" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23258,7 +23258,7 @@
         <v>45674</v>
       </c>
       <c r="T50" s="22"/>
-      <c r="U50" s="146"/>
+      <c r="U50" s="143"/>
       <c r="V50" s="16"/>
     </row>
     <row r="51" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23321,7 +23321,7 @@
         <v>45674</v>
       </c>
       <c r="T51" s="22"/>
-      <c r="U51" s="146"/>
+      <c r="U51" s="143"/>
       <c r="V51" s="16"/>
     </row>
     <row r="52" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23385,7 +23385,7 @@
         <v>45674</v>
       </c>
       <c r="T52" s="22"/>
-      <c r="U52" s="146"/>
+      <c r="U52" s="143"/>
       <c r="V52" s="16"/>
     </row>
     <row r="53" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23448,7 +23448,7 @@
         <v>45674</v>
       </c>
       <c r="T53" s="22"/>
-      <c r="U53" s="146"/>
+      <c r="U53" s="143"/>
       <c r="V53" s="16"/>
     </row>
     <row r="54" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23511,7 +23511,7 @@
         <v>45674</v>
       </c>
       <c r="T54" s="22"/>
-      <c r="U54" s="146"/>
+      <c r="U54" s="143"/>
       <c r="V54" s="16"/>
     </row>
     <row r="55" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23575,7 +23575,7 @@
         <v>45674</v>
       </c>
       <c r="T55" s="22"/>
-      <c r="U55" s="146"/>
+      <c r="U55" s="143"/>
       <c r="V55" s="16"/>
     </row>
     <row r="56" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23639,7 +23639,7 @@
         <v>45684</v>
       </c>
       <c r="T56" s="22"/>
-      <c r="U56" s="146" t="s">
+      <c r="U56" s="143" t="s">
         <v>94</v>
       </c>
       <c r="V56" s="16"/>
@@ -23704,7 +23704,7 @@
         <v>45684</v>
       </c>
       <c r="T57" s="22"/>
-      <c r="U57" s="146"/>
+      <c r="U57" s="143"/>
       <c r="V57" s="16"/>
     </row>
     <row r="58" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23768,7 +23768,7 @@
         <v>45684</v>
       </c>
       <c r="T58" s="22"/>
-      <c r="U58" s="146"/>
+      <c r="U58" s="143"/>
       <c r="V58" s="16"/>
     </row>
     <row r="59" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23833,7 +23833,7 @@
         <v>45722</v>
       </c>
       <c r="T59" s="22"/>
-      <c r="U59" s="146"/>
+      <c r="U59" s="143"/>
       <c r="V59" s="16"/>
     </row>
     <row r="60" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="S60" s="22"/>
       <c r="T60" s="22"/>
-      <c r="U60" s="146"/>
+      <c r="U60" s="143"/>
       <c r="V60" s="16"/>
     </row>
     <row r="61" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23959,7 +23959,7 @@
       </c>
       <c r="S61" s="22"/>
       <c r="T61" s="22"/>
-      <c r="U61" s="146"/>
+      <c r="U61" s="143"/>
       <c r="V61" s="16"/>
     </row>
     <row r="62" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24020,7 +24020,7 @@
       <c r="S62" s="22">
         <v>45488</v>
       </c>
-      <c r="U62" s="146"/>
+      <c r="U62" s="143"/>
       <c r="V62" s="16"/>
     </row>
     <row r="63" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24081,7 +24081,7 @@
       <c r="S63" s="22">
         <v>45568</v>
       </c>
-      <c r="U63" s="146"/>
+      <c r="U63" s="143"/>
       <c r="V63" s="16"/>
     </row>
     <row r="64" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24140,7 +24140,7 @@
         <v>45488</v>
       </c>
       <c r="S64" s="22"/>
-      <c r="U64" s="146"/>
+      <c r="U64" s="143"/>
       <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24201,7 +24201,7 @@
       <c r="S65" s="22">
         <v>45568</v>
       </c>
-      <c r="U65" s="146" t="s">
+      <c r="U65" s="143" t="s">
         <v>110</v>
       </c>
       <c r="V65" s="16"/>
@@ -24267,7 +24267,7 @@
         <v>45737</v>
       </c>
       <c r="T66" s="22"/>
-      <c r="U66" s="146"/>
+      <c r="U66" s="143"/>
       <c r="V66" s="16"/>
     </row>
     <row r="67" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24331,7 +24331,7 @@
         <v>45737</v>
       </c>
       <c r="T67" s="22"/>
-      <c r="U67" s="146"/>
+      <c r="U67" s="143"/>
       <c r="V67" s="16"/>
     </row>
     <row r="68" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24395,7 +24395,7 @@
         <v>45737</v>
       </c>
       <c r="T68" s="22"/>
-      <c r="U68" s="146"/>
+      <c r="U68" s="143"/>
       <c r="V68" s="16"/>
     </row>
     <row r="69" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24459,7 +24459,7 @@
         <v>45747</v>
       </c>
       <c r="T69" s="22"/>
-      <c r="U69" s="146"/>
+      <c r="U69" s="143"/>
       <c r="V69" s="16"/>
     </row>
     <row r="70" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -81285,12 +81285,13 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="R19:R26"/>
+    <mergeCell ref="R110:R112"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="R94:R97"/>
+    <mergeCell ref="R98:R100"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="R107:R109"/>
     <mergeCell ref="R88:R90"/>
     <mergeCell ref="R29:R38"/>
     <mergeCell ref="R40:R44"/>
@@ -81303,13 +81304,12 @@
     <mergeCell ref="R69:R71"/>
     <mergeCell ref="R72:R75"/>
     <mergeCell ref="R76:R87"/>
-    <mergeCell ref="R110:R112"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="R94:R97"/>
-    <mergeCell ref="R98:R100"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="R107:R109"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="R19:R26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/uploads/Resource_Billing_Splitup_11.04.2025.xlsx
+++ b/static/uploads/Resource_Billing_Splitup_11.04.2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opawa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA41193-E62B-468B-B2E8-EF8E6A41E8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931F268-7151-4414-9473-50B6632BE370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="612" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2616,22 +2616,22 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2640,10 +2640,10 @@
     <xf numFmtId="15" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2705,7 +2705,382 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{22A46274-6BB5-414F-88C8-D71F9B33E52D}"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="119">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4296,7 +4671,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45758.70135358796" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D5FB8A23-4236-4B77-8586-FB41562C8FC9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45762.736158217594" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D5FB8A23-4236-4B77-8586-FB41562C8FC9}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Sum of Allocated Billed Days 2025]" caption="Sum of Allocated Billed Days 2025" numFmtId="0" hierarchy="15" level="32767"/>
@@ -4435,7 +4810,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45758.701353703706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{F7F6E1B0-C833-4B2F-BADB-26C87806876E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45762.736158449072" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{F7F6E1B0-C833-4B2F-BADB-26C87806876E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:N1048576" sheet="Billed_2025"/>
   </cacheSource>
@@ -7180,26 +7555,26 @@
     <dataField name="Sum of Remaining Billed Days 2025 (Project plan)" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="34">
-    <format dxfId="63">
+    <format dxfId="118">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="117">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="116">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7208,48 +7583,48 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="112">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="110">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="106">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7258,32 +7633,32 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="104">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="102">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="101">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="100">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7292,26 +7667,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="96">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="95">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="94">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7320,10 +7695,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="90">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7332,10 +7707,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="88">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7344,10 +7719,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="86">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7620,10 +7995,10 @@
     <dataField name="Sum of Remaining Billed Days 2025 (Project plan)" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="29">
+    <format dxfId="84">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7857,13 +8232,13 @@
     <dataField name="Sum of Remaining Billed Days 2025 (Project plan)" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="27">
+    <format dxfId="82">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="81">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7872,7 +8247,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7881,7 +8256,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="78">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7890,7 +8265,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7899,7 +8274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7908,7 +8283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="75">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7917,7 +8292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="74">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7926,7 +8301,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="73">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7935,7 +8310,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7944,7 +8319,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7953,7 +8328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7962,7 +8337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7971,7 +8346,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7980,7 +8355,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7989,7 +8364,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -7998,7 +8373,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -8007,7 +8382,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -8652,16 +9027,16 @@
         <f t="shared" ref="N2:N33" si="1">I2-M2</f>
         <v>88.712500000000006</v>
       </c>
-      <c r="O2" s="144">
+      <c r="O2" s="147">
         <v>45344</v>
       </c>
-      <c r="P2" s="144">
+      <c r="P2" s="147">
         <v>45595</v>
       </c>
-      <c r="Q2" s="144" t="s">
+      <c r="Q2" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="143"/>
+      <c r="R2" s="146"/>
       <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8710,10 +9085,10 @@
         <f t="shared" si="1"/>
         <v>1.625</v>
       </c>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="143"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="146"/>
       <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8762,10 +9137,10 @@
         <f t="shared" si="1"/>
         <v>21.375</v>
       </c>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="143"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
+      <c r="R4" s="146"/>
       <c r="S4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8814,10 +9189,10 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="143"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="146"/>
       <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8872,10 +9247,10 @@
       <c r="P6" s="150">
         <v>45503</v>
       </c>
-      <c r="Q6" s="144">
+      <c r="Q6" s="147">
         <v>45650</v>
       </c>
-      <c r="R6" s="143" t="s">
+      <c r="R6" s="146" t="s">
         <v>33</v>
       </c>
       <c r="S6" s="15"/>
@@ -8928,8 +9303,8 @@
       </c>
       <c r="O7" s="150"/>
       <c r="P7" s="150"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="143"/>
+      <c r="Q7" s="147"/>
+      <c r="R7" s="146"/>
       <c r="S7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8980,8 +9355,8 @@
       </c>
       <c r="O8" s="150"/>
       <c r="P8" s="150"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="143"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="146"/>
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9032,8 +9407,8 @@
       </c>
       <c r="O9" s="150"/>
       <c r="P9" s="150"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="143"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="146"/>
       <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9082,16 +9457,16 @@
         <f t="shared" si="1"/>
         <v>-2.1625000000000014</v>
       </c>
-      <c r="O10" s="148">
+      <c r="O10" s="151">
         <v>45231</v>
       </c>
-      <c r="P10" s="148">
+      <c r="P10" s="151">
         <v>45404</v>
       </c>
-      <c r="Q10" s="148">
+      <c r="Q10" s="151">
         <v>45628</v>
       </c>
-      <c r="R10" s="143" t="s">
+      <c r="R10" s="146" t="s">
         <v>38</v>
       </c>
       <c r="S10" s="15"/>
@@ -9142,10 +9517,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="143"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="146"/>
       <c r="S11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9194,10 +9569,10 @@
         <f t="shared" si="1"/>
         <v>1.9624999999999986</v>
       </c>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="143"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="146"/>
       <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9246,10 +9621,10 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="143"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="146"/>
       <c r="S13" s="15"/>
     </row>
     <row r="14" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9298,16 +9673,16 @@
         <f t="shared" ref="N14:N19" si="6">I14-M14</f>
         <v>1</v>
       </c>
-      <c r="O14" s="144">
+      <c r="O14" s="147">
         <v>45286</v>
       </c>
-      <c r="P14" s="144">
+      <c r="P14" s="147">
         <v>45442</v>
       </c>
-      <c r="Q14" s="144" t="s">
+      <c r="Q14" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="143"/>
+      <c r="R14" s="146"/>
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9356,10 +9731,10 @@
         <f t="shared" si="6"/>
         <v>5.625</v>
       </c>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="143"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="146"/>
       <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9408,10 +9783,10 @@
         <f t="shared" si="6"/>
         <v>37.25</v>
       </c>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="143"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="146"/>
       <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9460,10 +9835,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="143"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="146"/>
       <c r="S17" s="15"/>
     </row>
     <row r="18" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9512,10 +9887,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="143"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="146"/>
       <c r="S18" s="15"/>
     </row>
     <row r="19" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9564,16 +9939,16 @@
         <f t="shared" si="6"/>
         <v>-5.875</v>
       </c>
-      <c r="O19" s="144">
+      <c r="O19" s="147">
         <v>45271</v>
       </c>
-      <c r="P19" s="144">
+      <c r="P19" s="147">
         <v>45545</v>
       </c>
       <c r="Q19" s="145">
         <v>45570</v>
       </c>
-      <c r="R19" s="143" t="s">
+      <c r="R19" s="146" t="s">
         <v>46</v>
       </c>
       <c r="S19" s="15"/>
@@ -9624,10 +9999,10 @@
         <f t="shared" si="1"/>
         <v>-7.1474999999999937</v>
       </c>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
       <c r="Q20" s="145"/>
-      <c r="R20" s="143"/>
+      <c r="R20" s="146"/>
       <c r="S20" s="15"/>
     </row>
     <row r="21" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9676,10 +10051,10 @@
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
       <c r="Q21" s="145"/>
-      <c r="R21" s="143"/>
+      <c r="R21" s="146"/>
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9728,10 +10103,10 @@
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="147"/>
       <c r="Q22" s="145"/>
-      <c r="R22" s="143"/>
+      <c r="R22" s="146"/>
       <c r="S22" s="15" t="s">
         <v>50</v>
       </c>
@@ -9782,10 +10157,10 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="147"/>
       <c r="Q23" s="145"/>
-      <c r="R23" s="143"/>
+      <c r="R23" s="146"/>
       <c r="S23" s="15"/>
     </row>
     <row r="24" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9834,10 +10209,10 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
       <c r="Q24" s="145"/>
-      <c r="R24" s="143"/>
+      <c r="R24" s="146"/>
       <c r="S24" s="15"/>
     </row>
     <row r="25" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9886,10 +10261,10 @@
         <f t="shared" si="1"/>
         <v>-6.625</v>
       </c>
-      <c r="O25" s="144"/>
-      <c r="P25" s="144"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="147"/>
       <c r="Q25" s="145"/>
-      <c r="R25" s="143"/>
+      <c r="R25" s="146"/>
       <c r="S25" s="15"/>
     </row>
     <row r="26" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9938,10 +10313,10 @@
         <f t="shared" si="1"/>
         <v>-8.7874999999999943</v>
       </c>
-      <c r="O26" s="144"/>
-      <c r="P26" s="144"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="147"/>
       <c r="Q26" s="145"/>
-      <c r="R26" s="143"/>
+      <c r="R26" s="146"/>
       <c r="S26" s="15"/>
     </row>
     <row r="27" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9990,14 +10365,14 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O27" s="144">
+      <c r="O27" s="147">
         <v>45483</v>
       </c>
-      <c r="P27" s="144" t="s">
+      <c r="P27" s="147" t="s">
         <v>25</v>
       </c>
       <c r="Q27" s="145"/>
-      <c r="R27" s="143"/>
+      <c r="R27" s="146"/>
       <c r="S27" s="15"/>
     </row>
     <row r="28" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10046,10 +10421,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O28" s="144"/>
-      <c r="P28" s="144"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
       <c r="Q28" s="145"/>
-      <c r="R28" s="143"/>
+      <c r="R28" s="146"/>
       <c r="S28" s="15"/>
     </row>
     <row r="29" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10098,14 +10473,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="O29" s="144">
+      <c r="O29" s="147">
         <v>45670</v>
       </c>
-      <c r="P29" s="144">
+      <c r="P29" s="147">
         <v>46814</v>
       </c>
       <c r="Q29" s="145"/>
-      <c r="R29" s="143"/>
+      <c r="R29" s="146"/>
       <c r="S29" s="15"/>
     </row>
     <row r="30" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10154,10 +10529,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O30" s="144"/>
-      <c r="P30" s="144"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
       <c r="Q30" s="145"/>
-      <c r="R30" s="143"/>
+      <c r="R30" s="146"/>
       <c r="S30" s="15"/>
     </row>
     <row r="31" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10206,10 +10581,10 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="O31" s="144"/>
-      <c r="P31" s="144"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
       <c r="Q31" s="145"/>
-      <c r="R31" s="143"/>
+      <c r="R31" s="146"/>
       <c r="S31" s="15"/>
     </row>
     <row r="32" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10258,10 +10633,10 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="O32" s="144"/>
-      <c r="P32" s="144"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
       <c r="Q32" s="145"/>
-      <c r="R32" s="143"/>
+      <c r="R32" s="146"/>
       <c r="S32" s="15"/>
     </row>
     <row r="33" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10310,10 +10685,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
       <c r="Q33" s="145"/>
-      <c r="R33" s="143"/>
+      <c r="R33" s="146"/>
       <c r="S33" s="15"/>
     </row>
     <row r="34" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10362,10 +10737,10 @@
         <f t="shared" ref="N34:N65" si="8">I34-M34</f>
         <v>50</v>
       </c>
-      <c r="O34" s="144"/>
-      <c r="P34" s="144"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
       <c r="Q34" s="145"/>
-      <c r="R34" s="143"/>
+      <c r="R34" s="146"/>
       <c r="S34" s="15"/>
     </row>
     <row r="35" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10414,10 +10789,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="O35" s="144"/>
-      <c r="P35" s="144"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="147"/>
       <c r="Q35" s="145"/>
-      <c r="R35" s="143"/>
+      <c r="R35" s="146"/>
       <c r="S35" s="15"/>
     </row>
     <row r="36" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10466,10 +10841,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="O36" s="144"/>
-      <c r="P36" s="144"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
       <c r="Q36" s="145"/>
-      <c r="R36" s="143"/>
+      <c r="R36" s="146"/>
       <c r="S36" s="15"/>
     </row>
     <row r="37" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10518,10 +10893,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="O37" s="144"/>
-      <c r="P37" s="144"/>
+      <c r="O37" s="147"/>
+      <c r="P37" s="147"/>
       <c r="Q37" s="145"/>
-      <c r="R37" s="143"/>
+      <c r="R37" s="146"/>
       <c r="S37" s="15"/>
     </row>
     <row r="38" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10570,10 +10945,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
       <c r="Q38" s="145"/>
-      <c r="R38" s="143"/>
+      <c r="R38" s="146"/>
       <c r="S38" s="15"/>
     </row>
     <row r="39" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10678,14 +11053,14 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O40" s="144">
+      <c r="O40" s="147">
         <v>45670</v>
       </c>
-      <c r="P40" s="144">
+      <c r="P40" s="147">
         <v>46157</v>
       </c>
       <c r="Q40" s="145"/>
-      <c r="R40" s="143"/>
+      <c r="R40" s="146"/>
       <c r="S40" s="15"/>
     </row>
     <row r="41" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10734,10 +11109,10 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="O41" s="144"/>
-      <c r="P41" s="144"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="147"/>
       <c r="Q41" s="145"/>
-      <c r="R41" s="143"/>
+      <c r="R41" s="146"/>
       <c r="S41" s="15"/>
     </row>
     <row r="42" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10786,10 +11161,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O42" s="144"/>
-      <c r="P42" s="144"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
       <c r="Q42" s="145"/>
-      <c r="R42" s="143"/>
+      <c r="R42" s="146"/>
       <c r="S42" s="15"/>
     </row>
     <row r="43" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10838,10 +11213,10 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="O43" s="144"/>
-      <c r="P43" s="144"/>
+      <c r="O43" s="147"/>
+      <c r="P43" s="147"/>
       <c r="Q43" s="145"/>
-      <c r="R43" s="143"/>
+      <c r="R43" s="146"/>
       <c r="S43" s="15"/>
     </row>
     <row r="44" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10890,10 +11265,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O44" s="144"/>
-      <c r="P44" s="144"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="147"/>
       <c r="Q44" s="145"/>
-      <c r="R44" s="143"/>
+      <c r="R44" s="146"/>
       <c r="S44" s="15"/>
     </row>
     <row r="45" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10942,14 +11317,14 @@
         <f t="shared" si="8"/>
         <v>52.875</v>
       </c>
-      <c r="O45" s="144"/>
-      <c r="P45" s="144">
+      <c r="O45" s="147"/>
+      <c r="P45" s="147">
         <v>45212</v>
       </c>
-      <c r="Q45" s="144">
+      <c r="Q45" s="147">
         <v>45626</v>
       </c>
-      <c r="R45" s="143" t="s">
+      <c r="R45" s="146" t="s">
         <v>67</v>
       </c>
       <c r="S45" s="15"/>
@@ -11001,10 +11376,10 @@
         <f t="shared" si="8"/>
         <v>38.818750000000001</v>
       </c>
-      <c r="O46" s="144"/>
-      <c r="P46" s="144"/>
-      <c r="Q46" s="144"/>
-      <c r="R46" s="143"/>
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
+      <c r="Q46" s="147"/>
+      <c r="R46" s="146"/>
       <c r="S46" s="15"/>
     </row>
     <row r="47" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11054,10 +11429,10 @@
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="O47" s="144"/>
-      <c r="P47" s="144"/>
-      <c r="Q47" s="144"/>
-      <c r="R47" s="143"/>
+      <c r="O47" s="147"/>
+      <c r="P47" s="147"/>
+      <c r="Q47" s="147"/>
+      <c r="R47" s="146"/>
       <c r="S47" s="15"/>
     </row>
     <row r="48" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11106,10 +11481,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O48" s="144"/>
-      <c r="P48" s="144"/>
-      <c r="Q48" s="144"/>
-      <c r="R48" s="143"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="146"/>
       <c r="S48" s="15"/>
     </row>
     <row r="49" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11158,16 +11533,16 @@
         <f t="shared" si="8"/>
         <v>20.875</v>
       </c>
-      <c r="O49" s="146">
+      <c r="O49" s="152">
         <v>45339</v>
       </c>
-      <c r="P49" s="144">
+      <c r="P49" s="147">
         <v>45657</v>
       </c>
       <c r="Q49" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="R49" s="143"/>
+      <c r="R49" s="146"/>
       <c r="S49" s="15"/>
     </row>
     <row r="50" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11216,10 +11591,10 @@
         <f t="shared" si="8"/>
         <v>31.568750000000001</v>
       </c>
-      <c r="O50" s="146"/>
-      <c r="P50" s="144"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="147"/>
       <c r="Q50" s="145"/>
-      <c r="R50" s="143"/>
+      <c r="R50" s="146"/>
       <c r="S50" s="15"/>
     </row>
     <row r="51" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11268,10 +11643,10 @@
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="O51" s="146"/>
-      <c r="P51" s="144"/>
+      <c r="O51" s="152"/>
+      <c r="P51" s="147"/>
       <c r="Q51" s="145"/>
-      <c r="R51" s="143"/>
+      <c r="R51" s="146"/>
       <c r="S51" s="15"/>
     </row>
     <row r="52" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11320,16 +11695,16 @@
         <f t="shared" si="8"/>
         <v>8.1062500000000028</v>
       </c>
-      <c r="O52" s="144">
+      <c r="O52" s="147">
         <v>44578</v>
       </c>
-      <c r="P52" s="144">
+      <c r="P52" s="147">
         <v>44731</v>
       </c>
-      <c r="Q52" s="144">
+      <c r="Q52" s="147">
         <v>45610</v>
       </c>
-      <c r="R52" s="143" t="s">
+      <c r="R52" s="146" t="s">
         <v>74</v>
       </c>
       <c r="S52" s="15"/>
@@ -11380,10 +11755,10 @@
         <f t="shared" si="8"/>
         <v>-32.287499999999994</v>
       </c>
-      <c r="O53" s="144"/>
-      <c r="P53" s="144"/>
-      <c r="Q53" s="144"/>
-      <c r="R53" s="143"/>
+      <c r="O53" s="147"/>
+      <c r="P53" s="147"/>
+      <c r="Q53" s="147"/>
+      <c r="R53" s="146"/>
       <c r="S53" s="15"/>
     </row>
     <row r="54" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11432,10 +11807,10 @@
         <f t="shared" si="8"/>
         <v>-17.75</v>
       </c>
-      <c r="O54" s="144"/>
-      <c r="P54" s="144"/>
-      <c r="Q54" s="144"/>
-      <c r="R54" s="143"/>
+      <c r="O54" s="147"/>
+      <c r="P54" s="147"/>
+      <c r="Q54" s="147"/>
+      <c r="R54" s="146"/>
       <c r="S54" s="15"/>
     </row>
     <row r="55" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11484,16 +11859,16 @@
         <f t="shared" si="8"/>
         <v>-73.375</v>
       </c>
-      <c r="O55" s="144">
+      <c r="O55" s="147">
         <v>45175</v>
       </c>
-      <c r="P55" s="144">
+      <c r="P55" s="147">
         <v>45523</v>
       </c>
-      <c r="Q55" s="144">
+      <c r="Q55" s="147">
         <v>45650</v>
       </c>
-      <c r="R55" s="143"/>
+      <c r="R55" s="146"/>
       <c r="S55" s="15"/>
     </row>
     <row r="56" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11543,10 +11918,10 @@
         <f t="shared" si="8"/>
         <v>16.212500000000006</v>
       </c>
-      <c r="O56" s="144"/>
-      <c r="P56" s="144"/>
-      <c r="Q56" s="144"/>
-      <c r="R56" s="143"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="147"/>
+      <c r="Q56" s="147"/>
+      <c r="R56" s="146"/>
       <c r="S56" s="15"/>
     </row>
     <row r="57" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11595,10 +11970,10 @@
         <f t="shared" si="8"/>
         <v>35.625</v>
       </c>
-      <c r="O57" s="144"/>
-      <c r="P57" s="144"/>
-      <c r="Q57" s="144"/>
-      <c r="R57" s="143"/>
+      <c r="O57" s="147"/>
+      <c r="P57" s="147"/>
+      <c r="Q57" s="147"/>
+      <c r="R57" s="146"/>
       <c r="S57" s="15"/>
     </row>
     <row r="58" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11647,10 +12022,10 @@
         <f t="shared" si="8"/>
         <v>-14.125</v>
       </c>
-      <c r="O58" s="144"/>
-      <c r="P58" s="144"/>
-      <c r="Q58" s="144"/>
-      <c r="R58" s="143"/>
+      <c r="O58" s="147"/>
+      <c r="P58" s="147"/>
+      <c r="Q58" s="147"/>
+      <c r="R58" s="146"/>
       <c r="S58" s="15"/>
     </row>
     <row r="59" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11700,10 +12075,10 @@
         <f t="shared" si="8"/>
         <v>-0.91249999999999964</v>
       </c>
-      <c r="O59" s="144"/>
-      <c r="P59" s="144"/>
-      <c r="Q59" s="144"/>
-      <c r="R59" s="143"/>
+      <c r="O59" s="147"/>
+      <c r="P59" s="147"/>
+      <c r="Q59" s="147"/>
+      <c r="R59" s="146"/>
       <c r="S59" s="15"/>
     </row>
     <row r="60" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11753,10 +12128,10 @@
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="O60" s="144"/>
-      <c r="P60" s="144"/>
-      <c r="Q60" s="144"/>
-      <c r="R60" s="143"/>
+      <c r="O60" s="147"/>
+      <c r="P60" s="147"/>
+      <c r="Q60" s="147"/>
+      <c r="R60" s="146"/>
       <c r="S60" s="15"/>
     </row>
     <row r="61" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11805,16 +12180,16 @@
         <f t="shared" si="8"/>
         <v>-17.537500000000001</v>
       </c>
-      <c r="O61" s="146">
+      <c r="O61" s="152">
         <v>45214</v>
       </c>
-      <c r="P61" s="144">
+      <c r="P61" s="147">
         <v>45348</v>
       </c>
-      <c r="Q61" s="144" t="s">
+      <c r="Q61" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="R61" s="143" t="s">
+      <c r="R61" s="146" t="s">
         <v>67</v>
       </c>
       <c r="S61" s="15"/>
@@ -11865,10 +12240,10 @@
         <f t="shared" si="8"/>
         <v>-12.537500000000001</v>
       </c>
-      <c r="O62" s="146"/>
-      <c r="P62" s="144"/>
-      <c r="Q62" s="144"/>
-      <c r="R62" s="143"/>
+      <c r="O62" s="152"/>
+      <c r="P62" s="147"/>
+      <c r="Q62" s="147"/>
+      <c r="R62" s="146"/>
       <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11917,10 +12292,10 @@
         <f t="shared" si="8"/>
         <v>3.75</v>
       </c>
-      <c r="O63" s="146"/>
-      <c r="P63" s="144"/>
-      <c r="Q63" s="144"/>
-      <c r="R63" s="143"/>
+      <c r="O63" s="152"/>
+      <c r="P63" s="147"/>
+      <c r="Q63" s="147"/>
+      <c r="R63" s="146"/>
       <c r="S63" s="15"/>
     </row>
     <row r="64" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11969,10 +12344,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O64" s="146"/>
-      <c r="P64" s="144"/>
-      <c r="Q64" s="144"/>
-      <c r="R64" s="143"/>
+      <c r="O64" s="152"/>
+      <c r="P64" s="147"/>
+      <c r="Q64" s="147"/>
+      <c r="R64" s="146"/>
       <c r="S64" s="15"/>
     </row>
     <row r="65" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12021,10 +12396,10 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="O65" s="146"/>
-      <c r="P65" s="144"/>
-      <c r="Q65" s="144"/>
-      <c r="R65" s="143"/>
+      <c r="O65" s="152"/>
+      <c r="P65" s="147"/>
+      <c r="Q65" s="147"/>
+      <c r="R65" s="146"/>
       <c r="S65" s="15"/>
     </row>
     <row r="66" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12073,12 +12448,12 @@
         <f t="shared" ref="N66:N97" si="11">I66-M66</f>
         <v>-1.875</v>
       </c>
-      <c r="O66" s="144" t="s">
+      <c r="O66" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="P66" s="144"/>
-      <c r="Q66" s="144"/>
-      <c r="R66" s="143" t="s">
+      <c r="P66" s="147"/>
+      <c r="Q66" s="147"/>
+      <c r="R66" s="146" t="s">
         <v>67</v>
       </c>
       <c r="S66" s="15"/>
@@ -12129,10 +12504,10 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="O67" s="144"/>
-      <c r="P67" s="144"/>
-      <c r="Q67" s="144"/>
-      <c r="R67" s="143"/>
+      <c r="O67" s="147"/>
+      <c r="P67" s="147"/>
+      <c r="Q67" s="147"/>
+      <c r="R67" s="146"/>
       <c r="S67" s="15"/>
     </row>
     <row r="68" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12181,10 +12556,10 @@
         <f t="shared" si="11"/>
         <v>-28.268750000000001</v>
       </c>
-      <c r="O68" s="144"/>
-      <c r="P68" s="144"/>
-      <c r="Q68" s="144"/>
-      <c r="R68" s="143"/>
+      <c r="O68" s="147"/>
+      <c r="P68" s="147"/>
+      <c r="Q68" s="147"/>
+      <c r="R68" s="146"/>
       <c r="S68" s="15"/>
     </row>
     <row r="69" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12233,12 +12608,12 @@
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="O69" s="144" t="s">
+      <c r="O69" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="P69" s="144"/>
-      <c r="Q69" s="144"/>
-      <c r="R69" s="143" t="s">
+      <c r="P69" s="147"/>
+      <c r="Q69" s="147"/>
+      <c r="R69" s="146" t="s">
         <v>67</v>
       </c>
       <c r="S69" s="15"/>
@@ -12289,10 +12664,10 @@
         <f t="shared" si="11"/>
         <v>-20.268750000000001</v>
       </c>
-      <c r="O70" s="144"/>
-      <c r="P70" s="144"/>
-      <c r="Q70" s="144"/>
-      <c r="R70" s="143"/>
+      <c r="O70" s="147"/>
+      <c r="P70" s="147"/>
+      <c r="Q70" s="147"/>
+      <c r="R70" s="146"/>
       <c r="S70" s="15"/>
     </row>
     <row r="71" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12341,10 +12716,10 @@
         <f t="shared" si="11"/>
         <v>-4.5375000000000014</v>
       </c>
-      <c r="O71" s="144"/>
-      <c r="P71" s="144"/>
-      <c r="Q71" s="144"/>
-      <c r="R71" s="143"/>
+      <c r="O71" s="147"/>
+      <c r="P71" s="147"/>
+      <c r="Q71" s="147"/>
+      <c r="R71" s="146"/>
       <c r="S71" s="15"/>
     </row>
     <row r="72" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12393,16 +12768,16 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O72" s="147">
+      <c r="O72" s="148">
         <v>45411</v>
       </c>
-      <c r="P72" s="147">
+      <c r="P72" s="148">
         <v>45692</v>
       </c>
-      <c r="Q72" s="147">
+      <c r="Q72" s="148">
         <v>45813</v>
       </c>
-      <c r="R72" s="143"/>
+      <c r="R72" s="146"/>
       <c r="S72" s="15"/>
     </row>
     <row r="73" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12451,10 +12826,10 @@
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="O73" s="147"/>
-      <c r="P73" s="147"/>
-      <c r="Q73" s="147"/>
-      <c r="R73" s="143"/>
+      <c r="O73" s="148"/>
+      <c r="P73" s="148"/>
+      <c r="Q73" s="148"/>
+      <c r="R73" s="146"/>
       <c r="S73" s="15"/>
     </row>
     <row r="74" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12503,10 +12878,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O74" s="147"/>
-      <c r="P74" s="147"/>
-      <c r="Q74" s="147"/>
-      <c r="R74" s="143"/>
+      <c r="O74" s="148"/>
+      <c r="P74" s="148"/>
+      <c r="Q74" s="148"/>
+      <c r="R74" s="146"/>
       <c r="S74" s="15"/>
     </row>
     <row r="75" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12555,10 +12930,10 @@
         <f t="shared" si="11"/>
         <v>-5.125</v>
       </c>
-      <c r="O75" s="147"/>
-      <c r="P75" s="147"/>
-      <c r="Q75" s="147"/>
-      <c r="R75" s="143"/>
+      <c r="O75" s="148"/>
+      <c r="P75" s="148"/>
+      <c r="Q75" s="148"/>
+      <c r="R75" s="146"/>
       <c r="S75" s="15"/>
     </row>
     <row r="76" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12607,14 +12982,14 @@
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
-      <c r="O76" s="147">
+      <c r="O76" s="148">
         <v>45476</v>
       </c>
-      <c r="P76" s="147">
+      <c r="P76" s="148">
         <v>45503</v>
       </c>
       <c r="Q76" s="145"/>
-      <c r="R76" s="143"/>
+      <c r="R76" s="146"/>
       <c r="S76" s="15"/>
     </row>
     <row r="77" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12663,10 +13038,10 @@
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="O77" s="147"/>
-      <c r="P77" s="147"/>
+      <c r="O77" s="148"/>
+      <c r="P77" s="148"/>
       <c r="Q77" s="145"/>
-      <c r="R77" s="143"/>
+      <c r="R77" s="146"/>
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12715,10 +13090,10 @@
         <f t="shared" si="11"/>
         <v>-0.25</v>
       </c>
-      <c r="O78" s="147"/>
-      <c r="P78" s="147"/>
+      <c r="O78" s="148"/>
+      <c r="P78" s="148"/>
       <c r="Q78" s="145"/>
-      <c r="R78" s="143"/>
+      <c r="R78" s="146"/>
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12774,7 +13149,7 @@
         <v>45674</v>
       </c>
       <c r="Q79" s="145"/>
-      <c r="R79" s="143"/>
+      <c r="R79" s="146"/>
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12826,7 +13201,7 @@
       <c r="O80" s="145"/>
       <c r="P80" s="145"/>
       <c r="Q80" s="145"/>
-      <c r="R80" s="143"/>
+      <c r="R80" s="146"/>
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12878,7 +13253,7 @@
       <c r="O81" s="145"/>
       <c r="P81" s="145"/>
       <c r="Q81" s="145"/>
-      <c r="R81" s="143"/>
+      <c r="R81" s="146"/>
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12930,7 +13305,7 @@
       <c r="O82" s="145"/>
       <c r="P82" s="145"/>
       <c r="Q82" s="145"/>
-      <c r="R82" s="143"/>
+      <c r="R82" s="146"/>
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12982,7 +13357,7 @@
       <c r="O83" s="145"/>
       <c r="P83" s="145"/>
       <c r="Q83" s="145"/>
-      <c r="R83" s="143"/>
+      <c r="R83" s="146"/>
       <c r="S83" s="15"/>
     </row>
     <row r="84" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13034,7 +13409,7 @@
       <c r="O84" s="145"/>
       <c r="P84" s="145"/>
       <c r="Q84" s="145"/>
-      <c r="R84" s="143"/>
+      <c r="R84" s="146"/>
       <c r="S84" s="15"/>
     </row>
     <row r="85" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13086,7 +13461,7 @@
       <c r="O85" s="145"/>
       <c r="P85" s="145"/>
       <c r="Q85" s="145"/>
-      <c r="R85" s="143"/>
+      <c r="R85" s="146"/>
       <c r="S85" s="15"/>
     </row>
     <row r="86" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13137,7 +13512,7 @@
       <c r="O86" s="145"/>
       <c r="P86" s="145"/>
       <c r="Q86" s="145"/>
-      <c r="R86" s="143"/>
+      <c r="R86" s="146"/>
       <c r="S86" s="15" t="s">
         <v>88</v>
       </c>
@@ -13191,7 +13566,7 @@
       <c r="O87" s="145"/>
       <c r="P87" s="145"/>
       <c r="Q87" s="145"/>
-      <c r="R87" s="143"/>
+      <c r="R87" s="146"/>
       <c r="S87" s="15"/>
     </row>
     <row r="88" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13243,7 +13618,7 @@
       <c r="O88" s="145"/>
       <c r="P88" s="145"/>
       <c r="Q88" s="145"/>
-      <c r="R88" s="143"/>
+      <c r="R88" s="146"/>
       <c r="S88" s="15"/>
     </row>
     <row r="89" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13295,7 +13670,7 @@
       <c r="O89" s="145"/>
       <c r="P89" s="145"/>
       <c r="Q89" s="145"/>
-      <c r="R89" s="143"/>
+      <c r="R89" s="146"/>
       <c r="S89" s="15"/>
     </row>
     <row r="90" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13347,7 +13722,7 @@
       <c r="O90" s="145"/>
       <c r="P90" s="145"/>
       <c r="Q90" s="145"/>
-      <c r="R90" s="143"/>
+      <c r="R90" s="146"/>
       <c r="S90" s="15"/>
     </row>
     <row r="91" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13403,7 +13778,7 @@
         <v>45674</v>
       </c>
       <c r="Q91" s="145"/>
-      <c r="R91" s="143"/>
+      <c r="R91" s="146"/>
       <c r="S91" s="15"/>
     </row>
     <row r="92" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13454,7 +13829,7 @@
       <c r="O92" s="145"/>
       <c r="P92" s="145"/>
       <c r="Q92" s="145"/>
-      <c r="R92" s="143"/>
+      <c r="R92" s="146"/>
       <c r="S92" s="15"/>
     </row>
     <row r="93" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13506,7 +13881,7 @@
       <c r="O93" s="145"/>
       <c r="P93" s="145"/>
       <c r="Q93" s="145"/>
-      <c r="R93" s="143"/>
+      <c r="R93" s="146"/>
       <c r="S93" s="15"/>
     </row>
     <row r="94" spans="1:19" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13563,7 +13938,7 @@
         <v>45684</v>
       </c>
       <c r="Q94" s="145"/>
-      <c r="R94" s="143" t="s">
+      <c r="R94" s="146" t="s">
         <v>94</v>
       </c>
       <c r="S94" s="16"/>
@@ -13617,7 +13992,7 @@
       <c r="O95" s="145"/>
       <c r="P95" s="145"/>
       <c r="Q95" s="145"/>
-      <c r="R95" s="143"/>
+      <c r="R95" s="146"/>
       <c r="S95" s="16"/>
     </row>
     <row r="96" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13670,7 +14045,7 @@
       <c r="O96" s="145"/>
       <c r="P96" s="145"/>
       <c r="Q96" s="145"/>
-      <c r="R96" s="143"/>
+      <c r="R96" s="146"/>
       <c r="S96" s="16"/>
     </row>
     <row r="97" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13723,7 +14098,7 @@
       </c>
       <c r="P97" s="145"/>
       <c r="Q97" s="145"/>
-      <c r="R97" s="143"/>
+      <c r="R97" s="146"/>
       <c r="S97" s="16"/>
     </row>
     <row r="98" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13774,7 +14149,7 @@
       <c r="O98" s="145"/>
       <c r="P98" s="145"/>
       <c r="Q98" s="145"/>
-      <c r="R98" s="143"/>
+      <c r="R98" s="146"/>
       <c r="S98" s="16"/>
     </row>
     <row r="99" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13825,7 +14200,7 @@
       <c r="O99" s="145"/>
       <c r="P99" s="145"/>
       <c r="Q99" s="145"/>
-      <c r="R99" s="143"/>
+      <c r="R99" s="146"/>
       <c r="S99" s="16"/>
     </row>
     <row r="100" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13876,7 +14251,7 @@
       <c r="O100" s="145"/>
       <c r="P100" s="145"/>
       <c r="Q100" s="145"/>
-      <c r="R100" s="143"/>
+      <c r="R100" s="146"/>
       <c r="S100" s="15"/>
     </row>
     <row r="101" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13931,7 +14306,7 @@
       <c r="Q101" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="R101" s="143"/>
+      <c r="R101" s="146"/>
       <c r="S101" s="15"/>
     </row>
     <row r="102" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13982,7 +14357,7 @@
       <c r="O102" s="145"/>
       <c r="P102" s="145"/>
       <c r="Q102" s="145"/>
-      <c r="R102" s="143"/>
+      <c r="R102" s="146"/>
       <c r="S102" s="15"/>
     </row>
     <row r="103" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14033,7 +14408,7 @@
       <c r="O103" s="145"/>
       <c r="P103" s="145"/>
       <c r="Q103" s="145"/>
-      <c r="R103" s="143"/>
+      <c r="R103" s="146"/>
       <c r="S103" s="15"/>
     </row>
     <row r="104" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14089,7 +14464,7 @@
         <v>45667</v>
       </c>
       <c r="Q104" s="145"/>
-      <c r="R104" s="143" t="s">
+      <c r="R104" s="146" t="s">
         <v>100</v>
       </c>
       <c r="S104" s="15"/>
@@ -14143,7 +14518,7 @@
       <c r="O105" s="145"/>
       <c r="P105" s="145"/>
       <c r="Q105" s="145"/>
-      <c r="R105" s="143"/>
+      <c r="R105" s="146"/>
       <c r="S105" s="15"/>
     </row>
     <row r="106" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14195,7 +14570,7 @@
       <c r="O106" s="145"/>
       <c r="P106" s="145"/>
       <c r="Q106" s="145"/>
-      <c r="R106" s="143"/>
+      <c r="R106" s="146"/>
       <c r="S106" s="15"/>
     </row>
     <row r="107" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14247,7 +14622,7 @@
       <c r="O107" s="145"/>
       <c r="P107" s="145"/>
       <c r="Q107" s="145"/>
-      <c r="R107" s="143"/>
+      <c r="R107" s="146"/>
       <c r="S107" s="15"/>
     </row>
     <row r="108" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14303,7 +14678,7 @@
         <v>45597</v>
       </c>
       <c r="Q108" s="145"/>
-      <c r="R108" s="143" t="s">
+      <c r="R108" s="146" t="s">
         <v>107</v>
       </c>
       <c r="S108" s="15"/>
@@ -14357,7 +14732,7 @@
       <c r="O109" s="145"/>
       <c r="P109" s="145"/>
       <c r="Q109" s="145"/>
-      <c r="R109" s="143"/>
+      <c r="R109" s="146"/>
       <c r="S109" s="15"/>
     </row>
     <row r="110" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14406,14 +14781,14 @@
         <f t="shared" si="14"/>
         <v>17</v>
       </c>
-      <c r="O110" s="147">
+      <c r="O110" s="148">
         <v>45017</v>
       </c>
-      <c r="P110" s="147">
+      <c r="P110" s="148">
         <v>45137</v>
       </c>
       <c r="Q110" s="145"/>
-      <c r="R110" s="143" t="s">
+      <c r="R110" s="146" t="s">
         <v>110</v>
       </c>
       <c r="S110" s="15"/>
@@ -14464,10 +14839,10 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="O111" s="147"/>
-      <c r="P111" s="147"/>
+      <c r="O111" s="148"/>
+      <c r="P111" s="148"/>
       <c r="Q111" s="145"/>
-      <c r="R111" s="143"/>
+      <c r="R111" s="146"/>
       <c r="S111" s="15"/>
     </row>
     <row r="112" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14516,10 +14891,10 @@
         <f t="shared" si="14"/>
         <v>30.875</v>
       </c>
-      <c r="O112" s="147"/>
-      <c r="P112" s="147"/>
+      <c r="O112" s="148"/>
+      <c r="P112" s="148"/>
       <c r="Q112" s="145"/>
-      <c r="R112" s="143"/>
+      <c r="R112" s="146"/>
       <c r="S112" s="15"/>
     </row>
     <row r="113" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14577,7 +14952,7 @@
       <c r="Q113" s="145">
         <v>45656</v>
       </c>
-      <c r="R113" s="143"/>
+      <c r="R113" s="146"/>
       <c r="S113" s="15"/>
     </row>
     <row r="114" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14629,7 +15004,7 @@
       <c r="O114" s="149"/>
       <c r="P114" s="149"/>
       <c r="Q114" s="145"/>
-      <c r="R114" s="143"/>
+      <c r="R114" s="146"/>
       <c r="S114" s="15"/>
     </row>
     <row r="115" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14681,7 +15056,7 @@
       <c r="O115" s="149"/>
       <c r="P115" s="149"/>
       <c r="Q115" s="145"/>
-      <c r="R115" s="143"/>
+      <c r="R115" s="146"/>
       <c r="S115" s="15"/>
     </row>
     <row r="116" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17270,10 +17645,10 @@
       <c r="K172" s="16">
         <v>73</v>
       </c>
-      <c r="O172" s="151">
+      <c r="O172" s="143">
         <v>45486</v>
       </c>
-      <c r="P172" s="151">
+      <c r="P172" s="143">
         <v>45868</v>
       </c>
       <c r="R172" s="2"/>
@@ -17313,8 +17688,8 @@
       <c r="K173" s="16">
         <v>12</v>
       </c>
-      <c r="O173" s="152"/>
-      <c r="P173" s="152"/>
+      <c r="O173" s="144"/>
+      <c r="P173" s="144"/>
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
     </row>
@@ -18432,16 +18807,89 @@
   </sheetData>
   <autoFilter ref="A1:W198" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="117">
-    <mergeCell ref="O172:O173"/>
-    <mergeCell ref="P172:P173"/>
-    <mergeCell ref="Q184:Q185"/>
-    <mergeCell ref="Q186:Q187"/>
-    <mergeCell ref="Q188:Q189"/>
-    <mergeCell ref="Q191:Q192"/>
-    <mergeCell ref="Q193:Q194"/>
-    <mergeCell ref="O197:O198"/>
-    <mergeCell ref="P197:P198"/>
-    <mergeCell ref="Q197:Q198"/>
+    <mergeCell ref="R40:R44"/>
+    <mergeCell ref="O29:O38"/>
+    <mergeCell ref="P29:P38"/>
+    <mergeCell ref="Q29:Q38"/>
+    <mergeCell ref="O40:O44"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="Q40:Q44"/>
+    <mergeCell ref="R110:R112"/>
+    <mergeCell ref="Q108:Q109"/>
+    <mergeCell ref="O104:O107"/>
+    <mergeCell ref="P101:P103"/>
+    <mergeCell ref="P104:P107"/>
+    <mergeCell ref="O61:O65"/>
+    <mergeCell ref="P61:P65"/>
+    <mergeCell ref="O94:O96"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="P69:P71"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="P94:P96"/>
+    <mergeCell ref="O79:O90"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="R108:R109"/>
+    <mergeCell ref="Q61:Q65"/>
+    <mergeCell ref="Q72:Q75"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="R101:R103"/>
+    <mergeCell ref="R94:R96"/>
+    <mergeCell ref="R104:R107"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="Q79:Q90"/>
+    <mergeCell ref="R61:R65"/>
+    <mergeCell ref="R66:R68"/>
+    <mergeCell ref="R69:R71"/>
+    <mergeCell ref="R72:R75"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="Q55:Q60"/>
+    <mergeCell ref="O19:O26"/>
+    <mergeCell ref="P19:P26"/>
+    <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="R55:R60"/>
+    <mergeCell ref="Q19:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="P45:P48"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="P52:P54"/>
+    <mergeCell ref="R45:R48"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="O55:O60"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="P55:P60"/>
+    <mergeCell ref="R29:R38"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="R19:R26"/>
+    <mergeCell ref="O113:O115"/>
+    <mergeCell ref="P113:P115"/>
+    <mergeCell ref="Q113:Q115"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="O101:O103"/>
+    <mergeCell ref="Q94:Q96"/>
+    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q101:Q103"/>
+    <mergeCell ref="Q69:Q71"/>
+    <mergeCell ref="Q66:Q68"/>
     <mergeCell ref="R113:R115"/>
     <mergeCell ref="R49:R51"/>
     <mergeCell ref="Q49:Q51"/>
@@ -18466,89 +18914,16 @@
     <mergeCell ref="O108:O109"/>
     <mergeCell ref="P108:P109"/>
     <mergeCell ref="Q110:Q112"/>
-    <mergeCell ref="O113:O115"/>
-    <mergeCell ref="P113:P115"/>
-    <mergeCell ref="Q113:Q115"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="O101:O103"/>
-    <mergeCell ref="Q94:Q96"/>
-    <mergeCell ref="Q104:Q107"/>
-    <mergeCell ref="Q101:Q103"/>
-    <mergeCell ref="Q69:Q71"/>
-    <mergeCell ref="Q66:Q68"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="P14:P18"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="R19:R26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="Q55:Q60"/>
-    <mergeCell ref="O19:O26"/>
-    <mergeCell ref="P19:P26"/>
-    <mergeCell ref="Q45:Q48"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="R55:R60"/>
-    <mergeCell ref="Q19:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="P45:P48"/>
-    <mergeCell ref="Q52:Q54"/>
-    <mergeCell ref="O52:O54"/>
-    <mergeCell ref="P52:P54"/>
-    <mergeCell ref="R45:R48"/>
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="O55:O60"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="P55:P60"/>
-    <mergeCell ref="R29:R38"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="R101:R103"/>
-    <mergeCell ref="R94:R96"/>
-    <mergeCell ref="R104:R107"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="Q79:Q90"/>
-    <mergeCell ref="R61:R65"/>
-    <mergeCell ref="R66:R68"/>
-    <mergeCell ref="R69:R71"/>
-    <mergeCell ref="R72:R75"/>
-    <mergeCell ref="R40:R44"/>
-    <mergeCell ref="O29:O38"/>
-    <mergeCell ref="P29:P38"/>
-    <mergeCell ref="Q29:Q38"/>
-    <mergeCell ref="O40:O44"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="Q40:Q44"/>
-    <mergeCell ref="R110:R112"/>
-    <mergeCell ref="Q108:Q109"/>
-    <mergeCell ref="O104:O107"/>
-    <mergeCell ref="P101:P103"/>
-    <mergeCell ref="P104:P107"/>
-    <mergeCell ref="O61:O65"/>
-    <mergeCell ref="P61:P65"/>
-    <mergeCell ref="O94:O96"/>
-    <mergeCell ref="O69:O71"/>
-    <mergeCell ref="P69:P71"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="P94:P96"/>
-    <mergeCell ref="O79:O90"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="R108:R109"/>
-    <mergeCell ref="Q61:Q65"/>
-    <mergeCell ref="Q72:Q75"/>
+    <mergeCell ref="O172:O173"/>
+    <mergeCell ref="P172:P173"/>
+    <mergeCell ref="Q184:Q185"/>
+    <mergeCell ref="Q186:Q187"/>
+    <mergeCell ref="Q188:Q189"/>
+    <mergeCell ref="Q191:Q192"/>
+    <mergeCell ref="Q193:Q194"/>
+    <mergeCell ref="O197:O198"/>
+    <mergeCell ref="P197:P198"/>
+    <mergeCell ref="Q197:Q198"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20004,9 +20379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D21D47-B6BB-4439-924B-5A822C3D27B8}">
   <dimension ref="A1:V157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M116" sqref="M116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -20134,30 +20509,27 @@
         <v>0</v>
       </c>
       <c r="K2" s="16">
-        <f t="shared" ref="K2:K3" si="0">I2-J2</f>
-        <v>109.5</v>
+        <v>1</v>
       </c>
       <c r="L2" s="16">
-        <v>246.3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="17">
-        <f>L2/8</f>
-        <v>30.787500000000001</v>
+        <v>156</v>
       </c>
       <c r="N2" s="17">
-        <f t="shared" ref="N2:N33" si="1">K2-M2</f>
-        <v>78.712500000000006</v>
+        <f t="shared" ref="N2:N33" si="0">K2-M2</f>
+        <v>-155</v>
       </c>
       <c r="O2" s="2">
         <v>24</v>
       </c>
       <c r="P2" s="18">
-        <f>O2/8</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="19">
-        <f t="shared" ref="Q2:Q15" si="2">K2-P2</f>
-        <v>106.5</v>
+        <f t="shared" ref="Q2:Q15" si="1">K2-P2</f>
+        <v>0</v>
       </c>
       <c r="R2" s="20">
         <v>45344</v>
@@ -20202,30 +20574,27 @@
         <v>0</v>
       </c>
       <c r="K3" s="16">
+        <v>2</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>155</v>
+      </c>
+      <c r="N3" s="17">
         <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="L3" s="16">
-        <v>209</v>
-      </c>
-      <c r="M3" s="17">
-        <f>L3/8</f>
-        <v>26.125</v>
-      </c>
-      <c r="N3" s="17">
-        <f t="shared" si="1"/>
-        <v>8.375</v>
+        <v>-153</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="18">
-        <f t="shared" ref="P3:P15" si="3">O3/8</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="Q3" s="19">
-        <f t="shared" si="2"/>
-        <v>34.5</v>
       </c>
       <c r="R3" s="20">
         <v>45344</v>
@@ -20270,30 +20639,27 @@
         <v>0</v>
       </c>
       <c r="K4" s="16">
-        <f>I4-J4</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L4" s="16">
         <v>0</v>
       </c>
-      <c r="M4" s="17">
-        <f>L4/8</f>
-        <v>0</v>
+      <c r="M4" s="5">
+        <v>154</v>
       </c>
       <c r="N4" s="17">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>-151</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="18">
-        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="Q4" s="19">
-        <f t="shared" si="2"/>
-        <v>14</v>
       </c>
       <c r="R4" s="20">
         <v>45344</v>
@@ -20335,26 +20701,24 @@
         <v>22</v>
       </c>
       <c r="K5" s="16">
-        <f t="shared" ref="K5:K17" si="4">I5-J5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" s="16"/>
-      <c r="M5" s="17">
-        <v>0</v>
+      <c r="M5" s="5">
+        <v>153</v>
       </c>
       <c r="N5" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-149</v>
       </c>
       <c r="O5" s="16">
         <v>0</v>
       </c>
       <c r="P5" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="20">
@@ -20399,28 +20763,26 @@
         <v>1</v>
       </c>
       <c r="K6" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="17">
+        <v>152</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="0"/>
+        <v>-147</v>
+      </c>
+      <c r="O6" s="16">
         <v>0</v>
       </c>
-      <c r="N6" s="17">
+      <c r="P6" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="R6" s="20">
         <v>45218</v>
       </c>
@@ -20428,7 +20790,7 @@
         <v>25</v>
       </c>
       <c r="T6" s="22"/>
-      <c r="U6" s="143"/>
+      <c r="U6" s="146"/>
       <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20463,34 +20825,32 @@
         <v>17</v>
       </c>
       <c r="K7" s="16">
-        <f>I7-J7</f>
+        <v>6</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="5">
+        <v>151</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="0"/>
+        <v>-145</v>
+      </c>
+      <c r="O7" s="16">
         <v>0</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17">
-        <v>0</v>
-      </c>
-      <c r="N7" s="17">
+      <c r="P7" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="R7" s="58">
         <v>45218</v>
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="143"/>
+      <c r="U7" s="146"/>
       <c r="V7" s="16"/>
     </row>
     <row r="8" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20525,26 +20885,24 @@
         <v>31</v>
       </c>
       <c r="K8" s="16">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L8" s="16"/>
-      <c r="M8" s="17">
-        <v>1.5</v>
+      <c r="M8" s="5">
+        <v>150</v>
       </c>
       <c r="N8" s="17">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>-143</v>
       </c>
       <c r="O8" s="16">
         <v>32</v>
       </c>
       <c r="P8" s="18">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R8" s="20">
@@ -20554,7 +20912,7 @@
         <v>25</v>
       </c>
       <c r="T8" s="22"/>
-      <c r="U8" s="143"/>
+      <c r="U8" s="146"/>
       <c r="V8" s="16"/>
     </row>
     <row r="9" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20589,27 +20947,25 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="K9" s="16">
-        <f>I9-J9-1</f>
-        <v>23.024999999999999</v>
+        <v>8</v>
       </c>
       <c r="L9" s="16"/>
-      <c r="M9" s="17">
-        <v>9</v>
+      <c r="M9" s="5">
+        <v>149</v>
       </c>
       <c r="N9" s="17">
-        <f t="shared" si="1"/>
-        <v>14.024999999999999</v>
+        <f t="shared" si="0"/>
+        <v>-141</v>
       </c>
       <c r="O9" s="16">
         <v>264</v>
       </c>
       <c r="P9" s="18">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="19">
-        <f t="shared" si="2"/>
-        <v>-9.9750000000000014</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R9" s="20">
         <v>45670</v>
@@ -20618,7 +20974,7 @@
         <v>46814</v>
       </c>
       <c r="T9" s="22"/>
-      <c r="U9" s="143"/>
+      <c r="U9" s="146"/>
       <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20653,27 +21009,26 @@
         <v>10</v>
       </c>
       <c r="K10" s="16">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="17">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="N10" s="17">
+        <f t="shared" si="0"/>
+        <v>-139</v>
+      </c>
+      <c r="O10" s="16">
+        <v>4</v>
+      </c>
+      <c r="P10" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="16">
-        <v>4</v>
-      </c>
-      <c r="P10" s="18">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="19">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
       <c r="R10" s="20">
         <v>45670</v>
       </c>
@@ -20681,7 +21036,7 @@
         <v>46814</v>
       </c>
       <c r="T10" s="22"/>
-      <c r="U10" s="143"/>
+      <c r="U10" s="146"/>
       <c r="V10" s="16"/>
     </row>
     <row r="11" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20716,27 +21071,25 @@
         <v>1.25</v>
       </c>
       <c r="K11" s="16">
-        <f>I11-J11-1</f>
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="L11" s="16"/>
-      <c r="M11" s="17">
-        <v>4.5</v>
+      <c r="M11" s="5">
+        <v>147</v>
       </c>
       <c r="N11" s="17">
-        <f t="shared" si="1"/>
-        <v>4.25</v>
+        <f t="shared" si="0"/>
+        <v>-137</v>
       </c>
       <c r="O11" s="16">
         <v>8</v>
       </c>
       <c r="P11" s="18">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="19">
-        <f t="shared" si="2"/>
-        <v>7.75</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R11" s="20">
         <v>45670</v>
@@ -20745,7 +21098,7 @@
         <v>46814</v>
       </c>
       <c r="T11" s="22"/>
-      <c r="U11" s="143"/>
+      <c r="U11" s="146"/>
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20780,28 +21133,26 @@
         <v>0</v>
       </c>
       <c r="K12" s="16">
-        <f t="shared" si="4"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L12" s="16"/>
-      <c r="M12" s="17">
-        <v>24</v>
+      <c r="M12" s="5">
+        <v>146</v>
       </c>
       <c r="N12" s="17">
+        <f t="shared" si="0"/>
+        <v>-135</v>
+      </c>
+      <c r="O12" s="16">
+        <v>192</v>
+      </c>
+      <c r="P12" s="18">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="16">
-        <v>192</v>
-      </c>
-      <c r="P12" s="18">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="Q12" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="R12" s="20">
         <v>45670</v>
       </c>
@@ -20809,7 +21160,7 @@
         <v>46814</v>
       </c>
       <c r="T12" s="22"/>
-      <c r="U12" s="143"/>
+      <c r="U12" s="146"/>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20844,27 +21195,25 @@
         <v>0</v>
       </c>
       <c r="K13" s="16">
-        <f>I13-J13</f>
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="L13" s="16"/>
-      <c r="M13" s="17">
-        <v>8</v>
+      <c r="M13" s="5">
+        <v>145</v>
       </c>
       <c r="N13" s="17">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>-133</v>
       </c>
       <c r="O13" s="16">
         <v>8</v>
       </c>
       <c r="P13" s="18">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="19">
-        <f t="shared" si="2"/>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R13" s="20">
         <v>45670</v>
@@ -20873,7 +21222,7 @@
         <v>46814</v>
       </c>
       <c r="T13" s="22"/>
-      <c r="U13" s="143"/>
+      <c r="U13" s="146"/>
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20908,28 +21257,25 @@
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="17">
-        <f>5+5</f>
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="N14" s="17">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>-131</v>
       </c>
       <c r="O14" s="16">
         <v>0</v>
       </c>
       <c r="P14" s="18">
-        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="Q14" s="19">
-        <f t="shared" si="2"/>
-        <v>140</v>
       </c>
       <c r="R14" s="20">
         <v>45670</v>
@@ -20938,7 +21284,7 @@
         <v>46814</v>
       </c>
       <c r="T14" s="22"/>
-      <c r="U14" s="143"/>
+      <c r="U14" s="146"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20973,27 +21319,25 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <f>I15-J15+30</f>
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="L15" s="16"/>
-      <c r="M15" s="17">
-        <v>5</v>
+      <c r="M15" s="5">
+        <v>143</v>
       </c>
       <c r="N15" s="17">
-        <f t="shared" si="1"/>
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>-129</v>
       </c>
       <c r="O15" s="16">
         <v>34</v>
       </c>
       <c r="P15" s="18">
-        <f t="shared" si="3"/>
-        <v>4.25</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="19">
-        <f t="shared" si="2"/>
-        <v>115.75</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R15" s="20">
         <v>45670</v>
@@ -21002,7 +21346,7 @@
         <v>46814</v>
       </c>
       <c r="T15" s="22"/>
-      <c r="U15" s="143"/>
+      <c r="U15" s="146"/>
       <c r="V15" s="16" t="s">
         <v>218</v>
       </c>
@@ -21035,27 +21379,29 @@
       <c r="I16" s="16"/>
       <c r="J16" s="17"/>
       <c r="K16" s="16">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L16" s="16"/>
-      <c r="M16" s="17">
-        <v>5</v>
+      <c r="M16" s="5">
+        <v>142</v>
       </c>
       <c r="N16" s="17">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>-127</v>
       </c>
       <c r="O16" s="16">
         <v>0</v>
       </c>
-      <c r="P16" s="18"/>
+      <c r="P16" s="18">
+        <v>15</v>
+      </c>
       <c r="Q16" s="19"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20">
         <v>46814</v>
       </c>
       <c r="T16" s="22"/>
-      <c r="U16" s="143"/>
+      <c r="U16" s="146"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21090,27 +21436,25 @@
         <v>0</v>
       </c>
       <c r="K17" s="16">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L17" s="16"/>
-      <c r="M17" s="17">
-        <v>3</v>
+      <c r="M17" s="5">
+        <v>141</v>
       </c>
       <c r="N17" s="17">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f t="shared" si="0"/>
+        <v>-125</v>
       </c>
       <c r="O17" s="16">
         <v>24</v>
       </c>
       <c r="P17" s="18">
-        <f t="shared" ref="P17:P76" si="5">O17/8</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="19">
-        <f t="shared" ref="Q17:Q48" si="6">K17-P17</f>
-        <v>47</v>
+        <f t="shared" ref="Q17:Q48" si="2">K17-P17</f>
+        <v>0</v>
       </c>
       <c r="R17" s="20">
         <v>45670</v>
@@ -21119,7 +21463,7 @@
         <v>46814</v>
       </c>
       <c r="T17" s="22"/>
-      <c r="U17" s="143"/>
+      <c r="U17" s="146"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21154,27 +21498,25 @@
         <v>0</v>
       </c>
       <c r="K18" s="16">
-        <f>I18-J18</f>
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="17">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="N18" s="17">
-        <f t="shared" si="1"/>
-        <v>126</v>
+        <f t="shared" si="0"/>
+        <v>-123</v>
       </c>
       <c r="O18" s="16">
         <v>0</v>
       </c>
       <c r="P18" s="18">
-        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="Q18" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q18" s="19">
-        <f t="shared" si="6"/>
-        <v>129</v>
       </c>
       <c r="R18" s="20">
         <v>45670</v>
@@ -21183,7 +21525,7 @@
         <v>46814</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="143"/>
+      <c r="U18" s="146"/>
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21218,27 +21560,25 @@
         <v>0</v>
       </c>
       <c r="K19" s="16">
-        <f t="shared" ref="K19:K27" si="7">I19-J19</f>
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="L19" s="16"/>
-      <c r="M19" s="17">
-        <v>4</v>
+      <c r="M19" s="5">
+        <v>139</v>
       </c>
       <c r="N19" s="17">
-        <f t="shared" si="1"/>
-        <v>151</v>
+        <f t="shared" si="0"/>
+        <v>-121</v>
       </c>
       <c r="O19" s="16">
         <v>0</v>
       </c>
       <c r="P19" s="18">
-        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="Q19" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q19" s="19">
-        <f t="shared" si="6"/>
-        <v>155</v>
       </c>
       <c r="R19" s="20">
         <v>45670</v>
@@ -21282,27 +21622,25 @@
         <v>0</v>
       </c>
       <c r="K20" s="16">
-        <f t="shared" si="7"/>
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="L20" s="16"/>
-      <c r="M20" s="17">
-        <v>0</v>
+      <c r="M20" s="5">
+        <v>138</v>
       </c>
       <c r="N20" s="17">
-        <f t="shared" si="1"/>
-        <v>155</v>
+        <f t="shared" si="0"/>
+        <v>-119</v>
       </c>
       <c r="O20" s="16">
         <v>0</v>
       </c>
       <c r="P20" s="18">
-        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="Q20" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q20" s="19">
-        <f t="shared" si="6"/>
-        <v>155</v>
       </c>
       <c r="R20" s="20">
         <v>45670</v>
@@ -21311,7 +21649,7 @@
         <v>46814</v>
       </c>
       <c r="T20" s="22"/>
-      <c r="U20" s="143"/>
+      <c r="U20" s="146"/>
       <c r="V20" s="16"/>
     </row>
     <row r="21" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21346,27 +21684,25 @@
         <v>0</v>
       </c>
       <c r="K21" s="16">
-        <f t="shared" si="7"/>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="17">
-        <v>8</v>
+      <c r="M21" s="5">
+        <v>137</v>
       </c>
       <c r="N21" s="17">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <f t="shared" si="0"/>
+        <v>-117</v>
       </c>
       <c r="O21" s="16">
         <v>0</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="Q21" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q21" s="19">
-        <f t="shared" si="6"/>
-        <v>90</v>
       </c>
       <c r="R21" s="20">
         <v>45670</v>
@@ -21375,7 +21711,7 @@
         <v>46814</v>
       </c>
       <c r="T21" s="22"/>
-      <c r="U21" s="143"/>
+      <c r="U21" s="146"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21410,27 +21746,25 @@
         <v>0</v>
       </c>
       <c r="K22" s="16">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="17">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="N22" s="17">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>-115</v>
       </c>
       <c r="O22" s="16">
         <v>0</v>
       </c>
       <c r="P22" s="18">
-        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="Q22" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q22" s="19">
-        <f t="shared" si="6"/>
-        <v>22</v>
       </c>
       <c r="R22" s="20">
         <v>45670</v>
@@ -21439,7 +21773,7 @@
         <v>46814</v>
       </c>
       <c r="T22" s="22"/>
-      <c r="U22" s="143"/>
+      <c r="U22" s="146"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21474,27 +21808,25 @@
         <v>3</v>
       </c>
       <c r="K23" s="16">
-        <f t="shared" si="7"/>
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="L23" s="16"/>
-      <c r="M23" s="17">
-        <v>21</v>
+      <c r="M23" s="5">
+        <v>135</v>
       </c>
       <c r="N23" s="17">
-        <f t="shared" si="1"/>
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>-113</v>
       </c>
       <c r="O23" s="16">
         <v>133</v>
       </c>
       <c r="P23" s="18">
-        <f t="shared" si="5"/>
-        <v>16.625</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="19">
-        <f t="shared" si="6"/>
-        <v>70.375</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R23" s="20">
         <v>45670</v>
@@ -21503,7 +21835,7 @@
         <v>46814</v>
       </c>
       <c r="T23" s="22"/>
-      <c r="U23" s="143"/>
+      <c r="U23" s="146"/>
       <c r="V23" s="16"/>
     </row>
     <row r="24" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21538,27 +21870,25 @@
         <v>0</v>
       </c>
       <c r="K24" s="16">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="L24" s="16"/>
-      <c r="M24" s="17">
-        <v>5</v>
+      <c r="M24" s="5">
+        <v>134</v>
       </c>
       <c r="N24" s="17">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>-111</v>
       </c>
       <c r="O24" s="16">
         <v>0</v>
       </c>
       <c r="P24" s="18">
-        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="Q24" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q24" s="19">
-        <f t="shared" si="6"/>
-        <v>10</v>
       </c>
       <c r="R24" s="20">
         <v>45670</v>
@@ -21567,7 +21897,7 @@
         <v>46814</v>
       </c>
       <c r="T24" s="22"/>
-      <c r="U24" s="143"/>
+      <c r="U24" s="146"/>
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21602,27 +21932,25 @@
         <v>6</v>
       </c>
       <c r="K25" s="16">
-        <f t="shared" si="7"/>
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="L25" s="16"/>
-      <c r="M25" s="17">
-        <v>6</v>
+      <c r="M25" s="5">
+        <v>133</v>
       </c>
       <c r="N25" s="17">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>-109</v>
       </c>
       <c r="O25" s="16">
         <v>136</v>
       </c>
       <c r="P25" s="18">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="19">
-        <f t="shared" si="6"/>
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R25" s="20">
         <v>45670</v>
@@ -21631,7 +21959,7 @@
         <v>45626</v>
       </c>
       <c r="T25" s="20"/>
-      <c r="U25" s="143"/>
+      <c r="U25" s="146"/>
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21666,27 +21994,25 @@
         <v>0</v>
       </c>
       <c r="K26" s="16">
-        <f>I26-J26+89.42</f>
-        <v>189.42000000000002</v>
+        <v>25</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="17">
-        <v>4.5</v>
+        <v>132</v>
       </c>
       <c r="N26" s="17">
-        <f t="shared" si="1"/>
-        <v>184.92000000000002</v>
+        <f t="shared" si="0"/>
+        <v>-107</v>
       </c>
       <c r="O26" s="16">
         <v>20</v>
       </c>
       <c r="P26" s="18">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="19">
-        <f t="shared" si="6"/>
-        <v>186.92000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R26" s="20">
         <v>45670</v>
@@ -21695,7 +22021,7 @@
         <v>45626</v>
       </c>
       <c r="T26" s="20"/>
-      <c r="U26" s="143"/>
+      <c r="U26" s="146"/>
       <c r="V26" s="16"/>
     </row>
     <row r="27" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21730,27 +22056,25 @@
         <v>143</v>
       </c>
       <c r="K27" s="16">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L27" s="16"/>
-      <c r="M27" s="17">
-        <v>0</v>
+      <c r="M27" s="5">
+        <v>131</v>
       </c>
       <c r="N27" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-105</v>
       </c>
       <c r="O27" s="16">
         <v>85</v>
       </c>
       <c r="P27" s="18">
-        <f t="shared" si="5"/>
-        <v>10.625</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="19">
-        <f t="shared" si="6"/>
-        <v>-10.625</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R27" s="20">
         <v>45212</v>
@@ -21761,7 +22085,7 @@
       <c r="T27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="U27" s="143"/>
+      <c r="U27" s="146"/>
       <c r="V27" s="16"/>
     </row>
     <row r="28" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21797,26 +22121,25 @@
         <v>89</v>
       </c>
       <c r="K28" s="16">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="L28" s="16"/>
-      <c r="M28" s="17">
-        <v>5</v>
+      <c r="M28" s="5">
+        <v>130</v>
       </c>
       <c r="N28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-103</v>
       </c>
       <c r="O28" s="16">
         <v>184</v>
       </c>
       <c r="P28" s="18">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="19">
-        <f t="shared" si="6"/>
-        <v>-18</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R28" s="20">
         <v>45212</v>
@@ -21825,7 +22148,7 @@
         <v>45657</v>
       </c>
       <c r="T28" s="22"/>
-      <c r="U28" s="143"/>
+      <c r="U28" s="146"/>
       <c r="V28" s="16"/>
     </row>
     <row r="29" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21860,26 +22183,24 @@
         <v>3</v>
       </c>
       <c r="K29" s="16">
-        <f t="shared" ref="K29:K41" si="8">I29-J29</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L29" s="16"/>
-      <c r="M29" s="17">
-        <v>0</v>
+      <c r="M29" s="5">
+        <v>129</v>
       </c>
       <c r="N29" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-101</v>
       </c>
       <c r="O29" s="16">
         <v>0</v>
       </c>
       <c r="P29" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q29" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R29" s="20">
@@ -21891,7 +22212,7 @@
       <c r="T29" s="20">
         <v>45650</v>
       </c>
-      <c r="U29" s="143"/>
+      <c r="U29" s="146"/>
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21926,27 +22247,25 @@
         <v>10</v>
       </c>
       <c r="K30" s="16">
-        <f t="shared" si="8"/>
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="17">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="N30" s="17">
-        <f t="shared" si="1"/>
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>-99</v>
       </c>
       <c r="O30" s="16">
         <v>0</v>
       </c>
       <c r="P30" s="18">
-        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="Q30" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q30" s="19">
-        <f t="shared" si="6"/>
-        <v>53</v>
       </c>
       <c r="R30" s="59">
         <v>45339</v>
@@ -21955,7 +22274,7 @@
         <v>45523</v>
       </c>
       <c r="T30" s="20"/>
-      <c r="U30" s="143"/>
+      <c r="U30" s="146"/>
       <c r="V30" s="16"/>
     </row>
     <row r="31" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21990,27 +22309,25 @@
         <v>0</v>
       </c>
       <c r="K31" s="16">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L31" s="16"/>
-      <c r="M31" s="17">
-        <v>0</v>
+      <c r="M31" s="5">
+        <v>127</v>
       </c>
       <c r="N31" s="17">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>-97</v>
       </c>
       <c r="O31" s="16">
         <v>0</v>
       </c>
       <c r="P31" s="18">
-        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="Q31" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q31" s="19">
-        <f t="shared" si="6"/>
-        <v>32</v>
       </c>
       <c r="R31" s="59">
         <v>45339</v>
@@ -22019,7 +22336,7 @@
         <v>45523</v>
       </c>
       <c r="T31" s="20"/>
-      <c r="U31" s="143"/>
+      <c r="U31" s="146"/>
       <c r="V31" s="16"/>
     </row>
     <row r="32" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22054,28 +22371,26 @@
         <v>52.3</v>
       </c>
       <c r="K32" s="16">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L32" s="16">
         <v>52.3</v>
       </c>
-      <c r="M32" s="17">
-        <f>L32-J32</f>
-        <v>0</v>
+      <c r="M32" s="5">
+        <v>126</v>
       </c>
       <c r="N32" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-95</v>
       </c>
       <c r="O32" s="16">
         <v>0</v>
       </c>
       <c r="P32" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R32" s="20">
@@ -22085,7 +22400,7 @@
         <v>45523</v>
       </c>
       <c r="T32" s="20"/>
-      <c r="U32" s="143"/>
+      <c r="U32" s="146"/>
       <c r="V32" s="16"/>
     </row>
     <row r="33" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22122,29 +22437,27 @@
         <v>143.5</v>
       </c>
       <c r="K33" s="16">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="L33" s="16">
         <v>143.5</v>
       </c>
-      <c r="M33" s="17">
-        <f>L33-J33</f>
-        <v>0</v>
+      <c r="M33" s="5">
+        <v>125</v>
       </c>
       <c r="N33" s="17">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>-93</v>
       </c>
       <c r="O33" s="16">
         <v>260</v>
       </c>
       <c r="P33" s="18">
-        <f t="shared" si="5"/>
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="19">
-        <f t="shared" si="6"/>
-        <v>-25.5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R33" s="20">
         <v>45175</v>
@@ -22153,7 +22466,7 @@
         <v>45523</v>
       </c>
       <c r="T33" s="20"/>
-      <c r="U33" s="143"/>
+      <c r="U33" s="146"/>
       <c r="V33" s="16"/>
     </row>
     <row r="34" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22189,29 +22502,27 @@
         <v>95.5</v>
       </c>
       <c r="K34" s="16">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="L34" s="16">
         <v>102</v>
       </c>
       <c r="M34" s="17">
-        <f>L34-J34</f>
-        <v>6.5</v>
+        <v>124</v>
       </c>
       <c r="N34" s="17">
-        <f t="shared" ref="N34:N61" si="9">K34-M34</f>
-        <v>27</v>
+        <f t="shared" ref="N34:N61" si="3">K34-M34</f>
+        <v>-91</v>
       </c>
       <c r="O34" s="16">
         <v>60</v>
       </c>
       <c r="P34" s="18">
-        <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="19">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R34" s="20">
         <v>45175</v>
@@ -22222,7 +22533,7 @@
       <c r="T34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U34" s="143" t="s">
+      <c r="U34" s="146" t="s">
         <v>67</v>
       </c>
       <c r="V34" s="16"/>
@@ -22259,29 +22570,27 @@
         <v>30.6</v>
       </c>
       <c r="K35" s="16">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L35" s="16">
         <v>71.55</v>
       </c>
-      <c r="M35" s="17">
-        <f>L35-J35</f>
-        <v>40.949999999999996</v>
+      <c r="M35" s="5">
+        <v>123</v>
       </c>
       <c r="N35" s="17">
-        <f t="shared" si="9"/>
-        <v>4.0500000000000043</v>
+        <f t="shared" si="3"/>
+        <v>-89</v>
       </c>
       <c r="O35" s="16">
         <v>221</v>
       </c>
       <c r="P35" s="18">
-        <f t="shared" si="5"/>
-        <v>27.625</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="19">
-        <f t="shared" si="6"/>
-        <v>17.375</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R35" s="20">
         <v>45175</v>
@@ -22290,7 +22599,7 @@
         <v>45348</v>
       </c>
       <c r="T35" s="20"/>
-      <c r="U35" s="143"/>
+      <c r="U35" s="146"/>
       <c r="V35" s="16"/>
     </row>
     <row r="36" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22327,29 +22636,27 @@
         <v>11.5</v>
       </c>
       <c r="K36" s="16">
-        <v>1.5</v>
+        <v>35</v>
       </c>
       <c r="L36" s="16">
         <v>11.5</v>
       </c>
-      <c r="M36" s="17">
-        <f>L36-J36</f>
-        <v>0</v>
+      <c r="M36" s="5">
+        <v>122</v>
       </c>
       <c r="N36" s="17">
-        <f t="shared" si="9"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>-87</v>
       </c>
       <c r="O36" s="16">
         <v>0</v>
       </c>
       <c r="P36" s="18">
-        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="Q36" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q36" s="19">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
       </c>
       <c r="R36" s="20">
         <v>45175</v>
@@ -22358,7 +22665,7 @@
         <v>45348</v>
       </c>
       <c r="T36" s="20"/>
-      <c r="U36" s="143"/>
+      <c r="U36" s="146"/>
       <c r="V36" s="16"/>
     </row>
     <row r="37" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22393,27 +22700,25 @@
         <v>10</v>
       </c>
       <c r="K37" s="16">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L37" s="16"/>
-      <c r="M37" s="17">
-        <v>0</v>
+      <c r="M37" s="5">
+        <v>121</v>
       </c>
       <c r="N37" s="17">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>-85</v>
       </c>
       <c r="O37" s="16">
         <v>0</v>
       </c>
       <c r="P37" s="18">
-        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="Q37" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q37" s="19">
-        <f t="shared" si="6"/>
-        <v>10</v>
       </c>
       <c r="R37" s="59">
         <v>45214</v>
@@ -22422,7 +22727,7 @@
         <v>45348</v>
       </c>
       <c r="T37" s="20"/>
-      <c r="U37" s="143"/>
+      <c r="U37" s="146"/>
       <c r="V37" s="16"/>
     </row>
     <row r="38" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22457,26 +22762,24 @@
         <v>29</v>
       </c>
       <c r="K38" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="17">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N38" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-83</v>
       </c>
       <c r="O38" s="16">
         <v>0</v>
       </c>
       <c r="P38" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q38" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R38" s="59">
@@ -22486,7 +22789,7 @@
         <v>45348</v>
       </c>
       <c r="T38" s="20"/>
-      <c r="U38" s="143"/>
+      <c r="U38" s="146"/>
       <c r="V38" s="16"/>
     </row>
     <row r="39" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22521,27 +22824,25 @@
         <v>3</v>
       </c>
       <c r="K39" s="16">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="L39" s="16"/>
-      <c r="M39" s="17">
-        <v>0</v>
+      <c r="M39" s="5">
+        <v>119</v>
       </c>
       <c r="N39" s="17">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>-81</v>
       </c>
       <c r="O39" s="16">
         <v>0</v>
       </c>
       <c r="P39" s="18">
-        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="Q39" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q39" s="19">
-        <f t="shared" si="6"/>
-        <v>6</v>
       </c>
       <c r="R39" s="59">
         <v>45214</v>
@@ -22550,7 +22851,7 @@
         <v>45737</v>
       </c>
       <c r="T39" s="20"/>
-      <c r="U39" s="143"/>
+      <c r="U39" s="146"/>
       <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22585,27 +22886,25 @@
         <v>8</v>
       </c>
       <c r="K40" s="16">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L40" s="16"/>
-      <c r="M40" s="17">
-        <v>0</v>
+      <c r="M40" s="5">
+        <v>118</v>
       </c>
       <c r="N40" s="17">
-        <f t="shared" si="9"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>-79</v>
       </c>
       <c r="O40" s="16">
         <v>0</v>
       </c>
       <c r="P40" s="18">
-        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="Q40" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q40" s="19">
-        <f t="shared" si="6"/>
-        <v>14</v>
       </c>
       <c r="R40" s="59">
         <v>45214</v>
@@ -22614,7 +22913,7 @@
         <v>45737</v>
       </c>
       <c r="T40" s="20"/>
-      <c r="U40" s="143"/>
+      <c r="U40" s="146"/>
       <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22649,27 +22948,25 @@
         <v>14</v>
       </c>
       <c r="K41" s="16">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="L41" s="16"/>
-      <c r="M41" s="17">
-        <v>0</v>
+      <c r="M41" s="5">
+        <v>117</v>
       </c>
       <c r="N41" s="17">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>-77</v>
       </c>
       <c r="O41" s="16">
         <v>0</v>
       </c>
       <c r="P41" s="18">
-        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="Q41" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="Q41" s="19">
-        <f t="shared" si="6"/>
-        <v>6</v>
       </c>
       <c r="R41" s="59">
         <v>45214</v>
@@ -22713,25 +23010,24 @@
         <v>8</v>
       </c>
       <c r="K42" s="16">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="17">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="N42" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-75</v>
       </c>
       <c r="O42" s="16">
         <v>40</v>
       </c>
       <c r="P42" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="Q42" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R42" s="20">
@@ -22743,7 +23039,7 @@
       <c r="T42" s="20">
         <v>45813</v>
       </c>
-      <c r="U42" s="143"/>
+      <c r="U42" s="146"/>
       <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22774,26 +23070,25 @@
       <c r="I43" s="21"/>
       <c r="J43" s="17"/>
       <c r="K43" s="16">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="L43" s="16"/>
-      <c r="M43" s="17">
-        <v>26</v>
+      <c r="M43" s="5">
+        <v>115</v>
       </c>
       <c r="N43" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-73</v>
       </c>
       <c r="O43" s="16">
         <v>205</v>
       </c>
       <c r="P43" s="18">
-        <f t="shared" si="5"/>
-        <v>25.625</v>
+        <v>42</v>
       </c>
       <c r="Q43" s="19">
-        <f t="shared" si="6"/>
-        <v>0.375</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R43" s="20">
         <v>45691</v>
@@ -22802,7 +23097,7 @@
         <v>45692</v>
       </c>
       <c r="T43" s="56"/>
-      <c r="U43" s="143"/>
+      <c r="U43" s="146"/>
       <c r="V43" s="16"/>
     </row>
     <row r="44" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22837,30 +23132,27 @@
         <v>41</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" ref="K44:K48" si="10">I44-J44</f>
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L44" s="16">
         <v>50.05</v>
       </c>
-      <c r="M44" s="17">
-        <f>L44-J44</f>
-        <v>9.0499999999999972</v>
+      <c r="M44" s="5">
+        <v>114</v>
       </c>
       <c r="N44" s="17">
-        <f t="shared" si="9"/>
-        <v>44.95</v>
+        <f t="shared" si="3"/>
+        <v>-71</v>
       </c>
       <c r="O44" s="16">
         <v>112</v>
       </c>
       <c r="P44" s="18">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="19">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R44" s="20">
         <v>45411</v>
@@ -22869,7 +23161,7 @@
         <v>45692</v>
       </c>
       <c r="T44" s="56"/>
-      <c r="U44" s="143"/>
+      <c r="U44" s="146"/>
       <c r="V44" s="16"/>
     </row>
     <row r="45" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -22904,30 +23196,27 @@
         <v>79.7</v>
       </c>
       <c r="K45" s="16">
-        <f t="shared" si="10"/>
-        <v>20.299999999999997</v>
+        <v>44</v>
       </c>
       <c r="L45" s="16">
         <v>105.5</v>
       </c>
-      <c r="M45" s="17">
-        <f>L45-J45</f>
-        <v>25.799999999999997</v>
+      <c r="M45" s="5">
+        <v>113</v>
       </c>
       <c r="N45" s="17">
-        <f t="shared" si="9"/>
-        <v>-5.5</v>
+        <f t="shared" si="3"/>
+        <v>-69</v>
       </c>
       <c r="O45" s="16">
         <v>72</v>
       </c>
       <c r="P45" s="18">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="Q45" s="19">
-        <f t="shared" si="6"/>
-        <v>11.299999999999997</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="R45" s="20">
         <v>45411</v>
@@ -22938,7 +23227,7 @@
       <c r="T45" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="U45" s="143" t="s">
+      <c r="U45" s="146" t="s">
         <v>219</v>
       </c>
       <c r="V45" s="16"/>
@@ -22975,26 +23264,24 @@
         <v>3</v>
       </c>
       <c r="K46" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="17">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="N46" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-67</v>
       </c>
       <c r="O46" s="16">
         <v>0</v>
       </c>
       <c r="P46" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R46" s="20">
@@ -23004,7 +23291,7 @@
         <v>45674</v>
       </c>
       <c r="T46" s="22"/>
-      <c r="U46" s="143"/>
+      <c r="U46" s="146"/>
       <c r="V46" s="16"/>
     </row>
     <row r="47" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23039,26 +23326,24 @@
         <v>5</v>
       </c>
       <c r="K47" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L47" s="16"/>
-      <c r="M47" s="17">
-        <v>0</v>
+      <c r="M47" s="5">
+        <v>111</v>
       </c>
       <c r="N47" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-65</v>
       </c>
       <c r="O47" s="16">
         <v>0</v>
       </c>
       <c r="P47" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Q47" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R47" s="59">
@@ -23068,7 +23353,7 @@
         <v>45674</v>
       </c>
       <c r="T47" s="22"/>
-      <c r="U47" s="143"/>
+      <c r="U47" s="146"/>
       <c r="V47" s="16"/>
     </row>
     <row r="48" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23103,26 +23388,24 @@
         <v>4</v>
       </c>
       <c r="K48" s="16">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L48" s="16"/>
-      <c r="M48" s="17">
-        <v>0</v>
+      <c r="M48" s="5">
+        <v>110</v>
       </c>
       <c r="N48" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-63</v>
       </c>
       <c r="O48" s="16">
         <v>0</v>
       </c>
       <c r="P48" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Q48" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R48" s="22">
@@ -23132,7 +23415,7 @@
         <v>45674</v>
       </c>
       <c r="T48" s="22"/>
-      <c r="U48" s="143"/>
+      <c r="U48" s="146"/>
       <c r="V48" s="16"/>
     </row>
     <row r="49" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23167,26 +23450,25 @@
         <v>54</v>
       </c>
       <c r="K49" s="16">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="L49" s="16"/>
-      <c r="M49" s="17">
-        <v>16</v>
+      <c r="M49" s="5">
+        <v>109</v>
       </c>
       <c r="N49" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-61</v>
       </c>
       <c r="O49" s="16">
         <v>60</v>
       </c>
       <c r="P49" s="18">
-        <f t="shared" si="5"/>
-        <v>7.5</v>
+        <v>48</v>
       </c>
       <c r="Q49" s="19">
-        <f t="shared" ref="Q49:Q76" si="11">K49-P49</f>
-        <v>8.5</v>
+        <f t="shared" ref="Q49:Q76" si="4">K49-P49</f>
+        <v>0</v>
       </c>
       <c r="R49" s="22">
         <v>45481</v>
@@ -23195,7 +23477,7 @@
         <v>45674</v>
       </c>
       <c r="T49" s="22"/>
-      <c r="U49" s="143"/>
+      <c r="U49" s="146"/>
       <c r="V49" s="16"/>
     </row>
     <row r="50" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23230,25 +23512,24 @@
         <v>48</v>
       </c>
       <c r="K50" s="16">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="17">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="N50" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-59</v>
       </c>
       <c r="O50" s="16">
         <v>64</v>
       </c>
       <c r="P50" s="18">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="Q50" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R50" s="22">
@@ -23258,7 +23539,7 @@
         <v>45674</v>
       </c>
       <c r="T50" s="22"/>
-      <c r="U50" s="143"/>
+      <c r="U50" s="146"/>
       <c r="V50" s="16"/>
     </row>
     <row r="51" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23293,25 +23574,24 @@
         <v>37</v>
       </c>
       <c r="K51" s="16">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="L51" s="16"/>
-      <c r="M51" s="17">
-        <v>8</v>
+      <c r="M51" s="5">
+        <v>107</v>
       </c>
       <c r="N51" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-57</v>
       </c>
       <c r="O51" s="16">
         <v>64</v>
       </c>
       <c r="P51" s="18">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Q51" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R51" s="22">
@@ -23321,7 +23601,7 @@
         <v>45674</v>
       </c>
       <c r="T51" s="22"/>
-      <c r="U51" s="143"/>
+      <c r="U51" s="146"/>
       <c r="V51" s="16"/>
     </row>
     <row r="52" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23356,26 +23636,24 @@
         <v>54</v>
       </c>
       <c r="K52" s="16">
-        <f>I52-J52</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="L52" s="16"/>
-      <c r="M52" s="17">
-        <v>0</v>
+      <c r="M52" s="5">
+        <v>106</v>
       </c>
       <c r="N52" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-55</v>
       </c>
       <c r="O52" s="16">
         <v>0</v>
       </c>
       <c r="P52" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q52" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R52" s="22">
@@ -23385,7 +23663,7 @@
         <v>45674</v>
       </c>
       <c r="T52" s="22"/>
-      <c r="U52" s="143"/>
+      <c r="U52" s="146"/>
       <c r="V52" s="16"/>
     </row>
     <row r="53" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23420,26 +23698,25 @@
         <v>22</v>
       </c>
       <c r="K53" s="16">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="L53" s="16"/>
-      <c r="M53" s="17">
-        <v>5</v>
+      <c r="M53" s="5">
+        <v>105</v>
       </c>
       <c r="N53" s="17">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-53</v>
       </c>
       <c r="O53" s="16">
         <v>0</v>
       </c>
       <c r="P53" s="18">
-        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="Q53" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q53" s="19">
-        <f t="shared" si="11"/>
-        <v>10</v>
       </c>
       <c r="R53" s="22">
         <v>45481</v>
@@ -23448,7 +23725,7 @@
         <v>45674</v>
       </c>
       <c r="T53" s="22"/>
-      <c r="U53" s="143"/>
+      <c r="U53" s="146"/>
       <c r="V53" s="16"/>
     </row>
     <row r="54" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23483,26 +23760,25 @@
         <v>5</v>
       </c>
       <c r="K54" s="16">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="17">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="N54" s="17">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>-51</v>
       </c>
       <c r="O54" s="16">
         <v>52</v>
       </c>
       <c r="P54" s="18">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
+        <v>53</v>
       </c>
       <c r="Q54" s="19">
-        <f t="shared" si="11"/>
-        <v>-2.5</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R54" s="22">
         <v>45481</v>
@@ -23511,7 +23787,7 @@
         <v>45674</v>
       </c>
       <c r="T54" s="22"/>
-      <c r="U54" s="143"/>
+      <c r="U54" s="146"/>
       <c r="V54" s="16"/>
     </row>
     <row r="55" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23546,27 +23822,25 @@
         <v>41</v>
       </c>
       <c r="K55" s="16">
-        <f t="shared" ref="K55:K76" si="12">I55-J55</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L55" s="16"/>
-      <c r="M55" s="17">
-        <v>0</v>
+      <c r="M55" s="5">
+        <v>103</v>
       </c>
       <c r="N55" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-49</v>
       </c>
       <c r="O55" s="16">
         <v>148</v>
       </c>
       <c r="P55" s="18">
-        <f t="shared" si="5"/>
-        <v>18.5</v>
+        <v>54</v>
       </c>
       <c r="Q55" s="19">
-        <f t="shared" si="11"/>
-        <v>-18.5</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R55" s="22">
         <v>45481</v>
@@ -23575,7 +23849,7 @@
         <v>45674</v>
       </c>
       <c r="T55" s="22"/>
-      <c r="U55" s="143"/>
+      <c r="U55" s="146"/>
       <c r="V55" s="16"/>
     </row>
     <row r="56" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23610,26 +23884,24 @@
         <v>17</v>
       </c>
       <c r="K56" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L56" s="16"/>
-      <c r="M56" s="17">
-        <v>0</v>
+      <c r="M56" s="5">
+        <v>102</v>
       </c>
       <c r="N56" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-47</v>
       </c>
       <c r="O56" s="16">
         <v>0</v>
       </c>
       <c r="P56" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q56" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R56" s="22">
@@ -23639,7 +23911,7 @@
         <v>45684</v>
       </c>
       <c r="T56" s="22"/>
-      <c r="U56" s="143" t="s">
+      <c r="U56" s="146" t="s">
         <v>94</v>
       </c>
       <c r="V56" s="16"/>
@@ -23676,26 +23948,25 @@
         <v>10</v>
       </c>
       <c r="K57" s="16">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="L57" s="16"/>
-      <c r="M57" s="17">
-        <v>0</v>
+      <c r="M57" s="5">
+        <v>101</v>
       </c>
       <c r="N57" s="17">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>-45</v>
       </c>
       <c r="O57" s="16">
         <v>0</v>
       </c>
       <c r="P57" s="18">
-        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="Q57" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q57" s="19">
-        <f t="shared" si="11"/>
-        <v>13</v>
       </c>
       <c r="R57" s="22">
         <v>45481</v>
@@ -23704,7 +23975,7 @@
         <v>45684</v>
       </c>
       <c r="T57" s="22"/>
-      <c r="U57" s="143"/>
+      <c r="U57" s="146"/>
       <c r="V57" s="16"/>
     </row>
     <row r="58" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23739,27 +24010,25 @@
         <v>12</v>
       </c>
       <c r="K58" s="16">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="L58" s="16"/>
       <c r="M58" s="17">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N58" s="17">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>-43</v>
       </c>
       <c r="O58" s="16">
         <v>32</v>
       </c>
       <c r="P58" s="18">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="Q58" s="19">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R58" s="22">
         <v>45481</v>
@@ -23768,7 +24037,7 @@
         <v>45684</v>
       </c>
       <c r="T58" s="22"/>
-      <c r="U58" s="143"/>
+      <c r="U58" s="146"/>
       <c r="V58" s="16"/>
     </row>
     <row r="59" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23804,27 +24073,25 @@
         <v>39.75</v>
       </c>
       <c r="K59" s="16">
-        <f t="shared" si="12"/>
-        <v>1.75</v>
+        <v>58</v>
       </c>
       <c r="L59" s="16"/>
-      <c r="M59" s="17">
-        <v>0</v>
+      <c r="M59" s="5">
+        <v>99</v>
       </c>
       <c r="N59" s="17">
-        <f t="shared" si="9"/>
-        <v>1.75</v>
+        <f t="shared" si="3"/>
+        <v>-41</v>
       </c>
       <c r="O59" s="16">
         <v>55</v>
       </c>
       <c r="P59" s="18">
-        <f t="shared" si="5"/>
-        <v>6.875</v>
+        <v>58</v>
       </c>
       <c r="Q59" s="19">
-        <f t="shared" si="11"/>
-        <v>-5.125</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R59" s="22">
         <v>45488</v>
@@ -23833,7 +24100,7 @@
         <v>45722</v>
       </c>
       <c r="T59" s="22"/>
-      <c r="U59" s="143"/>
+      <c r="U59" s="146"/>
       <c r="V59" s="16"/>
     </row>
     <row r="60" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23869,34 +24136,32 @@
         <v>10.5</v>
       </c>
       <c r="K60" s="16">
-        <f t="shared" si="12"/>
-        <v>3.5</v>
+        <v>59</v>
       </c>
       <c r="L60" s="16"/>
-      <c r="M60" s="17">
-        <v>0</v>
+      <c r="M60" s="5">
+        <v>98</v>
       </c>
       <c r="N60" s="17">
-        <f t="shared" si="9"/>
-        <v>3.5</v>
+        <f t="shared" si="3"/>
+        <v>-39</v>
       </c>
       <c r="O60" s="16">
         <v>0</v>
       </c>
       <c r="P60" s="18">
-        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="Q60" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q60" s="19">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
       </c>
       <c r="R60" s="22">
         <v>45488</v>
       </c>
       <c r="S60" s="22"/>
       <c r="T60" s="22"/>
-      <c r="U60" s="143"/>
+      <c r="U60" s="146"/>
       <c r="V60" s="16"/>
     </row>
     <row r="61" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23932,34 +24197,32 @@
         <v>61</v>
       </c>
       <c r="K61" s="16">
-        <f>I61-J61</f>
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="L61" s="16"/>
-      <c r="M61" s="17">
-        <v>0</v>
+      <c r="M61" s="5">
+        <v>97</v>
       </c>
       <c r="N61" s="17">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>-37</v>
       </c>
       <c r="O61" s="16">
         <v>21</v>
       </c>
       <c r="P61" s="18">
-        <f t="shared" si="5"/>
-        <v>2.625</v>
+        <v>60</v>
       </c>
       <c r="Q61" s="19">
-        <f t="shared" si="11"/>
-        <v>0.375</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R61" s="22">
         <v>45568</v>
       </c>
       <c r="S61" s="22"/>
       <c r="T61" s="22"/>
-      <c r="U61" s="143"/>
+      <c r="U61" s="146"/>
       <c r="V61" s="16"/>
     </row>
     <row r="62" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23994,11 +24257,11 @@
         <v>1</v>
       </c>
       <c r="K62" s="16">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="17">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N62" s="17">
         <v>68</v>
@@ -24007,12 +24270,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="18">
-        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="Q62" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q62" s="19">
-        <f t="shared" si="11"/>
-        <v>68</v>
       </c>
       <c r="R62" s="22">
         <v>45488</v>
@@ -24020,7 +24282,7 @@
       <c r="S62" s="22">
         <v>45488</v>
       </c>
-      <c r="U62" s="143"/>
+      <c r="U62" s="146"/>
       <c r="V62" s="16"/>
     </row>
     <row r="63" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24055,11 +24317,11 @@
         <v>1</v>
       </c>
       <c r="K63" s="16">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L63" s="16"/>
-      <c r="M63" s="17">
-        <v>0</v>
+      <c r="M63" s="5">
+        <v>95</v>
       </c>
       <c r="N63" s="17">
         <v>49</v>
@@ -24068,12 +24330,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="18">
-        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="Q63" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q63" s="19">
-        <f t="shared" si="11"/>
-        <v>49</v>
       </c>
       <c r="R63" s="22">
         <v>45488</v>
@@ -24081,7 +24342,7 @@
       <c r="S63" s="22">
         <v>45568</v>
       </c>
-      <c r="U63" s="143"/>
+      <c r="U63" s="146"/>
       <c r="V63" s="16"/>
     </row>
     <row r="64" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24116,11 +24377,11 @@
         <v>0</v>
       </c>
       <c r="K64" s="16">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="L64" s="16"/>
-      <c r="M64" s="17">
-        <v>0</v>
+      <c r="M64" s="5">
+        <v>94</v>
       </c>
       <c r="N64" s="17">
         <v>30</v>
@@ -24129,18 +24390,17 @@
         <v>0</v>
       </c>
       <c r="P64" s="18">
-        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="Q64" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q64" s="19">
-        <f t="shared" si="11"/>
-        <v>30</v>
       </c>
       <c r="R64" s="22">
         <v>45488</v>
       </c>
       <c r="S64" s="22"/>
-      <c r="U64" s="143"/>
+      <c r="U64" s="146"/>
       <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24175,11 +24435,11 @@
         <v>0</v>
       </c>
       <c r="K65" s="16">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="L65" s="16"/>
-      <c r="M65" s="17">
-        <v>0</v>
+      <c r="M65" s="5">
+        <v>93</v>
       </c>
       <c r="N65" s="17">
         <v>21</v>
@@ -24188,12 +24448,11 @@
         <v>0</v>
       </c>
       <c r="P65" s="18">
-        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="Q65" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q65" s="19">
-        <f t="shared" si="11"/>
-        <v>21</v>
       </c>
       <c r="R65" s="22">
         <v>45488</v>
@@ -24201,7 +24460,7 @@
       <c r="S65" s="22">
         <v>45568</v>
       </c>
-      <c r="U65" s="143" t="s">
+      <c r="U65" s="146" t="s">
         <v>110</v>
       </c>
       <c r="V65" s="16"/>
@@ -24238,27 +24497,25 @@
         <v>4</v>
       </c>
       <c r="K66" s="16">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="L66" s="16"/>
       <c r="M66" s="17">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="N66" s="17">
-        <f t="shared" ref="N66:N99" si="13">K66-M66</f>
-        <v>5</v>
+        <f t="shared" ref="N66:N99" si="5">K66-M66</f>
+        <v>-27</v>
       </c>
       <c r="O66" s="16">
         <v>32</v>
       </c>
       <c r="P66" s="18">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="Q66" s="19">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R66" s="22">
         <v>45568</v>
@@ -24267,7 +24524,7 @@
         <v>45737</v>
       </c>
       <c r="T66" s="22"/>
-      <c r="U66" s="143"/>
+      <c r="U66" s="146"/>
       <c r="V66" s="16"/>
     </row>
     <row r="67" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24302,27 +24559,25 @@
         <v>0</v>
       </c>
       <c r="K67" s="16">
-        <f>I67-J67</f>
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="L67" s="16"/>
-      <c r="M67" s="17">
-        <v>8</v>
+      <c r="M67" s="5">
+        <v>91</v>
       </c>
       <c r="N67" s="17">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>-25</v>
       </c>
       <c r="O67" s="16">
         <v>62</v>
       </c>
       <c r="P67" s="18">
-        <f t="shared" si="5"/>
-        <v>7.75</v>
+        <v>66</v>
       </c>
       <c r="Q67" s="19">
-        <f t="shared" si="11"/>
-        <v>1.25</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R67" s="22">
         <v>45017</v>
@@ -24331,7 +24586,7 @@
         <v>45737</v>
       </c>
       <c r="T67" s="22"/>
-      <c r="U67" s="143"/>
+      <c r="U67" s="146"/>
       <c r="V67" s="16"/>
     </row>
     <row r="68" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24366,27 +24621,25 @@
         <v>3</v>
       </c>
       <c r="K68" s="16">
-        <f>I68-J68</f>
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="L68" s="16"/>
-      <c r="M68" s="17">
-        <v>3</v>
+      <c r="M68" s="5">
+        <v>90</v>
       </c>
       <c r="N68" s="17">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-23</v>
       </c>
       <c r="O68" s="16">
         <v>32</v>
       </c>
       <c r="P68" s="18">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="Q68" s="19">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R68" s="22">
         <v>45017</v>
@@ -24395,7 +24648,7 @@
         <v>45737</v>
       </c>
       <c r="T68" s="22"/>
-      <c r="U68" s="143"/>
+      <c r="U68" s="146"/>
       <c r="V68" s="16"/>
     </row>
     <row r="69" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24430,27 +24683,25 @@
         <v>0</v>
       </c>
       <c r="K69" s="16">
-        <f>I69-J69</f>
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="L69" s="16"/>
-      <c r="M69" s="17">
-        <v>1</v>
+      <c r="M69" s="5">
+        <v>89</v>
       </c>
       <c r="N69" s="17">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>-21</v>
       </c>
       <c r="O69" s="16">
         <v>0</v>
       </c>
       <c r="P69" s="18">
-        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="Q69" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q69" s="19">
-        <f t="shared" si="11"/>
-        <v>7</v>
       </c>
       <c r="R69" s="22">
         <v>45017</v>
@@ -24459,7 +24710,7 @@
         <v>45747</v>
       </c>
       <c r="T69" s="22"/>
-      <c r="U69" s="143"/>
+      <c r="U69" s="146"/>
       <c r="V69" s="16"/>
     </row>
     <row r="70" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24494,27 +24745,25 @@
         <v>3</v>
       </c>
       <c r="K70" s="16">
-        <f>I70-J70</f>
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="L70" s="16"/>
       <c r="M70" s="17">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="N70" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-19</v>
       </c>
       <c r="O70" s="16">
         <v>15</v>
       </c>
       <c r="P70" s="18">
-        <f t="shared" si="5"/>
-        <v>1.875</v>
+        <v>69</v>
       </c>
       <c r="Q70" s="19">
-        <f t="shared" si="11"/>
-        <v>0.125</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R70" s="22">
         <v>45539</v>
@@ -24558,27 +24807,25 @@
         <v>8.1</v>
       </c>
       <c r="K71" s="16">
-        <f t="shared" si="12"/>
-        <v>24.9</v>
+        <v>70</v>
       </c>
       <c r="L71" s="16"/>
-      <c r="M71" s="17">
-        <v>0.75</v>
+      <c r="M71" s="5">
+        <v>87</v>
       </c>
       <c r="N71" s="17">
-        <f t="shared" si="13"/>
-        <v>24.15</v>
+        <f t="shared" si="5"/>
+        <v>-17</v>
       </c>
       <c r="O71" s="16">
         <v>36</v>
       </c>
       <c r="P71" s="18">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>70</v>
       </c>
       <c r="Q71" s="19">
-        <f t="shared" si="11"/>
-        <v>20.399999999999999</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R71" s="22">
         <v>45539</v>
@@ -24622,27 +24869,25 @@
         <v>0</v>
       </c>
       <c r="K72" s="16">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="L72" s="16"/>
-      <c r="M72" s="17">
-        <v>0</v>
+      <c r="M72" s="5">
+        <v>86</v>
       </c>
       <c r="N72" s="17">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>-15</v>
       </c>
       <c r="O72" s="16">
         <v>0</v>
       </c>
       <c r="P72" s="18">
-        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="Q72" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q72" s="19">
-        <f t="shared" si="11"/>
-        <v>2</v>
       </c>
       <c r="R72" s="22">
         <v>45539</v>
@@ -24686,27 +24931,25 @@
         <v>12</v>
       </c>
       <c r="K73" s="16">
-        <f t="shared" si="12"/>
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="L73" s="16"/>
-      <c r="M73" s="17">
-        <v>0</v>
+      <c r="M73" s="5">
+        <v>85</v>
       </c>
       <c r="N73" s="17">
-        <f t="shared" si="13"/>
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>-13</v>
       </c>
       <c r="O73" s="16">
         <v>0</v>
       </c>
       <c r="P73" s="18">
-        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="Q73" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="Q73" s="19">
-        <f t="shared" si="11"/>
-        <v>33</v>
       </c>
       <c r="R73" s="22">
         <v>45657</v>
@@ -24750,26 +24993,24 @@
         <v>25</v>
       </c>
       <c r="K74" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="17">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N74" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-11</v>
       </c>
       <c r="O74" s="16">
         <v>0</v>
       </c>
       <c r="P74" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Q74" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R74" s="22">
@@ -24814,26 +25055,24 @@
         <v>25</v>
       </c>
       <c r="K75" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L75" s="16"/>
-      <c r="M75" s="17">
-        <v>0</v>
+      <c r="M75" s="5">
+        <v>83</v>
       </c>
       <c r="N75" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-9</v>
       </c>
       <c r="O75" s="16">
         <v>0</v>
       </c>
       <c r="P75" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="Q75" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R75" s="22">
@@ -24878,26 +25117,24 @@
         <v>5</v>
       </c>
       <c r="K76" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L76" s="16"/>
-      <c r="M76" s="17">
-        <v>0</v>
+      <c r="M76" s="5">
+        <v>82</v>
       </c>
       <c r="N76" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-7</v>
       </c>
       <c r="O76" s="16">
         <v>0</v>
       </c>
       <c r="P76" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Q76" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R76" s="22">
@@ -24942,18 +25179,20 @@
         <v>0</v>
       </c>
       <c r="K77" s="16">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="L77" s="16"/>
-      <c r="M77" s="17">
-        <v>1</v>
+      <c r="M77" s="5">
+        <v>81</v>
       </c>
       <c r="N77" s="17">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>-5</v>
       </c>
       <c r="O77" s="16"/>
-      <c r="P77" s="18"/>
+      <c r="P77" s="18">
+        <v>76</v>
+      </c>
       <c r="Q77" s="19"/>
       <c r="R77" s="22">
         <v>45601</v>
@@ -24995,18 +25234,20 @@
         <v>0</v>
       </c>
       <c r="K78" s="16">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="17">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="N78" s="17">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>-3</v>
       </c>
       <c r="O78" s="16"/>
-      <c r="P78" s="18"/>
+      <c r="P78" s="18">
+        <v>77</v>
+      </c>
       <c r="Q78" s="19"/>
       <c r="R78" s="22">
         <v>45601</v>
@@ -25048,19 +25289,20 @@
         <v>0</v>
       </c>
       <c r="K79" s="16">
-        <f>17+8</f>
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="L79" s="16"/>
-      <c r="M79" s="17">
-        <v>0</v>
+      <c r="M79" s="5">
+        <v>79</v>
       </c>
       <c r="N79" s="17">
-        <f t="shared" si="13"/>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
       <c r="O79" s="16"/>
-      <c r="P79" s="18"/>
+      <c r="P79" s="18">
+        <v>78</v>
+      </c>
       <c r="Q79" s="19"/>
       <c r="R79" s="22">
         <v>45601</v>
@@ -25092,18 +25334,20 @@
       <c r="I80" s="21"/>
       <c r="J80" s="17"/>
       <c r="K80" s="16">
+        <v>79</v>
+      </c>
+      <c r="L80" s="16"/>
+      <c r="M80" s="5">
+        <v>78</v>
+      </c>
+      <c r="N80" s="17">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L80" s="16"/>
-      <c r="M80" s="17">
-        <v>1</v>
-      </c>
-      <c r="N80" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="O80" s="16"/>
-      <c r="P80" s="18"/>
+      <c r="P80" s="18">
+        <v>79</v>
+      </c>
       <c r="Q80" s="19"/>
       <c r="R80" s="22"/>
       <c r="S80" s="22"/>
@@ -25143,19 +25387,20 @@
         <v>4</v>
       </c>
       <c r="K81" s="16">
-        <f>22+4-1</f>
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="L81" s="16"/>
-      <c r="M81" s="17">
-        <v>4.625</v>
+      <c r="M81" s="5">
+        <v>77</v>
       </c>
       <c r="N81" s="17">
-        <f t="shared" si="13"/>
-        <v>20.375</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="O81" s="16"/>
-      <c r="P81" s="18"/>
+      <c r="P81" s="18">
+        <v>80</v>
+      </c>
       <c r="Q81" s="19"/>
       <c r="R81" s="22"/>
       <c r="S81" s="22">
@@ -25197,18 +25442,20 @@
         <v>0</v>
       </c>
       <c r="K82" s="16">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="L82" s="16"/>
       <c r="M82" s="17">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N82" s="17">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="O82" s="16"/>
-      <c r="P82" s="18"/>
+      <c r="P82" s="18">
+        <v>81</v>
+      </c>
       <c r="Q82" s="19"/>
       <c r="R82" s="22">
         <v>45565</v>
@@ -25252,18 +25499,20 @@
         <v>1</v>
       </c>
       <c r="K83" s="16">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="L83" s="16"/>
-      <c r="M83" s="17">
-        <v>0</v>
+      <c r="M83" s="5">
+        <v>75</v>
       </c>
       <c r="N83" s="17">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="O83" s="16"/>
-      <c r="P83" s="18"/>
+      <c r="P83" s="18">
+        <v>82</v>
+      </c>
       <c r="Q83" s="19"/>
       <c r="R83" s="22">
         <v>44987</v>
@@ -25307,18 +25556,20 @@
         <v>2</v>
       </c>
       <c r="K84" s="16">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="L84" s="16"/>
-      <c r="M84" s="17">
-        <v>0</v>
+      <c r="M84" s="5">
+        <v>74</v>
       </c>
       <c r="N84" s="17">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="O84" s="16"/>
-      <c r="P84" s="18"/>
+      <c r="P84" s="18">
+        <v>83</v>
+      </c>
       <c r="Q84" s="19"/>
       <c r="R84" s="22">
         <v>44987</v>
@@ -25362,18 +25613,20 @@
         <v>1</v>
       </c>
       <c r="K85" s="16">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="L85" s="16"/>
-      <c r="M85" s="17">
-        <v>0</v>
+      <c r="M85" s="5">
+        <v>73</v>
       </c>
       <c r="N85" s="17">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="O85" s="16"/>
-      <c r="P85" s="18"/>
+      <c r="P85" s="18">
+        <v>84</v>
+      </c>
       <c r="Q85" s="19"/>
       <c r="R85" s="22">
         <v>45620</v>
@@ -25417,18 +25670,20 @@
         <v>8</v>
       </c>
       <c r="K86" s="16">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="L86" s="16"/>
       <c r="M86" s="17">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="N86" s="17">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="O86" s="16"/>
-      <c r="P86" s="18"/>
+      <c r="P86" s="18">
+        <v>85</v>
+      </c>
       <c r="Q86" s="19"/>
       <c r="R86" s="22">
         <v>45181</v>
@@ -25472,18 +25727,20 @@
         <v>1</v>
       </c>
       <c r="K87" s="16">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="L87" s="16"/>
-      <c r="M87" s="17">
-        <v>1.3</v>
+      <c r="M87" s="5">
+        <v>71</v>
       </c>
       <c r="N87" s="17">
-        <f t="shared" si="13"/>
-        <v>2.7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="O87" s="16"/>
-      <c r="P87" s="18"/>
+      <c r="P87" s="18">
+        <v>86</v>
+      </c>
       <c r="Q87" s="19"/>
       <c r="R87" s="22">
         <v>45597</v>
@@ -25527,18 +25784,20 @@
         <v>1</v>
       </c>
       <c r="K88" s="16">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="L88" s="16"/>
-      <c r="M88" s="17">
-        <v>3</v>
+      <c r="M88" s="5">
+        <v>70</v>
       </c>
       <c r="N88" s="17">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="O88" s="16"/>
-      <c r="P88" s="18"/>
+      <c r="P88" s="18">
+        <v>87</v>
+      </c>
       <c r="Q88" s="19"/>
       <c r="R88" s="22">
         <v>45597</v>
@@ -25582,18 +25841,20 @@
         <v>0</v>
       </c>
       <c r="K89" s="16">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L89" s="16"/>
-      <c r="M89" s="17">
-        <v>20</v>
+      <c r="M89" s="5">
+        <v>69</v>
       </c>
       <c r="N89" s="17">
-        <f t="shared" si="13"/>
-        <v>84</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="O89" s="16"/>
-      <c r="P89" s="18"/>
+      <c r="P89" s="18">
+        <v>88</v>
+      </c>
       <c r="Q89" s="19"/>
       <c r="R89" s="22">
         <v>45278</v>
@@ -25629,18 +25890,20 @@
       </c>
       <c r="J90" s="17"/>
       <c r="K90" s="16">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="L90" s="16"/>
       <c r="M90" s="17">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="N90" s="17">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="O90" s="16"/>
-      <c r="P90" s="18"/>
+      <c r="P90" s="18">
+        <v>89</v>
+      </c>
       <c r="Q90" s="19"/>
       <c r="R90" s="22"/>
       <c r="S90" s="22"/>
@@ -25680,19 +25943,20 @@
         <v>1</v>
       </c>
       <c r="K91" s="16">
-        <f>19-2</f>
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="L91" s="16"/>
-      <c r="M91" s="17">
-        <v>3.875</v>
+      <c r="M91" s="5">
+        <v>67</v>
       </c>
       <c r="N91" s="17">
-        <f t="shared" si="13"/>
-        <v>13.125</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="O91" s="16"/>
-      <c r="P91" s="18"/>
+      <c r="P91" s="18">
+        <v>90</v>
+      </c>
       <c r="Q91" s="19"/>
       <c r="R91" s="22">
         <v>45520</v>
@@ -25736,27 +26000,25 @@
         <v>1.5</v>
       </c>
       <c r="K92" s="16">
-        <f>I92-J92</f>
-        <v>4.5</v>
+        <v>91</v>
       </c>
       <c r="L92" s="16"/>
-      <c r="M92" s="17">
-        <v>0</v>
+      <c r="M92" s="5">
+        <v>66</v>
       </c>
       <c r="N92" s="17">
-        <f t="shared" si="13"/>
-        <v>4.5</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="O92" s="16">
         <v>0</v>
       </c>
       <c r="P92" s="18">
-        <f t="shared" ref="P92:P95" si="14">O92/8</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="19">
         <f>K92-P92</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="R92" s="22">
         <v>45597</v>
@@ -25800,27 +26062,25 @@
         <v>6.5</v>
       </c>
       <c r="K93" s="16">
-        <f>I93-J93</f>
-        <v>7.5</v>
+        <v>92</v>
       </c>
       <c r="L93" s="16"/>
-      <c r="M93" s="17">
-        <v>0.2</v>
+      <c r="M93" s="5">
+        <v>65</v>
       </c>
       <c r="N93" s="17">
-        <f t="shared" si="13"/>
-        <v>7.3</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="O93" s="16">
         <v>0</v>
       </c>
       <c r="P93" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="Q93" s="19">
         <f>K93-P93</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="R93" s="22" t="s">
         <v>141</v>
@@ -25864,26 +26124,25 @@
         <v>0</v>
       </c>
       <c r="K94" s="16">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="L94" s="16"/>
       <c r="M94" s="17">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="N94" s="17">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>29</v>
       </c>
       <c r="O94" s="16">
         <v>14.5</v>
       </c>
       <c r="P94" s="18">
-        <f t="shared" si="14"/>
-        <v>1.8125</v>
+        <v>93</v>
       </c>
       <c r="Q94" s="19">
         <f>K94-P94</f>
-        <v>17.1875</v>
+        <v>0</v>
       </c>
       <c r="R94" s="22" t="s">
         <v>141</v>
@@ -25927,27 +26186,25 @@
         <v>0.05</v>
       </c>
       <c r="K95" s="16">
-        <f t="shared" ref="K95:K121" si="15">I95-J95</f>
-        <v>9.9499999999999993</v>
+        <v>94</v>
       </c>
       <c r="L95" s="16"/>
-      <c r="M95" s="17">
-        <v>0</v>
+      <c r="M95" s="5">
+        <v>63</v>
       </c>
       <c r="N95" s="17">
-        <f t="shared" si="13"/>
-        <v>9.9499999999999993</v>
+        <f t="shared" si="5"/>
+        <v>31</v>
       </c>
       <c r="O95" s="16">
         <v>0</v>
       </c>
       <c r="P95" s="18">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="Q95" s="19">
         <f>K95-P95</f>
-        <v>9.9499999999999993</v>
+        <v>0</v>
       </c>
       <c r="R95" s="22">
         <v>45636</v>
@@ -25991,19 +26248,20 @@
         <v>17</v>
       </c>
       <c r="K96" s="16">
-        <f t="shared" si="15"/>
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="L96" s="16"/>
-      <c r="M96" s="17">
-        <v>0</v>
+      <c r="M96" s="5">
+        <v>62</v>
       </c>
       <c r="N96" s="17">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="O96" s="16"/>
-      <c r="P96" s="18"/>
+      <c r="P96" s="18">
+        <v>95</v>
+      </c>
       <c r="Q96" s="19"/>
       <c r="R96" s="22">
         <v>45636</v>
@@ -26045,18 +26303,20 @@
         <v>0</v>
       </c>
       <c r="K97" s="16">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="L97" s="16"/>
-      <c r="M97" s="17">
-        <v>0</v>
+      <c r="M97" s="5">
+        <v>61</v>
       </c>
       <c r="N97" s="17">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
       <c r="O97" s="16"/>
-      <c r="P97" s="18"/>
+      <c r="P97" s="18">
+        <v>96</v>
+      </c>
       <c r="Q97" s="19"/>
       <c r="R97" s="22">
         <v>45653</v>
@@ -26100,18 +26360,20 @@
         <v>0</v>
       </c>
       <c r="K98" s="16">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="L98" s="16"/>
       <c r="M98" s="17">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N98" s="17">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>37</v>
       </c>
       <c r="O98" s="16"/>
-      <c r="P98" s="18"/>
+      <c r="P98" s="18">
+        <v>97</v>
+      </c>
       <c r="Q98" s="19"/>
       <c r="R98" s="22">
         <v>45653</v>
@@ -26153,19 +26415,20 @@
         <v>0</v>
       </c>
       <c r="K99" s="16">
-        <f t="shared" si="15"/>
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="L99" s="16"/>
-      <c r="M99" s="17">
-        <v>1</v>
+      <c r="M99" s="5">
+        <v>59</v>
       </c>
       <c r="N99" s="17">
-        <f t="shared" si="13"/>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>39</v>
       </c>
       <c r="O99" s="16"/>
-      <c r="P99" s="18"/>
+      <c r="P99" s="18">
+        <v>98</v>
+      </c>
       <c r="Q99" s="19"/>
       <c r="R99" s="22">
         <v>45574</v>
@@ -26209,19 +26472,20 @@
         <v>0</v>
       </c>
       <c r="K100" s="16">
-        <f t="shared" si="15"/>
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="L100" s="16"/>
-      <c r="M100" s="17">
-        <v>3.75</v>
+      <c r="M100" s="5">
+        <v>58</v>
       </c>
       <c r="N100" s="17">
-        <f t="shared" ref="N100:N127" si="16">K100-M100</f>
-        <v>32.25</v>
+        <f t="shared" ref="N100:N127" si="6">K100-M100</f>
+        <v>41</v>
       </c>
       <c r="O100" s="16"/>
-      <c r="P100" s="18"/>
+      <c r="P100" s="18">
+        <v>99</v>
+      </c>
       <c r="Q100" s="19"/>
       <c r="R100" s="22">
         <v>45574</v>
@@ -26265,19 +26529,20 @@
         <v>0</v>
       </c>
       <c r="K101" s="16">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="L101" s="16"/>
-      <c r="M101" s="17">
-        <v>0</v>
+      <c r="M101" s="5">
+        <v>57</v>
       </c>
       <c r="N101" s="17">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>43</v>
       </c>
       <c r="O101" s="16"/>
-      <c r="P101" s="18"/>
+      <c r="P101" s="18">
+        <v>100</v>
+      </c>
       <c r="Q101" s="19"/>
       <c r="R101" s="22">
         <v>45637</v>
@@ -26321,18 +26586,20 @@
         <v>7</v>
       </c>
       <c r="K102" s="16">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="L102" s="16"/>
       <c r="M102" s="17">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="N102" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="O102" s="16"/>
-      <c r="P102" s="18"/>
+      <c r="P102" s="18">
+        <v>101</v>
+      </c>
       <c r="Q102" s="19"/>
       <c r="R102" s="22">
         <v>45740</v>
@@ -26376,19 +26643,20 @@
         <v>8</v>
       </c>
       <c r="K103" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="L103" s="16"/>
-      <c r="M103" s="17">
-        <v>0</v>
+      <c r="M103" s="5">
+        <v>55</v>
       </c>
       <c r="N103" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>47</v>
       </c>
       <c r="O103" s="16"/>
-      <c r="P103" s="18"/>
+      <c r="P103" s="18">
+        <v>102</v>
+      </c>
       <c r="Q103" s="19"/>
       <c r="R103" s="22">
         <v>45424</v>
@@ -26432,20 +26700,20 @@
         <v>44</v>
       </c>
       <c r="K104" s="16">
-        <f>I104-J104</f>
+        <v>103</v>
+      </c>
+      <c r="L104" s="16"/>
+      <c r="M104" s="5">
+        <v>54</v>
+      </c>
+      <c r="N104" s="17">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="L104" s="16"/>
-      <c r="M104" s="17">
-        <f>62+5</f>
-        <v>67</v>
-      </c>
-      <c r="N104" s="17">
-        <f t="shared" si="16"/>
-        <v>-18</v>
-      </c>
       <c r="O104" s="16"/>
-      <c r="P104" s="18"/>
+      <c r="P104" s="18">
+        <v>103</v>
+      </c>
       <c r="Q104" s="19"/>
       <c r="R104" s="22">
         <v>45574</v>
@@ -26489,19 +26757,20 @@
         <v>0</v>
       </c>
       <c r="K105" s="16">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="L105" s="16"/>
-      <c r="M105" s="17">
-        <v>0</v>
+      <c r="M105" s="5">
+        <v>53</v>
       </c>
       <c r="N105" s="17">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>51</v>
       </c>
       <c r="O105" s="16"/>
-      <c r="P105" s="18"/>
+      <c r="P105" s="18">
+        <v>104</v>
+      </c>
       <c r="Q105" s="19"/>
       <c r="R105" s="22">
         <v>45579</v>
@@ -26543,19 +26812,20 @@
         <v>0</v>
       </c>
       <c r="K106" s="16">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="L106" s="16"/>
       <c r="M106" s="17">
-        <v>1.75</v>
+        <v>52</v>
       </c>
       <c r="N106" s="17">
-        <f t="shared" si="16"/>
-        <v>3.25</v>
+        <f t="shared" si="6"/>
+        <v>53</v>
       </c>
       <c r="O106" s="16"/>
-      <c r="P106" s="18"/>
+      <c r="P106" s="18">
+        <v>105</v>
+      </c>
       <c r="Q106" s="19"/>
       <c r="R106" s="22">
         <v>45579</v>
@@ -26597,19 +26867,20 @@
         <v>0</v>
       </c>
       <c r="K107" s="16">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="L107" s="16"/>
-      <c r="M107" s="17">
-        <v>0</v>
+      <c r="M107" s="5">
+        <v>51</v>
       </c>
       <c r="N107" s="17">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
       <c r="O107" s="16"/>
-      <c r="P107" s="18"/>
+      <c r="P107" s="18">
+        <v>106</v>
+      </c>
       <c r="Q107" s="19"/>
       <c r="R107" s="22"/>
       <c r="S107" s="22"/>
@@ -26651,19 +26922,20 @@
         <v>0.5</v>
       </c>
       <c r="K108" s="16">
-        <f t="shared" si="15"/>
-        <v>5.5</v>
+        <v>107</v>
       </c>
       <c r="L108" s="16"/>
-      <c r="M108" s="17">
-        <v>0</v>
+      <c r="M108" s="5">
+        <v>50</v>
       </c>
       <c r="N108" s="17">
-        <f t="shared" si="16"/>
-        <v>5.5</v>
+        <f t="shared" si="6"/>
+        <v>57</v>
       </c>
       <c r="O108" s="16"/>
-      <c r="P108" s="18"/>
+      <c r="P108" s="18">
+        <v>107</v>
+      </c>
       <c r="Q108" s="19"/>
       <c r="R108" s="22"/>
       <c r="S108" s="22"/>
@@ -26703,19 +26975,20 @@
         <v>0</v>
       </c>
       <c r="K109" s="16">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="L109" s="16"/>
-      <c r="M109" s="17">
-        <v>0</v>
+      <c r="M109" s="5">
+        <v>49</v>
       </c>
       <c r="N109" s="17">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>59</v>
       </c>
       <c r="O109" s="16"/>
-      <c r="P109" s="18"/>
+      <c r="P109" s="18">
+        <v>108</v>
+      </c>
       <c r="Q109" s="19"/>
       <c r="R109" s="22"/>
       <c r="S109" s="22"/>
@@ -26755,19 +27028,20 @@
         <v>0</v>
       </c>
       <c r="K110" s="16">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="L110" s="16"/>
       <c r="M110" s="17">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="N110" s="17">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>61</v>
       </c>
       <c r="O110" s="16"/>
-      <c r="P110" s="18"/>
+      <c r="P110" s="18">
+        <v>109</v>
+      </c>
       <c r="Q110" s="19"/>
       <c r="R110" s="22"/>
       <c r="S110" s="22"/>
@@ -26807,18 +27081,20 @@
         <v>0</v>
       </c>
       <c r="K111" s="16">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="L111" s="16"/>
-      <c r="M111" s="17">
-        <v>0</v>
+      <c r="M111" s="5">
+        <v>47</v>
       </c>
       <c r="N111" s="17">
-        <f t="shared" si="16"/>
-        <v>67</v>
+        <f t="shared" si="6"/>
+        <v>63</v>
       </c>
       <c r="O111" s="16"/>
-      <c r="P111" s="18"/>
+      <c r="P111" s="18">
+        <v>110</v>
+      </c>
       <c r="Q111" s="19"/>
       <c r="R111" s="22"/>
       <c r="S111" s="22"/>
@@ -26854,18 +27130,20 @@
       <c r="I112" s="21"/>
       <c r="J112" s="17"/>
       <c r="K112" s="16">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="L112" s="16"/>
-      <c r="M112" s="17">
-        <v>39</v>
+      <c r="M112" s="5">
+        <v>46</v>
       </c>
       <c r="N112" s="17">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>65</v>
       </c>
       <c r="O112" s="16"/>
-      <c r="P112" s="18"/>
+      <c r="P112" s="18">
+        <v>111</v>
+      </c>
       <c r="Q112" s="19"/>
       <c r="R112" s="22"/>
       <c r="S112" s="22"/>
@@ -26901,18 +27179,20 @@
       <c r="I113" s="21"/>
       <c r="J113" s="17"/>
       <c r="K113" s="16">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="L113" s="16"/>
-      <c r="M113" s="17">
-        <v>0</v>
+      <c r="M113" s="5">
+        <v>45</v>
       </c>
       <c r="N113" s="17">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>67</v>
       </c>
       <c r="O113" s="16"/>
-      <c r="P113" s="18"/>
+      <c r="P113" s="18">
+        <v>112</v>
+      </c>
       <c r="Q113" s="19"/>
       <c r="R113" s="22"/>
       <c r="S113" s="22"/>
@@ -26952,18 +27232,20 @@
         <v>80</v>
       </c>
       <c r="K114" s="16">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="L114" s="16"/>
       <c r="M114" s="17">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N114" s="17">
-        <f t="shared" si="16"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>69</v>
       </c>
       <c r="O114" s="16"/>
-      <c r="P114" s="18"/>
+      <c r="P114" s="18">
+        <v>113</v>
+      </c>
       <c r="Q114" s="19"/>
       <c r="R114" s="22"/>
       <c r="S114" s="75"/>
@@ -26999,18 +27281,20 @@
       <c r="I115" s="21"/>
       <c r="J115" s="17"/>
       <c r="K115" s="16">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="L115" s="16"/>
-      <c r="M115" s="17">
-        <v>35</v>
+      <c r="M115" s="5">
+        <v>43</v>
       </c>
       <c r="N115" s="17">
-        <f t="shared" si="16"/>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>71</v>
       </c>
       <c r="O115" s="16"/>
-      <c r="P115" s="18"/>
+      <c r="P115" s="18">
+        <v>114</v>
+      </c>
       <c r="Q115" s="19"/>
       <c r="R115" s="22"/>
       <c r="S115" s="75"/>
@@ -27050,18 +27334,20 @@
         <v>16</v>
       </c>
       <c r="K116" s="16">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="L116" s="16"/>
-      <c r="M116" s="17">
-        <v>3</v>
+      <c r="M116" s="5">
+        <v>42</v>
       </c>
       <c r="N116" s="17">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>73</v>
       </c>
       <c r="O116" s="16"/>
-      <c r="P116" s="18"/>
+      <c r="P116" s="18">
+        <v>115</v>
+      </c>
       <c r="Q116" s="19"/>
       <c r="R116" s="22"/>
       <c r="S116" s="22"/>
@@ -27100,19 +27386,20 @@
         <v>25</v>
       </c>
       <c r="K117" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="L117" s="16"/>
-      <c r="M117" s="17">
-        <v>0</v>
+      <c r="M117" s="5">
+        <v>41</v>
       </c>
       <c r="N117" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>75</v>
       </c>
       <c r="O117" s="16"/>
-      <c r="P117" s="18"/>
+      <c r="P117" s="18">
+        <v>116</v>
+      </c>
       <c r="Q117" s="19"/>
       <c r="R117" s="22">
         <v>45581</v>
@@ -27153,27 +27440,25 @@
         <v>0</v>
       </c>
       <c r="K118" s="16">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="L118" s="16"/>
       <c r="M118" s="17">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N118" s="17">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>77</v>
       </c>
       <c r="O118" s="16">
         <v>8</v>
       </c>
       <c r="P118" s="18">
-        <f t="shared" ref="P118:P120" si="17">O118/8</f>
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="Q118" s="19">
         <f>K118-P118</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R118" s="75"/>
       <c r="S118" s="22"/>
@@ -27212,27 +27497,25 @@
         <v>0</v>
       </c>
       <c r="K119" s="16">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="L119" s="16"/>
-      <c r="M119" s="17">
-        <v>0</v>
+      <c r="M119" s="5">
+        <v>39</v>
       </c>
       <c r="N119" s="17">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>79</v>
       </c>
       <c r="O119" s="16">
         <v>6</v>
       </c>
       <c r="P119" s="18">
-        <f t="shared" si="17"/>
-        <v>0.75</v>
+        <v>118</v>
       </c>
       <c r="Q119" s="19">
         <f>K119-P119</f>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R119" s="22"/>
       <c r="S119" s="22"/>
@@ -27271,27 +27554,25 @@
         <v>15</v>
       </c>
       <c r="K120" s="16">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="L120" s="16"/>
-      <c r="M120" s="17">
-        <v>0</v>
+      <c r="M120" s="5">
+        <v>38</v>
       </c>
       <c r="N120" s="17">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>81</v>
       </c>
       <c r="O120" s="16">
         <v>0</v>
       </c>
       <c r="P120" s="18">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="Q120" s="19">
         <f>K120-P120</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R120" s="22"/>
       <c r="S120" s="22"/>
@@ -27326,19 +27607,20 @@
       <c r="I121" s="21"/>
       <c r="J121" s="17"/>
       <c r="K121" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L121" s="16"/>
-      <c r="M121" s="17">
-        <v>0</v>
+      <c r="M121" s="5">
+        <v>37</v>
       </c>
       <c r="N121" s="17">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>83</v>
       </c>
       <c r="O121" s="16"/>
-      <c r="P121" s="18"/>
+      <c r="P121" s="18">
+        <v>120</v>
+      </c>
       <c r="Q121" s="19"/>
       <c r="R121" s="22"/>
       <c r="S121" s="22"/>
@@ -27372,27 +27654,26 @@
       </c>
       <c r="I122" s="76"/>
       <c r="J122" s="17"/>
-      <c r="K122" s="76">
-        <v>232</v>
+      <c r="K122" s="16">
+        <v>121</v>
       </c>
       <c r="L122" s="76"/>
       <c r="M122" s="17">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="N122" s="17">
-        <f t="shared" si="16"/>
-        <v>156</v>
+        <f t="shared" si="6"/>
+        <v>85</v>
       </c>
       <c r="O122" s="77">
         <v>567</v>
       </c>
       <c r="P122" s="18">
-        <f t="shared" ref="P122:P124" si="18">O122/8</f>
-        <v>70.875</v>
+        <v>121</v>
       </c>
       <c r="Q122" s="19">
-        <f t="shared" ref="Q122:Q145" si="19">K122-P122</f>
-        <v>161.125</v>
+        <f t="shared" ref="Q122:Q145" si="7">K122-P122</f>
+        <v>0</v>
       </c>
       <c r="R122" s="22"/>
       <c r="S122" s="22"/>
@@ -27426,27 +27707,26 @@
       </c>
       <c r="I123" s="21"/>
       <c r="J123" s="17"/>
-      <c r="K123" s="21">
-        <v>12</v>
+      <c r="K123" s="16">
+        <v>122</v>
       </c>
       <c r="L123" s="21"/>
-      <c r="M123" s="17">
-        <v>0</v>
+      <c r="M123" s="5">
+        <v>35</v>
       </c>
       <c r="N123" s="17">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>87</v>
       </c>
       <c r="O123" s="16">
         <v>0</v>
       </c>
       <c r="P123" s="18">
-        <f t="shared" si="18"/>
+        <v>122</v>
+      </c>
+      <c r="Q123" s="19">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="Q123" s="19">
-        <f t="shared" si="19"/>
-        <v>12</v>
       </c>
       <c r="R123" s="22"/>
       <c r="S123" s="22"/>
@@ -27480,27 +27760,26 @@
       </c>
       <c r="I124" s="21"/>
       <c r="J124" s="17"/>
-      <c r="K124" s="21">
-        <v>18</v>
+      <c r="K124" s="16">
+        <v>123</v>
       </c>
       <c r="L124" s="21"/>
-      <c r="M124" s="17">
-        <v>0</v>
+      <c r="M124" s="5">
+        <v>34</v>
       </c>
       <c r="N124" s="17">
-        <f t="shared" si="16"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>89</v>
       </c>
       <c r="O124" s="16">
         <v>0</v>
       </c>
       <c r="P124" s="18">
-        <f t="shared" si="18"/>
+        <v>123</v>
+      </c>
+      <c r="Q124" s="19">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="Q124" s="19">
-        <f t="shared" si="19"/>
-        <v>18</v>
       </c>
       <c r="R124" s="22"/>
       <c r="S124" s="22"/>
@@ -27533,21 +27812,23 @@
         <v>221</v>
       </c>
       <c r="I125" s="21"/>
-      <c r="K125" s="2">
-        <v>120</v>
-      </c>
-      <c r="M125" s="17">
-        <v>17.5</v>
+      <c r="K125" s="16">
+        <v>124</v>
+      </c>
+      <c r="M125" s="5">
+        <v>33</v>
       </c>
       <c r="N125" s="17">
-        <f t="shared" si="16"/>
-        <v>102.5</v>
+        <f t="shared" si="6"/>
+        <v>91</v>
       </c>
       <c r="O125" s="16"/>
-      <c r="P125" s="18"/>
+      <c r="P125" s="18">
+        <v>124</v>
+      </c>
       <c r="Q125" s="19">
-        <f t="shared" si="19"/>
-        <v>120</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R125" s="22">
         <v>45505</v>
@@ -27584,21 +27865,23 @@
         <v>221</v>
       </c>
       <c r="I126" s="21"/>
-      <c r="K126" s="2">
-        <v>24</v>
+      <c r="K126" s="16">
+        <v>125</v>
       </c>
       <c r="M126" s="17">
+        <v>32</v>
+      </c>
+      <c r="N126" s="17">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="O126" s="16"/>
+      <c r="P126" s="18">
+        <v>125</v>
+      </c>
+      <c r="Q126" s="19">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="N126" s="17">
-        <f t="shared" si="16"/>
-        <v>24</v>
-      </c>
-      <c r="O126" s="16"/>
-      <c r="P126" s="18"/>
-      <c r="Q126" s="19">
-        <f t="shared" si="19"/>
-        <v>24</v>
       </c>
       <c r="R126" s="22">
         <v>45505</v>
@@ -27635,21 +27918,23 @@
         <v>221</v>
       </c>
       <c r="I127" s="21"/>
-      <c r="K127" s="2">
-        <v>24</v>
-      </c>
-      <c r="M127" s="17">
+      <c r="K127" s="16">
+        <v>126</v>
+      </c>
+      <c r="M127" s="5">
+        <v>31</v>
+      </c>
+      <c r="N127" s="17">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="O127" s="16"/>
+      <c r="P127" s="18">
+        <v>126</v>
+      </c>
+      <c r="Q127" s="19">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="N127" s="17">
-        <f t="shared" si="16"/>
-        <v>24</v>
-      </c>
-      <c r="O127" s="16"/>
-      <c r="P127" s="18"/>
-      <c r="Q127" s="19">
-        <f t="shared" si="19"/>
-        <v>24</v>
       </c>
       <c r="R127" s="22">
         <v>45505</v>
@@ -27688,20 +27973,22 @@
       <c r="I128" s="2">
         <v>120</v>
       </c>
-      <c r="K128" s="2">
-        <v>12</v>
-      </c>
-      <c r="M128" s="17">
-        <v>12</v>
+      <c r="K128" s="16">
+        <v>127</v>
+      </c>
+      <c r="M128" s="5">
+        <v>30</v>
       </c>
       <c r="N128" s="17">
         <v>0</v>
       </c>
       <c r="O128" s="16"/>
-      <c r="P128" s="18"/>
+      <c r="P128" s="18">
+        <v>127</v>
+      </c>
       <c r="Q128" s="19">
-        <f t="shared" si="19"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R128" s="22">
         <v>45505</v>
@@ -27738,22 +28025,23 @@
         <v>221</v>
       </c>
       <c r="I129" s="21"/>
-      <c r="K129" s="2">
-        <v>132</v>
-      </c>
-      <c r="M129" s="17">
-        <f>69+5</f>
-        <v>74</v>
+      <c r="K129" s="16">
+        <v>128</v>
+      </c>
+      <c r="M129" s="5">
+        <v>29</v>
       </c>
       <c r="N129" s="17">
-        <f t="shared" ref="N129:N136" si="20">K129-M129</f>
-        <v>58</v>
+        <f t="shared" ref="N129:N136" si="8">K129-M129</f>
+        <v>99</v>
       </c>
       <c r="O129" s="16"/>
-      <c r="P129" s="18"/>
+      <c r="P129" s="18">
+        <v>128</v>
+      </c>
       <c r="Q129" s="19">
-        <f t="shared" si="19"/>
-        <v>132</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R129" s="22">
         <v>45505</v>
@@ -27790,22 +28078,23 @@
         <v>221</v>
       </c>
       <c r="I130" s="21"/>
-      <c r="K130" s="2">
-        <f>264-110-2</f>
-        <v>152</v>
+      <c r="K130" s="16">
+        <v>129</v>
       </c>
       <c r="M130" s="17">
+        <v>28</v>
+      </c>
+      <c r="N130" s="17">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="O130" s="16"/>
+      <c r="P130" s="18">
+        <v>129</v>
+      </c>
+      <c r="Q130" s="19">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="N130" s="17">
-        <f t="shared" si="20"/>
-        <v>152</v>
-      </c>
-      <c r="O130" s="16"/>
-      <c r="P130" s="18"/>
-      <c r="Q130" s="19">
-        <f t="shared" si="19"/>
-        <v>152</v>
       </c>
       <c r="R130" s="22">
         <v>45505</v>
@@ -27842,21 +28131,23 @@
         <v>221</v>
       </c>
       <c r="I131" s="21"/>
-      <c r="K131" s="2">
-        <v>110</v>
-      </c>
-      <c r="M131" s="17">
-        <v>74</v>
+      <c r="K131" s="16">
+        <v>130</v>
+      </c>
+      <c r="M131" s="5">
+        <v>27</v>
       </c>
       <c r="N131" s="17">
-        <f t="shared" si="20"/>
-        <v>36</v>
+        <f t="shared" si="8"/>
+        <v>103</v>
       </c>
       <c r="O131" s="16"/>
-      <c r="P131" s="18"/>
+      <c r="P131" s="18">
+        <v>130</v>
+      </c>
       <c r="Q131" s="19">
-        <f t="shared" si="19"/>
-        <v>110</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R131" s="22">
         <v>45505</v>
@@ -27893,21 +28184,23 @@
         <v>221</v>
       </c>
       <c r="I132" s="21"/>
-      <c r="K132" s="2">
-        <v>132</v>
-      </c>
-      <c r="M132" s="17">
+      <c r="K132" s="16">
+        <v>131</v>
+      </c>
+      <c r="M132" s="5">
+        <v>26</v>
+      </c>
+      <c r="N132" s="17">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="O132" s="16"/>
+      <c r="P132" s="18">
+        <v>131</v>
+      </c>
+      <c r="Q132" s="19">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="N132" s="17">
-        <f t="shared" si="20"/>
-        <v>132</v>
-      </c>
-      <c r="O132" s="16"/>
-      <c r="P132" s="18"/>
-      <c r="Q132" s="19">
-        <f t="shared" si="19"/>
-        <v>132</v>
       </c>
       <c r="R132" s="22">
         <v>45505</v>
@@ -27944,21 +28237,23 @@
         <v>221</v>
       </c>
       <c r="I133" s="21"/>
-      <c r="K133" s="2">
-        <v>154</v>
-      </c>
-      <c r="M133" s="17">
+      <c r="K133" s="16">
+        <v>132</v>
+      </c>
+      <c r="M133" s="5">
+        <v>25</v>
+      </c>
+      <c r="N133" s="17">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="O133" s="16"/>
+      <c r="P133" s="18">
+        <v>132</v>
+      </c>
+      <c r="Q133" s="19">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="N133" s="17">
-        <f t="shared" si="20"/>
-        <v>154</v>
-      </c>
-      <c r="O133" s="16"/>
-      <c r="P133" s="18"/>
-      <c r="Q133" s="19">
-        <f t="shared" si="19"/>
-        <v>154</v>
       </c>
       <c r="R133" s="22">
         <v>45505</v>
@@ -27995,21 +28290,23 @@
         <v>221</v>
       </c>
       <c r="I134" s="21"/>
-      <c r="K134" s="2">
-        <v>264</v>
+      <c r="K134" s="16">
+        <v>133</v>
       </c>
       <c r="M134" s="17">
+        <v>24</v>
+      </c>
+      <c r="N134" s="17">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="O134" s="16"/>
+      <c r="P134" s="18">
+        <v>133</v>
+      </c>
+      <c r="Q134" s="19">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="N134" s="17">
-        <f t="shared" si="20"/>
-        <v>264</v>
-      </c>
-      <c r="O134" s="16"/>
-      <c r="P134" s="18"/>
-      <c r="Q134" s="19">
-        <f t="shared" si="19"/>
-        <v>264</v>
       </c>
       <c r="R134" s="22">
         <v>45505</v>
@@ -28046,22 +28343,23 @@
         <v>221</v>
       </c>
       <c r="I135" s="21"/>
-      <c r="K135" s="2">
-        <f>110+89</f>
-        <v>199</v>
-      </c>
-      <c r="M135" s="17">
-        <v>39</v>
+      <c r="K135" s="16">
+        <v>134</v>
+      </c>
+      <c r="M135" s="5">
+        <v>23</v>
       </c>
       <c r="N135" s="17">
-        <f t="shared" si="20"/>
-        <v>160</v>
+        <f t="shared" si="8"/>
+        <v>111</v>
       </c>
       <c r="O135" s="16"/>
-      <c r="P135" s="18"/>
+      <c r="P135" s="18">
+        <v>134</v>
+      </c>
       <c r="Q135" s="19">
-        <f t="shared" si="19"/>
-        <v>199</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R135" s="22">
         <v>45505</v>
@@ -28098,21 +28396,23 @@
         <v>221</v>
       </c>
       <c r="I136" s="21"/>
-      <c r="K136" s="2">
-        <v>110</v>
-      </c>
-      <c r="M136" s="17">
-        <v>44</v>
+      <c r="K136" s="16">
+        <v>135</v>
+      </c>
+      <c r="M136" s="5">
+        <v>22</v>
       </c>
       <c r="N136" s="17">
-        <f t="shared" si="20"/>
-        <v>66</v>
+        <f t="shared" si="8"/>
+        <v>113</v>
       </c>
       <c r="O136" s="16"/>
-      <c r="P136" s="18"/>
+      <c r="P136" s="18">
+        <v>135</v>
+      </c>
       <c r="Q136" s="19">
-        <f t="shared" si="19"/>
-        <v>110</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R136" s="22">
         <v>45505</v>
@@ -28149,21 +28449,23 @@
         <v>221</v>
       </c>
       <c r="I137" s="21"/>
-      <c r="K137" s="21">
-        <v>264</v>
+      <c r="K137" s="16">
+        <v>136</v>
       </c>
       <c r="L137" s="21"/>
-      <c r="M137" s="17">
-        <v>44</v>
+      <c r="M137" s="5">
+        <v>21</v>
       </c>
       <c r="N137" s="17">
         <v>227</v>
       </c>
       <c r="O137" s="16"/>
-      <c r="P137" s="18"/>
+      <c r="P137" s="18">
+        <v>136</v>
+      </c>
       <c r="Q137" s="19">
-        <f t="shared" si="19"/>
-        <v>264</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R137" s="22">
         <v>45505</v>
@@ -28200,21 +28502,23 @@
         <v>221</v>
       </c>
       <c r="I138" s="21"/>
-      <c r="K138" s="21">
-        <v>264</v>
+      <c r="K138" s="16">
+        <v>137</v>
       </c>
       <c r="L138" s="21"/>
       <c r="M138" s="17">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N138" s="17">
         <v>227</v>
       </c>
       <c r="O138" s="16"/>
-      <c r="P138" s="18"/>
+      <c r="P138" s="18">
+        <v>137</v>
+      </c>
       <c r="Q138" s="19">
-        <f t="shared" si="19"/>
-        <v>264</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R138" s="22">
         <v>45505</v>
@@ -28251,21 +28555,23 @@
         <v>221</v>
       </c>
       <c r="I139" s="21"/>
-      <c r="K139" s="21">
-        <v>264</v>
+      <c r="K139" s="16">
+        <v>138</v>
       </c>
       <c r="L139" s="21"/>
-      <c r="M139" s="17">
-        <v>44</v>
+      <c r="M139" s="5">
+        <v>19</v>
       </c>
       <c r="N139" s="17">
         <v>227</v>
       </c>
       <c r="O139" s="16"/>
-      <c r="P139" s="18"/>
+      <c r="P139" s="18">
+        <v>138</v>
+      </c>
       <c r="Q139" s="19">
-        <f t="shared" si="19"/>
-        <v>264</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R139" s="22">
         <v>45505</v>
@@ -28302,20 +28608,22 @@
         <v>221</v>
       </c>
       <c r="I140" s="21"/>
-      <c r="K140" s="21">
-        <v>264</v>
+      <c r="K140" s="16">
+        <v>139</v>
       </c>
       <c r="L140" s="21"/>
-      <c r="M140" s="17">
-        <v>44</v>
+      <c r="M140" s="5">
+        <v>18</v>
       </c>
       <c r="N140" s="17">
         <v>227</v>
       </c>
-      <c r="P140" s="8"/>
+      <c r="P140" s="18">
+        <v>139</v>
+      </c>
       <c r="Q140" s="19">
-        <f t="shared" si="19"/>
-        <v>264</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R140" s="22">
         <v>45505</v>
@@ -28350,20 +28658,22 @@
         <v>221</v>
       </c>
       <c r="I141" s="21"/>
-      <c r="K141" s="21">
-        <v>2</v>
+      <c r="K141" s="16">
+        <v>140</v>
       </c>
       <c r="L141" s="21"/>
-      <c r="M141" s="17">
-        <v>2</v>
+      <c r="M141" s="5">
+        <v>17</v>
       </c>
       <c r="N141" s="17">
         <v>227</v>
       </c>
-      <c r="P141" s="8"/>
+      <c r="P141" s="18">
+        <v>140</v>
+      </c>
       <c r="Q141" s="19">
-        <f t="shared" si="19"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R141" s="22">
         <v>45505</v>
@@ -28400,21 +28710,22 @@
         <v>221</v>
       </c>
       <c r="I142" s="21"/>
-      <c r="K142" s="21">
-        <f>154-89</f>
-        <v>65</v>
+      <c r="K142" s="16">
+        <v>141</v>
       </c>
       <c r="L142" s="21"/>
       <c r="M142" s="17">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N142" s="17">
         <v>227</v>
       </c>
-      <c r="P142" s="8"/>
+      <c r="P142" s="18">
+        <v>141</v>
+      </c>
       <c r="Q142" s="19">
-        <f t="shared" si="19"/>
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R142" s="22">
         <v>45505</v>
@@ -28452,27 +28763,26 @@
       </c>
       <c r="I143" s="21"/>
       <c r="J143" s="17"/>
-      <c r="K143" s="21">
-        <v>8</v>
+      <c r="K143" s="16">
+        <v>142</v>
       </c>
       <c r="L143" s="21"/>
-      <c r="M143" s="17">
-        <v>2</v>
+      <c r="M143" s="5">
+        <v>15</v>
       </c>
       <c r="N143" s="17">
-        <f t="shared" ref="N143:N154" si="21">K143-M143</f>
-        <v>6</v>
+        <f t="shared" ref="N143:N154" si="9">K143-M143</f>
+        <v>127</v>
       </c>
       <c r="O143" s="16">
         <v>0</v>
       </c>
       <c r="P143" s="18">
-        <f t="shared" ref="P143:P144" si="22">O143/8</f>
+        <v>142</v>
+      </c>
+      <c r="Q143" s="19">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="Q143" s="19">
-        <f t="shared" si="19"/>
-        <v>8</v>
       </c>
       <c r="R143" s="22"/>
       <c r="S143" s="22"/>
@@ -28506,27 +28816,26 @@
       </c>
       <c r="I144" s="21"/>
       <c r="J144" s="17"/>
-      <c r="K144" s="21">
-        <v>20</v>
+      <c r="K144" s="16">
+        <v>143</v>
       </c>
       <c r="L144" s="21"/>
-      <c r="M144" s="17">
-        <v>0</v>
+      <c r="M144" s="5">
+        <v>14</v>
       </c>
       <c r="N144" s="17">
-        <f t="shared" si="21"/>
-        <v>20</v>
+        <f t="shared" si="9"/>
+        <v>129</v>
       </c>
       <c r="O144" s="16">
         <v>0</v>
       </c>
       <c r="P144" s="18">
-        <f t="shared" si="22"/>
+        <v>143</v>
+      </c>
+      <c r="Q144" s="19">
+        <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="Q144" s="19">
-        <f t="shared" si="19"/>
-        <v>20</v>
       </c>
       <c r="R144" s="22"/>
       <c r="S144" s="22"/>
@@ -28560,22 +28869,24 @@
       </c>
       <c r="I145" s="21"/>
       <c r="J145" s="17"/>
-      <c r="K145" s="21">
-        <v>132</v>
+      <c r="K145" s="16">
+        <v>144</v>
       </c>
       <c r="L145" s="21"/>
-      <c r="M145" s="17">
-        <v>25</v>
+      <c r="M145" s="5">
+        <v>13</v>
       </c>
       <c r="N145" s="17">
-        <f t="shared" si="21"/>
-        <v>107</v>
+        <f t="shared" si="9"/>
+        <v>131</v>
       </c>
       <c r="O145" s="16"/>
-      <c r="P145" s="18"/>
+      <c r="P145" s="18">
+        <v>144</v>
+      </c>
       <c r="Q145" s="19">
-        <f t="shared" si="19"/>
-        <v>132</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="R145" s="22">
         <v>45721</v>
@@ -28613,19 +28924,21 @@
       </c>
       <c r="I146" s="21"/>
       <c r="J146" s="17"/>
-      <c r="K146" s="21">
-        <v>30</v>
+      <c r="K146" s="16">
+        <v>145</v>
       </c>
       <c r="L146" s="21"/>
       <c r="M146" s="17">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N146" s="17">
-        <f t="shared" si="21"/>
-        <v>26</v>
+        <f t="shared" si="9"/>
+        <v>133</v>
       </c>
       <c r="O146" s="16"/>
-      <c r="P146" s="18"/>
+      <c r="P146" s="18">
+        <v>145</v>
+      </c>
       <c r="Q146" s="19"/>
       <c r="R146" s="22">
         <v>45721</v>
@@ -28661,18 +28974,20 @@
       <c r="H147" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="K147" s="21">
-        <v>1</v>
-      </c>
-      <c r="M147" s="17">
-        <v>1</v>
+      <c r="K147" s="16">
+        <v>146</v>
+      </c>
+      <c r="M147" s="5">
+        <v>11</v>
       </c>
       <c r="N147" s="17">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>135</v>
       </c>
       <c r="O147" s="16"/>
-      <c r="P147" s="18"/>
+      <c r="P147" s="18">
+        <v>146</v>
+      </c>
       <c r="Q147" s="19"/>
       <c r="R147" s="22"/>
       <c r="S147" s="22"/>
@@ -28704,18 +29019,20 @@
       <c r="H148" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="K148" s="21">
-        <v>5</v>
-      </c>
-      <c r="M148" s="17">
-        <v>5</v>
+      <c r="K148" s="16">
+        <v>147</v>
+      </c>
+      <c r="M148" s="5">
+        <v>10</v>
       </c>
       <c r="N148" s="17">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>137</v>
       </c>
       <c r="O148" s="16"/>
-      <c r="P148" s="18"/>
+      <c r="P148" s="18">
+        <v>147</v>
+      </c>
       <c r="Q148" s="19"/>
       <c r="R148" s="22"/>
       <c r="S148" s="22"/>
@@ -28747,18 +29064,20 @@
       <c r="H149" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="K149" s="21">
-        <v>5</v>
-      </c>
-      <c r="M149" s="17">
-        <v>5</v>
+      <c r="K149" s="16">
+        <v>148</v>
+      </c>
+      <c r="M149" s="5">
+        <v>9</v>
       </c>
       <c r="N149" s="17">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>139</v>
       </c>
       <c r="O149" s="16"/>
-      <c r="P149" s="18"/>
+      <c r="P149" s="18">
+        <v>148</v>
+      </c>
       <c r="Q149" s="19"/>
       <c r="R149" s="22"/>
       <c r="S149" s="22"/>
@@ -28790,18 +29109,20 @@
       <c r="H150" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="K150" s="21">
-        <v>5</v>
+      <c r="K150" s="16">
+        <v>149</v>
       </c>
       <c r="M150" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N150" s="17">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>141</v>
       </c>
       <c r="O150" s="16"/>
-      <c r="P150" s="18"/>
+      <c r="P150" s="18">
+        <v>149</v>
+      </c>
       <c r="Q150" s="19"/>
       <c r="R150" s="22"/>
       <c r="S150" s="22"/>
@@ -28833,18 +29154,20 @@
       <c r="H151" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="K151" s="21">
-        <v>12</v>
-      </c>
-      <c r="M151" s="17">
-        <v>3</v>
+      <c r="K151" s="16">
+        <v>150</v>
+      </c>
+      <c r="M151" s="5">
+        <v>7</v>
       </c>
       <c r="N151" s="17">
-        <f t="shared" si="21"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>143</v>
       </c>
       <c r="O151" s="16"/>
-      <c r="P151" s="18"/>
+      <c r="P151" s="18">
+        <v>150</v>
+      </c>
       <c r="Q151" s="19"/>
       <c r="R151" s="22"/>
       <c r="S151" s="22"/>
@@ -28878,27 +29201,26 @@
       </c>
       <c r="I152" s="21"/>
       <c r="J152" s="17"/>
-      <c r="K152" s="21">
+      <c r="K152" s="16">
+        <v>151</v>
+      </c>
+      <c r="L152" s="21"/>
+      <c r="M152" s="5">
         <v>6</v>
       </c>
-      <c r="L152" s="21"/>
-      <c r="M152" s="17">
-        <v>1.2</v>
-      </c>
       <c r="N152" s="17">
-        <f t="shared" si="21"/>
-        <v>4.8</v>
+        <f t="shared" si="9"/>
+        <v>145</v>
       </c>
       <c r="O152" s="16">
         <v>0</v>
       </c>
       <c r="P152" s="18">
-        <f t="shared" ref="P152:P154" si="23">O152/8</f>
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="Q152" s="19">
         <f>K152-P152</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R152" s="22"/>
       <c r="S152" s="22"/>
@@ -28932,27 +29254,26 @@
       </c>
       <c r="I153" s="21"/>
       <c r="J153" s="17"/>
-      <c r="K153" s="21">
-        <v>12</v>
+      <c r="K153" s="16">
+        <v>152</v>
       </c>
       <c r="L153" s="21"/>
-      <c r="M153" s="17">
-        <v>0.2</v>
+      <c r="M153" s="5">
+        <v>5</v>
       </c>
       <c r="N153" s="17">
-        <f t="shared" si="21"/>
-        <v>11.8</v>
+        <f t="shared" si="9"/>
+        <v>147</v>
       </c>
       <c r="O153" s="16">
         <v>0</v>
       </c>
       <c r="P153" s="18">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="Q153" s="19">
         <f>K153-P153</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R153" s="22"/>
       <c r="S153" s="22"/>
@@ -28986,27 +29307,26 @@
       </c>
       <c r="I154" s="21"/>
       <c r="J154" s="17"/>
-      <c r="K154" s="21">
-        <v>11</v>
+      <c r="K154" s="16">
+        <v>153</v>
       </c>
       <c r="L154" s="21"/>
       <c r="M154" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N154" s="17">
-        <f t="shared" si="21"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>149</v>
       </c>
       <c r="O154" s="16">
         <v>0</v>
       </c>
       <c r="P154" s="18">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="Q154" s="19">
         <f>K154-P154</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R154" s="22"/>
       <c r="S154" s="22"/>
@@ -29038,13 +29358,15 @@
       <c r="H155" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K155" s="2">
-        <v>2</v>
+      <c r="K155" s="16">
+        <v>154</v>
       </c>
       <c r="M155" s="5">
-        <v>2</v>
-      </c>
-      <c r="P155" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="P155" s="18">
+        <v>154</v>
+      </c>
       <c r="Q155" s="19"/>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
@@ -29072,13 +29394,15 @@
       <c r="H156" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K156" s="21">
-        <v>0.5</v>
+      <c r="K156" s="16">
+        <v>155</v>
       </c>
       <c r="M156" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="P156" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="P156" s="18">
+        <v>155</v>
+      </c>
       <c r="Q156" s="19"/>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
@@ -29106,13 +29430,15 @@
       <c r="H157" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K157" s="21">
-        <v>0.5</v>
+      <c r="K157" s="16">
+        <v>156</v>
       </c>
       <c r="M157" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="P157" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="P157" s="18">
+        <v>156</v>
+      </c>
       <c r="Q157" s="19"/>
     </row>
   </sheetData>
@@ -32074,31 +32400,31 @@
   </sheetData>
   <autoFilter ref="A1:K97" xr:uid="{4EECD1A9-D28B-46A6-9C89-DD1979B38E04}"/>
   <conditionalFormatting sqref="G2:G96">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"On Track"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"Delayed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="G&amp;S">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="G&amp;S">
       <formula>NOT(ISERROR(SEARCH("G&amp;S",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Services">
+    <cfRule type="containsText" dxfId="56" priority="8" operator="containsText" text="Services">
       <formula>NOT(ISERROR(SEARCH("Services",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="Goods">
+    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="Goods">
       <formula>NOT(ISERROR(SEARCH("Goods",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -81285,13 +81611,12 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="R110:R112"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="R94:R97"/>
-    <mergeCell ref="R98:R100"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="R107:R109"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="R19:R26"/>
     <mergeCell ref="R88:R90"/>
     <mergeCell ref="R29:R38"/>
     <mergeCell ref="R40:R44"/>
@@ -81304,12 +81629,13 @@
     <mergeCell ref="R69:R71"/>
     <mergeCell ref="R72:R75"/>
     <mergeCell ref="R76:R87"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="R19:R26"/>
+    <mergeCell ref="R110:R112"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="R94:R97"/>
+    <mergeCell ref="R98:R100"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="R107:R109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/uploads/Resource_Billing_Splitup_11.04.2025.xlsx
+++ b/static/uploads/Resource_Billing_Splitup_11.04.2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opawa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931F268-7151-4414-9473-50B6632BE370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501F1AFD-733F-4908-9A4E-17EF82F83C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="612" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2616,22 +2616,22 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2640,10 +2640,10 @@
     <xf numFmtId="15" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4671,7 +4671,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45762.736158217594" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D5FB8A23-4236-4B77-8586-FB41562C8FC9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45763.939425462966" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D5FB8A23-4236-4B77-8586-FB41562C8FC9}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Sum of Allocated Billed Days 2025]" caption="Sum of Allocated Billed Days 2025" numFmtId="0" hierarchy="15" level="32767"/>
@@ -4739,10 +4739,10 @@
     <cacheHierarchy uniqueName="[Range].[Engagement Type]" caption="Engagement Type" attribute="1" defaultMemberUniqueName="[Range].[Engagement Type].[All]" allUniqueName="[Range].[Engagement Type].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Allocated Billed Days]" caption="Allocated Billed Days" attribute="1" defaultMemberUniqueName="[Range].[Allocated Billed Days].[All]" allUniqueName="[Range].[Allocated Billed Days].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Utilized Billed Days 2024(Project plan)]" caption="Utilized Billed Days 2024(Project plan)" attribute="1" defaultMemberUniqueName="[Range].[Utilized Billed Days 2024(Project plan)].[All]" allUniqueName="[Range].[Utilized Billed Days 2024(Project plan)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Allocated Billed Days 2025]" caption="Allocated Billed Days 2025" attribute="1" defaultMemberUniqueName="[Range].[Allocated Billed Days 2025].[All]" allUniqueName="[Range].[Allocated Billed Days 2025].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Allocated Billed Days 2025]" caption="Allocated Billed Days 2025" attribute="1" defaultMemberUniqueName="[Range].[Allocated Billed Days 2025].[All]" allUniqueName="[Range].[Allocated Billed Days 2025].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Range].[Utilize Days 2025(PP Cal)]" caption="Utilize Days 2025(PP Cal)" attribute="1" defaultMemberUniqueName="[Range].[Utilize Days 2025(PP Cal)].[All]" allUniqueName="[Range].[Utilize Days 2025(PP Cal)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Utilized Billed Days 2025(Project plan)]" caption="Utilized Billed Days 2025(Project plan)" attribute="1" defaultMemberUniqueName="[Range].[Utilized Billed Days 2025(Project plan)].[All]" allUniqueName="[Range].[Utilized Billed Days 2025(Project plan)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Range].[Remaining Billed Days 2025 (Project plan)]" caption="Remaining Billed Days 2025 (Project plan)" attribute="1" defaultMemberUniqueName="[Range].[Remaining Billed Days 2025 (Project plan)].[All]" allUniqueName="[Range].[Remaining Billed Days 2025 (Project plan)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Utilized Billed Days 2025(Project plan)]" caption="Utilized Billed Days 2025(Project plan)" attribute="1" defaultMemberUniqueName="[Range].[Utilized Billed Days 2025(Project plan)].[All]" allUniqueName="[Range].[Utilized Billed Days 2025(Project plan)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Range].[Remaining Billed Days 2025 (Project plan)]" caption="Remaining Billed Days 2025 (Project plan)" attribute="1" defaultMemberUniqueName="[Range].[Remaining Billed Days 2025 (Project plan)].[All]" allUniqueName="[Range].[Remaining Billed Days 2025 (Project plan)].[All]" dimensionUniqueName="[Range]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Range]" caption="__XL_Count Range" measure="1" displayFolder="" measureGroup="Range" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Sum of Allocated Billed Days 2025]" caption="Sum of Allocated Billed Days 2025" measure="1" displayFolder="" measureGroup="Range" count="0" oneField="1" hidden="1">
@@ -4810,7 +4810,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45762.736158449072" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{F7F6E1B0-C833-4B2F-BADB-26C87806876E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45763.939425810182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{F7F6E1B0-C833-4B2F-BADB-26C87806876E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:N1048576" sheet="Billed_2025"/>
   </cacheSource>
@@ -4896,16 +4896,16 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="143.5"/>
     </cacheField>
     <cacheField name="Allocated Billed Days 2025" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="264"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="156"/>
     </cacheField>
     <cacheField name="Utilize Days 2025(PP Cal)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="246.3"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="143.5"/>
     </cacheField>
     <cacheField name="Utilized Billed Days 2025(Project plan)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="76"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="156"/>
     </cacheField>
     <cacheField name="Remaining Billed Days 2025 (Project plan)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-18" maxValue="264"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-155" maxValue="227"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -4998,10 +4998,10 @@
     <s v="Professional Services "/>
     <n v="109.5"/>
     <n v="0"/>
-    <n v="109.5"/>
-    <n v="246.3"/>
-    <n v="30.787500000000001"/>
-    <n v="78.712500000000006"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="156"/>
+    <n v="-155"/>
   </r>
   <r>
     <x v="1"/>
@@ -5013,10 +5013,10 @@
     <s v="Professional Services "/>
     <n v="34.5"/>
     <n v="0"/>
-    <n v="34.5"/>
-    <n v="209"/>
-    <n v="26.125"/>
-    <n v="8.375"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="155"/>
+    <n v="-153"/>
   </r>
   <r>
     <x v="2"/>
@@ -5028,10 +5028,10 @@
     <s v="Professional Services "/>
     <n v="14"/>
     <n v="0"/>
-    <n v="14"/>
+    <n v="3"/>
     <n v="0"/>
-    <n v="0"/>
-    <n v="14"/>
+    <n v="154"/>
+    <n v="-151"/>
   </r>
   <r>
     <x v="3"/>
@@ -5043,10 +5043,10 @@
     <s v="Professional Services "/>
     <n v="22"/>
     <n v="22"/>
-    <n v="0"/>
+    <n v="4"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="153"/>
+    <n v="-149"/>
   </r>
   <r>
     <x v="4"/>
@@ -5058,10 +5058,10 @@
     <s v="Professional Services "/>
     <n v="1"/>
     <n v="1"/>
-    <n v="0"/>
+    <n v="5"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="152"/>
+    <n v="-147"/>
   </r>
   <r>
     <x v="2"/>
@@ -5073,10 +5073,10 @@
     <s v="Professional Services "/>
     <n v="17"/>
     <n v="17"/>
-    <n v="0"/>
+    <n v="6"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="151"/>
+    <n v="-145"/>
   </r>
   <r>
     <x v="5"/>
@@ -5088,10 +5088,10 @@
     <s v="Professional Services "/>
     <n v="35"/>
     <n v="31"/>
-    <n v="4"/>
+    <n v="7"/>
     <m/>
-    <n v="1.5"/>
-    <n v="2.5"/>
+    <n v="150"/>
+    <n v="-143"/>
   </r>
   <r>
     <x v="6"/>
@@ -5103,10 +5103,10 @@
     <s v="Professional Services "/>
     <n v="26"/>
     <n v="1.9750000000000001"/>
-    <n v="23.024999999999999"/>
+    <n v="8"/>
     <m/>
-    <n v="9"/>
-    <n v="14.024999999999999"/>
+    <n v="149"/>
+    <n v="-141"/>
   </r>
   <r>
     <x v="7"/>
@@ -5118,10 +5118,10 @@
     <s v="Professional Services "/>
     <n v="10"/>
     <n v="10"/>
-    <n v="2"/>
+    <n v="9"/>
     <m/>
-    <n v="2"/>
-    <n v="0"/>
+    <n v="148"/>
+    <n v="-139"/>
   </r>
   <r>
     <x v="3"/>
@@ -5133,10 +5133,10 @@
     <s v="Professional Services "/>
     <n v="11"/>
     <n v="1.25"/>
-    <n v="8.75"/>
+    <n v="10"/>
     <m/>
-    <n v="4.5"/>
-    <n v="4.25"/>
+    <n v="147"/>
+    <n v="-137"/>
   </r>
   <r>
     <x v="8"/>
@@ -5148,10 +5148,10 @@
     <s v="Professional Services "/>
     <n v="24"/>
     <n v="0"/>
-    <n v="24"/>
+    <n v="11"/>
     <m/>
-    <n v="24"/>
-    <n v="0"/>
+    <n v="146"/>
+    <n v="-135"/>
   </r>
   <r>
     <x v="0"/>
@@ -5163,10 +5163,10 @@
     <s v="Professional Services "/>
     <n v="80"/>
     <n v="0"/>
-    <n v="80"/>
+    <n v="12"/>
     <m/>
-    <n v="8"/>
-    <n v="72"/>
+    <n v="145"/>
+    <n v="-133"/>
   </r>
   <r>
     <x v="8"/>
@@ -5178,10 +5178,10 @@
     <s v="Professional Services "/>
     <n v="140"/>
     <n v="0"/>
-    <n v="140"/>
+    <n v="13"/>
     <m/>
-    <n v="10"/>
-    <n v="130"/>
+    <n v="144"/>
+    <n v="-131"/>
   </r>
   <r>
     <x v="1"/>
@@ -5193,10 +5193,10 @@
     <s v="Professional Services "/>
     <n v="90"/>
     <n v="0"/>
-    <n v="120"/>
+    <n v="14"/>
     <m/>
-    <n v="5"/>
-    <n v="115"/>
+    <n v="143"/>
+    <n v="-129"/>
   </r>
   <r>
     <x v="5"/>
@@ -5208,10 +5208,10 @@
     <s v="Support "/>
     <m/>
     <m/>
-    <n v="40"/>
+    <n v="15"/>
     <m/>
-    <n v="5"/>
-    <n v="35"/>
+    <n v="142"/>
+    <n v="-127"/>
   </r>
   <r>
     <x v="5"/>
@@ -5223,10 +5223,10 @@
     <s v="Professional Services "/>
     <n v="50"/>
     <n v="0"/>
-    <n v="50"/>
+    <n v="16"/>
     <m/>
-    <n v="3"/>
-    <n v="47"/>
+    <n v="141"/>
+    <n v="-125"/>
   </r>
   <r>
     <x v="9"/>
@@ -5238,10 +5238,10 @@
     <s v="Professional Services "/>
     <n v="129"/>
     <n v="0"/>
-    <n v="129"/>
+    <n v="17"/>
     <m/>
-    <n v="3"/>
-    <n v="126"/>
+    <n v="140"/>
+    <n v="-123"/>
   </r>
   <r>
     <x v="2"/>
@@ -5253,10 +5253,10 @@
     <s v="Professional Services "/>
     <n v="155"/>
     <n v="0"/>
-    <n v="155"/>
+    <n v="18"/>
     <m/>
-    <n v="4"/>
-    <n v="151"/>
+    <n v="139"/>
+    <n v="-121"/>
   </r>
   <r>
     <x v="10"/>
@@ -5268,10 +5268,10 @@
     <s v="Professional Services "/>
     <n v="155"/>
     <n v="0"/>
-    <n v="155"/>
+    <n v="19"/>
     <m/>
-    <n v="0"/>
-    <n v="155"/>
+    <n v="138"/>
+    <n v="-119"/>
   </r>
   <r>
     <x v="6"/>
@@ -5283,10 +5283,10 @@
     <s v="Professional Services "/>
     <n v="90"/>
     <n v="0"/>
-    <n v="90"/>
+    <n v="20"/>
     <m/>
-    <n v="8"/>
-    <n v="82"/>
+    <n v="137"/>
+    <n v="-117"/>
   </r>
   <r>
     <x v="11"/>
@@ -5298,10 +5298,10 @@
     <s v="Professional Services "/>
     <n v="22"/>
     <n v="0"/>
-    <n v="22"/>
+    <n v="21"/>
     <m/>
-    <n v="0"/>
-    <n v="22"/>
+    <n v="136"/>
+    <n v="-115"/>
   </r>
   <r>
     <x v="3"/>
@@ -5313,10 +5313,10 @@
     <s v="Professional Services "/>
     <n v="90"/>
     <n v="3"/>
-    <n v="87"/>
+    <n v="22"/>
     <m/>
-    <n v="21"/>
-    <n v="66"/>
+    <n v="135"/>
+    <n v="-113"/>
   </r>
   <r>
     <x v="3"/>
@@ -5328,10 +5328,10 @@
     <s v="Professional Services "/>
     <n v="10"/>
     <n v="0"/>
-    <n v="10"/>
+    <n v="23"/>
     <m/>
-    <n v="5"/>
-    <n v="5"/>
+    <n v="134"/>
+    <n v="-111"/>
   </r>
   <r>
     <x v="6"/>
@@ -5343,10 +5343,10 @@
     <s v="Professional Services "/>
     <n v="90"/>
     <n v="6"/>
-    <n v="84"/>
+    <n v="24"/>
     <m/>
-    <n v="6"/>
-    <n v="78"/>
+    <n v="133"/>
+    <n v="-109"/>
   </r>
   <r>
     <x v="7"/>
@@ -5358,10 +5358,10 @@
     <s v="Professional Services "/>
     <n v="100"/>
     <n v="0"/>
-    <n v="189.42000000000002"/>
+    <n v="25"/>
     <m/>
-    <n v="4.5"/>
-    <n v="184.92000000000002"/>
+    <n v="132"/>
+    <n v="-107"/>
   </r>
   <r>
     <x v="0"/>
@@ -5373,10 +5373,10 @@
     <s v="Professional Services "/>
     <n v="143"/>
     <n v="143"/>
-    <n v="0"/>
+    <n v="26"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="131"/>
+    <n v="-105"/>
   </r>
   <r>
     <x v="12"/>
@@ -5388,10 +5388,10 @@
     <s v="Professional Services "/>
     <n v="88.75"/>
     <n v="89"/>
-    <n v="5"/>
+    <n v="27"/>
     <m/>
-    <n v="5"/>
-    <n v="0"/>
+    <n v="130"/>
+    <n v="-103"/>
   </r>
   <r>
     <x v="1"/>
@@ -5403,10 +5403,10 @@
     <s v="Professional Services "/>
     <n v="3"/>
     <n v="3"/>
-    <n v="0"/>
+    <n v="28"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="129"/>
+    <n v="-101"/>
   </r>
   <r>
     <x v="8"/>
@@ -5418,10 +5418,10 @@
     <s v="Professional Services "/>
     <n v="63"/>
     <n v="10"/>
-    <n v="53"/>
+    <n v="29"/>
     <m/>
-    <n v="0"/>
-    <n v="53"/>
+    <n v="128"/>
+    <n v="-99"/>
   </r>
   <r>
     <x v="13"/>
@@ -5433,10 +5433,10 @@
     <s v="Professional Services "/>
     <n v="32"/>
     <n v="0"/>
-    <n v="32"/>
+    <n v="30"/>
     <m/>
-    <n v="0"/>
-    <n v="32"/>
+    <n v="127"/>
+    <n v="-97"/>
   </r>
   <r>
     <x v="4"/>
@@ -5448,10 +5448,10 @@
     <s v="Professional Services "/>
     <n v="74.5"/>
     <n v="52.3"/>
-    <n v="0"/>
+    <n v="31"/>
     <n v="52.3"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="126"/>
+    <n v="-95"/>
   </r>
   <r>
     <x v="12"/>
@@ -5463,10 +5463,10 @@
     <s v="Professional Services "/>
     <n v="136.5"/>
     <n v="143.5"/>
-    <n v="7"/>
+    <n v="32"/>
     <n v="143.5"/>
-    <n v="0"/>
-    <n v="7"/>
+    <n v="125"/>
+    <n v="-93"/>
   </r>
   <r>
     <x v="13"/>
@@ -5478,10 +5478,10 @@
     <s v="Professional Services "/>
     <n v="139"/>
     <n v="95.5"/>
-    <n v="33.5"/>
+    <n v="33"/>
     <n v="102"/>
-    <n v="6.5"/>
-    <n v="27"/>
+    <n v="124"/>
+    <n v="-91"/>
   </r>
   <r>
     <x v="0"/>
@@ -5493,10 +5493,10 @@
     <s v="Professional Services "/>
     <n v="51"/>
     <n v="30.6"/>
-    <n v="45"/>
+    <n v="34"/>
     <n v="71.55"/>
-    <n v="40.949999999999996"/>
-    <n v="4.0500000000000043"/>
+    <n v="123"/>
+    <n v="-89"/>
   </r>
   <r>
     <x v="6"/>
@@ -5508,10 +5508,10 @@
     <s v="Professional Services "/>
     <n v="10"/>
     <n v="11.5"/>
-    <n v="1.5"/>
+    <n v="35"/>
     <n v="11.5"/>
-    <n v="0"/>
-    <n v="1.5"/>
+    <n v="122"/>
+    <n v="-87"/>
   </r>
   <r>
     <x v="8"/>
@@ -5523,10 +5523,10 @@
     <s v="Professional Services "/>
     <n v="20"/>
     <n v="10"/>
-    <n v="10"/>
+    <n v="36"/>
     <m/>
-    <n v="0"/>
-    <n v="10"/>
+    <n v="121"/>
+    <n v="-85"/>
   </r>
   <r>
     <x v="6"/>
@@ -5538,10 +5538,10 @@
     <s v="Professional Services "/>
     <n v="29"/>
     <n v="29"/>
-    <n v="0"/>
+    <n v="37"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="120"/>
+    <n v="-83"/>
   </r>
   <r>
     <x v="1"/>
@@ -5553,10 +5553,10 @@
     <s v="Professional Services "/>
     <n v="9"/>
     <n v="3"/>
-    <n v="6"/>
+    <n v="38"/>
     <m/>
-    <n v="0"/>
-    <n v="6"/>
+    <n v="119"/>
+    <n v="-81"/>
   </r>
   <r>
     <x v="9"/>
@@ -5568,10 +5568,10 @@
     <s v="Professional Services "/>
     <n v="22"/>
     <n v="8"/>
-    <n v="14"/>
+    <n v="39"/>
     <m/>
-    <n v="0"/>
-    <n v="14"/>
+    <n v="118"/>
+    <n v="-79"/>
   </r>
   <r>
     <x v="2"/>
@@ -5583,10 +5583,10 @@
     <s v="Professional Services "/>
     <n v="20"/>
     <n v="14"/>
-    <n v="6"/>
+    <n v="40"/>
     <m/>
-    <n v="0"/>
-    <n v="6"/>
+    <n v="117"/>
+    <n v="-77"/>
   </r>
   <r>
     <x v="13"/>
@@ -5598,10 +5598,10 @@
     <s v="Professional Services "/>
     <n v="10"/>
     <n v="8"/>
-    <n v="5"/>
+    <n v="41"/>
     <m/>
-    <n v="5"/>
-    <n v="0"/>
+    <n v="116"/>
+    <n v="-75"/>
   </r>
   <r>
     <x v="4"/>
@@ -5613,10 +5613,10 @@
     <s v="Professional Services "/>
     <m/>
     <m/>
-    <n v="26"/>
+    <n v="42"/>
     <m/>
-    <n v="26"/>
-    <n v="0"/>
+    <n v="115"/>
+    <n v="-73"/>
   </r>
   <r>
     <x v="14"/>
@@ -5628,10 +5628,10 @@
     <s v="Professional Services "/>
     <n v="95"/>
     <n v="41"/>
-    <n v="54"/>
+    <n v="43"/>
     <n v="50.05"/>
-    <n v="9.0499999999999972"/>
-    <n v="44.95"/>
+    <n v="114"/>
+    <n v="-71"/>
   </r>
   <r>
     <x v="15"/>
@@ -5643,10 +5643,10 @@
     <s v="Professional Services "/>
     <n v="100"/>
     <n v="79.7"/>
-    <n v="20.299999999999997"/>
+    <n v="44"/>
     <n v="105.5"/>
-    <n v="25.799999999999997"/>
-    <n v="-5.5"/>
+    <n v="113"/>
+    <n v="-69"/>
   </r>
   <r>
     <x v="1"/>
@@ -5658,10 +5658,10 @@
     <s v="Professional Services "/>
     <n v="3"/>
     <n v="3"/>
-    <n v="0"/>
+    <n v="45"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="112"/>
+    <n v="-67"/>
   </r>
   <r>
     <x v="6"/>
@@ -5673,10 +5673,10 @@
     <s v="Professional Services "/>
     <n v="5"/>
     <n v="5"/>
-    <n v="0"/>
+    <n v="46"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="111"/>
+    <n v="-65"/>
   </r>
   <r>
     <x v="0"/>
@@ -5688,10 +5688,10 @@
     <s v="Professional Services "/>
     <n v="4"/>
     <n v="4"/>
-    <n v="0"/>
+    <n v="47"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="110"/>
+    <n v="-63"/>
   </r>
   <r>
     <x v="9"/>
@@ -5703,10 +5703,10 @@
     <s v="Professional Services "/>
     <n v="54"/>
     <n v="54"/>
-    <n v="16"/>
+    <n v="48"/>
     <m/>
-    <n v="16"/>
-    <n v="0"/>
+    <n v="109"/>
+    <n v="-61"/>
   </r>
   <r>
     <x v="5"/>
@@ -5718,10 +5718,10 @@
     <s v="Professional Services "/>
     <n v="48"/>
     <n v="48"/>
-    <n v="8"/>
+    <n v="49"/>
     <m/>
-    <n v="8"/>
-    <n v="0"/>
+    <n v="108"/>
+    <n v="-59"/>
   </r>
   <r>
     <x v="6"/>
@@ -5733,10 +5733,10 @@
     <s v="Professional Services "/>
     <n v="37"/>
     <n v="37"/>
-    <n v="8"/>
+    <n v="50"/>
     <m/>
-    <n v="8"/>
-    <n v="0"/>
+    <n v="107"/>
+    <n v="-57"/>
   </r>
   <r>
     <x v="1"/>
@@ -5748,10 +5748,10 @@
     <s v="Professional Services "/>
     <n v="54"/>
     <n v="54"/>
-    <n v="0"/>
+    <n v="51"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="106"/>
+    <n v="-55"/>
   </r>
   <r>
     <x v="8"/>
@@ -5763,10 +5763,10 @@
     <s v="Professional Services "/>
     <n v="56"/>
     <n v="22"/>
-    <n v="10"/>
+    <n v="52"/>
     <m/>
-    <n v="5"/>
-    <n v="5"/>
+    <n v="105"/>
+    <n v="-53"/>
   </r>
   <r>
     <x v="16"/>
@@ -5778,10 +5778,10 @@
     <s v="Professional Services "/>
     <n v="9"/>
     <n v="5"/>
-    <n v="4"/>
+    <n v="53"/>
     <m/>
-    <n v="2"/>
-    <n v="2"/>
+    <n v="104"/>
+    <n v="-51"/>
   </r>
   <r>
     <x v="8"/>
@@ -5793,10 +5793,10 @@
     <s v="Professional Services "/>
     <n v="41"/>
     <n v="41"/>
-    <n v="0"/>
+    <n v="54"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="103"/>
+    <n v="-49"/>
   </r>
   <r>
     <x v="17"/>
@@ -5808,10 +5808,10 @@
     <s v="Professional Services "/>
     <n v="17"/>
     <n v="17"/>
-    <n v="0"/>
+    <n v="55"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="102"/>
+    <n v="-47"/>
   </r>
   <r>
     <x v="1"/>
@@ -5823,10 +5823,10 @@
     <s v="Professional Services "/>
     <n v="31"/>
     <n v="10"/>
-    <n v="13"/>
+    <n v="56"/>
     <m/>
-    <n v="0"/>
-    <n v="13"/>
+    <n v="101"/>
+    <n v="-45"/>
   </r>
   <r>
     <x v="18"/>
@@ -5838,10 +5838,10 @@
     <s v="Professional Services "/>
     <n v="17"/>
     <n v="12"/>
-    <n v="5"/>
+    <n v="57"/>
     <m/>
-    <n v="2"/>
-    <n v="3"/>
+    <n v="100"/>
+    <n v="-43"/>
   </r>
   <r>
     <x v="4"/>
@@ -5853,10 +5853,10 @@
     <s v="Professional Services "/>
     <n v="41.5"/>
     <n v="39.75"/>
-    <n v="1.75"/>
+    <n v="58"/>
     <m/>
-    <n v="0"/>
-    <n v="1.75"/>
+    <n v="99"/>
+    <n v="-41"/>
   </r>
   <r>
     <x v="15"/>
@@ -5868,10 +5868,10 @@
     <s v="Professional Services "/>
     <n v="14"/>
     <n v="10.5"/>
-    <n v="3.5"/>
+    <n v="59"/>
     <m/>
-    <n v="0"/>
-    <n v="3.5"/>
+    <n v="98"/>
+    <n v="-39"/>
   </r>
   <r>
     <x v="2"/>
@@ -5883,10 +5883,10 @@
     <s v="Professional Services "/>
     <n v="64"/>
     <n v="61"/>
-    <n v="3"/>
+    <n v="60"/>
     <m/>
-    <n v="0"/>
-    <n v="3"/>
+    <n v="97"/>
+    <n v="-37"/>
   </r>
   <r>
     <x v="16"/>
@@ -5898,9 +5898,9 @@
     <s v="Professional Services "/>
     <n v="69"/>
     <n v="1"/>
-    <n v="68"/>
+    <n v="61"/>
     <m/>
-    <n v="0"/>
+    <n v="96"/>
     <n v="68"/>
   </r>
   <r>
@@ -5913,9 +5913,9 @@
     <s v="Professional Services "/>
     <n v="50"/>
     <n v="1"/>
-    <n v="49"/>
+    <n v="62"/>
     <m/>
-    <n v="0"/>
+    <n v="95"/>
     <n v="49"/>
   </r>
   <r>
@@ -5928,9 +5928,9 @@
     <s v="Professional Services "/>
     <n v="30"/>
     <n v="0"/>
-    <n v="30"/>
+    <n v="63"/>
     <m/>
-    <n v="0"/>
+    <n v="94"/>
     <n v="30"/>
   </r>
   <r>
@@ -5943,9 +5943,9 @@
     <s v="Professional Services "/>
     <n v="21"/>
     <n v="0"/>
-    <n v="21"/>
+    <n v="64"/>
     <m/>
-    <n v="0"/>
+    <n v="93"/>
     <n v="21"/>
   </r>
   <r>
@@ -5958,10 +5958,10 @@
     <s v="Professional Services "/>
     <n v="11"/>
     <n v="4"/>
-    <n v="7"/>
+    <n v="65"/>
     <m/>
-    <n v="2"/>
-    <n v="5"/>
+    <n v="92"/>
+    <n v="-27"/>
   </r>
   <r>
     <x v="1"/>
@@ -5973,10 +5973,10 @@
     <s v="Professional Services "/>
     <n v="9"/>
     <n v="0"/>
-    <n v="9"/>
+    <n v="66"/>
     <m/>
-    <n v="8"/>
-    <n v="1"/>
+    <n v="91"/>
+    <n v="-25"/>
   </r>
   <r>
     <x v="15"/>
@@ -5988,10 +5988,10 @@
     <s v="Professional Services "/>
     <n v="11"/>
     <n v="3"/>
-    <n v="8"/>
+    <n v="67"/>
     <m/>
-    <n v="3"/>
-    <n v="5"/>
+    <n v="90"/>
+    <n v="-23"/>
   </r>
   <r>
     <x v="18"/>
@@ -6003,10 +6003,10 @@
     <s v="Professional Services "/>
     <n v="7"/>
     <n v="0"/>
-    <n v="7"/>
+    <n v="68"/>
     <m/>
-    <n v="1"/>
-    <n v="6"/>
+    <n v="89"/>
+    <n v="-21"/>
   </r>
   <r>
     <x v="19"/>
@@ -6018,10 +6018,10 @@
     <s v="Professional Services "/>
     <n v="5"/>
     <n v="3"/>
-    <n v="2"/>
+    <n v="69"/>
     <m/>
-    <n v="2"/>
-    <n v="0"/>
+    <n v="88"/>
+    <n v="-19"/>
   </r>
   <r>
     <x v="0"/>
@@ -6033,10 +6033,10 @@
     <s v="Professional Services"/>
     <n v="33"/>
     <n v="8.1"/>
-    <n v="24.9"/>
+    <n v="70"/>
     <m/>
-    <n v="0.75"/>
-    <n v="24.15"/>
+    <n v="87"/>
+    <n v="-17"/>
   </r>
   <r>
     <x v="1"/>
@@ -6048,10 +6048,10 @@
     <s v="Professional Services"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="2"/>
+    <n v="71"/>
     <m/>
-    <n v="0"/>
-    <n v="2"/>
+    <n v="86"/>
+    <n v="-15"/>
   </r>
   <r>
     <x v="9"/>
@@ -6063,10 +6063,10 @@
     <s v="Professional Services"/>
     <n v="45"/>
     <n v="12"/>
-    <n v="33"/>
+    <n v="72"/>
     <m/>
-    <n v="0"/>
-    <n v="33"/>
+    <n v="85"/>
+    <n v="-13"/>
   </r>
   <r>
     <x v="16"/>
@@ -6078,10 +6078,10 @@
     <s v="Professional Services "/>
     <n v="25"/>
     <n v="25"/>
-    <n v="0"/>
+    <n v="73"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="84"/>
+    <n v="-11"/>
   </r>
   <r>
     <x v="1"/>
@@ -6093,10 +6093,10 @@
     <s v="Professional Services "/>
     <n v="25"/>
     <n v="25"/>
-    <n v="0"/>
+    <n v="74"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="83"/>
+    <n v="-9"/>
   </r>
   <r>
     <x v="13"/>
@@ -6108,10 +6108,10 @@
     <s v="Professional Services "/>
     <n v="5"/>
     <n v="5"/>
-    <n v="0"/>
+    <n v="75"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="82"/>
+    <n v="-7"/>
   </r>
   <r>
     <x v="2"/>
@@ -6123,10 +6123,10 @@
     <s v="Support "/>
     <n v="10"/>
     <n v="0"/>
-    <n v="12"/>
+    <n v="76"/>
     <m/>
-    <n v="1"/>
-    <n v="11"/>
+    <n v="81"/>
+    <n v="-5"/>
   </r>
   <r>
     <x v="16"/>
@@ -6138,10 +6138,10 @@
     <s v="Support"/>
     <n v="5"/>
     <n v="0"/>
-    <n v="3"/>
+    <n v="77"/>
     <m/>
-    <n v="1"/>
-    <n v="2"/>
+    <n v="80"/>
+    <n v="-3"/>
   </r>
   <r>
     <x v="11"/>
@@ -6153,10 +6153,10 @@
     <s v="Support"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="25"/>
+    <n v="78"/>
     <m/>
-    <n v="0"/>
-    <n v="25"/>
+    <n v="79"/>
+    <n v="-1"/>
   </r>
   <r>
     <x v="4"/>
@@ -6168,10 +6168,10 @@
     <s v="Support"/>
     <m/>
     <m/>
+    <n v="79"/>
+    <m/>
+    <n v="78"/>
     <n v="1"/>
-    <m/>
-    <n v="1"/>
-    <n v="0"/>
   </r>
   <r>
     <x v="13"/>
@@ -6183,10 +6183,10 @@
     <s v="Support"/>
     <n v="4"/>
     <n v="4"/>
-    <n v="25"/>
+    <n v="80"/>
     <m/>
-    <n v="4.625"/>
-    <n v="20.375"/>
+    <n v="77"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="2"/>
@@ -6198,10 +6198,10 @@
     <s v="Support"/>
     <n v="1"/>
     <n v="0"/>
-    <n v="2"/>
+    <n v="81"/>
     <m/>
-    <n v="0"/>
-    <n v="2"/>
+    <n v="76"/>
+    <n v="5"/>
   </r>
   <r>
     <x v="15"/>
@@ -6213,10 +6213,10 @@
     <s v="Support"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="2"/>
+    <n v="82"/>
     <m/>
-    <n v="0"/>
-    <n v="2"/>
+    <n v="75"/>
+    <n v="7"/>
   </r>
   <r>
     <x v="1"/>
@@ -6228,10 +6228,10 @@
     <s v="Support"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="2"/>
+    <n v="83"/>
     <m/>
-    <n v="0"/>
-    <n v="2"/>
+    <n v="74"/>
+    <n v="9"/>
   </r>
   <r>
     <x v="4"/>
@@ -6243,10 +6243,10 @@
     <s v="Support"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="1"/>
+    <n v="84"/>
     <m/>
-    <n v="0"/>
-    <n v="1"/>
+    <n v="73"/>
+    <n v="11"/>
   </r>
   <r>
     <x v="11"/>
@@ -6258,10 +6258,10 @@
     <s v="Support"/>
     <n v="15"/>
     <n v="8"/>
-    <n v="19"/>
+    <n v="85"/>
     <m/>
-    <n v="7"/>
-    <n v="12"/>
+    <n v="72"/>
+    <n v="13"/>
   </r>
   <r>
     <x v="20"/>
@@ -6273,10 +6273,10 @@
     <s v="Support"/>
     <n v="8"/>
     <n v="1"/>
-    <n v="4"/>
+    <n v="86"/>
     <m/>
-    <n v="1.3"/>
-    <n v="2.7"/>
+    <n v="71"/>
+    <n v="15"/>
   </r>
   <r>
     <x v="21"/>
@@ -6288,10 +6288,10 @@
     <s v="Support"/>
     <n v="8"/>
     <n v="1"/>
-    <n v="4"/>
+    <n v="87"/>
     <m/>
-    <n v="3"/>
-    <n v="1"/>
+    <n v="70"/>
+    <n v="17"/>
   </r>
   <r>
     <x v="15"/>
@@ -6303,10 +6303,10 @@
     <s v="Support"/>
     <n v="208"/>
     <n v="0"/>
-    <n v="104"/>
+    <n v="88"/>
     <m/>
-    <n v="20"/>
-    <n v="84"/>
+    <n v="69"/>
+    <n v="19"/>
   </r>
   <r>
     <x v="12"/>
@@ -6318,10 +6318,10 @@
     <s v="Support"/>
     <n v="19"/>
     <m/>
-    <n v="2"/>
+    <n v="89"/>
     <m/>
-    <n v="2"/>
-    <n v="0"/>
+    <n v="68"/>
+    <n v="21"/>
   </r>
   <r>
     <x v="13"/>
@@ -6333,10 +6333,10 @@
     <s v="Support"/>
     <n v="2"/>
     <n v="1"/>
-    <n v="17"/>
+    <n v="90"/>
     <m/>
-    <n v="3.875"/>
-    <n v="13.125"/>
+    <n v="67"/>
+    <n v="23"/>
   </r>
   <r>
     <x v="21"/>
@@ -6348,10 +6348,10 @@
     <s v="Professional Services "/>
     <n v="6"/>
     <n v="1.5"/>
-    <n v="4.5"/>
+    <n v="91"/>
     <m/>
-    <n v="0"/>
-    <n v="4.5"/>
+    <n v="66"/>
+    <n v="25"/>
   </r>
   <r>
     <x v="20"/>
@@ -6363,10 +6363,10 @@
     <s v="Professional Services "/>
     <n v="14"/>
     <n v="6.5"/>
-    <n v="7.5"/>
+    <n v="92"/>
     <m/>
-    <n v="0.2"/>
-    <n v="7.3"/>
+    <n v="65"/>
+    <n v="27"/>
   </r>
   <r>
     <x v="20"/>
@@ -6378,10 +6378,10 @@
     <s v="Professional Services "/>
     <n v="19"/>
     <n v="0"/>
-    <n v="19"/>
+    <n v="93"/>
     <m/>
-    <n v="2"/>
-    <n v="17"/>
+    <n v="64"/>
+    <n v="29"/>
   </r>
   <r>
     <x v="21"/>
@@ -6393,10 +6393,10 @@
     <s v="Professional Services "/>
     <n v="10"/>
     <n v="0.05"/>
-    <n v="9.9499999999999993"/>
+    <n v="94"/>
     <m/>
-    <n v="0"/>
-    <n v="9.9499999999999993"/>
+    <n v="63"/>
+    <n v="31"/>
   </r>
   <r>
     <x v="13"/>
@@ -6408,10 +6408,10 @@
     <s v="Support"/>
     <n v="30"/>
     <n v="17"/>
-    <n v="13"/>
+    <n v="95"/>
     <m/>
-    <n v="0"/>
-    <n v="13"/>
+    <n v="62"/>
+    <n v="33"/>
   </r>
   <r>
     <x v="21"/>
@@ -6423,10 +6423,10 @@
     <s v="Support"/>
     <n v="8"/>
     <n v="0"/>
-    <n v="4"/>
+    <n v="96"/>
     <m/>
-    <n v="0"/>
-    <n v="4"/>
+    <n v="61"/>
+    <n v="35"/>
   </r>
   <r>
     <x v="20"/>
@@ -6438,10 +6438,10 @@
     <s v="Support"/>
     <n v="8"/>
     <n v="0"/>
-    <n v="4"/>
+    <n v="97"/>
     <m/>
-    <n v="0"/>
-    <n v="4"/>
+    <n v="60"/>
+    <n v="37"/>
   </r>
   <r>
     <x v="21"/>
@@ -6453,10 +6453,10 @@
     <s v="Support"/>
     <n v="36"/>
     <n v="0"/>
-    <n v="36"/>
+    <n v="98"/>
     <m/>
-    <n v="1"/>
-    <n v="35"/>
+    <n v="59"/>
+    <n v="39"/>
   </r>
   <r>
     <x v="20"/>
@@ -6468,10 +6468,10 @@
     <s v="Support"/>
     <n v="36"/>
     <n v="0"/>
-    <n v="36"/>
+    <n v="99"/>
     <m/>
-    <n v="3.75"/>
-    <n v="32.25"/>
+    <n v="58"/>
+    <n v="41"/>
   </r>
   <r>
     <x v="11"/>
@@ -6483,10 +6483,10 @@
     <s v="Support"/>
     <n v="6"/>
     <n v="0"/>
-    <n v="6"/>
+    <n v="100"/>
     <m/>
-    <n v="0"/>
-    <n v="6"/>
+    <n v="57"/>
+    <n v="43"/>
   </r>
   <r>
     <x v="9"/>
@@ -6498,10 +6498,10 @@
     <s v="MSP"/>
     <n v="7"/>
     <n v="7"/>
-    <n v="5"/>
+    <n v="101"/>
     <m/>
-    <n v="5"/>
-    <n v="0"/>
+    <n v="56"/>
+    <n v="45"/>
   </r>
   <r>
     <x v="22"/>
@@ -6513,10 +6513,10 @@
     <s v="MSP"/>
     <n v="8"/>
     <n v="8"/>
-    <n v="0"/>
+    <n v="102"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="55"/>
+    <n v="47"/>
   </r>
   <r>
     <x v="18"/>
@@ -6528,10 +6528,10 @@
     <s v="MSP"/>
     <n v="93"/>
     <n v="44"/>
+    <n v="103"/>
+    <m/>
+    <n v="54"/>
     <n v="49"/>
-    <m/>
-    <n v="67"/>
-    <n v="-18"/>
   </r>
   <r>
     <x v="21"/>
@@ -6543,10 +6543,10 @@
     <s v="Support"/>
     <n v="5"/>
     <n v="0"/>
-    <n v="5"/>
+    <n v="104"/>
     <m/>
-    <n v="0"/>
-    <n v="5"/>
+    <n v="53"/>
+    <n v="51"/>
   </r>
   <r>
     <x v="20"/>
@@ -6558,10 +6558,10 @@
     <s v="Support"/>
     <n v="5"/>
     <n v="0"/>
-    <n v="5"/>
+    <n v="105"/>
     <m/>
-    <n v="1.75"/>
-    <n v="3.25"/>
+    <n v="52"/>
+    <n v="53"/>
   </r>
   <r>
     <x v="21"/>
@@ -6573,10 +6573,10 @@
     <s v="Support"/>
     <n v="6"/>
     <n v="0"/>
-    <n v="6"/>
+    <n v="106"/>
     <m/>
-    <n v="0"/>
-    <n v="6"/>
+    <n v="51"/>
+    <n v="55"/>
   </r>
   <r>
     <x v="20"/>
@@ -6588,10 +6588,10 @@
     <s v="Support"/>
     <n v="6"/>
     <n v="0.5"/>
-    <n v="5.5"/>
+    <n v="107"/>
     <m/>
-    <n v="0"/>
-    <n v="5.5"/>
+    <n v="50"/>
+    <n v="57"/>
   </r>
   <r>
     <x v="20"/>
@@ -6603,10 +6603,10 @@
     <s v="Support"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="2"/>
+    <n v="108"/>
     <m/>
-    <n v="0"/>
-    <n v="2"/>
+    <n v="49"/>
+    <n v="59"/>
   </r>
   <r>
     <x v="21"/>
@@ -6618,10 +6618,10 @@
     <s v="Support"/>
     <n v="2"/>
     <n v="0"/>
-    <n v="2"/>
+    <n v="109"/>
     <m/>
-    <n v="1"/>
-    <n v="1"/>
+    <n v="48"/>
+    <n v="61"/>
   </r>
   <r>
     <x v="23"/>
@@ -6633,10 +6633,10 @@
     <s v="MSP"/>
     <n v="132"/>
     <n v="0"/>
-    <n v="67"/>
+    <n v="110"/>
     <m/>
-    <n v="0"/>
-    <n v="67"/>
+    <n v="47"/>
+    <n v="63"/>
   </r>
   <r>
     <x v="9"/>
@@ -6648,10 +6648,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="55"/>
+    <n v="111"/>
     <m/>
-    <n v="39"/>
-    <n v="16"/>
+    <n v="46"/>
+    <n v="65"/>
   </r>
   <r>
     <x v="11"/>
@@ -6663,10 +6663,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="10"/>
+    <n v="112"/>
     <m/>
-    <n v="0"/>
-    <n v="10"/>
+    <n v="45"/>
+    <n v="67"/>
   </r>
   <r>
     <x v="23"/>
@@ -6678,10 +6678,10 @@
     <s v="MSP"/>
     <n v="80"/>
     <n v="80"/>
-    <n v="77"/>
+    <n v="113"/>
     <m/>
-    <n v="35"/>
-    <n v="42"/>
+    <n v="44"/>
+    <n v="69"/>
   </r>
   <r>
     <x v="11"/>
@@ -6693,10 +6693,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="55"/>
+    <n v="114"/>
     <m/>
-    <n v="35"/>
-    <n v="20"/>
+    <n v="43"/>
+    <n v="71"/>
   </r>
   <r>
     <x v="24"/>
@@ -6708,10 +6708,10 @@
     <s v="MSP"/>
     <n v="16"/>
     <n v="16"/>
-    <n v="5"/>
+    <n v="115"/>
     <m/>
-    <n v="3"/>
-    <n v="2"/>
+    <n v="42"/>
+    <n v="73"/>
   </r>
   <r>
     <x v="11"/>
@@ -6723,10 +6723,10 @@
     <s v="Support"/>
     <n v="25"/>
     <n v="25"/>
-    <n v="0"/>
+    <n v="116"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="41"/>
+    <n v="75"/>
   </r>
   <r>
     <x v="8"/>
@@ -6738,10 +6738,10 @@
     <s v="Professional Services "/>
     <n v="2"/>
     <n v="0"/>
-    <n v="2"/>
+    <n v="117"/>
     <m/>
-    <n v="0"/>
-    <n v="2"/>
+    <n v="40"/>
+    <n v="77"/>
   </r>
   <r>
     <x v="8"/>
@@ -6753,10 +6753,10 @@
     <s v="Professional Services "/>
     <n v="2"/>
     <n v="0"/>
-    <n v="2"/>
+    <n v="118"/>
     <m/>
-    <n v="0"/>
-    <n v="2"/>
+    <n v="39"/>
+    <n v="79"/>
   </r>
   <r>
     <x v="18"/>
@@ -6768,10 +6768,10 @@
     <s v="Professional Services "/>
     <n v="17"/>
     <n v="15"/>
-    <n v="2"/>
+    <n v="119"/>
     <m/>
-    <n v="0"/>
-    <n v="2"/>
+    <n v="38"/>
+    <n v="81"/>
   </r>
   <r>
     <x v="25"/>
@@ -6783,10 +6783,10 @@
     <s v="Support"/>
     <m/>
     <m/>
-    <n v="0"/>
+    <n v="120"/>
     <m/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="37"/>
+    <n v="83"/>
   </r>
   <r>
     <x v="26"/>
@@ -6798,10 +6798,10 @@
     <s v="Professional Services "/>
     <m/>
     <m/>
-    <n v="232"/>
+    <n v="121"/>
     <m/>
-    <n v="76"/>
-    <n v="156"/>
+    <n v="36"/>
+    <n v="85"/>
   </r>
   <r>
     <x v="8"/>
@@ -6813,10 +6813,10 @@
     <s v="Professional Services "/>
     <m/>
     <m/>
-    <n v="12"/>
+    <n v="122"/>
     <m/>
-    <n v="0"/>
-    <n v="12"/>
+    <n v="35"/>
+    <n v="87"/>
   </r>
   <r>
     <x v="1"/>
@@ -6828,10 +6828,10 @@
     <s v="Professional Services "/>
     <m/>
     <m/>
-    <n v="18"/>
+    <n v="123"/>
     <m/>
-    <n v="0"/>
-    <n v="18"/>
+    <n v="34"/>
+    <n v="89"/>
   </r>
   <r>
     <x v="27"/>
@@ -6843,10 +6843,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="120"/>
+    <n v="124"/>
     <m/>
-    <n v="17.5"/>
-    <n v="102.5"/>
+    <n v="33"/>
+    <n v="91"/>
   </r>
   <r>
     <x v="3"/>
@@ -6858,10 +6858,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="24"/>
+    <n v="125"/>
     <m/>
-    <n v="0"/>
-    <n v="24"/>
+    <n v="32"/>
+    <n v="93"/>
   </r>
   <r>
     <x v="8"/>
@@ -6873,10 +6873,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="24"/>
+    <n v="126"/>
     <m/>
-    <n v="0"/>
-    <n v="24"/>
+    <n v="31"/>
+    <n v="95"/>
   </r>
   <r>
     <x v="28"/>
@@ -6888,9 +6888,9 @@
     <s v="MSP"/>
     <n v="120"/>
     <m/>
-    <n v="12"/>
+    <n v="127"/>
     <m/>
-    <n v="12"/>
+    <n v="30"/>
     <n v="0"/>
   </r>
   <r>
@@ -6903,10 +6903,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="132"/>
+    <n v="128"/>
     <m/>
-    <n v="74"/>
-    <n v="58"/>
+    <n v="29"/>
+    <n v="99"/>
   </r>
   <r>
     <x v="29"/>
@@ -6918,10 +6918,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="152"/>
+    <n v="129"/>
     <m/>
-    <n v="0"/>
-    <n v="152"/>
+    <n v="28"/>
+    <n v="101"/>
   </r>
   <r>
     <x v="22"/>
@@ -6933,10 +6933,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="110"/>
+    <n v="130"/>
     <m/>
-    <n v="74"/>
-    <n v="36"/>
+    <n v="27"/>
+    <n v="103"/>
   </r>
   <r>
     <x v="30"/>
@@ -6948,10 +6948,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="132"/>
+    <n v="131"/>
     <m/>
-    <n v="0"/>
-    <n v="132"/>
+    <n v="26"/>
+    <n v="105"/>
   </r>
   <r>
     <x v="31"/>
@@ -6963,10 +6963,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="154"/>
+    <n v="132"/>
     <m/>
-    <n v="0"/>
-    <n v="154"/>
+    <n v="25"/>
+    <n v="107"/>
   </r>
   <r>
     <x v="32"/>
@@ -6978,10 +6978,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="264"/>
+    <n v="133"/>
     <m/>
-    <n v="0"/>
-    <n v="264"/>
+    <n v="24"/>
+    <n v="109"/>
   </r>
   <r>
     <x v="33"/>
@@ -6993,10 +6993,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="199"/>
+    <n v="134"/>
     <m/>
-    <n v="39"/>
-    <n v="160"/>
+    <n v="23"/>
+    <n v="111"/>
   </r>
   <r>
     <x v="11"/>
@@ -7008,10 +7008,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="110"/>
+    <n v="135"/>
     <m/>
-    <n v="44"/>
-    <n v="66"/>
+    <n v="22"/>
+    <n v="113"/>
   </r>
   <r>
     <x v="34"/>
@@ -7023,9 +7023,9 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="264"/>
+    <n v="136"/>
     <m/>
-    <n v="44"/>
+    <n v="21"/>
     <n v="227"/>
   </r>
   <r>
@@ -7038,9 +7038,9 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="264"/>
+    <n v="137"/>
     <m/>
-    <n v="44"/>
+    <n v="20"/>
     <n v="227"/>
   </r>
   <r>
@@ -7053,9 +7053,9 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="264"/>
+    <n v="138"/>
     <m/>
-    <n v="44"/>
+    <n v="19"/>
     <n v="227"/>
   </r>
   <r>
@@ -7068,9 +7068,9 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="264"/>
+    <n v="139"/>
     <m/>
-    <n v="44"/>
+    <n v="18"/>
     <n v="227"/>
   </r>
   <r>
@@ -7083,9 +7083,9 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="2"/>
+    <n v="140"/>
     <m/>
-    <n v="2"/>
+    <n v="17"/>
     <n v="227"/>
   </r>
   <r>
@@ -7098,9 +7098,9 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="65"/>
+    <n v="141"/>
     <m/>
-    <n v="44"/>
+    <n v="16"/>
     <n v="227"/>
   </r>
   <r>
@@ -7113,10 +7113,10 @@
     <s v="Professional Services "/>
     <m/>
     <m/>
-    <n v="8"/>
+    <n v="142"/>
     <m/>
-    <n v="2"/>
-    <n v="6"/>
+    <n v="15"/>
+    <n v="127"/>
   </r>
   <r>
     <x v="1"/>
@@ -7128,10 +7128,10 @@
     <s v="Professional Services "/>
     <m/>
     <m/>
-    <n v="20"/>
+    <n v="143"/>
     <m/>
-    <n v="0"/>
-    <n v="20"/>
+    <n v="14"/>
+    <n v="129"/>
   </r>
   <r>
     <x v="20"/>
@@ -7143,10 +7143,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="132"/>
+    <n v="144"/>
     <m/>
-    <n v="25"/>
-    <n v="107"/>
+    <n v="13"/>
+    <n v="131"/>
   </r>
   <r>
     <x v="38"/>
@@ -7158,10 +7158,10 @@
     <s v="MSP"/>
     <m/>
     <m/>
-    <n v="30"/>
+    <n v="145"/>
     <m/>
-    <n v="4"/>
-    <n v="26"/>
+    <n v="12"/>
+    <n v="133"/>
   </r>
   <r>
     <x v="39"/>
@@ -7173,10 +7173,10 @@
     <s v="Support"/>
     <m/>
     <m/>
-    <n v="1"/>
+    <n v="146"/>
     <m/>
-    <n v="1"/>
-    <n v="0"/>
+    <n v="11"/>
+    <n v="135"/>
   </r>
   <r>
     <x v="18"/>
@@ -7188,10 +7188,10 @@
     <s v="Support"/>
     <m/>
     <m/>
-    <n v="5"/>
+    <n v="147"/>
     <m/>
-    <n v="5"/>
-    <n v="0"/>
+    <n v="10"/>
+    <n v="137"/>
   </r>
   <r>
     <x v="39"/>
@@ -7203,10 +7203,10 @@
     <s v="Support"/>
     <m/>
     <m/>
-    <n v="5"/>
+    <n v="148"/>
     <m/>
-    <n v="5"/>
-    <n v="0"/>
+    <n v="9"/>
+    <n v="139"/>
   </r>
   <r>
     <x v="8"/>
@@ -7218,10 +7218,10 @@
     <s v="Support"/>
     <m/>
     <m/>
-    <n v="5"/>
+    <n v="149"/>
     <m/>
-    <n v="5"/>
-    <n v="0"/>
+    <n v="8"/>
+    <n v="141"/>
   </r>
   <r>
     <x v="18"/>
@@ -7233,10 +7233,10 @@
     <s v="Support"/>
     <m/>
     <m/>
-    <n v="12"/>
+    <n v="150"/>
     <m/>
-    <n v="3"/>
-    <n v="9"/>
+    <n v="7"/>
+    <n v="143"/>
   </r>
   <r>
     <x v="16"/>
@@ -7248,10 +7248,10 @@
     <s v="Professional Services "/>
     <m/>
     <m/>
+    <n v="151"/>
+    <m/>
     <n v="6"/>
-    <m/>
-    <n v="1.2"/>
-    <n v="4.8"/>
+    <n v="145"/>
   </r>
   <r>
     <x v="40"/>
@@ -7263,10 +7263,10 @@
     <s v="Professional Services "/>
     <m/>
     <m/>
-    <n v="12"/>
+    <n v="152"/>
     <m/>
-    <n v="0.2"/>
-    <n v="11.8"/>
+    <n v="5"/>
+    <n v="147"/>
   </r>
   <r>
     <x v="3"/>
@@ -7278,10 +7278,10 @@
     <s v="Professional Services "/>
     <m/>
     <m/>
-    <n v="11"/>
+    <n v="153"/>
     <m/>
-    <n v="1"/>
-    <n v="10"/>
+    <n v="4"/>
+    <n v="149"/>
   </r>
   <r>
     <x v="5"/>
@@ -7293,9 +7293,9 @@
     <s v="Support"/>
     <m/>
     <m/>
-    <n v="2"/>
+    <n v="154"/>
     <m/>
-    <n v="2"/>
+    <n v="3"/>
     <m/>
   </r>
   <r>
@@ -7308,9 +7308,9 @@
     <s v="Support"/>
     <m/>
     <m/>
-    <n v="0.5"/>
+    <n v="155"/>
     <m/>
-    <n v="0.5"/>
+    <n v="2"/>
     <m/>
   </r>
   <r>
@@ -7323,9 +7323,9 @@
     <s v="Support"/>
     <m/>
     <m/>
-    <n v="0.5"/>
+    <n v="156"/>
     <m/>
-    <n v="0.5"/>
+    <n v="1"/>
     <m/>
   </r>
   <r>
@@ -9027,16 +9027,16 @@
         <f t="shared" ref="N2:N33" si="1">I2-M2</f>
         <v>88.712500000000006</v>
       </c>
-      <c r="O2" s="147">
+      <c r="O2" s="144">
         <v>45344</v>
       </c>
-      <c r="P2" s="147">
+      <c r="P2" s="144">
         <v>45595</v>
       </c>
-      <c r="Q2" s="147" t="s">
+      <c r="Q2" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="146"/>
+      <c r="R2" s="143"/>
       <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9085,10 +9085,10 @@
         <f t="shared" si="1"/>
         <v>1.625</v>
       </c>
-      <c r="O3" s="147"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="146"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="143"/>
       <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9137,10 +9137,10 @@
         <f t="shared" si="1"/>
         <v>21.375</v>
       </c>
-      <c r="O4" s="147"/>
-      <c r="P4" s="147"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="146"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="143"/>
       <c r="S4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9189,10 +9189,10 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="146"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="143"/>
       <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9247,10 +9247,10 @@
       <c r="P6" s="150">
         <v>45503</v>
       </c>
-      <c r="Q6" s="147">
+      <c r="Q6" s="144">
         <v>45650</v>
       </c>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="143" t="s">
         <v>33</v>
       </c>
       <c r="S6" s="15"/>
@@ -9303,8 +9303,8 @@
       </c>
       <c r="O7" s="150"/>
       <c r="P7" s="150"/>
-      <c r="Q7" s="147"/>
-      <c r="R7" s="146"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="143"/>
       <c r="S7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9355,8 +9355,8 @@
       </c>
       <c r="O8" s="150"/>
       <c r="P8" s="150"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="146"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="143"/>
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9407,8 +9407,8 @@
       </c>
       <c r="O9" s="150"/>
       <c r="P9" s="150"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="146"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="143"/>
       <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9457,16 +9457,16 @@
         <f t="shared" si="1"/>
         <v>-2.1625000000000014</v>
       </c>
-      <c r="O10" s="151">
+      <c r="O10" s="148">
         <v>45231</v>
       </c>
-      <c r="P10" s="151">
+      <c r="P10" s="148">
         <v>45404</v>
       </c>
-      <c r="Q10" s="151">
+      <c r="Q10" s="148">
         <v>45628</v>
       </c>
-      <c r="R10" s="146" t="s">
+      <c r="R10" s="143" t="s">
         <v>38</v>
       </c>
       <c r="S10" s="15"/>
@@ -9517,10 +9517,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="146"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="143"/>
       <c r="S11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9569,10 +9569,10 @@
         <f t="shared" si="1"/>
         <v>1.9624999999999986</v>
       </c>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="146"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="143"/>
       <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9621,10 +9621,10 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="146"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="143"/>
       <c r="S13" s="15"/>
     </row>
     <row r="14" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9673,16 +9673,16 @@
         <f t="shared" ref="N14:N19" si="6">I14-M14</f>
         <v>1</v>
       </c>
-      <c r="O14" s="147">
+      <c r="O14" s="144">
         <v>45286</v>
       </c>
-      <c r="P14" s="147">
+      <c r="P14" s="144">
         <v>45442</v>
       </c>
-      <c r="Q14" s="147" t="s">
+      <c r="Q14" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="146"/>
+      <c r="R14" s="143"/>
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9731,10 +9731,10 @@
         <f t="shared" si="6"/>
         <v>5.625</v>
       </c>
-      <c r="O15" s="147"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="146"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="143"/>
       <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9783,10 +9783,10 @@
         <f t="shared" si="6"/>
         <v>37.25</v>
       </c>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="146"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="143"/>
       <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9835,10 +9835,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="146"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="143"/>
       <c r="S17" s="15"/>
     </row>
     <row r="18" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9887,10 +9887,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="146"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="143"/>
       <c r="S18" s="15"/>
     </row>
     <row r="19" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9939,16 +9939,16 @@
         <f t="shared" si="6"/>
         <v>-5.875</v>
       </c>
-      <c r="O19" s="147">
+      <c r="O19" s="144">
         <v>45271</v>
       </c>
-      <c r="P19" s="147">
+      <c r="P19" s="144">
         <v>45545</v>
       </c>
       <c r="Q19" s="145">
         <v>45570</v>
       </c>
-      <c r="R19" s="146" t="s">
+      <c r="R19" s="143" t="s">
         <v>46</v>
       </c>
       <c r="S19" s="15"/>
@@ -9999,10 +9999,10 @@
         <f t="shared" si="1"/>
         <v>-7.1474999999999937</v>
       </c>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
       <c r="Q20" s="145"/>
-      <c r="R20" s="146"/>
+      <c r="R20" s="143"/>
       <c r="S20" s="15"/>
     </row>
     <row r="21" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10051,10 +10051,10 @@
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="144"/>
       <c r="Q21" s="145"/>
-      <c r="R21" s="146"/>
+      <c r="R21" s="143"/>
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10103,10 +10103,10 @@
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="144"/>
       <c r="Q22" s="145"/>
-      <c r="R22" s="146"/>
+      <c r="R22" s="143"/>
       <c r="S22" s="15" t="s">
         <v>50</v>
       </c>
@@ -10157,10 +10157,10 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="144"/>
       <c r="Q23" s="145"/>
-      <c r="R23" s="146"/>
+      <c r="R23" s="143"/>
       <c r="S23" s="15"/>
     </row>
     <row r="24" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10209,10 +10209,10 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="144"/>
       <c r="Q24" s="145"/>
-      <c r="R24" s="146"/>
+      <c r="R24" s="143"/>
       <c r="S24" s="15"/>
     </row>
     <row r="25" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10261,10 +10261,10 @@
         <f t="shared" si="1"/>
         <v>-6.625</v>
       </c>
-      <c r="O25" s="147"/>
-      <c r="P25" s="147"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="144"/>
       <c r="Q25" s="145"/>
-      <c r="R25" s="146"/>
+      <c r="R25" s="143"/>
       <c r="S25" s="15"/>
     </row>
     <row r="26" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10313,10 +10313,10 @@
         <f t="shared" si="1"/>
         <v>-8.7874999999999943</v>
       </c>
-      <c r="O26" s="147"/>
-      <c r="P26" s="147"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
       <c r="Q26" s="145"/>
-      <c r="R26" s="146"/>
+      <c r="R26" s="143"/>
       <c r="S26" s="15"/>
     </row>
     <row r="27" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10365,14 +10365,14 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O27" s="147">
+      <c r="O27" s="144">
         <v>45483</v>
       </c>
-      <c r="P27" s="147" t="s">
+      <c r="P27" s="144" t="s">
         <v>25</v>
       </c>
       <c r="Q27" s="145"/>
-      <c r="R27" s="146"/>
+      <c r="R27" s="143"/>
       <c r="S27" s="15"/>
     </row>
     <row r="28" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10421,10 +10421,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O28" s="147"/>
-      <c r="P28" s="147"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="144"/>
       <c r="Q28" s="145"/>
-      <c r="R28" s="146"/>
+      <c r="R28" s="143"/>
       <c r="S28" s="15"/>
     </row>
     <row r="29" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10473,14 +10473,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="O29" s="147">
+      <c r="O29" s="144">
         <v>45670</v>
       </c>
-      <c r="P29" s="147">
+      <c r="P29" s="144">
         <v>46814</v>
       </c>
       <c r="Q29" s="145"/>
-      <c r="R29" s="146"/>
+      <c r="R29" s="143"/>
       <c r="S29" s="15"/>
     </row>
     <row r="30" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10529,10 +10529,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
       <c r="Q30" s="145"/>
-      <c r="R30" s="146"/>
+      <c r="R30" s="143"/>
       <c r="S30" s="15"/>
     </row>
     <row r="31" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10581,10 +10581,10 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="144"/>
       <c r="Q31" s="145"/>
-      <c r="R31" s="146"/>
+      <c r="R31" s="143"/>
       <c r="S31" s="15"/>
     </row>
     <row r="32" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10633,10 +10633,10 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="O32" s="147"/>
-      <c r="P32" s="147"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144"/>
       <c r="Q32" s="145"/>
-      <c r="R32" s="146"/>
+      <c r="R32" s="143"/>
       <c r="S32" s="15"/>
     </row>
     <row r="33" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10685,10 +10685,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="144"/>
       <c r="Q33" s="145"/>
-      <c r="R33" s="146"/>
+      <c r="R33" s="143"/>
       <c r="S33" s="15"/>
     </row>
     <row r="34" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10737,10 +10737,10 @@
         <f t="shared" ref="N34:N65" si="8">I34-M34</f>
         <v>50</v>
       </c>
-      <c r="O34" s="147"/>
-      <c r="P34" s="147"/>
+      <c r="O34" s="144"/>
+      <c r="P34" s="144"/>
       <c r="Q34" s="145"/>
-      <c r="R34" s="146"/>
+      <c r="R34" s="143"/>
       <c r="S34" s="15"/>
     </row>
     <row r="35" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10789,10 +10789,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="O35" s="147"/>
-      <c r="P35" s="147"/>
+      <c r="O35" s="144"/>
+      <c r="P35" s="144"/>
       <c r="Q35" s="145"/>
-      <c r="R35" s="146"/>
+      <c r="R35" s="143"/>
       <c r="S35" s="15"/>
     </row>
     <row r="36" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10841,10 +10841,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
       <c r="Q36" s="145"/>
-      <c r="R36" s="146"/>
+      <c r="R36" s="143"/>
       <c r="S36" s="15"/>
     </row>
     <row r="37" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10893,10 +10893,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="O37" s="147"/>
-      <c r="P37" s="147"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="144"/>
       <c r="Q37" s="145"/>
-      <c r="R37" s="146"/>
+      <c r="R37" s="143"/>
       <c r="S37" s="15"/>
     </row>
     <row r="38" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10945,10 +10945,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
+      <c r="O38" s="144"/>
+      <c r="P38" s="144"/>
       <c r="Q38" s="145"/>
-      <c r="R38" s="146"/>
+      <c r="R38" s="143"/>
       <c r="S38" s="15"/>
     </row>
     <row r="39" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11053,14 +11053,14 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O40" s="147">
+      <c r="O40" s="144">
         <v>45670</v>
       </c>
-      <c r="P40" s="147">
+      <c r="P40" s="144">
         <v>46157</v>
       </c>
       <c r="Q40" s="145"/>
-      <c r="R40" s="146"/>
+      <c r="R40" s="143"/>
       <c r="S40" s="15"/>
     </row>
     <row r="41" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11109,10 +11109,10 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="O41" s="147"/>
-      <c r="P41" s="147"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="144"/>
       <c r="Q41" s="145"/>
-      <c r="R41" s="146"/>
+      <c r="R41" s="143"/>
       <c r="S41" s="15"/>
     </row>
     <row r="42" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11161,10 +11161,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O42" s="147"/>
-      <c r="P42" s="147"/>
+      <c r="O42" s="144"/>
+      <c r="P42" s="144"/>
       <c r="Q42" s="145"/>
-      <c r="R42" s="146"/>
+      <c r="R42" s="143"/>
       <c r="S42" s="15"/>
     </row>
     <row r="43" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11213,10 +11213,10 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
+      <c r="O43" s="144"/>
+      <c r="P43" s="144"/>
       <c r="Q43" s="145"/>
-      <c r="R43" s="146"/>
+      <c r="R43" s="143"/>
       <c r="S43" s="15"/>
     </row>
     <row r="44" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11265,10 +11265,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O44" s="147"/>
-      <c r="P44" s="147"/>
+      <c r="O44" s="144"/>
+      <c r="P44" s="144"/>
       <c r="Q44" s="145"/>
-      <c r="R44" s="146"/>
+      <c r="R44" s="143"/>
       <c r="S44" s="15"/>
     </row>
     <row r="45" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11317,14 +11317,14 @@
         <f t="shared" si="8"/>
         <v>52.875</v>
       </c>
-      <c r="O45" s="147"/>
-      <c r="P45" s="147">
+      <c r="O45" s="144"/>
+      <c r="P45" s="144">
         <v>45212</v>
       </c>
-      <c r="Q45" s="147">
+      <c r="Q45" s="144">
         <v>45626</v>
       </c>
-      <c r="R45" s="146" t="s">
+      <c r="R45" s="143" t="s">
         <v>67</v>
       </c>
       <c r="S45" s="15"/>
@@ -11376,10 +11376,10 @@
         <f t="shared" si="8"/>
         <v>38.818750000000001</v>
       </c>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="146"/>
+      <c r="O46" s="144"/>
+      <c r="P46" s="144"/>
+      <c r="Q46" s="144"/>
+      <c r="R46" s="143"/>
       <c r="S46" s="15"/>
     </row>
     <row r="47" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11429,10 +11429,10 @@
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="O47" s="147"/>
-      <c r="P47" s="147"/>
-      <c r="Q47" s="147"/>
-      <c r="R47" s="146"/>
+      <c r="O47" s="144"/>
+      <c r="P47" s="144"/>
+      <c r="Q47" s="144"/>
+      <c r="R47" s="143"/>
       <c r="S47" s="15"/>
     </row>
     <row r="48" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11481,10 +11481,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O48" s="147"/>
-      <c r="P48" s="147"/>
-      <c r="Q48" s="147"/>
-      <c r="R48" s="146"/>
+      <c r="O48" s="144"/>
+      <c r="P48" s="144"/>
+      <c r="Q48" s="144"/>
+      <c r="R48" s="143"/>
       <c r="S48" s="15"/>
     </row>
     <row r="49" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11533,16 +11533,16 @@
         <f t="shared" si="8"/>
         <v>20.875</v>
       </c>
-      <c r="O49" s="152">
+      <c r="O49" s="146">
         <v>45339</v>
       </c>
-      <c r="P49" s="147">
+      <c r="P49" s="144">
         <v>45657</v>
       </c>
       <c r="Q49" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="R49" s="146"/>
+      <c r="R49" s="143"/>
       <c r="S49" s="15"/>
     </row>
     <row r="50" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11591,10 +11591,10 @@
         <f t="shared" si="8"/>
         <v>31.568750000000001</v>
       </c>
-      <c r="O50" s="152"/>
-      <c r="P50" s="147"/>
+      <c r="O50" s="146"/>
+      <c r="P50" s="144"/>
       <c r="Q50" s="145"/>
-      <c r="R50" s="146"/>
+      <c r="R50" s="143"/>
       <c r="S50" s="15"/>
     </row>
     <row r="51" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11643,10 +11643,10 @@
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="O51" s="152"/>
-      <c r="P51" s="147"/>
+      <c r="O51" s="146"/>
+      <c r="P51" s="144"/>
       <c r="Q51" s="145"/>
-      <c r="R51" s="146"/>
+      <c r="R51" s="143"/>
       <c r="S51" s="15"/>
     </row>
     <row r="52" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11695,16 +11695,16 @@
         <f t="shared" si="8"/>
         <v>8.1062500000000028</v>
       </c>
-      <c r="O52" s="147">
+      <c r="O52" s="144">
         <v>44578</v>
       </c>
-      <c r="P52" s="147">
+      <c r="P52" s="144">
         <v>44731</v>
       </c>
-      <c r="Q52" s="147">
+      <c r="Q52" s="144">
         <v>45610</v>
       </c>
-      <c r="R52" s="146" t="s">
+      <c r="R52" s="143" t="s">
         <v>74</v>
       </c>
       <c r="S52" s="15"/>
@@ -11755,10 +11755,10 @@
         <f t="shared" si="8"/>
         <v>-32.287499999999994</v>
       </c>
-      <c r="O53" s="147"/>
-      <c r="P53" s="147"/>
-      <c r="Q53" s="147"/>
-      <c r="R53" s="146"/>
+      <c r="O53" s="144"/>
+      <c r="P53" s="144"/>
+      <c r="Q53" s="144"/>
+      <c r="R53" s="143"/>
       <c r="S53" s="15"/>
     </row>
     <row r="54" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11807,10 +11807,10 @@
         <f t="shared" si="8"/>
         <v>-17.75</v>
       </c>
-      <c r="O54" s="147"/>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="146"/>
+      <c r="O54" s="144"/>
+      <c r="P54" s="144"/>
+      <c r="Q54" s="144"/>
+      <c r="R54" s="143"/>
       <c r="S54" s="15"/>
     </row>
     <row r="55" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11859,16 +11859,16 @@
         <f t="shared" si="8"/>
         <v>-73.375</v>
       </c>
-      <c r="O55" s="147">
+      <c r="O55" s="144">
         <v>45175</v>
       </c>
-      <c r="P55" s="147">
+      <c r="P55" s="144">
         <v>45523</v>
       </c>
-      <c r="Q55" s="147">
+      <c r="Q55" s="144">
         <v>45650</v>
       </c>
-      <c r="R55" s="146"/>
+      <c r="R55" s="143"/>
       <c r="S55" s="15"/>
     </row>
     <row r="56" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11918,10 +11918,10 @@
         <f t="shared" si="8"/>
         <v>16.212500000000006</v>
       </c>
-      <c r="O56" s="147"/>
-      <c r="P56" s="147"/>
-      <c r="Q56" s="147"/>
-      <c r="R56" s="146"/>
+      <c r="O56" s="144"/>
+      <c r="P56" s="144"/>
+      <c r="Q56" s="144"/>
+      <c r="R56" s="143"/>
       <c r="S56" s="15"/>
     </row>
     <row r="57" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11970,10 +11970,10 @@
         <f t="shared" si="8"/>
         <v>35.625</v>
       </c>
-      <c r="O57" s="147"/>
-      <c r="P57" s="147"/>
-      <c r="Q57" s="147"/>
-      <c r="R57" s="146"/>
+      <c r="O57" s="144"/>
+      <c r="P57" s="144"/>
+      <c r="Q57" s="144"/>
+      <c r="R57" s="143"/>
       <c r="S57" s="15"/>
     </row>
     <row r="58" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12022,10 +12022,10 @@
         <f t="shared" si="8"/>
         <v>-14.125</v>
       </c>
-      <c r="O58" s="147"/>
-      <c r="P58" s="147"/>
-      <c r="Q58" s="147"/>
-      <c r="R58" s="146"/>
+      <c r="O58" s="144"/>
+      <c r="P58" s="144"/>
+      <c r="Q58" s="144"/>
+      <c r="R58" s="143"/>
       <c r="S58" s="15"/>
     </row>
     <row r="59" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12075,10 +12075,10 @@
         <f t="shared" si="8"/>
         <v>-0.91249999999999964</v>
       </c>
-      <c r="O59" s="147"/>
-      <c r="P59" s="147"/>
-      <c r="Q59" s="147"/>
-      <c r="R59" s="146"/>
+      <c r="O59" s="144"/>
+      <c r="P59" s="144"/>
+      <c r="Q59" s="144"/>
+      <c r="R59" s="143"/>
       <c r="S59" s="15"/>
     </row>
     <row r="60" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12128,10 +12128,10 @@
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="O60" s="147"/>
-      <c r="P60" s="147"/>
-      <c r="Q60" s="147"/>
-      <c r="R60" s="146"/>
+      <c r="O60" s="144"/>
+      <c r="P60" s="144"/>
+      <c r="Q60" s="144"/>
+      <c r="R60" s="143"/>
       <c r="S60" s="15"/>
     </row>
     <row r="61" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12180,16 +12180,16 @@
         <f t="shared" si="8"/>
         <v>-17.537500000000001</v>
       </c>
-      <c r="O61" s="152">
+      <c r="O61" s="146">
         <v>45214</v>
       </c>
-      <c r="P61" s="147">
+      <c r="P61" s="144">
         <v>45348</v>
       </c>
-      <c r="Q61" s="147" t="s">
+      <c r="Q61" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="R61" s="146" t="s">
+      <c r="R61" s="143" t="s">
         <v>67</v>
       </c>
       <c r="S61" s="15"/>
@@ -12240,10 +12240,10 @@
         <f t="shared" si="8"/>
         <v>-12.537500000000001</v>
       </c>
-      <c r="O62" s="152"/>
-      <c r="P62" s="147"/>
-      <c r="Q62" s="147"/>
-      <c r="R62" s="146"/>
+      <c r="O62" s="146"/>
+      <c r="P62" s="144"/>
+      <c r="Q62" s="144"/>
+      <c r="R62" s="143"/>
       <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12292,10 +12292,10 @@
         <f t="shared" si="8"/>
         <v>3.75</v>
       </c>
-      <c r="O63" s="152"/>
-      <c r="P63" s="147"/>
-      <c r="Q63" s="147"/>
-      <c r="R63" s="146"/>
+      <c r="O63" s="146"/>
+      <c r="P63" s="144"/>
+      <c r="Q63" s="144"/>
+      <c r="R63" s="143"/>
       <c r="S63" s="15"/>
     </row>
     <row r="64" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12344,10 +12344,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O64" s="152"/>
-      <c r="P64" s="147"/>
-      <c r="Q64" s="147"/>
-      <c r="R64" s="146"/>
+      <c r="O64" s="146"/>
+      <c r="P64" s="144"/>
+      <c r="Q64" s="144"/>
+      <c r="R64" s="143"/>
       <c r="S64" s="15"/>
     </row>
     <row r="65" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12396,10 +12396,10 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="O65" s="152"/>
-      <c r="P65" s="147"/>
-      <c r="Q65" s="147"/>
-      <c r="R65" s="146"/>
+      <c r="O65" s="146"/>
+      <c r="P65" s="144"/>
+      <c r="Q65" s="144"/>
+      <c r="R65" s="143"/>
       <c r="S65" s="15"/>
     </row>
     <row r="66" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12448,12 +12448,12 @@
         <f t="shared" ref="N66:N97" si="11">I66-M66</f>
         <v>-1.875</v>
       </c>
-      <c r="O66" s="147" t="s">
+      <c r="O66" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="P66" s="147"/>
-      <c r="Q66" s="147"/>
-      <c r="R66" s="146" t="s">
+      <c r="P66" s="144"/>
+      <c r="Q66" s="144"/>
+      <c r="R66" s="143" t="s">
         <v>67</v>
       </c>
       <c r="S66" s="15"/>
@@ -12504,10 +12504,10 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="O67" s="147"/>
-      <c r="P67" s="147"/>
-      <c r="Q67" s="147"/>
-      <c r="R67" s="146"/>
+      <c r="O67" s="144"/>
+      <c r="P67" s="144"/>
+      <c r="Q67" s="144"/>
+      <c r="R67" s="143"/>
       <c r="S67" s="15"/>
     </row>
     <row r="68" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12556,10 +12556,10 @@
         <f t="shared" si="11"/>
         <v>-28.268750000000001</v>
       </c>
-      <c r="O68" s="147"/>
-      <c r="P68" s="147"/>
-      <c r="Q68" s="147"/>
-      <c r="R68" s="146"/>
+      <c r="O68" s="144"/>
+      <c r="P68" s="144"/>
+      <c r="Q68" s="144"/>
+      <c r="R68" s="143"/>
       <c r="S68" s="15"/>
     </row>
     <row r="69" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12608,12 +12608,12 @@
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="O69" s="147" t="s">
+      <c r="O69" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="P69" s="147"/>
-      <c r="Q69" s="147"/>
-      <c r="R69" s="146" t="s">
+      <c r="P69" s="144"/>
+      <c r="Q69" s="144"/>
+      <c r="R69" s="143" t="s">
         <v>67</v>
       </c>
       <c r="S69" s="15"/>
@@ -12664,10 +12664,10 @@
         <f t="shared" si="11"/>
         <v>-20.268750000000001</v>
       </c>
-      <c r="O70" s="147"/>
-      <c r="P70" s="147"/>
-      <c r="Q70" s="147"/>
-      <c r="R70" s="146"/>
+      <c r="O70" s="144"/>
+      <c r="P70" s="144"/>
+      <c r="Q70" s="144"/>
+      <c r="R70" s="143"/>
       <c r="S70" s="15"/>
     </row>
     <row r="71" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12716,10 +12716,10 @@
         <f t="shared" si="11"/>
         <v>-4.5375000000000014</v>
       </c>
-      <c r="O71" s="147"/>
-      <c r="P71" s="147"/>
-      <c r="Q71" s="147"/>
-      <c r="R71" s="146"/>
+      <c r="O71" s="144"/>
+      <c r="P71" s="144"/>
+      <c r="Q71" s="144"/>
+      <c r="R71" s="143"/>
       <c r="S71" s="15"/>
     </row>
     <row r="72" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12768,16 +12768,16 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O72" s="148">
+      <c r="O72" s="147">
         <v>45411</v>
       </c>
-      <c r="P72" s="148">
+      <c r="P72" s="147">
         <v>45692</v>
       </c>
-      <c r="Q72" s="148">
+      <c r="Q72" s="147">
         <v>45813</v>
       </c>
-      <c r="R72" s="146"/>
+      <c r="R72" s="143"/>
       <c r="S72" s="15"/>
     </row>
     <row r="73" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12826,10 +12826,10 @@
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="O73" s="148"/>
-      <c r="P73" s="148"/>
-      <c r="Q73" s="148"/>
-      <c r="R73" s="146"/>
+      <c r="O73" s="147"/>
+      <c r="P73" s="147"/>
+      <c r="Q73" s="147"/>
+      <c r="R73" s="143"/>
       <c r="S73" s="15"/>
     </row>
     <row r="74" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12878,10 +12878,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O74" s="148"/>
-      <c r="P74" s="148"/>
-      <c r="Q74" s="148"/>
-      <c r="R74" s="146"/>
+      <c r="O74" s="147"/>
+      <c r="P74" s="147"/>
+      <c r="Q74" s="147"/>
+      <c r="R74" s="143"/>
       <c r="S74" s="15"/>
     </row>
     <row r="75" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12930,10 +12930,10 @@
         <f t="shared" si="11"/>
         <v>-5.125</v>
       </c>
-      <c r="O75" s="148"/>
-      <c r="P75" s="148"/>
-      <c r="Q75" s="148"/>
-      <c r="R75" s="146"/>
+      <c r="O75" s="147"/>
+      <c r="P75" s="147"/>
+      <c r="Q75" s="147"/>
+      <c r="R75" s="143"/>
       <c r="S75" s="15"/>
     </row>
     <row r="76" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12982,14 +12982,14 @@
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
-      <c r="O76" s="148">
+      <c r="O76" s="147">
         <v>45476</v>
       </c>
-      <c r="P76" s="148">
+      <c r="P76" s="147">
         <v>45503</v>
       </c>
       <c r="Q76" s="145"/>
-      <c r="R76" s="146"/>
+      <c r="R76" s="143"/>
       <c r="S76" s="15"/>
     </row>
     <row r="77" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13038,10 +13038,10 @@
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="O77" s="148"/>
-      <c r="P77" s="148"/>
+      <c r="O77" s="147"/>
+      <c r="P77" s="147"/>
       <c r="Q77" s="145"/>
-      <c r="R77" s="146"/>
+      <c r="R77" s="143"/>
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13090,10 +13090,10 @@
         <f t="shared" si="11"/>
         <v>-0.25</v>
       </c>
-      <c r="O78" s="148"/>
-      <c r="P78" s="148"/>
+      <c r="O78" s="147"/>
+      <c r="P78" s="147"/>
       <c r="Q78" s="145"/>
-      <c r="R78" s="146"/>
+      <c r="R78" s="143"/>
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13149,7 +13149,7 @@
         <v>45674</v>
       </c>
       <c r="Q79" s="145"/>
-      <c r="R79" s="146"/>
+      <c r="R79" s="143"/>
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13201,7 +13201,7 @@
       <c r="O80" s="145"/>
       <c r="P80" s="145"/>
       <c r="Q80" s="145"/>
-      <c r="R80" s="146"/>
+      <c r="R80" s="143"/>
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13253,7 +13253,7 @@
       <c r="O81" s="145"/>
       <c r="P81" s="145"/>
       <c r="Q81" s="145"/>
-      <c r="R81" s="146"/>
+      <c r="R81" s="143"/>
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13305,7 +13305,7 @@
       <c r="O82" s="145"/>
       <c r="P82" s="145"/>
       <c r="Q82" s="145"/>
-      <c r="R82" s="146"/>
+      <c r="R82" s="143"/>
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13357,7 +13357,7 @@
       <c r="O83" s="145"/>
       <c r="P83" s="145"/>
       <c r="Q83" s="145"/>
-      <c r="R83" s="146"/>
+      <c r="R83" s="143"/>
       <c r="S83" s="15"/>
     </row>
     <row r="84" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13409,7 +13409,7 @@
       <c r="O84" s="145"/>
       <c r="P84" s="145"/>
       <c r="Q84" s="145"/>
-      <c r="R84" s="146"/>
+      <c r="R84" s="143"/>
       <c r="S84" s="15"/>
     </row>
     <row r="85" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13461,7 +13461,7 @@
       <c r="O85" s="145"/>
       <c r="P85" s="145"/>
       <c r="Q85" s="145"/>
-      <c r="R85" s="146"/>
+      <c r="R85" s="143"/>
       <c r="S85" s="15"/>
     </row>
     <row r="86" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13512,7 +13512,7 @@
       <c r="O86" s="145"/>
       <c r="P86" s="145"/>
       <c r="Q86" s="145"/>
-      <c r="R86" s="146"/>
+      <c r="R86" s="143"/>
       <c r="S86" s="15" t="s">
         <v>88</v>
       </c>
@@ -13566,7 +13566,7 @@
       <c r="O87" s="145"/>
       <c r="P87" s="145"/>
       <c r="Q87" s="145"/>
-      <c r="R87" s="146"/>
+      <c r="R87" s="143"/>
       <c r="S87" s="15"/>
     </row>
     <row r="88" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13618,7 +13618,7 @@
       <c r="O88" s="145"/>
       <c r="P88" s="145"/>
       <c r="Q88" s="145"/>
-      <c r="R88" s="146"/>
+      <c r="R88" s="143"/>
       <c r="S88" s="15"/>
     </row>
     <row r="89" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13670,7 +13670,7 @@
       <c r="O89" s="145"/>
       <c r="P89" s="145"/>
       <c r="Q89" s="145"/>
-      <c r="R89" s="146"/>
+      <c r="R89" s="143"/>
       <c r="S89" s="15"/>
     </row>
     <row r="90" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13722,7 +13722,7 @@
       <c r="O90" s="145"/>
       <c r="P90" s="145"/>
       <c r="Q90" s="145"/>
-      <c r="R90" s="146"/>
+      <c r="R90" s="143"/>
       <c r="S90" s="15"/>
     </row>
     <row r="91" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13778,7 +13778,7 @@
         <v>45674</v>
       </c>
       <c r="Q91" s="145"/>
-      <c r="R91" s="146"/>
+      <c r="R91" s="143"/>
       <c r="S91" s="15"/>
     </row>
     <row r="92" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13829,7 +13829,7 @@
       <c r="O92" s="145"/>
       <c r="P92" s="145"/>
       <c r="Q92" s="145"/>
-      <c r="R92" s="146"/>
+      <c r="R92" s="143"/>
       <c r="S92" s="15"/>
     </row>
     <row r="93" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13881,7 +13881,7 @@
       <c r="O93" s="145"/>
       <c r="P93" s="145"/>
       <c r="Q93" s="145"/>
-      <c r="R93" s="146"/>
+      <c r="R93" s="143"/>
       <c r="S93" s="15"/>
     </row>
     <row r="94" spans="1:19" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13938,7 +13938,7 @@
         <v>45684</v>
       </c>
       <c r="Q94" s="145"/>
-      <c r="R94" s="146" t="s">
+      <c r="R94" s="143" t="s">
         <v>94</v>
       </c>
       <c r="S94" s="16"/>
@@ -13992,7 +13992,7 @@
       <c r="O95" s="145"/>
       <c r="P95" s="145"/>
       <c r="Q95" s="145"/>
-      <c r="R95" s="146"/>
+      <c r="R95" s="143"/>
       <c r="S95" s="16"/>
     </row>
     <row r="96" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14045,7 +14045,7 @@
       <c r="O96" s="145"/>
       <c r="P96" s="145"/>
       <c r="Q96" s="145"/>
-      <c r="R96" s="146"/>
+      <c r="R96" s="143"/>
       <c r="S96" s="16"/>
     </row>
     <row r="97" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14098,7 +14098,7 @@
       </c>
       <c r="P97" s="145"/>
       <c r="Q97" s="145"/>
-      <c r="R97" s="146"/>
+      <c r="R97" s="143"/>
       <c r="S97" s="16"/>
     </row>
     <row r="98" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14149,7 +14149,7 @@
       <c r="O98" s="145"/>
       <c r="P98" s="145"/>
       <c r="Q98" s="145"/>
-      <c r="R98" s="146"/>
+      <c r="R98" s="143"/>
       <c r="S98" s="16"/>
     </row>
     <row r="99" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14200,7 +14200,7 @@
       <c r="O99" s="145"/>
       <c r="P99" s="145"/>
       <c r="Q99" s="145"/>
-      <c r="R99" s="146"/>
+      <c r="R99" s="143"/>
       <c r="S99" s="16"/>
     </row>
     <row r="100" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14251,7 +14251,7 @@
       <c r="O100" s="145"/>
       <c r="P100" s="145"/>
       <c r="Q100" s="145"/>
-      <c r="R100" s="146"/>
+      <c r="R100" s="143"/>
       <c r="S100" s="15"/>
     </row>
     <row r="101" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14306,7 +14306,7 @@
       <c r="Q101" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="R101" s="146"/>
+      <c r="R101" s="143"/>
       <c r="S101" s="15"/>
     </row>
     <row r="102" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14357,7 +14357,7 @@
       <c r="O102" s="145"/>
       <c r="P102" s="145"/>
       <c r="Q102" s="145"/>
-      <c r="R102" s="146"/>
+      <c r="R102" s="143"/>
       <c r="S102" s="15"/>
     </row>
     <row r="103" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14408,7 +14408,7 @@
       <c r="O103" s="145"/>
       <c r="P103" s="145"/>
       <c r="Q103" s="145"/>
-      <c r="R103" s="146"/>
+      <c r="R103" s="143"/>
       <c r="S103" s="15"/>
     </row>
     <row r="104" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14464,7 +14464,7 @@
         <v>45667</v>
       </c>
       <c r="Q104" s="145"/>
-      <c r="R104" s="146" t="s">
+      <c r="R104" s="143" t="s">
         <v>100</v>
       </c>
       <c r="S104" s="15"/>
@@ -14518,7 +14518,7 @@
       <c r="O105" s="145"/>
       <c r="P105" s="145"/>
       <c r="Q105" s="145"/>
-      <c r="R105" s="146"/>
+      <c r="R105" s="143"/>
       <c r="S105" s="15"/>
     </row>
     <row r="106" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14570,7 +14570,7 @@
       <c r="O106" s="145"/>
       <c r="P106" s="145"/>
       <c r="Q106" s="145"/>
-      <c r="R106" s="146"/>
+      <c r="R106" s="143"/>
       <c r="S106" s="15"/>
     </row>
     <row r="107" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14622,7 +14622,7 @@
       <c r="O107" s="145"/>
       <c r="P107" s="145"/>
       <c r="Q107" s="145"/>
-      <c r="R107" s="146"/>
+      <c r="R107" s="143"/>
       <c r="S107" s="15"/>
     </row>
     <row r="108" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14678,7 +14678,7 @@
         <v>45597</v>
       </c>
       <c r="Q108" s="145"/>
-      <c r="R108" s="146" t="s">
+      <c r="R108" s="143" t="s">
         <v>107</v>
       </c>
       <c r="S108" s="15"/>
@@ -14732,7 +14732,7 @@
       <c r="O109" s="145"/>
       <c r="P109" s="145"/>
       <c r="Q109" s="145"/>
-      <c r="R109" s="146"/>
+      <c r="R109" s="143"/>
       <c r="S109" s="15"/>
     </row>
     <row r="110" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14781,14 +14781,14 @@
         <f t="shared" si="14"/>
         <v>17</v>
       </c>
-      <c r="O110" s="148">
+      <c r="O110" s="147">
         <v>45017</v>
       </c>
-      <c r="P110" s="148">
+      <c r="P110" s="147">
         <v>45137</v>
       </c>
       <c r="Q110" s="145"/>
-      <c r="R110" s="146" t="s">
+      <c r="R110" s="143" t="s">
         <v>110</v>
       </c>
       <c r="S110" s="15"/>
@@ -14839,10 +14839,10 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="O111" s="148"/>
-      <c r="P111" s="148"/>
+      <c r="O111" s="147"/>
+      <c r="P111" s="147"/>
       <c r="Q111" s="145"/>
-      <c r="R111" s="146"/>
+      <c r="R111" s="143"/>
       <c r="S111" s="15"/>
     </row>
     <row r="112" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14891,10 +14891,10 @@
         <f t="shared" si="14"/>
         <v>30.875</v>
       </c>
-      <c r="O112" s="148"/>
-      <c r="P112" s="148"/>
+      <c r="O112" s="147"/>
+      <c r="P112" s="147"/>
       <c r="Q112" s="145"/>
-      <c r="R112" s="146"/>
+      <c r="R112" s="143"/>
       <c r="S112" s="15"/>
     </row>
     <row r="113" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14952,7 +14952,7 @@
       <c r="Q113" s="145">
         <v>45656</v>
       </c>
-      <c r="R113" s="146"/>
+      <c r="R113" s="143"/>
       <c r="S113" s="15"/>
     </row>
     <row r="114" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15004,7 +15004,7 @@
       <c r="O114" s="149"/>
       <c r="P114" s="149"/>
       <c r="Q114" s="145"/>
-      <c r="R114" s="146"/>
+      <c r="R114" s="143"/>
       <c r="S114" s="15"/>
     </row>
     <row r="115" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15056,7 +15056,7 @@
       <c r="O115" s="149"/>
       <c r="P115" s="149"/>
       <c r="Q115" s="145"/>
-      <c r="R115" s="146"/>
+      <c r="R115" s="143"/>
       <c r="S115" s="15"/>
     </row>
     <row r="116" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17645,10 +17645,10 @@
       <c r="K172" s="16">
         <v>73</v>
       </c>
-      <c r="O172" s="143">
+      <c r="O172" s="151">
         <v>45486</v>
       </c>
-      <c r="P172" s="143">
+      <c r="P172" s="151">
         <v>45868</v>
       </c>
       <c r="R172" s="2"/>
@@ -17688,8 +17688,8 @@
       <c r="K173" s="16">
         <v>12</v>
       </c>
-      <c r="O173" s="144"/>
-      <c r="P173" s="144"/>
+      <c r="O173" s="152"/>
+      <c r="P173" s="152"/>
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
     </row>
@@ -18807,6 +18807,99 @@
   </sheetData>
   <autoFilter ref="A1:W198" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="117">
+    <mergeCell ref="O172:O173"/>
+    <mergeCell ref="P172:P173"/>
+    <mergeCell ref="Q184:Q185"/>
+    <mergeCell ref="Q186:Q187"/>
+    <mergeCell ref="Q188:Q189"/>
+    <mergeCell ref="Q191:Q192"/>
+    <mergeCell ref="Q193:Q194"/>
+    <mergeCell ref="O197:O198"/>
+    <mergeCell ref="P197:P198"/>
+    <mergeCell ref="Q197:Q198"/>
+    <mergeCell ref="R113:R115"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="O116:O117"/>
+    <mergeCell ref="P116:P117"/>
+    <mergeCell ref="O91:O93"/>
+    <mergeCell ref="P91:P93"/>
+    <mergeCell ref="Q91:Q93"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="P79:P90"/>
+    <mergeCell ref="O66:O68"/>
+    <mergeCell ref="P66:P68"/>
+    <mergeCell ref="O76:O78"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="O72:O75"/>
+    <mergeCell ref="R79:R90"/>
+    <mergeCell ref="Q76:Q78"/>
+    <mergeCell ref="R76:R78"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="O110:O112"/>
+    <mergeCell ref="P110:P112"/>
+    <mergeCell ref="O108:O109"/>
+    <mergeCell ref="P108:P109"/>
+    <mergeCell ref="Q110:Q112"/>
+    <mergeCell ref="O113:O115"/>
+    <mergeCell ref="P113:P115"/>
+    <mergeCell ref="Q113:Q115"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="O101:O103"/>
+    <mergeCell ref="Q94:Q96"/>
+    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q101:Q103"/>
+    <mergeCell ref="Q69:Q71"/>
+    <mergeCell ref="Q66:Q68"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="R19:R26"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="Q55:Q60"/>
+    <mergeCell ref="O19:O26"/>
+    <mergeCell ref="P19:P26"/>
+    <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="R55:R60"/>
+    <mergeCell ref="Q19:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="P45:P48"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="P52:P54"/>
+    <mergeCell ref="R45:R48"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="O55:O60"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="P55:P60"/>
+    <mergeCell ref="R29:R38"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="R101:R103"/>
+    <mergeCell ref="R94:R96"/>
+    <mergeCell ref="R104:R107"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="Q79:Q90"/>
+    <mergeCell ref="R61:R65"/>
+    <mergeCell ref="R66:R68"/>
+    <mergeCell ref="R69:R71"/>
+    <mergeCell ref="R72:R75"/>
     <mergeCell ref="R40:R44"/>
     <mergeCell ref="O29:O38"/>
     <mergeCell ref="P29:P38"/>
@@ -18831,99 +18924,6 @@
     <mergeCell ref="R108:R109"/>
     <mergeCell ref="Q61:Q65"/>
     <mergeCell ref="Q72:Q75"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="R101:R103"/>
-    <mergeCell ref="R94:R96"/>
-    <mergeCell ref="R104:R107"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="Q79:Q90"/>
-    <mergeCell ref="R61:R65"/>
-    <mergeCell ref="R66:R68"/>
-    <mergeCell ref="R69:R71"/>
-    <mergeCell ref="R72:R75"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="Q55:Q60"/>
-    <mergeCell ref="O19:O26"/>
-    <mergeCell ref="P19:P26"/>
-    <mergeCell ref="Q45:Q48"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="R55:R60"/>
-    <mergeCell ref="Q19:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="P45:P48"/>
-    <mergeCell ref="Q52:Q54"/>
-    <mergeCell ref="O52:O54"/>
-    <mergeCell ref="P52:P54"/>
-    <mergeCell ref="R45:R48"/>
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="O55:O60"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="P55:P60"/>
-    <mergeCell ref="R29:R38"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="P14:P18"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="R19:R26"/>
-    <mergeCell ref="O113:O115"/>
-    <mergeCell ref="P113:P115"/>
-    <mergeCell ref="Q113:Q115"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="O101:O103"/>
-    <mergeCell ref="Q94:Q96"/>
-    <mergeCell ref="Q104:Q107"/>
-    <mergeCell ref="Q101:Q103"/>
-    <mergeCell ref="Q69:Q71"/>
-    <mergeCell ref="Q66:Q68"/>
-    <mergeCell ref="R113:R115"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="O116:O117"/>
-    <mergeCell ref="P116:P117"/>
-    <mergeCell ref="O91:O93"/>
-    <mergeCell ref="P91:P93"/>
-    <mergeCell ref="Q91:Q93"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="P79:P90"/>
-    <mergeCell ref="O66:O68"/>
-    <mergeCell ref="P66:P68"/>
-    <mergeCell ref="O76:O78"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="O72:O75"/>
-    <mergeCell ref="R79:R90"/>
-    <mergeCell ref="Q76:Q78"/>
-    <mergeCell ref="R76:R78"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="O110:O112"/>
-    <mergeCell ref="P110:P112"/>
-    <mergeCell ref="O108:O109"/>
-    <mergeCell ref="P108:P109"/>
-    <mergeCell ref="Q110:Q112"/>
-    <mergeCell ref="O172:O173"/>
-    <mergeCell ref="P172:P173"/>
-    <mergeCell ref="Q184:Q185"/>
-    <mergeCell ref="Q186:Q187"/>
-    <mergeCell ref="Q188:Q189"/>
-    <mergeCell ref="Q191:Q192"/>
-    <mergeCell ref="Q193:Q194"/>
-    <mergeCell ref="O197:O198"/>
-    <mergeCell ref="P197:P198"/>
-    <mergeCell ref="Q197:Q198"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18971,13 +18971,13 @@
         <v>185</v>
       </c>
       <c r="C4" s="159">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c r="D4" s="160">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E4" s="161">
-        <v>264</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -18985,13 +18985,13 @@
         <v>186</v>
       </c>
       <c r="C5" s="162">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D5" s="163">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E5" s="164">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -18999,13 +18999,13 @@
         <v>187</v>
       </c>
       <c r="C6" s="162">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="163">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E6" s="164">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -19013,10 +19013,10 @@
         <v>188</v>
       </c>
       <c r="C7" s="162">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="D7" s="163">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E7" s="164">
         <v>227</v>
@@ -19027,13 +19027,13 @@
         <v>47</v>
       </c>
       <c r="C8" s="162">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="D8" s="163">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E8" s="164">
-        <v>36</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -19041,13 +19041,13 @@
         <v>189</v>
       </c>
       <c r="C9" s="162">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="D9" s="163">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E9" s="164">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -19055,13 +19055,13 @@
         <v>64</v>
       </c>
       <c r="C10" s="162">
-        <v>323.42</v>
+        <v>162</v>
       </c>
       <c r="D10" s="163">
-        <v>80.5</v>
+        <v>309</v>
       </c>
       <c r="E10" s="164">
-        <v>242.92000000000002</v>
+        <v>-147</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -19069,13 +19069,13 @@
         <v>89</v>
       </c>
       <c r="C11" s="162">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D11" s="163">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E11" s="164">
-        <v>0</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -19083,13 +19083,13 @@
         <v>190</v>
       </c>
       <c r="C12" s="162">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D12" s="163">
-        <v>17.5</v>
+        <v>33</v>
       </c>
       <c r="E12" s="164">
-        <v>102.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -19097,13 +19097,13 @@
         <v>62</v>
       </c>
       <c r="C13" s="162">
-        <v>247</v>
+        <v>761</v>
       </c>
       <c r="D13" s="163">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="E13" s="164">
-        <v>161</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -19111,13 +19111,13 @@
         <v>68</v>
       </c>
       <c r="C14" s="162">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="D14" s="163">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="E14" s="164">
-        <v>7</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -19125,13 +19125,13 @@
         <v>31</v>
       </c>
       <c r="C15" s="162">
-        <v>141.25</v>
+        <v>492</v>
       </c>
       <c r="D15" s="163">
-        <v>32</v>
+        <v>607</v>
       </c>
       <c r="E15" s="164">
-        <v>109.25</v>
+        <v>-268</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -19139,13 +19139,13 @@
         <v>191</v>
       </c>
       <c r="C16" s="162">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D16" s="163">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E16" s="164">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -19153,13 +19153,13 @@
         <v>43</v>
       </c>
       <c r="C17" s="162">
-        <v>282</v>
+        <v>827</v>
       </c>
       <c r="D17" s="163">
-        <v>44</v>
+        <v>900</v>
       </c>
       <c r="E17" s="164">
-        <v>238</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -19167,13 +19167,13 @@
         <v>19</v>
       </c>
       <c r="C18" s="162">
-        <v>259.39999999999998</v>
+        <v>190</v>
       </c>
       <c r="D18" s="163">
-        <v>80.487499999999997</v>
+        <v>752</v>
       </c>
       <c r="E18" s="164">
-        <v>178.91250000000002</v>
+        <v>-562</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -19181,13 +19181,13 @@
         <v>192</v>
       </c>
       <c r="C19" s="162">
-        <v>101.45</v>
+        <v>930</v>
       </c>
       <c r="D19" s="163">
-        <v>9</v>
+        <v>483</v>
       </c>
       <c r="E19" s="164">
-        <v>92.45</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -19195,10 +19195,10 @@
         <v>193</v>
       </c>
       <c r="C20" s="162">
-        <v>264</v>
+        <v>137</v>
       </c>
       <c r="D20" s="163">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E20" s="164">
         <v>227</v>
@@ -19209,13 +19209,13 @@
         <v>60</v>
       </c>
       <c r="C21" s="162">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="D21" s="163">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="E21" s="164">
-        <v>155</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -19223,13 +19223,13 @@
         <v>42</v>
       </c>
       <c r="C22" s="162">
-        <v>137.80000000000001</v>
+        <v>340</v>
       </c>
       <c r="D22" s="163">
-        <v>48.8</v>
+        <v>445</v>
       </c>
       <c r="E22" s="164">
-        <v>89</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -19237,13 +19237,13 @@
         <v>101</v>
       </c>
       <c r="C23" s="162">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="D23" s="163">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="E23" s="164">
-        <v>2</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -19251,10 +19251,10 @@
         <v>194</v>
       </c>
       <c r="C24" s="162">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="D24" s="163">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E24" s="164">
         <v>227</v>
@@ -19265,13 +19265,13 @@
         <v>29</v>
       </c>
       <c r="C25" s="162">
-        <v>224.5</v>
+        <v>794</v>
       </c>
       <c r="D25" s="163">
-        <v>39.125</v>
+        <v>1247</v>
       </c>
       <c r="E25" s="164">
-        <v>185.375</v>
+        <v>-453</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -19279,13 +19279,13 @@
         <v>195</v>
       </c>
       <c r="C26" s="162">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="D26" s="163">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="164">
-        <v>11.8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -19293,10 +19293,10 @@
         <v>196</v>
       </c>
       <c r="C27" s="162">
-        <v>0.5</v>
+        <v>156</v>
       </c>
       <c r="D27" s="163">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="164"/>
     </row>
@@ -19305,13 +19305,13 @@
         <v>71</v>
       </c>
       <c r="C28" s="162">
-        <v>155.5</v>
+        <v>507</v>
       </c>
       <c r="D28" s="163">
-        <v>20</v>
+        <v>749</v>
       </c>
       <c r="E28" s="164">
-        <v>135.5</v>
+        <v>-181</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -19319,13 +19319,13 @@
         <v>197</v>
       </c>
       <c r="C29" s="162">
-        <v>209</v>
+        <v>364</v>
       </c>
       <c r="D29" s="163">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E29" s="164">
-        <v>336</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -19333,13 +19333,13 @@
         <v>198</v>
       </c>
       <c r="C30" s="162">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D30" s="163">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="E30" s="164">
-        <v>0</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -19347,10 +19347,10 @@
         <v>199</v>
       </c>
       <c r="C31" s="162">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D31" s="163">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E31" s="164">
         <v>0</v>
@@ -19361,13 +19361,13 @@
         <v>77</v>
       </c>
       <c r="C32" s="162">
-        <v>6</v>
+        <v>294</v>
       </c>
       <c r="D32" s="163">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E32" s="164">
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -19375,13 +19375,13 @@
         <v>36</v>
       </c>
       <c r="C33" s="162">
-        <v>89</v>
+        <v>557</v>
       </c>
       <c r="D33" s="163">
-        <v>6.2</v>
+        <v>385</v>
       </c>
       <c r="E33" s="164">
-        <v>82.8</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -19389,13 +19389,13 @@
         <v>53</v>
       </c>
       <c r="C34" s="162">
-        <v>208.52500000000001</v>
+        <v>360</v>
       </c>
       <c r="D34" s="163">
-        <v>33</v>
+        <v>896</v>
       </c>
       <c r="E34" s="164">
-        <v>402.52499999999998</v>
+        <v>-432</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -19403,13 +19403,13 @@
         <v>117</v>
       </c>
       <c r="C35" s="162">
-        <v>215</v>
+        <v>931</v>
       </c>
       <c r="D35" s="163">
-        <v>34</v>
+        <v>482</v>
       </c>
       <c r="E35" s="164">
-        <v>181</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
@@ -19417,13 +19417,13 @@
         <v>58</v>
       </c>
       <c r="C36" s="162">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="D36" s="163">
-        <v>63</v>
+        <v>649</v>
       </c>
       <c r="E36" s="164">
-        <v>238</v>
+        <v>-117</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -19431,13 +19431,13 @@
         <v>200</v>
       </c>
       <c r="C37" s="162">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="D37" s="163">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E37" s="164">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
@@ -19445,13 +19445,13 @@
         <v>34</v>
       </c>
       <c r="C38" s="162">
-        <v>29.75</v>
+        <v>299</v>
       </c>
       <c r="D38" s="163">
-        <v>27</v>
+        <v>643</v>
       </c>
       <c r="E38" s="164">
-        <v>2.75</v>
+        <v>-344</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -19459,10 +19459,10 @@
         <v>201</v>
       </c>
       <c r="C39" s="162">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="D39" s="163">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E39" s="164">
         <v>227</v>
@@ -19473,13 +19473,13 @@
         <v>35</v>
       </c>
       <c r="C40" s="162">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="D40" s="163">
-        <v>19.5</v>
+        <v>637</v>
       </c>
       <c r="E40" s="164">
-        <v>105.5</v>
+        <v>-433</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
@@ -19487,13 +19487,13 @@
         <v>30</v>
       </c>
       <c r="C41" s="162">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="D41" s="163">
-        <v>5</v>
+        <v>815</v>
       </c>
       <c r="E41" s="164">
-        <v>187</v>
+        <v>-531</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
@@ -19501,13 +19501,13 @@
         <v>39</v>
       </c>
       <c r="C42" s="162">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D42" s="163">
-        <v>11.049999999999997</v>
+        <v>206</v>
       </c>
       <c r="E42" s="164">
-        <v>49.95</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -19515,13 +19515,13 @@
         <v>202</v>
       </c>
       <c r="C43" s="162">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D43" s="163">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E43" s="164">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
@@ -19529,13 +19529,13 @@
         <v>203</v>
       </c>
       <c r="C44" s="162">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="D44" s="163">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E44" s="164">
-        <v>156</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -19551,13 +19551,13 @@
         <v>205</v>
       </c>
       <c r="C46" s="165">
-        <v>6008.0949999999993</v>
+        <v>12246</v>
       </c>
       <c r="D46" s="166">
-        <v>1208.8625000000002</v>
+        <v>12246</v>
       </c>
       <c r="E46" s="167">
-        <v>5260.2325000000001</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -19592,7 +19592,7 @@
         <v>185</v>
       </c>
       <c r="B2" s="168">
-        <v>264</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -19600,7 +19600,7 @@
         <v>186</v>
       </c>
       <c r="B3" s="168">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -19608,7 +19608,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="168">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -19624,7 +19624,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="168">
-        <v>36</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -19632,7 +19632,7 @@
         <v>189</v>
       </c>
       <c r="B7" s="168">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -19640,7 +19640,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="168">
-        <v>242.92000000000002</v>
+        <v>-147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -19648,7 +19648,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="168">
-        <v>0</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -19656,7 +19656,7 @@
         <v>190</v>
       </c>
       <c r="B10" s="168">
-        <v>102.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -19664,7 +19664,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="168">
-        <v>161</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -19672,7 +19672,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="168">
-        <v>7</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -19680,7 +19680,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="168">
-        <v>109.25</v>
+        <v>-268</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -19688,7 +19688,7 @@
         <v>191</v>
       </c>
       <c r="B14" s="168">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -19696,7 +19696,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="168">
-        <v>238</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -19704,7 +19704,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="168">
-        <v>178.91250000000002</v>
+        <v>-562</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -19712,7 +19712,7 @@
         <v>192</v>
       </c>
       <c r="B17" s="168">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -19720,7 +19720,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="168">
-        <v>66.45</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -19736,7 +19736,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="168">
-        <v>155</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -19744,7 +19744,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="168">
-        <v>89</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -19752,7 +19752,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="168">
-        <v>2</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -19768,7 +19768,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="168">
-        <v>185.375</v>
+        <v>-453</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -19776,7 +19776,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="168">
-        <v>11.8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -19790,7 +19790,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="168">
-        <v>135.5</v>
+        <v>-181</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -19798,7 +19798,7 @@
         <v>197</v>
       </c>
       <c r="B28" s="168">
-        <v>336</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -19806,7 +19806,7 @@
         <v>198</v>
       </c>
       <c r="B29" s="168">
-        <v>0</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -19822,7 +19822,7 @@
         <v>77</v>
       </c>
       <c r="B31" s="168">
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -19830,7 +19830,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="168">
-        <v>82.8</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -19838,7 +19838,7 @@
         <v>53</v>
       </c>
       <c r="B33" s="168">
-        <v>402.52499999999998</v>
+        <v>-432</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -19846,7 +19846,7 @@
         <v>117</v>
       </c>
       <c r="B34" s="168">
-        <v>181</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -19854,7 +19854,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="168">
-        <v>238</v>
+        <v>-117</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -19862,7 +19862,7 @@
         <v>200</v>
       </c>
       <c r="B36" s="168">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -19870,7 +19870,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="168">
-        <v>2.75</v>
+        <v>-344</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -19886,7 +19886,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="168">
-        <v>105.5</v>
+        <v>-433</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -19894,7 +19894,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="168">
-        <v>187</v>
+        <v>-531</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -19902,7 +19902,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="168">
-        <v>49.95</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -19910,7 +19910,7 @@
         <v>202</v>
       </c>
       <c r="B42" s="168">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -19918,7 +19918,7 @@
         <v>203</v>
       </c>
       <c r="B43" s="168">
-        <v>156</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -19932,7 +19932,7 @@
         <v>205</v>
       </c>
       <c r="B45" s="168">
-        <v>5260.2325000000001</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -19967,7 +19967,7 @@
         <v>185</v>
       </c>
       <c r="B2" s="168">
-        <v>264</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -19975,7 +19975,7 @@
         <v>186</v>
       </c>
       <c r="B3" s="168">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -19983,7 +19983,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="168">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -19999,7 +19999,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="168">
-        <v>36</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -20007,7 +20007,7 @@
         <v>189</v>
       </c>
       <c r="B7" s="168">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -20015,7 +20015,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="170">
-        <v>242.92000000000002</v>
+        <v>-147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -20023,7 +20023,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="168">
-        <v>0</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -20031,7 +20031,7 @@
         <v>190</v>
       </c>
       <c r="B10" s="168">
-        <v>102.5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -20039,7 +20039,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="168">
-        <v>161</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -20047,7 +20047,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="168">
-        <v>7</v>
+        <v>-175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -20055,7 +20055,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="168">
-        <v>109.25</v>
+        <v>-268</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -20063,7 +20063,7 @@
         <v>191</v>
       </c>
       <c r="B14" s="168">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -20071,7 +20071,7 @@
         <v>43</v>
       </c>
       <c r="B15" s="168">
-        <v>238</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -20079,7 +20079,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="168">
-        <v>178.91250000000002</v>
+        <v>-562</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -20087,7 +20087,7 @@
         <v>192</v>
       </c>
       <c r="B17" s="168">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -20095,7 +20095,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="168">
-        <v>66.45</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -20111,7 +20111,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="168">
-        <v>155</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -20119,7 +20119,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="168">
-        <v>89</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -20127,7 +20127,7 @@
         <v>49</v>
       </c>
       <c r="B22" s="168">
-        <v>2</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -20143,7 +20143,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="168">
-        <v>185.375</v>
+        <v>-453</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -20151,7 +20151,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="168">
-        <v>11.8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -20165,7 +20165,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="168">
-        <v>135.5</v>
+        <v>-181</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -20173,7 +20173,7 @@
         <v>197</v>
       </c>
       <c r="B28" s="168">
-        <v>336</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -20181,7 +20181,7 @@
         <v>198</v>
       </c>
       <c r="B29" s="168">
-        <v>0</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -20197,7 +20197,7 @@
         <v>77</v>
       </c>
       <c r="B31" s="168">
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -20205,7 +20205,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="168">
-        <v>82.8</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -20213,7 +20213,7 @@
         <v>53</v>
       </c>
       <c r="B33" s="168">
-        <v>402.52499999999998</v>
+        <v>-432</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -20221,7 +20221,7 @@
         <v>117</v>
       </c>
       <c r="B34" s="168">
-        <v>181</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -20229,7 +20229,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="169">
-        <v>238</v>
+        <v>-117</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -20237,7 +20237,7 @@
         <v>200</v>
       </c>
       <c r="B36" s="168">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -20245,7 +20245,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="168">
-        <v>2.75</v>
+        <v>-344</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -20261,7 +20261,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="168">
-        <v>105.5</v>
+        <v>-433</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -20269,7 +20269,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="169">
-        <v>187</v>
+        <v>-531</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -20277,7 +20277,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="168">
-        <v>49.95</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -20285,7 +20285,7 @@
         <v>202</v>
       </c>
       <c r="B42" s="168">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -20293,7 +20293,7 @@
         <v>203</v>
       </c>
       <c r="B43" s="168">
-        <v>156</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -20307,7 +20307,7 @@
         <v>205</v>
       </c>
       <c r="B45" s="168">
-        <v>5260.2325000000001</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -20380,8 +20380,8 @@
   <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M116" sqref="M116"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -20790,7 +20790,7 @@
         <v>25</v>
       </c>
       <c r="T6" s="22"/>
-      <c r="U6" s="146"/>
+      <c r="U6" s="143"/>
       <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="146"/>
+      <c r="U7" s="143"/>
       <c r="V7" s="16"/>
     </row>
     <row r="8" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20912,7 +20912,7 @@
         <v>25</v>
       </c>
       <c r="T8" s="22"/>
-      <c r="U8" s="146"/>
+      <c r="U8" s="143"/>
       <c r="V8" s="16"/>
     </row>
     <row r="9" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20974,7 +20974,7 @@
         <v>46814</v>
       </c>
       <c r="T9" s="22"/>
-      <c r="U9" s="146"/>
+      <c r="U9" s="143"/>
       <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21036,7 +21036,7 @@
         <v>46814</v>
       </c>
       <c r="T10" s="22"/>
-      <c r="U10" s="146"/>
+      <c r="U10" s="143"/>
       <c r="V10" s="16"/>
     </row>
     <row r="11" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21098,7 +21098,7 @@
         <v>46814</v>
       </c>
       <c r="T11" s="22"/>
-      <c r="U11" s="146"/>
+      <c r="U11" s="143"/>
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21160,7 +21160,7 @@
         <v>46814</v>
       </c>
       <c r="T12" s="22"/>
-      <c r="U12" s="146"/>
+      <c r="U12" s="143"/>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21222,7 +21222,7 @@
         <v>46814</v>
       </c>
       <c r="T13" s="22"/>
-      <c r="U13" s="146"/>
+      <c r="U13" s="143"/>
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21284,7 +21284,7 @@
         <v>46814</v>
       </c>
       <c r="T14" s="22"/>
-      <c r="U14" s="146"/>
+      <c r="U14" s="143"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21346,7 +21346,7 @@
         <v>46814</v>
       </c>
       <c r="T15" s="22"/>
-      <c r="U15" s="146"/>
+      <c r="U15" s="143"/>
       <c r="V15" s="16" t="s">
         <v>218</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>46814</v>
       </c>
       <c r="T16" s="22"/>
-      <c r="U16" s="146"/>
+      <c r="U16" s="143"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21463,7 +21463,7 @@
         <v>46814</v>
       </c>
       <c r="T17" s="22"/>
-      <c r="U17" s="146"/>
+      <c r="U17" s="143"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21525,7 +21525,7 @@
         <v>46814</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="146"/>
+      <c r="U18" s="143"/>
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21649,7 +21649,7 @@
         <v>46814</v>
       </c>
       <c r="T20" s="22"/>
-      <c r="U20" s="146"/>
+      <c r="U20" s="143"/>
       <c r="V20" s="16"/>
     </row>
     <row r="21" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21711,7 +21711,7 @@
         <v>46814</v>
       </c>
       <c r="T21" s="22"/>
-      <c r="U21" s="146"/>
+      <c r="U21" s="143"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21773,7 +21773,7 @@
         <v>46814</v>
       </c>
       <c r="T22" s="22"/>
-      <c r="U22" s="146"/>
+      <c r="U22" s="143"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21835,7 +21835,7 @@
         <v>46814</v>
       </c>
       <c r="T23" s="22"/>
-      <c r="U23" s="146"/>
+      <c r="U23" s="143"/>
       <c r="V23" s="16"/>
     </row>
     <row r="24" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21897,7 +21897,7 @@
         <v>46814</v>
       </c>
       <c r="T24" s="22"/>
-      <c r="U24" s="146"/>
+      <c r="U24" s="143"/>
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21959,7 +21959,7 @@
         <v>45626</v>
       </c>
       <c r="T25" s="20"/>
-      <c r="U25" s="146"/>
+      <c r="U25" s="143"/>
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22021,7 +22021,7 @@
         <v>45626</v>
       </c>
       <c r="T26" s="20"/>
-      <c r="U26" s="146"/>
+      <c r="U26" s="143"/>
       <c r="V26" s="16"/>
     </row>
     <row r="27" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22085,7 +22085,7 @@
       <c r="T27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="U27" s="146"/>
+      <c r="U27" s="143"/>
       <c r="V27" s="16"/>
     </row>
     <row r="28" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22148,7 +22148,7 @@
         <v>45657</v>
       </c>
       <c r="T28" s="22"/>
-      <c r="U28" s="146"/>
+      <c r="U28" s="143"/>
       <c r="V28" s="16"/>
     </row>
     <row r="29" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22212,7 +22212,7 @@
       <c r="T29" s="20">
         <v>45650</v>
       </c>
-      <c r="U29" s="146"/>
+      <c r="U29" s="143"/>
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22274,7 +22274,7 @@
         <v>45523</v>
       </c>
       <c r="T30" s="20"/>
-      <c r="U30" s="146"/>
+      <c r="U30" s="143"/>
       <c r="V30" s="16"/>
     </row>
     <row r="31" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22336,7 +22336,7 @@
         <v>45523</v>
       </c>
       <c r="T31" s="20"/>
-      <c r="U31" s="146"/>
+      <c r="U31" s="143"/>
       <c r="V31" s="16"/>
     </row>
     <row r="32" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22400,7 +22400,7 @@
         <v>45523</v>
       </c>
       <c r="T32" s="20"/>
-      <c r="U32" s="146"/>
+      <c r="U32" s="143"/>
       <c r="V32" s="16"/>
     </row>
     <row r="33" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22466,7 +22466,7 @@
         <v>45523</v>
       </c>
       <c r="T33" s="20"/>
-      <c r="U33" s="146"/>
+      <c r="U33" s="143"/>
       <c r="V33" s="16"/>
     </row>
     <row r="34" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22533,7 +22533,7 @@
       <c r="T34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U34" s="146" t="s">
+      <c r="U34" s="143" t="s">
         <v>67</v>
       </c>
       <c r="V34" s="16"/>
@@ -22599,7 +22599,7 @@
         <v>45348</v>
       </c>
       <c r="T35" s="20"/>
-      <c r="U35" s="146"/>
+      <c r="U35" s="143"/>
       <c r="V35" s="16"/>
     </row>
     <row r="36" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22665,7 +22665,7 @@
         <v>45348</v>
       </c>
       <c r="T36" s="20"/>
-      <c r="U36" s="146"/>
+      <c r="U36" s="143"/>
       <c r="V36" s="16"/>
     </row>
     <row r="37" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22727,7 +22727,7 @@
         <v>45348</v>
       </c>
       <c r="T37" s="20"/>
-      <c r="U37" s="146"/>
+      <c r="U37" s="143"/>
       <c r="V37" s="16"/>
     </row>
     <row r="38" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22789,7 +22789,7 @@
         <v>45348</v>
       </c>
       <c r="T38" s="20"/>
-      <c r="U38" s="146"/>
+      <c r="U38" s="143"/>
       <c r="V38" s="16"/>
     </row>
     <row r="39" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22851,7 +22851,7 @@
         <v>45737</v>
       </c>
       <c r="T39" s="20"/>
-      <c r="U39" s="146"/>
+      <c r="U39" s="143"/>
       <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22913,7 +22913,7 @@
         <v>45737</v>
       </c>
       <c r="T40" s="20"/>
-      <c r="U40" s="146"/>
+      <c r="U40" s="143"/>
       <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23039,7 +23039,7 @@
       <c r="T42" s="20">
         <v>45813</v>
       </c>
-      <c r="U42" s="146"/>
+      <c r="U42" s="143"/>
       <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23097,7 +23097,7 @@
         <v>45692</v>
       </c>
       <c r="T43" s="56"/>
-      <c r="U43" s="146"/>
+      <c r="U43" s="143"/>
       <c r="V43" s="16"/>
     </row>
     <row r="44" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23161,7 +23161,7 @@
         <v>45692</v>
       </c>
       <c r="T44" s="56"/>
-      <c r="U44" s="146"/>
+      <c r="U44" s="143"/>
       <c r="V44" s="16"/>
     </row>
     <row r="45" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23227,7 +23227,7 @@
       <c r="T45" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="U45" s="146" t="s">
+      <c r="U45" s="143" t="s">
         <v>219</v>
       </c>
       <c r="V45" s="16"/>
@@ -23291,7 +23291,7 @@
         <v>45674</v>
       </c>
       <c r="T46" s="22"/>
-      <c r="U46" s="146"/>
+      <c r="U46" s="143"/>
       <c r="V46" s="16"/>
     </row>
     <row r="47" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23353,7 +23353,7 @@
         <v>45674</v>
       </c>
       <c r="T47" s="22"/>
-      <c r="U47" s="146"/>
+      <c r="U47" s="143"/>
       <c r="V47" s="16"/>
     </row>
     <row r="48" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23415,7 +23415,7 @@
         <v>45674</v>
       </c>
       <c r="T48" s="22"/>
-      <c r="U48" s="146"/>
+      <c r="U48" s="143"/>
       <c r="V48" s="16"/>
     </row>
     <row r="49" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23477,7 +23477,7 @@
         <v>45674</v>
       </c>
       <c r="T49" s="22"/>
-      <c r="U49" s="146"/>
+      <c r="U49" s="143"/>
       <c r="V49" s="16"/>
     </row>
     <row r="50" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23539,7 +23539,7 @@
         <v>45674</v>
       </c>
       <c r="T50" s="22"/>
-      <c r="U50" s="146"/>
+      <c r="U50" s="143"/>
       <c r="V50" s="16"/>
     </row>
     <row r="51" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23601,7 +23601,7 @@
         <v>45674</v>
       </c>
       <c r="T51" s="22"/>
-      <c r="U51" s="146"/>
+      <c r="U51" s="143"/>
       <c r="V51" s="16"/>
     </row>
     <row r="52" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23663,7 +23663,7 @@
         <v>45674</v>
       </c>
       <c r="T52" s="22"/>
-      <c r="U52" s="146"/>
+      <c r="U52" s="143"/>
       <c r="V52" s="16"/>
     </row>
     <row r="53" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23725,7 +23725,7 @@
         <v>45674</v>
       </c>
       <c r="T53" s="22"/>
-      <c r="U53" s="146"/>
+      <c r="U53" s="143"/>
       <c r="V53" s="16"/>
     </row>
     <row r="54" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23787,7 +23787,7 @@
         <v>45674</v>
       </c>
       <c r="T54" s="22"/>
-      <c r="U54" s="146"/>
+      <c r="U54" s="143"/>
       <c r="V54" s="16"/>
     </row>
     <row r="55" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23849,7 +23849,7 @@
         <v>45674</v>
       </c>
       <c r="T55" s="22"/>
-      <c r="U55" s="146"/>
+      <c r="U55" s="143"/>
       <c r="V55" s="16"/>
     </row>
     <row r="56" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23911,7 +23911,7 @@
         <v>45684</v>
       </c>
       <c r="T56" s="22"/>
-      <c r="U56" s="146" t="s">
+      <c r="U56" s="143" t="s">
         <v>94</v>
       </c>
       <c r="V56" s="16"/>
@@ -23975,7 +23975,7 @@
         <v>45684</v>
       </c>
       <c r="T57" s="22"/>
-      <c r="U57" s="146"/>
+      <c r="U57" s="143"/>
       <c r="V57" s="16"/>
     </row>
     <row r="58" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24037,7 +24037,7 @@
         <v>45684</v>
       </c>
       <c r="T58" s="22"/>
-      <c r="U58" s="146"/>
+      <c r="U58" s="143"/>
       <c r="V58" s="16"/>
     </row>
     <row r="59" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24100,7 +24100,7 @@
         <v>45722</v>
       </c>
       <c r="T59" s="22"/>
-      <c r="U59" s="146"/>
+      <c r="U59" s="143"/>
       <c r="V59" s="16"/>
     </row>
     <row r="60" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24161,7 +24161,7 @@
       </c>
       <c r="S60" s="22"/>
       <c r="T60" s="22"/>
-      <c r="U60" s="146"/>
+      <c r="U60" s="143"/>
       <c r="V60" s="16"/>
     </row>
     <row r="61" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24222,7 +24222,7 @@
       </c>
       <c r="S61" s="22"/>
       <c r="T61" s="22"/>
-      <c r="U61" s="146"/>
+      <c r="U61" s="143"/>
       <c r="V61" s="16"/>
     </row>
     <row r="62" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24282,7 +24282,7 @@
       <c r="S62" s="22">
         <v>45488</v>
       </c>
-      <c r="U62" s="146"/>
+      <c r="U62" s="143"/>
       <c r="V62" s="16"/>
     </row>
     <row r="63" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24342,7 +24342,7 @@
       <c r="S63" s="22">
         <v>45568</v>
       </c>
-      <c r="U63" s="146"/>
+      <c r="U63" s="143"/>
       <c r="V63" s="16"/>
     </row>
     <row r="64" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24400,7 +24400,7 @@
         <v>45488</v>
       </c>
       <c r="S64" s="22"/>
-      <c r="U64" s="146"/>
+      <c r="U64" s="143"/>
       <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24460,7 +24460,7 @@
       <c r="S65" s="22">
         <v>45568</v>
       </c>
-      <c r="U65" s="146" t="s">
+      <c r="U65" s="143" t="s">
         <v>110</v>
       </c>
       <c r="V65" s="16"/>
@@ -24524,7 +24524,7 @@
         <v>45737</v>
       </c>
       <c r="T66" s="22"/>
-      <c r="U66" s="146"/>
+      <c r="U66" s="143"/>
       <c r="V66" s="16"/>
     </row>
     <row r="67" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24586,7 +24586,7 @@
         <v>45737</v>
       </c>
       <c r="T67" s="22"/>
-      <c r="U67" s="146"/>
+      <c r="U67" s="143"/>
       <c r="V67" s="16"/>
     </row>
     <row r="68" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24648,7 +24648,7 @@
         <v>45737</v>
       </c>
       <c r="T68" s="22"/>
-      <c r="U68" s="146"/>
+      <c r="U68" s="143"/>
       <c r="V68" s="16"/>
     </row>
     <row r="69" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24710,7 +24710,7 @@
         <v>45747</v>
       </c>
       <c r="T69" s="22"/>
-      <c r="U69" s="146"/>
+      <c r="U69" s="143"/>
       <c r="V69" s="16"/>
     </row>
     <row r="70" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24961,7 +24961,7 @@
       <c r="U73" s="16"/>
       <c r="V73" s="16"/>
     </row>
-    <row r="74" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="27" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>18</v>
       </c>
@@ -25023,7 +25023,7 @@
       <c r="U74" s="16"/>
       <c r="V74" s="16"/>
     </row>
-    <row r="75" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" ht="27" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>18</v>
       </c>
@@ -25085,7 +25085,7 @@
       <c r="U75" s="16"/>
       <c r="V75" s="16"/>
     </row>
-    <row r="76" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="27" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>18</v>
       </c>
@@ -28634,7 +28634,7 @@
       <c r="T140" s="22"/>
       <c r="U140" s="16"/>
     </row>
-    <row r="141" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
         <v>18</v>
       </c>
@@ -81611,12 +81611,13 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="R19:R26"/>
+    <mergeCell ref="R110:R112"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="R94:R97"/>
+    <mergeCell ref="R98:R100"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="R107:R109"/>
     <mergeCell ref="R88:R90"/>
     <mergeCell ref="R29:R38"/>
     <mergeCell ref="R40:R44"/>
@@ -81629,13 +81630,12 @@
     <mergeCell ref="R69:R71"/>
     <mergeCell ref="R72:R75"/>
     <mergeCell ref="R76:R87"/>
-    <mergeCell ref="R110:R112"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="R94:R97"/>
-    <mergeCell ref="R98:R100"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="R107:R109"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="R19:R26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/uploads/Resource_Billing_Splitup_11.04.2025.xlsx
+++ b/static/uploads/Resource_Billing_Splitup_11.04.2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opawa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501F1AFD-733F-4908-9A4E-17EF82F83C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04FD474-CB81-4149-9F44-FD70667FF6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="612" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2616,22 +2616,22 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2640,10 +2640,10 @@
     <xf numFmtId="15" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4671,7 +4671,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45763.939425462966" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D5FB8A23-4236-4B77-8586-FB41562C8FC9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45764.657739236114" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D5FB8A23-4236-4B77-8586-FB41562C8FC9}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="4">
     <cacheField name="[Measures].[Sum of Allocated Billed Days 2025]" caption="Sum of Allocated Billed Days 2025" numFmtId="0" hierarchy="15" level="32767"/>
@@ -4810,7 +4810,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45763.939425810182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{F7F6E1B0-C833-4B2F-BADB-26C87806876E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Om Pawar" refreshedDate="45764.65773958333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{F7F6E1B0-C833-4B2F-BADB-26C87806876E}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:N1048576" sheet="Billed_2025"/>
   </cacheSource>
@@ -9027,16 +9027,16 @@
         <f t="shared" ref="N2:N33" si="1">I2-M2</f>
         <v>88.712500000000006</v>
       </c>
-      <c r="O2" s="144">
+      <c r="O2" s="147">
         <v>45344</v>
       </c>
-      <c r="P2" s="144">
+      <c r="P2" s="147">
         <v>45595</v>
       </c>
-      <c r="Q2" s="144" t="s">
+      <c r="Q2" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="143"/>
+      <c r="R2" s="146"/>
       <c r="S2" s="15"/>
     </row>
     <row r="3" spans="1:19" s="26" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9085,10 +9085,10 @@
         <f t="shared" si="1"/>
         <v>1.625</v>
       </c>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="143"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="146"/>
       <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9137,10 +9137,10 @@
         <f t="shared" si="1"/>
         <v>21.375</v>
       </c>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="143"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
+      <c r="R4" s="146"/>
       <c r="S4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9189,10 +9189,10 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="143"/>
+      <c r="O5" s="147"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="146"/>
       <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9247,10 +9247,10 @@
       <c r="P6" s="150">
         <v>45503</v>
       </c>
-      <c r="Q6" s="144">
+      <c r="Q6" s="147">
         <v>45650</v>
       </c>
-      <c r="R6" s="143" t="s">
+      <c r="R6" s="146" t="s">
         <v>33</v>
       </c>
       <c r="S6" s="15"/>
@@ -9303,8 +9303,8 @@
       </c>
       <c r="O7" s="150"/>
       <c r="P7" s="150"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="143"/>
+      <c r="Q7" s="147"/>
+      <c r="R7" s="146"/>
       <c r="S7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9355,8 +9355,8 @@
       </c>
       <c r="O8" s="150"/>
       <c r="P8" s="150"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="143"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="146"/>
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9407,8 +9407,8 @@
       </c>
       <c r="O9" s="150"/>
       <c r="P9" s="150"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="143"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="146"/>
       <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9457,16 +9457,16 @@
         <f t="shared" si="1"/>
         <v>-2.1625000000000014</v>
       </c>
-      <c r="O10" s="148">
+      <c r="O10" s="151">
         <v>45231</v>
       </c>
-      <c r="P10" s="148">
+      <c r="P10" s="151">
         <v>45404</v>
       </c>
-      <c r="Q10" s="148">
+      <c r="Q10" s="151">
         <v>45628</v>
       </c>
-      <c r="R10" s="143" t="s">
+      <c r="R10" s="146" t="s">
         <v>38</v>
       </c>
       <c r="S10" s="15"/>
@@ -9517,10 +9517,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="143"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="146"/>
       <c r="S11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9569,10 +9569,10 @@
         <f t="shared" si="1"/>
         <v>1.9624999999999986</v>
       </c>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="143"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="146"/>
       <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9621,10 +9621,10 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="143"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="146"/>
       <c r="S13" s="15"/>
     </row>
     <row r="14" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9673,16 +9673,16 @@
         <f t="shared" ref="N14:N19" si="6">I14-M14</f>
         <v>1</v>
       </c>
-      <c r="O14" s="144">
+      <c r="O14" s="147">
         <v>45286</v>
       </c>
-      <c r="P14" s="144">
+      <c r="P14" s="147">
         <v>45442</v>
       </c>
-      <c r="Q14" s="144" t="s">
+      <c r="Q14" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="143"/>
+      <c r="R14" s="146"/>
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9731,10 +9731,10 @@
         <f t="shared" si="6"/>
         <v>5.625</v>
       </c>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="143"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="146"/>
       <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9783,10 +9783,10 @@
         <f t="shared" si="6"/>
         <v>37.25</v>
       </c>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="143"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="146"/>
       <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9835,10 +9835,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="143"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="146"/>
       <c r="S17" s="15"/>
     </row>
     <row r="18" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9887,10 +9887,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="143"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="146"/>
       <c r="S18" s="15"/>
     </row>
     <row r="19" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9939,16 +9939,16 @@
         <f t="shared" si="6"/>
         <v>-5.875</v>
       </c>
-      <c r="O19" s="144">
+      <c r="O19" s="147">
         <v>45271</v>
       </c>
-      <c r="P19" s="144">
+      <c r="P19" s="147">
         <v>45545</v>
       </c>
       <c r="Q19" s="145">
         <v>45570</v>
       </c>
-      <c r="R19" s="143" t="s">
+      <c r="R19" s="146" t="s">
         <v>46</v>
       </c>
       <c r="S19" s="15"/>
@@ -9999,10 +9999,10 @@
         <f t="shared" si="1"/>
         <v>-7.1474999999999937</v>
       </c>
-      <c r="O20" s="144"/>
-      <c r="P20" s="144"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
       <c r="Q20" s="145"/>
-      <c r="R20" s="143"/>
+      <c r="R20" s="146"/>
       <c r="S20" s="15"/>
     </row>
     <row r="21" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10051,10 +10051,10 @@
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
       <c r="Q21" s="145"/>
-      <c r="R21" s="143"/>
+      <c r="R21" s="146"/>
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10103,10 +10103,10 @@
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="147"/>
       <c r="Q22" s="145"/>
-      <c r="R22" s="143"/>
+      <c r="R22" s="146"/>
       <c r="S22" s="15" t="s">
         <v>50</v>
       </c>
@@ -10157,10 +10157,10 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="O23" s="144"/>
-      <c r="P23" s="144"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="147"/>
       <c r="Q23" s="145"/>
-      <c r="R23" s="143"/>
+      <c r="R23" s="146"/>
       <c r="S23" s="15"/>
     </row>
     <row r="24" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10209,10 +10209,10 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-      <c r="O24" s="144"/>
-      <c r="P24" s="144"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
       <c r="Q24" s="145"/>
-      <c r="R24" s="143"/>
+      <c r="R24" s="146"/>
       <c r="S24" s="15"/>
     </row>
     <row r="25" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10261,10 +10261,10 @@
         <f t="shared" si="1"/>
         <v>-6.625</v>
       </c>
-      <c r="O25" s="144"/>
-      <c r="P25" s="144"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="147"/>
       <c r="Q25" s="145"/>
-      <c r="R25" s="143"/>
+      <c r="R25" s="146"/>
       <c r="S25" s="15"/>
     </row>
     <row r="26" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10313,10 +10313,10 @@
         <f t="shared" si="1"/>
         <v>-8.7874999999999943</v>
       </c>
-      <c r="O26" s="144"/>
-      <c r="P26" s="144"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="147"/>
       <c r="Q26" s="145"/>
-      <c r="R26" s="143"/>
+      <c r="R26" s="146"/>
       <c r="S26" s="15"/>
     </row>
     <row r="27" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10365,14 +10365,14 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O27" s="144">
+      <c r="O27" s="147">
         <v>45483</v>
       </c>
-      <c r="P27" s="144" t="s">
+      <c r="P27" s="147" t="s">
         <v>25</v>
       </c>
       <c r="Q27" s="145"/>
-      <c r="R27" s="143"/>
+      <c r="R27" s="146"/>
       <c r="S27" s="15"/>
     </row>
     <row r="28" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10421,10 +10421,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O28" s="144"/>
-      <c r="P28" s="144"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
       <c r="Q28" s="145"/>
-      <c r="R28" s="143"/>
+      <c r="R28" s="146"/>
       <c r="S28" s="15"/>
     </row>
     <row r="29" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10473,14 +10473,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="O29" s="144">
+      <c r="O29" s="147">
         <v>45670</v>
       </c>
-      <c r="P29" s="144">
+      <c r="P29" s="147">
         <v>46814</v>
       </c>
       <c r="Q29" s="145"/>
-      <c r="R29" s="143"/>
+      <c r="R29" s="146"/>
       <c r="S29" s="15"/>
     </row>
     <row r="30" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10529,10 +10529,10 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O30" s="144"/>
-      <c r="P30" s="144"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
       <c r="Q30" s="145"/>
-      <c r="R30" s="143"/>
+      <c r="R30" s="146"/>
       <c r="S30" s="15"/>
     </row>
     <row r="31" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10581,10 +10581,10 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="O31" s="144"/>
-      <c r="P31" s="144"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
       <c r="Q31" s="145"/>
-      <c r="R31" s="143"/>
+      <c r="R31" s="146"/>
       <c r="S31" s="15"/>
     </row>
     <row r="32" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10633,10 +10633,10 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="O32" s="144"/>
-      <c r="P32" s="144"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
       <c r="Q32" s="145"/>
-      <c r="R32" s="143"/>
+      <c r="R32" s="146"/>
       <c r="S32" s="15"/>
     </row>
     <row r="33" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10685,10 +10685,10 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
       <c r="Q33" s="145"/>
-      <c r="R33" s="143"/>
+      <c r="R33" s="146"/>
       <c r="S33" s="15"/>
     </row>
     <row r="34" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10737,10 +10737,10 @@
         <f t="shared" ref="N34:N65" si="8">I34-M34</f>
         <v>50</v>
       </c>
-      <c r="O34" s="144"/>
-      <c r="P34" s="144"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
       <c r="Q34" s="145"/>
-      <c r="R34" s="143"/>
+      <c r="R34" s="146"/>
       <c r="S34" s="15"/>
     </row>
     <row r="35" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10789,10 +10789,10 @@
         <f t="shared" si="8"/>
         <v>129</v>
       </c>
-      <c r="O35" s="144"/>
-      <c r="P35" s="144"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="147"/>
       <c r="Q35" s="145"/>
-      <c r="R35" s="143"/>
+      <c r="R35" s="146"/>
       <c r="S35" s="15"/>
     </row>
     <row r="36" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10841,10 +10841,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="O36" s="144"/>
-      <c r="P36" s="144"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
       <c r="Q36" s="145"/>
-      <c r="R36" s="143"/>
+      <c r="R36" s="146"/>
       <c r="S36" s="15"/>
     </row>
     <row r="37" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10893,10 +10893,10 @@
         <f t="shared" si="8"/>
         <v>155</v>
       </c>
-      <c r="O37" s="144"/>
-      <c r="P37" s="144"/>
+      <c r="O37" s="147"/>
+      <c r="P37" s="147"/>
       <c r="Q37" s="145"/>
-      <c r="R37" s="143"/>
+      <c r="R37" s="146"/>
       <c r="S37" s="15"/>
     </row>
     <row r="38" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10945,10 +10945,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
       <c r="Q38" s="145"/>
-      <c r="R38" s="143"/>
+      <c r="R38" s="146"/>
       <c r="S38" s="15"/>
     </row>
     <row r="39" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11053,14 +11053,14 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O40" s="144">
+      <c r="O40" s="147">
         <v>45670</v>
       </c>
-      <c r="P40" s="144">
+      <c r="P40" s="147">
         <v>46157</v>
       </c>
       <c r="Q40" s="145"/>
-      <c r="R40" s="143"/>
+      <c r="R40" s="146"/>
       <c r="S40" s="15"/>
     </row>
     <row r="41" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11109,10 +11109,10 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="O41" s="144"/>
-      <c r="P41" s="144"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="147"/>
       <c r="Q41" s="145"/>
-      <c r="R41" s="143"/>
+      <c r="R41" s="146"/>
       <c r="S41" s="15"/>
     </row>
     <row r="42" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11161,10 +11161,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O42" s="144"/>
-      <c r="P42" s="144"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
       <c r="Q42" s="145"/>
-      <c r="R42" s="143"/>
+      <c r="R42" s="146"/>
       <c r="S42" s="15"/>
     </row>
     <row r="43" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11213,10 +11213,10 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="O43" s="144"/>
-      <c r="P43" s="144"/>
+      <c r="O43" s="147"/>
+      <c r="P43" s="147"/>
       <c r="Q43" s="145"/>
-      <c r="R43" s="143"/>
+      <c r="R43" s="146"/>
       <c r="S43" s="15"/>
     </row>
     <row r="44" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11265,10 +11265,10 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="O44" s="144"/>
-      <c r="P44" s="144"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="147"/>
       <c r="Q44" s="145"/>
-      <c r="R44" s="143"/>
+      <c r="R44" s="146"/>
       <c r="S44" s="15"/>
     </row>
     <row r="45" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11317,14 +11317,14 @@
         <f t="shared" si="8"/>
         <v>52.875</v>
       </c>
-      <c r="O45" s="144"/>
-      <c r="P45" s="144">
+      <c r="O45" s="147"/>
+      <c r="P45" s="147">
         <v>45212</v>
       </c>
-      <c r="Q45" s="144">
+      <c r="Q45" s="147">
         <v>45626</v>
       </c>
-      <c r="R45" s="143" t="s">
+      <c r="R45" s="146" t="s">
         <v>67</v>
       </c>
       <c r="S45" s="15"/>
@@ -11376,10 +11376,10 @@
         <f t="shared" si="8"/>
         <v>38.818750000000001</v>
       </c>
-      <c r="O46" s="144"/>
-      <c r="P46" s="144"/>
-      <c r="Q46" s="144"/>
-      <c r="R46" s="143"/>
+      <c r="O46" s="147"/>
+      <c r="P46" s="147"/>
+      <c r="Q46" s="147"/>
+      <c r="R46" s="146"/>
       <c r="S46" s="15"/>
     </row>
     <row r="47" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11429,10 +11429,10 @@
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="O47" s="144"/>
-      <c r="P47" s="144"/>
-      <c r="Q47" s="144"/>
-      <c r="R47" s="143"/>
+      <c r="O47" s="147"/>
+      <c r="P47" s="147"/>
+      <c r="Q47" s="147"/>
+      <c r="R47" s="146"/>
       <c r="S47" s="15"/>
     </row>
     <row r="48" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11481,10 +11481,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O48" s="144"/>
-      <c r="P48" s="144"/>
-      <c r="Q48" s="144"/>
-      <c r="R48" s="143"/>
+      <c r="O48" s="147"/>
+      <c r="P48" s="147"/>
+      <c r="Q48" s="147"/>
+      <c r="R48" s="146"/>
       <c r="S48" s="15"/>
     </row>
     <row r="49" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11533,16 +11533,16 @@
         <f t="shared" si="8"/>
         <v>20.875</v>
       </c>
-      <c r="O49" s="146">
+      <c r="O49" s="152">
         <v>45339</v>
       </c>
-      <c r="P49" s="144">
+      <c r="P49" s="147">
         <v>45657</v>
       </c>
       <c r="Q49" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="R49" s="143"/>
+      <c r="R49" s="146"/>
       <c r="S49" s="15"/>
     </row>
     <row r="50" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11591,10 +11591,10 @@
         <f t="shared" si="8"/>
         <v>31.568750000000001</v>
       </c>
-      <c r="O50" s="146"/>
-      <c r="P50" s="144"/>
+      <c r="O50" s="152"/>
+      <c r="P50" s="147"/>
       <c r="Q50" s="145"/>
-      <c r="R50" s="143"/>
+      <c r="R50" s="146"/>
       <c r="S50" s="15"/>
     </row>
     <row r="51" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11643,10 +11643,10 @@
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="O51" s="146"/>
-      <c r="P51" s="144"/>
+      <c r="O51" s="152"/>
+      <c r="P51" s="147"/>
       <c r="Q51" s="145"/>
-      <c r="R51" s="143"/>
+      <c r="R51" s="146"/>
       <c r="S51" s="15"/>
     </row>
     <row r="52" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11695,16 +11695,16 @@
         <f t="shared" si="8"/>
         <v>8.1062500000000028</v>
       </c>
-      <c r="O52" s="144">
+      <c r="O52" s="147">
         <v>44578</v>
       </c>
-      <c r="P52" s="144">
+      <c r="P52" s="147">
         <v>44731</v>
       </c>
-      <c r="Q52" s="144">
+      <c r="Q52" s="147">
         <v>45610</v>
       </c>
-      <c r="R52" s="143" t="s">
+      <c r="R52" s="146" t="s">
         <v>74</v>
       </c>
       <c r="S52" s="15"/>
@@ -11755,10 +11755,10 @@
         <f t="shared" si="8"/>
         <v>-32.287499999999994</v>
       </c>
-      <c r="O53" s="144"/>
-      <c r="P53" s="144"/>
-      <c r="Q53" s="144"/>
-      <c r="R53" s="143"/>
+      <c r="O53" s="147"/>
+      <c r="P53" s="147"/>
+      <c r="Q53" s="147"/>
+      <c r="R53" s="146"/>
       <c r="S53" s="15"/>
     </row>
     <row r="54" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11807,10 +11807,10 @@
         <f t="shared" si="8"/>
         <v>-17.75</v>
       </c>
-      <c r="O54" s="144"/>
-      <c r="P54" s="144"/>
-      <c r="Q54" s="144"/>
-      <c r="R54" s="143"/>
+      <c r="O54" s="147"/>
+      <c r="P54" s="147"/>
+      <c r="Q54" s="147"/>
+      <c r="R54" s="146"/>
       <c r="S54" s="15"/>
     </row>
     <row r="55" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11859,16 +11859,16 @@
         <f t="shared" si="8"/>
         <v>-73.375</v>
       </c>
-      <c r="O55" s="144">
+      <c r="O55" s="147">
         <v>45175</v>
       </c>
-      <c r="P55" s="144">
+      <c r="P55" s="147">
         <v>45523</v>
       </c>
-      <c r="Q55" s="144">
+      <c r="Q55" s="147">
         <v>45650</v>
       </c>
-      <c r="R55" s="143"/>
+      <c r="R55" s="146"/>
       <c r="S55" s="15"/>
     </row>
     <row r="56" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11918,10 +11918,10 @@
         <f t="shared" si="8"/>
         <v>16.212500000000006</v>
       </c>
-      <c r="O56" s="144"/>
-      <c r="P56" s="144"/>
-      <c r="Q56" s="144"/>
-      <c r="R56" s="143"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="147"/>
+      <c r="Q56" s="147"/>
+      <c r="R56" s="146"/>
       <c r="S56" s="15"/>
     </row>
     <row r="57" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11970,10 +11970,10 @@
         <f t="shared" si="8"/>
         <v>35.625</v>
       </c>
-      <c r="O57" s="144"/>
-      <c r="P57" s="144"/>
-      <c r="Q57" s="144"/>
-      <c r="R57" s="143"/>
+      <c r="O57" s="147"/>
+      <c r="P57" s="147"/>
+      <c r="Q57" s="147"/>
+      <c r="R57" s="146"/>
       <c r="S57" s="15"/>
     </row>
     <row r="58" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12022,10 +12022,10 @@
         <f t="shared" si="8"/>
         <v>-14.125</v>
       </c>
-      <c r="O58" s="144"/>
-      <c r="P58" s="144"/>
-      <c r="Q58" s="144"/>
-      <c r="R58" s="143"/>
+      <c r="O58" s="147"/>
+      <c r="P58" s="147"/>
+      <c r="Q58" s="147"/>
+      <c r="R58" s="146"/>
       <c r="S58" s="15"/>
     </row>
     <row r="59" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12075,10 +12075,10 @@
         <f t="shared" si="8"/>
         <v>-0.91249999999999964</v>
       </c>
-      <c r="O59" s="144"/>
-      <c r="P59" s="144"/>
-      <c r="Q59" s="144"/>
-      <c r="R59" s="143"/>
+      <c r="O59" s="147"/>
+      <c r="P59" s="147"/>
+      <c r="Q59" s="147"/>
+      <c r="R59" s="146"/>
       <c r="S59" s="15"/>
     </row>
     <row r="60" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12128,10 +12128,10 @@
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="O60" s="144"/>
-      <c r="P60" s="144"/>
-      <c r="Q60" s="144"/>
-      <c r="R60" s="143"/>
+      <c r="O60" s="147"/>
+      <c r="P60" s="147"/>
+      <c r="Q60" s="147"/>
+      <c r="R60" s="146"/>
       <c r="S60" s="15"/>
     </row>
     <row r="61" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12180,16 +12180,16 @@
         <f t="shared" si="8"/>
         <v>-17.537500000000001</v>
       </c>
-      <c r="O61" s="146">
+      <c r="O61" s="152">
         <v>45214</v>
       </c>
-      <c r="P61" s="144">
+      <c r="P61" s="147">
         <v>45348</v>
       </c>
-      <c r="Q61" s="144" t="s">
+      <c r="Q61" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="R61" s="143" t="s">
+      <c r="R61" s="146" t="s">
         <v>67</v>
       </c>
       <c r="S61" s="15"/>
@@ -12240,10 +12240,10 @@
         <f t="shared" si="8"/>
         <v>-12.537500000000001</v>
       </c>
-      <c r="O62" s="146"/>
-      <c r="P62" s="144"/>
-      <c r="Q62" s="144"/>
-      <c r="R62" s="143"/>
+      <c r="O62" s="152"/>
+      <c r="P62" s="147"/>
+      <c r="Q62" s="147"/>
+      <c r="R62" s="146"/>
       <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12292,10 +12292,10 @@
         <f t="shared" si="8"/>
         <v>3.75</v>
       </c>
-      <c r="O63" s="146"/>
-      <c r="P63" s="144"/>
-      <c r="Q63" s="144"/>
-      <c r="R63" s="143"/>
+      <c r="O63" s="152"/>
+      <c r="P63" s="147"/>
+      <c r="Q63" s="147"/>
+      <c r="R63" s="146"/>
       <c r="S63" s="15"/>
     </row>
     <row r="64" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12344,10 +12344,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O64" s="146"/>
-      <c r="P64" s="144"/>
-      <c r="Q64" s="144"/>
-      <c r="R64" s="143"/>
+      <c r="O64" s="152"/>
+      <c r="P64" s="147"/>
+      <c r="Q64" s="147"/>
+      <c r="R64" s="146"/>
       <c r="S64" s="15"/>
     </row>
     <row r="65" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12396,10 +12396,10 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="O65" s="146"/>
-      <c r="P65" s="144"/>
-      <c r="Q65" s="144"/>
-      <c r="R65" s="143"/>
+      <c r="O65" s="152"/>
+      <c r="P65" s="147"/>
+      <c r="Q65" s="147"/>
+      <c r="R65" s="146"/>
       <c r="S65" s="15"/>
     </row>
     <row r="66" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12448,12 +12448,12 @@
         <f t="shared" ref="N66:N97" si="11">I66-M66</f>
         <v>-1.875</v>
       </c>
-      <c r="O66" s="144" t="s">
+      <c r="O66" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="P66" s="144"/>
-      <c r="Q66" s="144"/>
-      <c r="R66" s="143" t="s">
+      <c r="P66" s="147"/>
+      <c r="Q66" s="147"/>
+      <c r="R66" s="146" t="s">
         <v>67</v>
       </c>
       <c r="S66" s="15"/>
@@ -12504,10 +12504,10 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="O67" s="144"/>
-      <c r="P67" s="144"/>
-      <c r="Q67" s="144"/>
-      <c r="R67" s="143"/>
+      <c r="O67" s="147"/>
+      <c r="P67" s="147"/>
+      <c r="Q67" s="147"/>
+      <c r="R67" s="146"/>
       <c r="S67" s="15"/>
     </row>
     <row r="68" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12556,10 +12556,10 @@
         <f t="shared" si="11"/>
         <v>-28.268750000000001</v>
       </c>
-      <c r="O68" s="144"/>
-      <c r="P68" s="144"/>
-      <c r="Q68" s="144"/>
-      <c r="R68" s="143"/>
+      <c r="O68" s="147"/>
+      <c r="P68" s="147"/>
+      <c r="Q68" s="147"/>
+      <c r="R68" s="146"/>
       <c r="S68" s="15"/>
     </row>
     <row r="69" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12608,12 +12608,12 @@
         <f t="shared" si="11"/>
         <v>-5</v>
       </c>
-      <c r="O69" s="144" t="s">
+      <c r="O69" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="P69" s="144"/>
-      <c r="Q69" s="144"/>
-      <c r="R69" s="143" t="s">
+      <c r="P69" s="147"/>
+      <c r="Q69" s="147"/>
+      <c r="R69" s="146" t="s">
         <v>67</v>
       </c>
       <c r="S69" s="15"/>
@@ -12664,10 +12664,10 @@
         <f t="shared" si="11"/>
         <v>-20.268750000000001</v>
       </c>
-      <c r="O70" s="144"/>
-      <c r="P70" s="144"/>
-      <c r="Q70" s="144"/>
-      <c r="R70" s="143"/>
+      <c r="O70" s="147"/>
+      <c r="P70" s="147"/>
+      <c r="Q70" s="147"/>
+      <c r="R70" s="146"/>
       <c r="S70" s="15"/>
     </row>
     <row r="71" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12716,10 +12716,10 @@
         <f t="shared" si="11"/>
         <v>-4.5375000000000014</v>
       </c>
-      <c r="O71" s="144"/>
-      <c r="P71" s="144"/>
-      <c r="Q71" s="144"/>
-      <c r="R71" s="143"/>
+      <c r="O71" s="147"/>
+      <c r="P71" s="147"/>
+      <c r="Q71" s="147"/>
+      <c r="R71" s="146"/>
       <c r="S71" s="15"/>
     </row>
     <row r="72" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12768,16 +12768,16 @@
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="O72" s="147">
+      <c r="O72" s="148">
         <v>45411</v>
       </c>
-      <c r="P72" s="147">
+      <c r="P72" s="148">
         <v>45692</v>
       </c>
-      <c r="Q72" s="147">
+      <c r="Q72" s="148">
         <v>45813</v>
       </c>
-      <c r="R72" s="143"/>
+      <c r="R72" s="146"/>
       <c r="S72" s="15"/>
     </row>
     <row r="73" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12826,10 +12826,10 @@
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="O73" s="147"/>
-      <c r="P73" s="147"/>
-      <c r="Q73" s="147"/>
-      <c r="R73" s="143"/>
+      <c r="O73" s="148"/>
+      <c r="P73" s="148"/>
+      <c r="Q73" s="148"/>
+      <c r="R73" s="146"/>
       <c r="S73" s="15"/>
     </row>
     <row r="74" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12878,10 +12878,10 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O74" s="147"/>
-      <c r="P74" s="147"/>
-      <c r="Q74" s="147"/>
-      <c r="R74" s="143"/>
+      <c r="O74" s="148"/>
+      <c r="P74" s="148"/>
+      <c r="Q74" s="148"/>
+      <c r="R74" s="146"/>
       <c r="S74" s="15"/>
     </row>
     <row r="75" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12930,10 +12930,10 @@
         <f t="shared" si="11"/>
         <v>-5.125</v>
       </c>
-      <c r="O75" s="147"/>
-      <c r="P75" s="147"/>
-      <c r="Q75" s="147"/>
-      <c r="R75" s="143"/>
+      <c r="O75" s="148"/>
+      <c r="P75" s="148"/>
+      <c r="Q75" s="148"/>
+      <c r="R75" s="146"/>
       <c r="S75" s="15"/>
     </row>
     <row r="76" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12982,14 +12982,14 @@
         <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
-      <c r="O76" s="147">
+      <c r="O76" s="148">
         <v>45476</v>
       </c>
-      <c r="P76" s="147">
+      <c r="P76" s="148">
         <v>45503</v>
       </c>
       <c r="Q76" s="145"/>
-      <c r="R76" s="143"/>
+      <c r="R76" s="146"/>
       <c r="S76" s="15"/>
     </row>
     <row r="77" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13038,10 +13038,10 @@
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-      <c r="O77" s="147"/>
-      <c r="P77" s="147"/>
+      <c r="O77" s="148"/>
+      <c r="P77" s="148"/>
       <c r="Q77" s="145"/>
-      <c r="R77" s="143"/>
+      <c r="R77" s="146"/>
       <c r="S77" s="15"/>
     </row>
     <row r="78" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13090,10 +13090,10 @@
         <f t="shared" si="11"/>
         <v>-0.25</v>
       </c>
-      <c r="O78" s="147"/>
-      <c r="P78" s="147"/>
+      <c r="O78" s="148"/>
+      <c r="P78" s="148"/>
       <c r="Q78" s="145"/>
-      <c r="R78" s="143"/>
+      <c r="R78" s="146"/>
       <c r="S78" s="15"/>
     </row>
     <row r="79" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13149,7 +13149,7 @@
         <v>45674</v>
       </c>
       <c r="Q79" s="145"/>
-      <c r="R79" s="143"/>
+      <c r="R79" s="146"/>
       <c r="S79" s="15"/>
     </row>
     <row r="80" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13201,7 +13201,7 @@
       <c r="O80" s="145"/>
       <c r="P80" s="145"/>
       <c r="Q80" s="145"/>
-      <c r="R80" s="143"/>
+      <c r="R80" s="146"/>
       <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13253,7 +13253,7 @@
       <c r="O81" s="145"/>
       <c r="P81" s="145"/>
       <c r="Q81" s="145"/>
-      <c r="R81" s="143"/>
+      <c r="R81" s="146"/>
       <c r="S81" s="15"/>
     </row>
     <row r="82" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13305,7 +13305,7 @@
       <c r="O82" s="145"/>
       <c r="P82" s="145"/>
       <c r="Q82" s="145"/>
-      <c r="R82" s="143"/>
+      <c r="R82" s="146"/>
       <c r="S82" s="15"/>
     </row>
     <row r="83" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13357,7 +13357,7 @@
       <c r="O83" s="145"/>
       <c r="P83" s="145"/>
       <c r="Q83" s="145"/>
-      <c r="R83" s="143"/>
+      <c r="R83" s="146"/>
       <c r="S83" s="15"/>
     </row>
     <row r="84" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13409,7 +13409,7 @@
       <c r="O84" s="145"/>
       <c r="P84" s="145"/>
       <c r="Q84" s="145"/>
-      <c r="R84" s="143"/>
+      <c r="R84" s="146"/>
       <c r="S84" s="15"/>
     </row>
     <row r="85" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13461,7 +13461,7 @@
       <c r="O85" s="145"/>
       <c r="P85" s="145"/>
       <c r="Q85" s="145"/>
-      <c r="R85" s="143"/>
+      <c r="R85" s="146"/>
       <c r="S85" s="15"/>
     </row>
     <row r="86" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13512,7 +13512,7 @@
       <c r="O86" s="145"/>
       <c r="P86" s="145"/>
       <c r="Q86" s="145"/>
-      <c r="R86" s="143"/>
+      <c r="R86" s="146"/>
       <c r="S86" s="15" t="s">
         <v>88</v>
       </c>
@@ -13566,7 +13566,7 @@
       <c r="O87" s="145"/>
       <c r="P87" s="145"/>
       <c r="Q87" s="145"/>
-      <c r="R87" s="143"/>
+      <c r="R87" s="146"/>
       <c r="S87" s="15"/>
     </row>
     <row r="88" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13618,7 +13618,7 @@
       <c r="O88" s="145"/>
       <c r="P88" s="145"/>
       <c r="Q88" s="145"/>
-      <c r="R88" s="143"/>
+      <c r="R88" s="146"/>
       <c r="S88" s="15"/>
     </row>
     <row r="89" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13670,7 +13670,7 @@
       <c r="O89" s="145"/>
       <c r="P89" s="145"/>
       <c r="Q89" s="145"/>
-      <c r="R89" s="143"/>
+      <c r="R89" s="146"/>
       <c r="S89" s="15"/>
     </row>
     <row r="90" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13722,7 +13722,7 @@
       <c r="O90" s="145"/>
       <c r="P90" s="145"/>
       <c r="Q90" s="145"/>
-      <c r="R90" s="143"/>
+      <c r="R90" s="146"/>
       <c r="S90" s="15"/>
     </row>
     <row r="91" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13778,7 +13778,7 @@
         <v>45674</v>
       </c>
       <c r="Q91" s="145"/>
-      <c r="R91" s="143"/>
+      <c r="R91" s="146"/>
       <c r="S91" s="15"/>
     </row>
     <row r="92" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13829,7 +13829,7 @@
       <c r="O92" s="145"/>
       <c r="P92" s="145"/>
       <c r="Q92" s="145"/>
-      <c r="R92" s="143"/>
+      <c r="R92" s="146"/>
       <c r="S92" s="15"/>
     </row>
     <row r="93" spans="1:19" s="27" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13881,7 +13881,7 @@
       <c r="O93" s="145"/>
       <c r="P93" s="145"/>
       <c r="Q93" s="145"/>
-      <c r="R93" s="143"/>
+      <c r="R93" s="146"/>
       <c r="S93" s="15"/>
     </row>
     <row r="94" spans="1:19" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13938,7 +13938,7 @@
         <v>45684</v>
       </c>
       <c r="Q94" s="145"/>
-      <c r="R94" s="143" t="s">
+      <c r="R94" s="146" t="s">
         <v>94</v>
       </c>
       <c r="S94" s="16"/>
@@ -13992,7 +13992,7 @@
       <c r="O95" s="145"/>
       <c r="P95" s="145"/>
       <c r="Q95" s="145"/>
-      <c r="R95" s="143"/>
+      <c r="R95" s="146"/>
       <c r="S95" s="16"/>
     </row>
     <row r="96" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14045,7 +14045,7 @@
       <c r="O96" s="145"/>
       <c r="P96" s="145"/>
       <c r="Q96" s="145"/>
-      <c r="R96" s="143"/>
+      <c r="R96" s="146"/>
       <c r="S96" s="16"/>
     </row>
     <row r="97" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14098,7 +14098,7 @@
       </c>
       <c r="P97" s="145"/>
       <c r="Q97" s="145"/>
-      <c r="R97" s="143"/>
+      <c r="R97" s="146"/>
       <c r="S97" s="16"/>
     </row>
     <row r="98" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14149,7 +14149,7 @@
       <c r="O98" s="145"/>
       <c r="P98" s="145"/>
       <c r="Q98" s="145"/>
-      <c r="R98" s="143"/>
+      <c r="R98" s="146"/>
       <c r="S98" s="16"/>
     </row>
     <row r="99" spans="1:19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14200,7 +14200,7 @@
       <c r="O99" s="145"/>
       <c r="P99" s="145"/>
       <c r="Q99" s="145"/>
-      <c r="R99" s="143"/>
+      <c r="R99" s="146"/>
       <c r="S99" s="16"/>
     </row>
     <row r="100" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14251,7 +14251,7 @@
       <c r="O100" s="145"/>
       <c r="P100" s="145"/>
       <c r="Q100" s="145"/>
-      <c r="R100" s="143"/>
+      <c r="R100" s="146"/>
       <c r="S100" s="15"/>
     </row>
     <row r="101" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14306,7 +14306,7 @@
       <c r="Q101" s="145" t="s">
         <v>97</v>
       </c>
-      <c r="R101" s="143"/>
+      <c r="R101" s="146"/>
       <c r="S101" s="15"/>
     </row>
     <row r="102" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14357,7 +14357,7 @@
       <c r="O102" s="145"/>
       <c r="P102" s="145"/>
       <c r="Q102" s="145"/>
-      <c r="R102" s="143"/>
+      <c r="R102" s="146"/>
       <c r="S102" s="15"/>
     </row>
     <row r="103" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14408,7 +14408,7 @@
       <c r="O103" s="145"/>
       <c r="P103" s="145"/>
       <c r="Q103" s="145"/>
-      <c r="R103" s="143"/>
+      <c r="R103" s="146"/>
       <c r="S103" s="15"/>
     </row>
     <row r="104" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14464,7 +14464,7 @@
         <v>45667</v>
       </c>
       <c r="Q104" s="145"/>
-      <c r="R104" s="143" t="s">
+      <c r="R104" s="146" t="s">
         <v>100</v>
       </c>
       <c r="S104" s="15"/>
@@ -14518,7 +14518,7 @@
       <c r="O105" s="145"/>
       <c r="P105" s="145"/>
       <c r="Q105" s="145"/>
-      <c r="R105" s="143"/>
+      <c r="R105" s="146"/>
       <c r="S105" s="15"/>
     </row>
     <row r="106" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14570,7 +14570,7 @@
       <c r="O106" s="145"/>
       <c r="P106" s="145"/>
       <c r="Q106" s="145"/>
-      <c r="R106" s="143"/>
+      <c r="R106" s="146"/>
       <c r="S106" s="15"/>
     </row>
     <row r="107" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14622,7 +14622,7 @@
       <c r="O107" s="145"/>
       <c r="P107" s="145"/>
       <c r="Q107" s="145"/>
-      <c r="R107" s="143"/>
+      <c r="R107" s="146"/>
       <c r="S107" s="15"/>
     </row>
     <row r="108" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14678,7 +14678,7 @@
         <v>45597</v>
       </c>
       <c r="Q108" s="145"/>
-      <c r="R108" s="143" t="s">
+      <c r="R108" s="146" t="s">
         <v>107</v>
       </c>
       <c r="S108" s="15"/>
@@ -14732,7 +14732,7 @@
       <c r="O109" s="145"/>
       <c r="P109" s="145"/>
       <c r="Q109" s="145"/>
-      <c r="R109" s="143"/>
+      <c r="R109" s="146"/>
       <c r="S109" s="15"/>
     </row>
     <row r="110" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14781,14 +14781,14 @@
         <f t="shared" si="14"/>
         <v>17</v>
       </c>
-      <c r="O110" s="147">
+      <c r="O110" s="148">
         <v>45017</v>
       </c>
-      <c r="P110" s="147">
+      <c r="P110" s="148">
         <v>45137</v>
       </c>
       <c r="Q110" s="145"/>
-      <c r="R110" s="143" t="s">
+      <c r="R110" s="146" t="s">
         <v>110</v>
       </c>
       <c r="S110" s="15"/>
@@ -14839,10 +14839,10 @@
         <f t="shared" si="14"/>
         <v>2</v>
       </c>
-      <c r="O111" s="147"/>
-      <c r="P111" s="147"/>
+      <c r="O111" s="148"/>
+      <c r="P111" s="148"/>
       <c r="Q111" s="145"/>
-      <c r="R111" s="143"/>
+      <c r="R111" s="146"/>
       <c r="S111" s="15"/>
     </row>
     <row r="112" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14891,10 +14891,10 @@
         <f t="shared" si="14"/>
         <v>30.875</v>
       </c>
-      <c r="O112" s="147"/>
-      <c r="P112" s="147"/>
+      <c r="O112" s="148"/>
+      <c r="P112" s="148"/>
       <c r="Q112" s="145"/>
-      <c r="R112" s="143"/>
+      <c r="R112" s="146"/>
       <c r="S112" s="15"/>
     </row>
     <row r="113" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14952,7 +14952,7 @@
       <c r="Q113" s="145">
         <v>45656</v>
       </c>
-      <c r="R113" s="143"/>
+      <c r="R113" s="146"/>
       <c r="S113" s="15"/>
     </row>
     <row r="114" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15004,7 +15004,7 @@
       <c r="O114" s="149"/>
       <c r="P114" s="149"/>
       <c r="Q114" s="145"/>
-      <c r="R114" s="143"/>
+      <c r="R114" s="146"/>
       <c r="S114" s="15"/>
     </row>
     <row r="115" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15056,7 +15056,7 @@
       <c r="O115" s="149"/>
       <c r="P115" s="149"/>
       <c r="Q115" s="145"/>
-      <c r="R115" s="143"/>
+      <c r="R115" s="146"/>
       <c r="S115" s="15"/>
     </row>
     <row r="116" spans="1:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17645,10 +17645,10 @@
       <c r="K172" s="16">
         <v>73</v>
       </c>
-      <c r="O172" s="151">
+      <c r="O172" s="143">
         <v>45486</v>
       </c>
-      <c r="P172" s="151">
+      <c r="P172" s="143">
         <v>45868</v>
       </c>
       <c r="R172" s="2"/>
@@ -17688,8 +17688,8 @@
       <c r="K173" s="16">
         <v>12</v>
       </c>
-      <c r="O173" s="152"/>
-      <c r="P173" s="152"/>
+      <c r="O173" s="144"/>
+      <c r="P173" s="144"/>
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
     </row>
@@ -18807,16 +18807,89 @@
   </sheetData>
   <autoFilter ref="A1:W198" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="117">
-    <mergeCell ref="O172:O173"/>
-    <mergeCell ref="P172:P173"/>
-    <mergeCell ref="Q184:Q185"/>
-    <mergeCell ref="Q186:Q187"/>
-    <mergeCell ref="Q188:Q189"/>
-    <mergeCell ref="Q191:Q192"/>
-    <mergeCell ref="Q193:Q194"/>
-    <mergeCell ref="O197:O198"/>
-    <mergeCell ref="P197:P198"/>
-    <mergeCell ref="Q197:Q198"/>
+    <mergeCell ref="R40:R44"/>
+    <mergeCell ref="O29:O38"/>
+    <mergeCell ref="P29:P38"/>
+    <mergeCell ref="Q29:Q38"/>
+    <mergeCell ref="O40:O44"/>
+    <mergeCell ref="P40:P44"/>
+    <mergeCell ref="Q40:Q44"/>
+    <mergeCell ref="R110:R112"/>
+    <mergeCell ref="Q108:Q109"/>
+    <mergeCell ref="O104:O107"/>
+    <mergeCell ref="P101:P103"/>
+    <mergeCell ref="P104:P107"/>
+    <mergeCell ref="O61:O65"/>
+    <mergeCell ref="P61:P65"/>
+    <mergeCell ref="O94:O96"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="P69:P71"/>
+    <mergeCell ref="P72:P75"/>
+    <mergeCell ref="P94:P96"/>
+    <mergeCell ref="O79:O90"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="R108:R109"/>
+    <mergeCell ref="Q61:Q65"/>
+    <mergeCell ref="Q72:Q75"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="R101:R103"/>
+    <mergeCell ref="R94:R96"/>
+    <mergeCell ref="R104:R107"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="Q79:Q90"/>
+    <mergeCell ref="R61:R65"/>
+    <mergeCell ref="R66:R68"/>
+    <mergeCell ref="R69:R71"/>
+    <mergeCell ref="R72:R75"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="Q55:Q60"/>
+    <mergeCell ref="O19:O26"/>
+    <mergeCell ref="P19:P26"/>
+    <mergeCell ref="Q45:Q48"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="R55:R60"/>
+    <mergeCell ref="Q19:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="O45:O48"/>
+    <mergeCell ref="P45:P48"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="P52:P54"/>
+    <mergeCell ref="R45:R48"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="O55:O60"/>
+    <mergeCell ref="P49:P51"/>
+    <mergeCell ref="P55:P60"/>
+    <mergeCell ref="R29:R38"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="R19:R26"/>
+    <mergeCell ref="O113:O115"/>
+    <mergeCell ref="P113:P115"/>
+    <mergeCell ref="Q113:Q115"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="O101:O103"/>
+    <mergeCell ref="Q94:Q96"/>
+    <mergeCell ref="Q104:Q107"/>
+    <mergeCell ref="Q101:Q103"/>
+    <mergeCell ref="Q69:Q71"/>
+    <mergeCell ref="Q66:Q68"/>
     <mergeCell ref="R113:R115"/>
     <mergeCell ref="R49:R51"/>
     <mergeCell ref="Q49:Q51"/>
@@ -18841,89 +18914,16 @@
     <mergeCell ref="O108:O109"/>
     <mergeCell ref="P108:P109"/>
     <mergeCell ref="Q110:Q112"/>
-    <mergeCell ref="O113:O115"/>
-    <mergeCell ref="P113:P115"/>
-    <mergeCell ref="Q113:Q115"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="O101:O103"/>
-    <mergeCell ref="Q94:Q96"/>
-    <mergeCell ref="Q104:Q107"/>
-    <mergeCell ref="Q101:Q103"/>
-    <mergeCell ref="Q69:Q71"/>
-    <mergeCell ref="Q66:Q68"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="P14:P18"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="R19:R26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="Q55:Q60"/>
-    <mergeCell ref="O19:O26"/>
-    <mergeCell ref="P19:P26"/>
-    <mergeCell ref="Q45:Q48"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="R55:R60"/>
-    <mergeCell ref="Q19:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="O45:O48"/>
-    <mergeCell ref="P45:P48"/>
-    <mergeCell ref="Q52:Q54"/>
-    <mergeCell ref="O52:O54"/>
-    <mergeCell ref="P52:P54"/>
-    <mergeCell ref="R45:R48"/>
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="O49:O51"/>
-    <mergeCell ref="O55:O60"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="P55:P60"/>
-    <mergeCell ref="R29:R38"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="R101:R103"/>
-    <mergeCell ref="R94:R96"/>
-    <mergeCell ref="R104:R107"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="Q79:Q90"/>
-    <mergeCell ref="R61:R65"/>
-    <mergeCell ref="R66:R68"/>
-    <mergeCell ref="R69:R71"/>
-    <mergeCell ref="R72:R75"/>
-    <mergeCell ref="R40:R44"/>
-    <mergeCell ref="O29:O38"/>
-    <mergeCell ref="P29:P38"/>
-    <mergeCell ref="Q29:Q38"/>
-    <mergeCell ref="O40:O44"/>
-    <mergeCell ref="P40:P44"/>
-    <mergeCell ref="Q40:Q44"/>
-    <mergeCell ref="R110:R112"/>
-    <mergeCell ref="Q108:Q109"/>
-    <mergeCell ref="O104:O107"/>
-    <mergeCell ref="P101:P103"/>
-    <mergeCell ref="P104:P107"/>
-    <mergeCell ref="O61:O65"/>
-    <mergeCell ref="P61:P65"/>
-    <mergeCell ref="O94:O96"/>
-    <mergeCell ref="O69:O71"/>
-    <mergeCell ref="P69:P71"/>
-    <mergeCell ref="P72:P75"/>
-    <mergeCell ref="P94:P96"/>
-    <mergeCell ref="O79:O90"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="R108:R109"/>
-    <mergeCell ref="Q61:Q65"/>
-    <mergeCell ref="Q72:Q75"/>
+    <mergeCell ref="O172:O173"/>
+    <mergeCell ref="P172:P173"/>
+    <mergeCell ref="Q184:Q185"/>
+    <mergeCell ref="Q186:Q187"/>
+    <mergeCell ref="Q188:Q189"/>
+    <mergeCell ref="Q191:Q192"/>
+    <mergeCell ref="Q193:Q194"/>
+    <mergeCell ref="O197:O198"/>
+    <mergeCell ref="P197:P198"/>
+    <mergeCell ref="Q197:Q198"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20380,8 +20380,8 @@
   <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M157" sqref="M157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -20790,7 +20790,7 @@
         <v>25</v>
       </c>
       <c r="T6" s="22"/>
-      <c r="U6" s="143"/>
+      <c r="U6" s="146"/>
       <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="143"/>
+      <c r="U7" s="146"/>
       <c r="V7" s="16"/>
     </row>
     <row r="8" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20912,7 +20912,7 @@
         <v>25</v>
       </c>
       <c r="T8" s="22"/>
-      <c r="U8" s="143"/>
+      <c r="U8" s="146"/>
       <c r="V8" s="16"/>
     </row>
     <row r="9" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -20974,7 +20974,7 @@
         <v>46814</v>
       </c>
       <c r="T9" s="22"/>
-      <c r="U9" s="143"/>
+      <c r="U9" s="146"/>
       <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21036,7 +21036,7 @@
         <v>46814</v>
       </c>
       <c r="T10" s="22"/>
-      <c r="U10" s="143"/>
+      <c r="U10" s="146"/>
       <c r="V10" s="16"/>
     </row>
     <row r="11" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21098,7 +21098,7 @@
         <v>46814</v>
       </c>
       <c r="T11" s="22"/>
-      <c r="U11" s="143"/>
+      <c r="U11" s="146"/>
       <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21160,7 +21160,7 @@
         <v>46814</v>
       </c>
       <c r="T12" s="22"/>
-      <c r="U12" s="143"/>
+      <c r="U12" s="146"/>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21222,7 +21222,7 @@
         <v>46814</v>
       </c>
       <c r="T13" s="22"/>
-      <c r="U13" s="143"/>
+      <c r="U13" s="146"/>
       <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21284,7 +21284,7 @@
         <v>46814</v>
       </c>
       <c r="T14" s="22"/>
-      <c r="U14" s="143"/>
+      <c r="U14" s="146"/>
       <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21346,7 +21346,7 @@
         <v>46814</v>
       </c>
       <c r="T15" s="22"/>
-      <c r="U15" s="143"/>
+      <c r="U15" s="146"/>
       <c r="V15" s="16" t="s">
         <v>218</v>
       </c>
@@ -21401,7 +21401,7 @@
         <v>46814</v>
       </c>
       <c r="T16" s="22"/>
-      <c r="U16" s="143"/>
+      <c r="U16" s="146"/>
       <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21463,7 +21463,7 @@
         <v>46814</v>
       </c>
       <c r="T17" s="22"/>
-      <c r="U17" s="143"/>
+      <c r="U17" s="146"/>
       <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21525,7 +21525,7 @@
         <v>46814</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="143"/>
+      <c r="U18" s="146"/>
       <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21649,7 +21649,7 @@
         <v>46814</v>
       </c>
       <c r="T20" s="22"/>
-      <c r="U20" s="143"/>
+      <c r="U20" s="146"/>
       <c r="V20" s="16"/>
     </row>
     <row r="21" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21711,7 +21711,7 @@
         <v>46814</v>
       </c>
       <c r="T21" s="22"/>
-      <c r="U21" s="143"/>
+      <c r="U21" s="146"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21773,7 +21773,7 @@
         <v>46814</v>
       </c>
       <c r="T22" s="22"/>
-      <c r="U22" s="143"/>
+      <c r="U22" s="146"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21835,7 +21835,7 @@
         <v>46814</v>
       </c>
       <c r="T23" s="22"/>
-      <c r="U23" s="143"/>
+      <c r="U23" s="146"/>
       <c r="V23" s="16"/>
     </row>
     <row r="24" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21897,7 +21897,7 @@
         <v>46814</v>
       </c>
       <c r="T24" s="22"/>
-      <c r="U24" s="143"/>
+      <c r="U24" s="146"/>
       <c r="V24" s="16"/>
     </row>
     <row r="25" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -21959,7 +21959,7 @@
         <v>45626</v>
       </c>
       <c r="T25" s="20"/>
-      <c r="U25" s="143"/>
+      <c r="U25" s="146"/>
       <c r="V25" s="16"/>
     </row>
     <row r="26" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22021,7 +22021,7 @@
         <v>45626</v>
       </c>
       <c r="T26" s="20"/>
-      <c r="U26" s="143"/>
+      <c r="U26" s="146"/>
       <c r="V26" s="16"/>
     </row>
     <row r="27" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22085,7 +22085,7 @@
       <c r="T27" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="U27" s="143"/>
+      <c r="U27" s="146"/>
       <c r="V27" s="16"/>
     </row>
     <row r="28" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22148,7 +22148,7 @@
         <v>45657</v>
       </c>
       <c r="T28" s="22"/>
-      <c r="U28" s="143"/>
+      <c r="U28" s="146"/>
       <c r="V28" s="16"/>
     </row>
     <row r="29" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22212,7 +22212,7 @@
       <c r="T29" s="20">
         <v>45650</v>
       </c>
-      <c r="U29" s="143"/>
+      <c r="U29" s="146"/>
       <c r="V29" s="16"/>
     </row>
     <row r="30" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22274,7 +22274,7 @@
         <v>45523</v>
       </c>
       <c r="T30" s="20"/>
-      <c r="U30" s="143"/>
+      <c r="U30" s="146"/>
       <c r="V30" s="16"/>
     </row>
     <row r="31" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22336,7 +22336,7 @@
         <v>45523</v>
       </c>
       <c r="T31" s="20"/>
-      <c r="U31" s="143"/>
+      <c r="U31" s="146"/>
       <c r="V31" s="16"/>
     </row>
     <row r="32" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22400,7 +22400,7 @@
         <v>45523</v>
       </c>
       <c r="T32" s="20"/>
-      <c r="U32" s="143"/>
+      <c r="U32" s="146"/>
       <c r="V32" s="16"/>
     </row>
     <row r="33" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22466,7 +22466,7 @@
         <v>45523</v>
       </c>
       <c r="T33" s="20"/>
-      <c r="U33" s="143"/>
+      <c r="U33" s="146"/>
       <c r="V33" s="16"/>
     </row>
     <row r="34" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22533,7 +22533,7 @@
       <c r="T34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U34" s="143" t="s">
+      <c r="U34" s="146" t="s">
         <v>67</v>
       </c>
       <c r="V34" s="16"/>
@@ -22599,7 +22599,7 @@
         <v>45348</v>
       </c>
       <c r="T35" s="20"/>
-      <c r="U35" s="143"/>
+      <c r="U35" s="146"/>
       <c r="V35" s="16"/>
     </row>
     <row r="36" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22665,7 +22665,7 @@
         <v>45348</v>
       </c>
       <c r="T36" s="20"/>
-      <c r="U36" s="143"/>
+      <c r="U36" s="146"/>
       <c r="V36" s="16"/>
     </row>
     <row r="37" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22727,7 +22727,7 @@
         <v>45348</v>
       </c>
       <c r="T37" s="20"/>
-      <c r="U37" s="143"/>
+      <c r="U37" s="146"/>
       <c r="V37" s="16"/>
     </row>
     <row r="38" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22789,7 +22789,7 @@
         <v>45348</v>
       </c>
       <c r="T38" s="20"/>
-      <c r="U38" s="143"/>
+      <c r="U38" s="146"/>
       <c r="V38" s="16"/>
     </row>
     <row r="39" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22851,7 +22851,7 @@
         <v>45737</v>
       </c>
       <c r="T39" s="20"/>
-      <c r="U39" s="143"/>
+      <c r="U39" s="146"/>
       <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -22913,7 +22913,7 @@
         <v>45737</v>
       </c>
       <c r="T40" s="20"/>
-      <c r="U40" s="143"/>
+      <c r="U40" s="146"/>
       <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23039,7 +23039,7 @@
       <c r="T42" s="20">
         <v>45813</v>
       </c>
-      <c r="U42" s="143"/>
+      <c r="U42" s="146"/>
       <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23097,7 +23097,7 @@
         <v>45692</v>
       </c>
       <c r="T43" s="56"/>
-      <c r="U43" s="143"/>
+      <c r="U43" s="146"/>
       <c r="V43" s="16"/>
     </row>
     <row r="44" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -23161,7 +23161,7 @@
         <v>45692</v>
       </c>
       <c r="T44" s="56"/>
-      <c r="U44" s="143"/>
+      <c r="U44" s="146"/>
       <c r="V44" s="16"/>
     </row>
     <row r="45" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23227,7 +23227,7 @@
       <c r="T45" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="U45" s="143" t="s">
+      <c r="U45" s="146" t="s">
         <v>219</v>
       </c>
       <c r="V45" s="16"/>
@@ -23291,7 +23291,7 @@
         <v>45674</v>
       </c>
       <c r="T46" s="22"/>
-      <c r="U46" s="143"/>
+      <c r="U46" s="146"/>
       <c r="V46" s="16"/>
     </row>
     <row r="47" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23353,7 +23353,7 @@
         <v>45674</v>
       </c>
       <c r="T47" s="22"/>
-      <c r="U47" s="143"/>
+      <c r="U47" s="146"/>
       <c r="V47" s="16"/>
     </row>
     <row r="48" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23415,7 +23415,7 @@
         <v>45674</v>
       </c>
       <c r="T48" s="22"/>
-      <c r="U48" s="143"/>
+      <c r="U48" s="146"/>
       <c r="V48" s="16"/>
     </row>
     <row r="49" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23477,7 +23477,7 @@
         <v>45674</v>
       </c>
       <c r="T49" s="22"/>
-      <c r="U49" s="143"/>
+      <c r="U49" s="146"/>
       <c r="V49" s="16"/>
     </row>
     <row r="50" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23539,7 +23539,7 @@
         <v>45674</v>
       </c>
       <c r="T50" s="22"/>
-      <c r="U50" s="143"/>
+      <c r="U50" s="146"/>
       <c r="V50" s="16"/>
     </row>
     <row r="51" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23601,7 +23601,7 @@
         <v>45674</v>
       </c>
       <c r="T51" s="22"/>
-      <c r="U51" s="143"/>
+      <c r="U51" s="146"/>
       <c r="V51" s="16"/>
     </row>
     <row r="52" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23663,7 +23663,7 @@
         <v>45674</v>
       </c>
       <c r="T52" s="22"/>
-      <c r="U52" s="143"/>
+      <c r="U52" s="146"/>
       <c r="V52" s="16"/>
     </row>
     <row r="53" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23725,7 +23725,7 @@
         <v>45674</v>
       </c>
       <c r="T53" s="22"/>
-      <c r="U53" s="143"/>
+      <c r="U53" s="146"/>
       <c r="V53" s="16"/>
     </row>
     <row r="54" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23787,7 +23787,7 @@
         <v>45674</v>
       </c>
       <c r="T54" s="22"/>
-      <c r="U54" s="143"/>
+      <c r="U54" s="146"/>
       <c r="V54" s="16"/>
     </row>
     <row r="55" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23849,7 +23849,7 @@
         <v>45674</v>
       </c>
       <c r="T55" s="22"/>
-      <c r="U55" s="143"/>
+      <c r="U55" s="146"/>
       <c r="V55" s="16"/>
     </row>
     <row r="56" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.25">
@@ -23911,7 +23911,7 @@
         <v>45684</v>
       </c>
       <c r="T56" s="22"/>
-      <c r="U56" s="143" t="s">
+      <c r="U56" s="146" t="s">
         <v>94</v>
       </c>
       <c r="V56" s="16"/>
@@ -23975,7 +23975,7 @@
         <v>45684</v>
       </c>
       <c r="T57" s="22"/>
-      <c r="U57" s="143"/>
+      <c r="U57" s="146"/>
       <c r="V57" s="16"/>
     </row>
     <row r="58" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24037,7 +24037,7 @@
         <v>45684</v>
       </c>
       <c r="T58" s="22"/>
-      <c r="U58" s="143"/>
+      <c r="U58" s="146"/>
       <c r="V58" s="16"/>
     </row>
     <row r="59" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24100,7 +24100,7 @@
         <v>45722</v>
       </c>
       <c r="T59" s="22"/>
-      <c r="U59" s="143"/>
+      <c r="U59" s="146"/>
       <c r="V59" s="16"/>
     </row>
     <row r="60" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24161,7 +24161,7 @@
       </c>
       <c r="S60" s="22"/>
       <c r="T60" s="22"/>
-      <c r="U60" s="143"/>
+      <c r="U60" s="146"/>
       <c r="V60" s="16"/>
     </row>
     <row r="61" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24222,7 +24222,7 @@
       </c>
       <c r="S61" s="22"/>
       <c r="T61" s="22"/>
-      <c r="U61" s="143"/>
+      <c r="U61" s="146"/>
       <c r="V61" s="16"/>
     </row>
     <row r="62" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24282,7 +24282,7 @@
       <c r="S62" s="22">
         <v>45488</v>
       </c>
-      <c r="U62" s="143"/>
+      <c r="U62" s="146"/>
       <c r="V62" s="16"/>
     </row>
     <row r="63" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24342,7 +24342,7 @@
       <c r="S63" s="22">
         <v>45568</v>
       </c>
-      <c r="U63" s="143"/>
+      <c r="U63" s="146"/>
       <c r="V63" s="16"/>
     </row>
     <row r="64" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24400,7 +24400,7 @@
         <v>45488</v>
       </c>
       <c r="S64" s="22"/>
-      <c r="U64" s="143"/>
+      <c r="U64" s="146"/>
       <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24460,7 +24460,7 @@
       <c r="S65" s="22">
         <v>45568</v>
       </c>
-      <c r="U65" s="143" t="s">
+      <c r="U65" s="146" t="s">
         <v>110</v>
       </c>
       <c r="V65" s="16"/>
@@ -24524,7 +24524,7 @@
         <v>45737</v>
       </c>
       <c r="T66" s="22"/>
-      <c r="U66" s="143"/>
+      <c r="U66" s="146"/>
       <c r="V66" s="16"/>
     </row>
     <row r="67" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24586,7 +24586,7 @@
         <v>45737</v>
       </c>
       <c r="T67" s="22"/>
-      <c r="U67" s="143"/>
+      <c r="U67" s="146"/>
       <c r="V67" s="16"/>
     </row>
     <row r="68" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24648,7 +24648,7 @@
         <v>45737</v>
       </c>
       <c r="T68" s="22"/>
-      <c r="U68" s="143"/>
+      <c r="U68" s="146"/>
       <c r="V68" s="16"/>
     </row>
     <row r="69" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -24710,7 +24710,7 @@
         <v>45747</v>
       </c>
       <c r="T69" s="22"/>
-      <c r="U69" s="143"/>
+      <c r="U69" s="146"/>
       <c r="V69" s="16"/>
     </row>
     <row r="70" spans="1:22" ht="27" x14ac:dyDescent="0.25">
@@ -81611,13 +81611,12 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="25">
-    <mergeCell ref="R110:R112"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="R94:R97"/>
-    <mergeCell ref="R98:R100"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="R105:R106"/>
-    <mergeCell ref="R107:R109"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R10:R13"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="R19:R26"/>
     <mergeCell ref="R88:R90"/>
     <mergeCell ref="R29:R38"/>
     <mergeCell ref="R40:R44"/>
@@ -81630,12 +81629,13 @@
     <mergeCell ref="R69:R71"/>
     <mergeCell ref="R72:R75"/>
     <mergeCell ref="R76:R87"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="R19:R26"/>
+    <mergeCell ref="R110:R112"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="R94:R97"/>
+    <mergeCell ref="R98:R100"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="R105:R106"/>
+    <mergeCell ref="R107:R109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
